--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -648,10 +648,10 @@
     <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1127,7 +1127,9 @@
       <c r="G6" s="12">
         <v>30.0</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="13">
+        <v>28.0</v>
+      </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
@@ -1148,7 +1150,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
@@ -1170,7 +1172,9 @@
       <c r="G7" s="12">
         <v>25.0</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13">
+        <v>24.0</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
@@ -1191,7 +1195,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
@@ -1213,7 +1217,9 @@
       <c r="G8" s="12">
         <v>42.0</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="13">
+        <v>28.0</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
@@ -1234,7 +1240,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -1256,7 +1262,9 @@
       <c r="G9" s="12">
         <v>27.0</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="13">
+        <v>34.0</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
@@ -1277,7 +1285,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
@@ -1297,7 +1305,9 @@
       <c r="G10" s="12">
         <v>39.0</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="13">
+        <v>30.0</v>
+      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
@@ -1318,7 +1328,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1383,9 @@
       <c r="G12" s="12">
         <v>19.0</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="13">
+        <v>29.0</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
@@ -1394,7 +1406,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
@@ -1412,7 +1424,9 @@
         <v>26.0</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13">
+        <v>32.0</v>
+      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14"/>
       <c r="K13" s="15"/>
@@ -1433,7 +1447,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -1535,7 +1549,9 @@
       <c r="G16" s="12">
         <v>36.0</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="13">
+        <v>9.0</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
@@ -1556,7 +1572,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -1578,7 +1594,9 @@
       <c r="G17" s="12">
         <v>34.0</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="13">
+        <v>33.0</v>
+      </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
@@ -1599,7 +1617,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
@@ -1621,7 +1639,9 @@
       <c r="G18" s="12">
         <v>34.0</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="13">
+        <v>34.0</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
@@ -1642,7 +1662,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
@@ -1662,7 +1682,9 @@
       <c r="G19" s="12">
         <v>30.0</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="13">
+        <v>27.0</v>
+      </c>
       <c r="I19" s="15"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
@@ -1683,7 +1705,7 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -1703,7 +1725,9 @@
       <c r="G20" s="12">
         <v>39.0</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="13">
+        <v>31.0</v>
+      </c>
       <c r="I20" s="15"/>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
@@ -1724,7 +1748,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
@@ -1744,7 +1768,9 @@
       <c r="G21" s="12">
         <v>35.0</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="13">
+        <v>35.0</v>
+      </c>
       <c r="I21" s="15"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
@@ -1765,7 +1791,7 @@
       <c r="Z21" s="16"/>
       <c r="AA21" s="14">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
@@ -1787,7 +1813,9 @@
       <c r="G22" s="12">
         <v>37.0</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="13">
+        <v>35.0</v>
+      </c>
       <c r="I22" s="15"/>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
@@ -1808,7 +1836,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -1856,7 +1884,9 @@
       <c r="G24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -1896,7 +1926,9 @@
       <c r="G25" s="24">
         <v>42.0</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="24">
+        <v>35.0</v>
+      </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -2116,7 +2148,9 @@
       <c r="F5" s="13">
         <v>33.0</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="12">
+        <v>28.0</v>
+      </c>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
@@ -2138,7 +2172,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -2155,7 +2189,9 @@
         <v>33.0</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="12">
+        <v>29.0</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
       <c r="J6" s="14"/>
@@ -2177,7 +2213,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -2194,7 +2230,9 @@
       <c r="F7" s="13">
         <v>31.0</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="12">
+        <v>29.0</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="14"/>
@@ -2216,7 +2254,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -2235,7 +2273,9 @@
       <c r="F8" s="13">
         <v>31.0</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="12">
+        <v>31.0</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
@@ -2257,7 +2297,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -2276,7 +2316,9 @@
       <c r="F9" s="13">
         <v>30.0</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="12">
+        <v>33.0</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
@@ -2298,7 +2340,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -2315,7 +2357,9 @@
         <v>33.0</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="12">
+        <v>38.0</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
@@ -2337,7 +2381,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -2352,7 +2396,9 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="12">
+        <v>31.0</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="14"/>
@@ -2374,7 +2420,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2393,7 +2439,9 @@
       <c r="F12" s="13">
         <v>38.0</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="12">
+        <v>34.0</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
@@ -2415,7 +2463,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -2434,7 +2482,9 @@
       <c r="F13" s="13">
         <v>27.0</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="12">
+        <v>35.0</v>
+      </c>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="14"/>
@@ -2456,7 +2506,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
@@ -2549,7 +2599,9 @@
       <c r="F16" s="13">
         <v>27.0</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="12">
+        <v>26.0</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
@@ -2571,7 +2623,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2588,7 +2640,9 @@
       <c r="F17" s="13">
         <v>34.0</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="12">
+        <v>29.0</v>
+      </c>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
@@ -2610,7 +2664,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -2625,7 +2679,9 @@
       <c r="F18" s="12">
         <v>27.0</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="12">
+        <v>26.0</v>
+      </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -2647,7 +2703,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -2692,7 +2748,9 @@
       <c r="F20" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -2730,7 +2788,9 @@
       <c r="F21" s="24">
         <v>38.0</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="24">
+        <v>38.0</v>
+      </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -2787,10 +2847,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="31">
+        <v>14.0</v>
+      </c>
+      <c r="C2" s="32">
         <v>13.0</v>
-      </c>
-      <c r="C2" s="32">
-        <v>12.0</v>
       </c>
     </row>
     <row r="3">
@@ -2809,7 +2869,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="31">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C4" s="32">
         <v>18.0</v>
@@ -2823,7 +2883,7 @@
         <v>15.0</v>
       </c>
       <c r="C5" s="32">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
@@ -2831,10 +2891,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="32">
         <v>-1.0</v>
-      </c>
-      <c r="C6" s="32">
-        <v>-2.0</v>
       </c>
     </row>
     <row r="7">
@@ -2922,7 +2982,7 @@
         <v>14.0</v>
       </c>
       <c r="C14" s="32">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
@@ -2930,10 +2990,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="31">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="C15" s="32">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="16">
@@ -2952,7 +3012,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="31">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C17" s="32">
         <v>7.0</v>
@@ -2963,7 +3023,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="31">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C18" s="32">
         <v>7.0</v>
@@ -2985,10 +3045,10 @@
         <v>101</v>
       </c>
       <c r="B20" s="31">
+        <v>21.0</v>
+      </c>
+      <c r="C20" s="32">
         <v>20.0</v>
-      </c>
-      <c r="C20" s="32">
-        <v>19.0</v>
       </c>
     </row>
     <row r="21">
@@ -3018,10 +3078,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="31">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C23" s="32">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -3029,10 +3089,10 @@
         <v>100</v>
       </c>
       <c r="B24" s="34">
+        <v>27.0</v>
+      </c>
+      <c r="C24" s="35">
         <v>25.0</v>
-      </c>
-      <c r="C24" s="35">
-        <v>24.0</v>
       </c>
     </row>
     <row r="25">
@@ -7005,43 +7065,47 @@
       <c r="B6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="42" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="C7" s="42"/>
     </row>
     <row r="8">
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
     </row>
     <row r="9">
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10">
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="44"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12">
       <c r="A12" s="13">
@@ -7062,14 +7126,14 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="41"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="44"/>
     </row>
     <row r="15">
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="43"/>
+      <c r="C15" s="44"/>
     </row>
     <row r="16">
       <c r="A16" s="13">
@@ -7090,14 +7154,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="44"/>
     </row>
     <row r="19">
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20">
       <c r="A20" s="13">
@@ -7110,28 +7174,28 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22">
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="42"/>
     </row>
     <row r="23">
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
     </row>
     <row r="24">
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="42"/>
     </row>
     <row r="25">
@@ -12129,7 +12193,14 @@
         <f>'SUNDAY SINGLES'!G25</f>
         <v>42</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="49" t="str">
+        <f>'THURSDAY SINGLES'!G20</f>
+        <v>KEN PEEL</v>
+      </c>
+      <c r="E6" s="48">
+        <f>'THURSDAY SINGLES'!G21</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="13">
@@ -12137,13 +12208,20 @@
       </c>
       <c r="B7" s="48" t="str">
         <f>'SUNDAY SINGLES'!H24</f>
+        <v>ANDY THOMPSON</v>
+      </c>
+      <c r="C7" s="48">
+        <f>'SUNDAY SINGLES'!H25</f>
+        <v>35</v>
+      </c>
+      <c r="D7" s="49" t="str">
+        <f>'THURSDAY SINGLES'!H20</f>
         <v/>
       </c>
-      <c r="C7" s="48" t="str">
-        <f>'SUNDAY SINGLES'!H25</f>
+      <c r="E7" s="48" t="str">
+        <f>'THURSDAY SINGLES'!H21</f>
         <v/>
       </c>
-      <c r="D7" s="49"/>
     </row>
     <row r="8">
       <c r="A8" s="13">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -305,9 +305,6 @@
     <t>25th Sept 25</t>
   </si>
   <si>
-    <t>STEW TAYLOR</t>
-  </si>
-  <si>
     <t>STEVE CONNOR</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>MARTIN BROCKLEY</t>
+  </si>
+  <si>
+    <t>STEW LAWSON</t>
   </si>
   <si>
     <t>SUNDAY</t>
@@ -648,10 +648,10 @@
     <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1085,7 +1085,9 @@
         <v>24.0</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="12">
+        <v>31.0</v>
+      </c>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
       <c r="L5" s="14"/>
@@ -1105,7 +1107,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
@@ -1130,7 +1132,9 @@
       <c r="H6" s="13">
         <v>28.0</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="12">
+        <v>32.0</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="14"/>
@@ -1150,7 +1154,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
@@ -1175,7 +1179,9 @@
       <c r="H7" s="13">
         <v>24.0</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="12">
+        <v>23.0</v>
+      </c>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
@@ -1195,7 +1201,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -1220,7 +1226,9 @@
       <c r="H8" s="13">
         <v>28.0</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="12">
+        <v>26.0</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
@@ -1240,7 +1248,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
@@ -1386,7 +1394,9 @@
       <c r="H12" s="13">
         <v>29.0</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="12">
+        <v>29.0</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
       <c r="L12" s="14"/>
@@ -1406,7 +1416,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>167</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
@@ -1597,7 +1607,9 @@
       <c r="H17" s="13">
         <v>33.0</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="12">
+        <v>28.0</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="14"/>
@@ -1617,7 +1629,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18">
@@ -1642,7 +1654,9 @@
       <c r="H18" s="13">
         <v>34.0</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="12">
+        <v>28.0</v>
+      </c>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
       <c r="L18" s="14"/>
@@ -1662,7 +1676,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
@@ -1685,7 +1699,9 @@
       <c r="H19" s="13">
         <v>27.0</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="12">
+        <v>29.0</v>
+      </c>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
@@ -1705,7 +1721,7 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -1771,7 +1787,9 @@
       <c r="H21" s="13">
         <v>35.0</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="12">
+        <v>34.0</v>
+      </c>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
       <c r="L21" s="14"/>
@@ -1791,7 +1809,7 @@
       <c r="Z21" s="16"/>
       <c r="AA21" s="14">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -1816,7 +1834,9 @@
       <c r="H22" s="13">
         <v>35.0</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="12">
+        <v>28.0</v>
+      </c>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
       <c r="L22" s="14"/>
@@ -1836,7 +1856,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -1887,7 +1907,9 @@
       <c r="H24" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -1929,7 +1951,9 @@
       <c r="H25" s="24">
         <v>35.0</v>
       </c>
-      <c r="I25" s="24"/>
+      <c r="I25" s="24">
+        <v>34.0</v>
+      </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
@@ -2151,7 +2175,9 @@
       <c r="G5" s="12">
         <v>28.0</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="13">
+        <v>37.0</v>
+      </c>
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
@@ -2172,7 +2198,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
@@ -2192,7 +2218,9 @@
       <c r="G6" s="12">
         <v>29.0</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="13">
+        <v>34.0</v>
+      </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
@@ -2213,12 +2241,12 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="17" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C7" s="12">
         <v>33.0</v>
@@ -2233,7 +2261,9 @@
       <c r="G7" s="12">
         <v>29.0</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13">
+        <v>33.0</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
@@ -2254,7 +2284,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
@@ -2276,7 +2306,9 @@
       <c r="G8" s="12">
         <v>31.0</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="13">
+        <v>27.0</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
@@ -2297,7 +2329,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
@@ -2319,7 +2351,9 @@
       <c r="G9" s="12">
         <v>33.0</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="13">
+        <v>35.0</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
@@ -2340,7 +2374,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -2360,7 +2394,9 @@
       <c r="G10" s="12">
         <v>38.0</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="13">
+        <v>34.0</v>
+      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
@@ -2381,12 +2417,12 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="12">
         <v>22.0</v>
@@ -2399,7 +2435,9 @@
       <c r="G11" s="12">
         <v>31.0</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="13">
+        <v>31.0</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
@@ -2420,12 +2458,12 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="12">
         <v>28.0</v>
@@ -2442,7 +2480,9 @@
       <c r="G12" s="12">
         <v>34.0</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="13">
+        <v>31.0</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
@@ -2463,12 +2503,12 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="12">
         <v>31.0</v>
@@ -2485,7 +2525,9 @@
       <c r="G13" s="12">
         <v>35.0</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13">
+        <v>35.0</v>
+      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14"/>
       <c r="K13" s="15"/>
@@ -2506,7 +2548,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14">
@@ -2559,7 +2601,9 @@
         <v>33.0</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="13">
+        <v>28.0</v>
+      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
@@ -2580,12 +2624,12 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="12">
         <v>32.0</v>
@@ -2643,7 +2687,9 @@
       <c r="G17" s="12">
         <v>29.0</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="13">
+        <v>34.0</v>
+      </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
@@ -2664,12 +2710,12 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="12">
         <v>27.0</v>
@@ -2743,15 +2789,17 @@
         <v>56</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
@@ -2791,7 +2839,9 @@
       <c r="G21" s="24">
         <v>38.0</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="24">
+        <v>37.0</v>
+      </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -2836,10 +2886,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -2847,10 +2897,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="31">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C2" s="32">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
@@ -2869,10 +2919,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="31">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C4" s="32">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
@@ -2927,12 +2977,12 @@
         <v>19.0</v>
       </c>
       <c r="C9" s="32">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B10" s="31">
         <v>7.0</v>
@@ -2946,10 +2996,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="32">
         <v>9.0</v>
-      </c>
-      <c r="C11" s="32">
-        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -3012,10 +3062,10 @@
         <v>66</v>
       </c>
       <c r="B17" s="31">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" s="32">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -3042,7 +3092,7 @@
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="31">
         <v>21.0</v>
@@ -3053,7 +3103,7 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="31">
         <v>16.0</v>
@@ -3064,29 +3114,29 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="31">
         <v>15.0</v>
       </c>
       <c r="C22" s="32">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="31">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C23" s="32">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="34">
         <v>27.0</v>
@@ -7005,13 +7055,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
@@ -7041,7 +7091,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>51</v>
@@ -7055,7 +7105,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -7066,7 +7116,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -7076,36 +7126,40 @@
       <c r="B7" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="43"/>
     </row>
     <row r="9">
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
     </row>
     <row r="10">
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="44"/>
+      <c r="C10" s="43"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
     </row>
     <row r="12">
       <c r="A12" s="13">
@@ -7126,14 +7180,14 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
+      <c r="C14" s="43"/>
     </row>
     <row r="15">
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="43"/>
     </row>
     <row r="16">
       <c r="A16" s="13">
@@ -7154,14 +7208,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="43"/>
     </row>
     <row r="19">
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
     </row>
     <row r="20">
       <c r="A20" s="13">
@@ -7174,28 +7228,28 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
     </row>
     <row r="22">
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="42"/>
     </row>
     <row r="23">
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="43"/>
     </row>
     <row r="24">
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="42"/>
     </row>
     <row r="25">
@@ -12082,7 +12136,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>108</v>
@@ -12216,11 +12270,11 @@
       </c>
       <c r="D7" s="49" t="str">
         <f>'THURSDAY SINGLES'!H20</f>
-        <v/>
-      </c>
-      <c r="E7" s="48" t="str">
+        <v>BAZ MASON</v>
+      </c>
+      <c r="E7" s="48">
         <f>'THURSDAY SINGLES'!H21</f>
-        <v/>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -12229,11 +12283,11 @@
       </c>
       <c r="B8" s="48" t="str">
         <f>'SUNDAY SINGLES'!I24</f>
-        <v/>
-      </c>
-      <c r="C8" s="48" t="str">
+        <v>SCOTT LEONARDE</v>
+      </c>
+      <c r="C8" s="48">
         <f>'SUNDAY SINGLES'!I25</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="D8" s="49"/>
     </row>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>WEEKLY WINNER</t>
+  </si>
+  <si>
+    <t>FRED HOLINGWORTH</t>
   </si>
   <si>
     <t>WINNERS SCORE</t>
@@ -1088,7 +1091,9 @@
       <c r="I5" s="12">
         <v>31.0</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="13">
+        <v>27.0</v>
+      </c>
       <c r="K5" s="15"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
@@ -1107,7 +1112,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
@@ -1135,7 +1140,9 @@
       <c r="I6" s="12">
         <v>32.0</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="13">
+        <v>31.0</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
@@ -1154,7 +1161,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7">
@@ -1229,7 +1236,9 @@
       <c r="I8" s="12">
         <v>26.0</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="13">
+        <v>30.0</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
@@ -1248,7 +1257,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1406,9 @@
       <c r="I12" s="12">
         <v>29.0</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="13">
+        <v>31.0</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
@@ -1416,7 +1427,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -1438,7 +1449,9 @@
         <v>32.0</v>
       </c>
       <c r="I13" s="15"/>
-      <c r="J13" s="14"/>
+      <c r="J13" s="13">
+        <v>26.0</v>
+      </c>
       <c r="K13" s="15"/>
       <c r="L13" s="14"/>
       <c r="M13" s="15"/>
@@ -1457,7 +1470,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1477,7 +1490,9 @@
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="13">
+        <v>34.0</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
@@ -1496,7 +1511,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -1610,7 +1625,9 @@
       <c r="I17" s="12">
         <v>28.0</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="13">
+        <v>33.0</v>
+      </c>
       <c r="K17" s="15"/>
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
@@ -1629,7 +1646,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18">
@@ -1657,7 +1674,9 @@
       <c r="I18" s="12">
         <v>28.0</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="13">
+        <v>31.0</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="14"/>
       <c r="M18" s="15"/>
@@ -1676,7 +1695,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1721,9 @@
       <c r="I19" s="12">
         <v>29.0</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="13">
+        <v>31.0</v>
+      </c>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
       <c r="M19" s="15"/>
@@ -1721,7 +1742,7 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
@@ -1745,7 +1766,9 @@
         <v>31.0</v>
       </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="14"/>
+      <c r="J20" s="13">
+        <v>35.0</v>
+      </c>
       <c r="K20" s="15"/>
       <c r="L20" s="14"/>
       <c r="M20" s="15"/>
@@ -1764,7 +1787,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -1790,7 +1813,9 @@
       <c r="I21" s="12">
         <v>34.0</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="13">
+        <v>29.0</v>
+      </c>
       <c r="K21" s="15"/>
       <c r="L21" s="14"/>
       <c r="M21" s="15"/>
@@ -1809,7 +1834,7 @@
       <c r="Z21" s="16"/>
       <c r="AA21" s="14">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
@@ -1837,7 +1862,9 @@
       <c r="I22" s="12">
         <v>28.0</v>
       </c>
-      <c r="J22" s="14"/>
+      <c r="J22" s="13">
+        <v>34.0</v>
+      </c>
       <c r="K22" s="15"/>
       <c r="L22" s="14"/>
       <c r="M22" s="15"/>
@@ -1856,7 +1883,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -1910,7 +1937,9 @@
       <c r="I24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
@@ -1931,7 +1960,7 @@
     </row>
     <row r="25">
       <c r="B25" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="24">
         <v>35.0</v>
@@ -1954,7 +1983,9 @@
       <c r="I25" s="24">
         <v>34.0</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="24">
+        <v>35.0</v>
+      </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -1996,83 +2027,83 @@
   <sheetData>
     <row r="2" ht="24.0" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
     <row r="3" ht="73.5" customHeight="1">
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA3" s="6"/>
     </row>
@@ -2178,7 +2209,9 @@
       <c r="H5" s="13">
         <v>37.0</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="12">
+        <v>32.0</v>
+      </c>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
       <c r="L5" s="14"/>
@@ -2198,7 +2231,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>179</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
@@ -2221,7 +2254,9 @@
       <c r="H6" s="13">
         <v>34.0</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="12">
+        <v>29.0</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="14"/>
@@ -2241,7 +2276,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -2264,7 +2299,9 @@
       <c r="H7" s="13">
         <v>33.0</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="12">
+        <v>32.0</v>
+      </c>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
@@ -2284,7 +2321,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
@@ -2309,7 +2346,9 @@
       <c r="H8" s="13">
         <v>27.0</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="12">
+        <v>35.0</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
@@ -2329,7 +2368,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
@@ -2397,7 +2436,9 @@
       <c r="H10" s="13">
         <v>34.0</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="12">
+        <v>42.0</v>
+      </c>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
@@ -2417,12 +2458,12 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="12">
         <v>22.0</v>
@@ -2438,7 +2479,9 @@
       <c r="H11" s="13">
         <v>31.0</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="12">
+        <v>29.0</v>
+      </c>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
       <c r="L11" s="14"/>
@@ -2458,12 +2501,12 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="12">
         <v>28.0</v>
@@ -2483,7 +2526,9 @@
       <c r="H12" s="13">
         <v>31.0</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="12">
+        <v>30.0</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
       <c r="L12" s="14"/>
@@ -2503,12 +2548,12 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="12">
         <v>31.0</v>
@@ -2561,7 +2606,9 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="12">
+        <v>27.0</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
       <c r="L14" s="14"/>
@@ -2581,7 +2628,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -2629,7 +2676,7 @@
     </row>
     <row r="16">
       <c r="B16" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="12">
         <v>32.0</v>
@@ -2647,7 +2694,9 @@
         <v>26.0</v>
       </c>
       <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="I16" s="12">
+        <v>21.0</v>
+      </c>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
@@ -2667,7 +2716,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -2690,7 +2739,9 @@
       <c r="H17" s="13">
         <v>34.0</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="12">
+        <v>38.0</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="14"/>
@@ -2710,12 +2761,12 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="12">
         <v>27.0</v>
@@ -2729,7 +2780,9 @@
         <v>26.0</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="12">
+        <v>39.0</v>
+      </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -2749,7 +2802,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -2789,10 +2842,10 @@
         <v>56</v>
       </c>
       <c r="E20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>64</v>
@@ -2800,7 +2853,9 @@
       <c r="H20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
@@ -2822,7 +2877,7 @@
     </row>
     <row r="21">
       <c r="B21" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="24">
         <v>40.0</v>
@@ -2842,7 +2897,9 @@
       <c r="H21" s="24">
         <v>37.0</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="24">
+        <v>42.0</v>
+      </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -2886,10 +2943,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -2897,7 +2954,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="31">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C2" s="32">
         <v>12.0</v>
@@ -2930,7 +2987,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="31">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C5" s="32">
         <v>14.0</v>
@@ -2985,10 +3042,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="31">
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="32">
         <v>7.0</v>
-      </c>
-      <c r="C10" s="32">
-        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -2996,10 +3053,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="31">
+        <v>11.0</v>
+      </c>
+      <c r="C11" s="32">
         <v>10.0</v>
-      </c>
-      <c r="C11" s="32">
-        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -3029,7 +3086,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="31">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C14" s="32">
         <v>13.0</v>
@@ -3040,10 +3097,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="31">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="C15" s="32">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="16">
@@ -3092,18 +3149,18 @@
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" s="31">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="C20" s="32">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="31">
         <v>16.0</v>
@@ -3114,7 +3171,7 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="31">
         <v>15.0</v>
@@ -3125,7 +3182,7 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="31">
         <v>29.0</v>
@@ -3136,7 +3193,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="34">
         <v>27.0</v>
@@ -7055,13 +7112,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
@@ -7105,7 +7162,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
@@ -7116,7 +7173,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -7135,15 +7192,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="43"/>
+        <v>108</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="C9" s="43"/>
     </row>
     <row r="10">
@@ -12136,19 +12197,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
@@ -12289,7 +12350,14 @@
         <f>'SUNDAY SINGLES'!I25</f>
         <v>34</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="49" t="str">
+        <f>'THURSDAY SINGLES'!I20</f>
+        <v>KEN PEEL</v>
+      </c>
+      <c r="E8" s="48">
+        <f>'THURSDAY SINGLES'!I$21</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="13">
@@ -12297,13 +12365,20 @@
       </c>
       <c r="B9" s="48" t="str">
         <f>'SUNDAY SINGLES'!J24</f>
+        <v>FRED HOLINGWORTH</v>
+      </c>
+      <c r="C9" s="48">
+        <f>'SUNDAY SINGLES'!J25</f>
+        <v>35</v>
+      </c>
+      <c r="D9" s="49" t="str">
+        <f>'THURSDAY SINGLES'!J20</f>
         <v/>
       </c>
-      <c r="C9" s="48" t="str">
-        <f>'SUNDAY SINGLES'!J25</f>
+      <c r="E9" s="48" t="str">
+        <f>'THURSDAY SINGLES'!J$21</f>
         <v/>
       </c>
-      <c r="D9" s="49"/>
     </row>
     <row r="10">
       <c r="A10" s="13">
@@ -12318,6 +12393,10 @@
         <v/>
       </c>
       <c r="D10" s="49"/>
+      <c r="E10" s="48" t="str">
+        <f>'THURSDAY SINGLES'!J$21</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="13">
@@ -12332,18 +12411,30 @@
         <v/>
       </c>
       <c r="D11" s="49"/>
+      <c r="E11" s="48" t="str">
+        <f>'THURSDAY SINGLES'!J$21</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
       <c r="D12" s="49"/>
+      <c r="E12" s="48" t="str">
+        <f>'THURSDAY SINGLES'!J$21</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
       <c r="D13" s="49"/>
+      <c r="E13" s="48" t="str">
+        <f>'THURSDAY SINGLES'!J$21</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="13">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>STEW LAWSON</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>SUNDAY</t>
@@ -1094,7 +1097,9 @@
       <c r="J5" s="13">
         <v>27.0</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="12">
+        <v>31.0</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
@@ -1112,7 +1117,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -1143,7 +1148,9 @@
       <c r="J6" s="13">
         <v>31.0</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="12">
+        <v>30.0</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
       <c r="N6" s="14"/>
@@ -1161,7 +1168,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7">
@@ -1190,7 +1197,9 @@
         <v>23.0</v>
       </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="12">
+        <v>26.0</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
       <c r="N7" s="14"/>
@@ -1208,7 +1217,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
@@ -1327,7 +1336,9 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="12">
+        <v>39.0</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
       <c r="N10" s="14"/>
@@ -1345,7 +1356,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>167</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -1360,7 +1371,9 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="12">
+        <v>32.0</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="14"/>
@@ -1378,7 +1391,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1409,7 +1422,9 @@
       <c r="J12" s="13">
         <v>31.0</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="12">
+        <v>31.0</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="14"/>
@@ -1427,7 +1442,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
@@ -1452,7 +1467,9 @@
       <c r="J13" s="13">
         <v>26.0</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="12">
+        <v>32.0</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="15"/>
       <c r="N13" s="14"/>
@@ -1470,7 +1487,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -1493,7 +1510,9 @@
       <c r="J14" s="13">
         <v>34.0</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="12">
+        <v>36.0</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="14"/>
@@ -1511,7 +1530,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -1628,7 +1647,9 @@
       <c r="J17" s="13">
         <v>33.0</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="12">
+        <v>35.0</v>
+      </c>
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
       <c r="N17" s="14"/>
@@ -1646,7 +1667,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18">
@@ -1677,7 +1698,9 @@
       <c r="J18" s="13">
         <v>31.0</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="12">
+        <v>29.0</v>
+      </c>
       <c r="L18" s="14"/>
       <c r="M18" s="15"/>
       <c r="N18" s="14"/>
@@ -1695,7 +1718,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19">
@@ -1769,7 +1792,9 @@
       <c r="J20" s="13">
         <v>35.0</v>
       </c>
-      <c r="K20" s="15"/>
+      <c r="K20" s="12">
+        <v>32.0</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="15"/>
       <c r="N20" s="14"/>
@@ -1787,7 +1812,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -1865,7 +1890,9 @@
       <c r="J22" s="13">
         <v>34.0</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="12">
+        <v>31.0</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="15"/>
       <c r="N22" s="14"/>
@@ -1883,7 +1910,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -1940,7 +1967,9 @@
       <c r="J24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
@@ -1986,7 +2015,9 @@
       <c r="J25" s="24">
         <v>35.0</v>
       </c>
-      <c r="K25" s="24"/>
+      <c r="K25" s="24">
+        <v>39.0</v>
+      </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -2257,7 +2288,9 @@
       <c r="I6" s="12">
         <v>29.0</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="13">
+        <v>30.0</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
@@ -2276,7 +2309,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
@@ -2302,7 +2335,9 @@
       <c r="I7" s="12">
         <v>32.0</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="13">
+        <v>32.0</v>
+      </c>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
@@ -2321,7 +2356,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
@@ -2349,7 +2384,9 @@
       <c r="I8" s="12">
         <v>35.0</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="13">
+        <v>31.0</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
@@ -2368,7 +2405,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9">
@@ -2439,7 +2476,9 @@
       <c r="I10" s="12">
         <v>42.0</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="13">
+        <v>27.0</v>
+      </c>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
@@ -2458,7 +2497,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11">
@@ -2529,7 +2568,9 @@
       <c r="I12" s="12">
         <v>30.0</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="13">
+        <v>29.0</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
@@ -2548,7 +2589,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13">
@@ -2609,7 +2650,9 @@
       <c r="I14" s="12">
         <v>27.0</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="13">
+        <v>28.0</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
@@ -2628,7 +2671,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2652,7 +2695,9 @@
         <v>28.0</v>
       </c>
       <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
+      <c r="J15" s="13">
+        <v>32.0</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
@@ -2671,7 +2716,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -2697,7 +2742,9 @@
       <c r="I16" s="12">
         <v>21.0</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="13">
+        <v>32.0</v>
+      </c>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
@@ -2716,7 +2763,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -2742,7 +2789,9 @@
       <c r="I17" s="12">
         <v>38.0</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="13">
+        <v>32.0</v>
+      </c>
       <c r="K17" s="15"/>
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
@@ -2761,7 +2810,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18">
@@ -2856,7 +2905,9 @@
       <c r="I20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -2900,7 +2951,9 @@
       <c r="I21" s="24">
         <v>42.0</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="24">
+        <v>32.0</v>
+      </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -3119,7 +3172,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="31">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C17" s="32">
         <v>6.0</v>
@@ -3163,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B21" s="31">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C21" s="32">
         <v>14.0</v>
@@ -7205,13 +7258,17 @@
       <c r="B9" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="42" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" s="43"/>
       <c r="G10" s="14"/>
     </row>
@@ -12200,16 +12257,16 @@
         <v>104</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -12373,11 +12430,11 @@
       </c>
       <c r="D9" s="49" t="str">
         <f>'THURSDAY SINGLES'!J20</f>
-        <v/>
-      </c>
-      <c r="E9" s="48" t="str">
+        <v>JOHN KING</v>
+      </c>
+      <c r="E9" s="48">
         <f>'THURSDAY SINGLES'!J$21</f>
-        <v/>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -12386,15 +12443,15 @@
       </c>
       <c r="B10" s="48" t="str">
         <f>'SUNDAY SINGLES'!K24</f>
-        <v/>
-      </c>
-      <c r="C10" s="48" t="str">
+        <v>TONI SHIRLEY</v>
+      </c>
+      <c r="C10" s="48">
         <f>'SUNDAY SINGLES'!K25</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="48" t="str">
-        <f>'THURSDAY SINGLES'!J$21</f>
+        <f>'THURSDAY SINGLES'!K$21</f>
         <v/>
       </c>
     </row>
@@ -12412,7 +12469,7 @@
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="48" t="str">
-        <f>'THURSDAY SINGLES'!J$21</f>
+        <f>'THURSDAY SINGLES'!L$21</f>
         <v/>
       </c>
     </row>
@@ -12422,7 +12479,7 @@
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="48" t="str">
-        <f>'THURSDAY SINGLES'!J$21</f>
+        <f>'THURSDAY SINGLES'!M$21</f>
         <v/>
       </c>
     </row>
@@ -12432,7 +12489,7 @@
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="48" t="str">
-        <f>'THURSDAY SINGLES'!J$21</f>
+        <f>'THURSDAY SINGLES'!N$21</f>
         <v/>
       </c>
     </row>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="114">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -344,7 +344,7 @@
     <t>STEW LAWSON</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>SUNDAY</t>
@@ -1200,7 +1200,9 @@
       <c r="K7" s="12">
         <v>26.0</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="13">
+        <v>24.0</v>
+      </c>
       <c r="M7" s="15"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
@@ -1217,7 +1219,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1251,9 @@
         <v>30.0</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
+      <c r="L8" s="13">
+        <v>39.0</v>
+      </c>
       <c r="M8" s="15"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
@@ -1266,7 +1270,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
@@ -1425,7 +1429,9 @@
       <c r="K12" s="12">
         <v>31.0</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="13">
+        <v>35.0</v>
+      </c>
       <c r="M12" s="15"/>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
@@ -1442,7 +1448,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
@@ -1470,7 +1476,9 @@
       <c r="K13" s="12">
         <v>32.0</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="13">
+        <v>25.0</v>
+      </c>
       <c r="M13" s="15"/>
       <c r="N13" s="14"/>
       <c r="O13" s="15"/>
@@ -1487,7 +1495,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14">
@@ -1650,7 +1658,9 @@
       <c r="K17" s="12">
         <v>35.0</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="13">
+        <v>33.0</v>
+      </c>
       <c r="M17" s="15"/>
       <c r="N17" s="14"/>
       <c r="O17" s="15"/>
@@ -1667,7 +1677,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18">
@@ -1701,7 +1711,9 @@
       <c r="K18" s="12">
         <v>29.0</v>
       </c>
-      <c r="L18" s="14"/>
+      <c r="L18" s="13">
+        <v>24.0</v>
+      </c>
       <c r="M18" s="15"/>
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
@@ -1718,7 +1730,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19">
@@ -1748,7 +1760,9 @@
         <v>31.0</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
+      <c r="L19" s="13">
+        <v>30.0</v>
+      </c>
       <c r="M19" s="15"/>
       <c r="N19" s="14"/>
       <c r="O19" s="15"/>
@@ -1765,7 +1779,7 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
@@ -1970,7 +1984,9 @@
       <c r="K24" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="21"/>
+      <c r="L24" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
@@ -2018,7 +2034,9 @@
       <c r="K25" s="24">
         <v>39.0</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="24">
+        <v>39.0</v>
+      </c>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
@@ -2653,7 +2671,9 @@
       <c r="J14" s="13">
         <v>28.0</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="12">
+        <v>30.0</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="14"/>
@@ -2671,7 +2691,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -2833,7 +2853,9 @@
         <v>39.0</v>
       </c>
       <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="K18" s="12">
+        <v>30.0</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -2851,7 +2873,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -2908,7 +2930,9 @@
       <c r="J20" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -2954,7 +2978,9 @@
       <c r="J21" s="24">
         <v>32.0</v>
       </c>
-      <c r="K21" s="24"/>
+      <c r="K21" s="24">
+        <v>30.0</v>
+      </c>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
@@ -3040,7 +3066,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="31">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C5" s="32">
         <v>14.0</v>
@@ -3051,10 +3077,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="31">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C6" s="32">
-        <v>-1.0</v>
+        <v>-2.0</v>
       </c>
     </row>
     <row r="7">
@@ -3139,10 +3165,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="31">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C14" s="32">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
@@ -3175,7 +3201,7 @@
         <v>9.0</v>
       </c>
       <c r="C17" s="32">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
@@ -3194,10 +3220,10 @@
         <v>68</v>
       </c>
       <c r="B19" s="31">
+        <v>9.0</v>
+      </c>
+      <c r="C19" s="32">
         <v>8.0</v>
-      </c>
-      <c r="C19" s="32">
-        <v>7.0</v>
       </c>
     </row>
     <row r="20">
@@ -3238,10 +3264,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="31">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C23" s="32">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="24">
@@ -7269,14 +7295,18 @@
       <c r="B10" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="42" t="s">
+        <v>109</v>
+      </c>
       <c r="G10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="41" t="s">
+        <v>109</v>
+      </c>
       <c r="C11" s="43"/>
     </row>
     <row r="12">
@@ -12449,10 +12479,13 @@
         <f>'SUNDAY SINGLES'!K25</f>
         <v>39</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="48" t="str">
+      <c r="D10" s="49" t="str">
+        <f>'THURSDAY SINGLES'!K20</f>
+        <v>ALBIE GILLESPIE</v>
+      </c>
+      <c r="E10" s="48">
         <f>'THURSDAY SINGLES'!K$21</f>
-        <v/>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -12461,11 +12494,11 @@
       </c>
       <c r="B11" s="48" t="str">
         <f>'SUNDAY SINGLES'!L24</f>
-        <v/>
-      </c>
-      <c r="C11" s="48" t="str">
+        <v>JOHN ANTCLIFFE</v>
+      </c>
+      <c r="C11" s="48">
         <f>'SUNDAY SINGLES'!L25</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="48" t="str">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>FRED HOLLINGWORTH</t>
   </si>
   <si>
     <t>SUNDAY</t>
@@ -1152,7 +1155,9 @@
         <v>30.0</v>
       </c>
       <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
+      <c r="M6" s="12">
+        <v>31.0</v>
+      </c>
       <c r="N6" s="14"/>
       <c r="O6" s="15"/>
       <c r="P6" s="14"/>
@@ -1168,7 +1173,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
@@ -1203,7 +1208,9 @@
       <c r="L7" s="13">
         <v>24.0</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="12">
+        <v>33.0</v>
+      </c>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
       <c r="P7" s="14"/>
@@ -1219,7 +1226,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8">
@@ -1254,7 +1261,9 @@
       <c r="L8" s="13">
         <v>39.0</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="12">
+        <v>41.0</v>
+      </c>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
       <c r="P8" s="14"/>
@@ -1270,7 +1279,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1308,9 @@
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="12">
+        <v>31.0</v>
+      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
       <c r="P9" s="14"/>
@@ -1315,7 +1326,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1355,9 @@
         <v>39.0</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="12">
+        <v>36.0</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
       <c r="P10" s="14"/>
@@ -1360,7 +1373,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1392,9 @@
         <v>32.0</v>
       </c>
       <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="12">
+        <v>39.0</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="15"/>
       <c r="P11" s="14"/>
@@ -1395,7 +1410,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1432,7 +1447,9 @@
       <c r="L12" s="13">
         <v>35.0</v>
       </c>
-      <c r="M12" s="15"/>
+      <c r="M12" s="12">
+        <v>35.0</v>
+      </c>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
       <c r="P12" s="14"/>
@@ -1448,7 +1465,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>293</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13">
@@ -1522,7 +1539,9 @@
         <v>36.0</v>
       </c>
       <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="12">
+        <v>36.0</v>
+      </c>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
       <c r="P14" s="14"/>
@@ -1538,7 +1557,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -1661,7 +1680,9 @@
       <c r="L17" s="13">
         <v>33.0</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="12">
+        <v>36.0</v>
+      </c>
       <c r="N17" s="14"/>
       <c r="O17" s="15"/>
       <c r="P17" s="14"/>
@@ -1677,7 +1698,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18">
@@ -1714,7 +1735,9 @@
       <c r="L18" s="13">
         <v>24.0</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="12">
+        <v>40.0</v>
+      </c>
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
       <c r="P18" s="14"/>
@@ -1730,7 +1753,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19">
@@ -1810,7 +1833,9 @@
         <v>32.0</v>
       </c>
       <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="12">
+        <v>35.0</v>
+      </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
       <c r="P20" s="14"/>
@@ -1826,7 +1851,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21">
@@ -1908,7 +1933,9 @@
         <v>31.0</v>
       </c>
       <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="M22" s="12">
+        <v>37.0</v>
+      </c>
       <c r="N22" s="14"/>
       <c r="O22" s="15"/>
       <c r="P22" s="14"/>
@@ -1924,7 +1951,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -1987,7 +2014,9 @@
       <c r="L24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M24" s="21"/>
+      <c r="M24" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
@@ -2037,7 +2066,9 @@
       <c r="L25" s="24">
         <v>39.0</v>
       </c>
-      <c r="M25" s="24"/>
+      <c r="M25" s="24">
+        <v>41.0</v>
+      </c>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -2310,7 +2341,9 @@
         <v>30.0</v>
       </c>
       <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="13">
+        <v>34.0</v>
+      </c>
       <c r="M6" s="15"/>
       <c r="N6" s="14"/>
       <c r="O6" s="15"/>
@@ -2327,7 +2360,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -2357,7 +2390,9 @@
         <v>32.0</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="14"/>
+      <c r="L7" s="13">
+        <v>33.0</v>
+      </c>
       <c r="M7" s="15"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
@@ -2374,7 +2409,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
@@ -2451,7 +2486,9 @@
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="13">
+        <v>30.0</v>
+      </c>
       <c r="M9" s="15"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
@@ -2468,7 +2505,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10">
@@ -2541,7 +2578,9 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="13">
+        <v>26.0</v>
+      </c>
       <c r="M11" s="15"/>
       <c r="N11" s="14"/>
       <c r="O11" s="15"/>
@@ -2558,7 +2597,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -2590,7 +2629,9 @@
         <v>29.0</v>
       </c>
       <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="13">
+        <v>27.0</v>
+      </c>
       <c r="M12" s="15"/>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
@@ -2607,7 +2648,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13">
@@ -2674,7 +2715,9 @@
       <c r="K14" s="12">
         <v>30.0</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="13">
+        <v>31.0</v>
+      </c>
       <c r="M14" s="15"/>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
@@ -2691,7 +2734,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -2719,7 +2762,9 @@
         <v>32.0</v>
       </c>
       <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="13">
+        <v>28.0</v>
+      </c>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
@@ -2736,7 +2781,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16">
@@ -2766,7 +2811,9 @@
         <v>32.0</v>
       </c>
       <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
+      <c r="L16" s="13">
+        <v>30.0</v>
+      </c>
       <c r="M16" s="15"/>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
@@ -2783,7 +2830,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17">
@@ -2856,7 +2903,9 @@
       <c r="K18" s="12">
         <v>30.0</v>
       </c>
-      <c r="L18" s="15"/>
+      <c r="L18" s="12">
+        <v>33.0</v>
+      </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -2873,7 +2922,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -2933,7 +2982,9 @@
       <c r="K20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="L20" s="21"/>
+      <c r="L20" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
@@ -2981,7 +3032,9 @@
       <c r="K21" s="24">
         <v>30.0</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="24">
+        <v>34.0</v>
+      </c>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -3069,7 +3122,7 @@
         <v>15.0</v>
       </c>
       <c r="C5" s="32">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -3102,7 +3155,7 @@
         <v>8.0</v>
       </c>
       <c r="C8" s="32">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -3176,10 +3229,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="31">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C15" s="32">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="16">
@@ -7307,13 +7360,17 @@
       <c r="B11" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="42" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="41" t="s">
+        <v>110</v>
+      </c>
       <c r="C12" s="42"/>
     </row>
     <row r="13">
@@ -12287,16 +12344,16 @@
         <v>104</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -12500,19 +12557,33 @@
         <f>'SUNDAY SINGLES'!L25</f>
         <v>39</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="48" t="str">
+      <c r="D11" s="49" t="str">
+        <f>'THURSDAY SINGLES'!L20</f>
+        <v>MAL JONES</v>
+      </c>
+      <c r="E11" s="48">
         <f>'THURSDAY SINGLES'!L$21</f>
-        <v/>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="B12" s="48" t="str">
+        <f>'SUNDAY SINGLES'!M24</f>
+        <v>JOHN ANTCLIFFE</v>
+      </c>
+      <c r="C12" s="48">
+        <f>'SUNDAY SINGLES'!M25</f>
+        <v>41</v>
+      </c>
+      <c r="D12" s="49" t="str">
+        <f>'THURSDAY SINGLES'!M20</f>
+        <v/>
+      </c>
       <c r="E12" s="48" t="str">
-        <f>'THURSDAY SINGLES'!M$21</f>
+        <f>'THURSDAY SINGLES'!M21</f>
         <v/>
       </c>
     </row>
@@ -12520,7 +12591,18 @@
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="B13" s="48" t="str">
+        <f>'SUNDAY SINGLES'!N24</f>
+        <v/>
+      </c>
+      <c r="C13" s="48" t="str">
+        <f>'SUNDAY SINGLES'!N25</f>
+        <v/>
+      </c>
+      <c r="D13" s="49" t="str">
+        <f>'THURSDAY SINGLES'!N20</f>
+        <v/>
+      </c>
       <c r="E13" s="48" t="str">
         <f>'THURSDAY SINGLES'!N$21</f>
         <v/>
@@ -12530,73 +12612,253 @@
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="B14" s="48" t="str">
+        <f>'SUNDAY SINGLES'!O24</f>
+        <v/>
+      </c>
+      <c r="C14" s="48" t="str">
+        <f>'SUNDAY SINGLES'!O25</f>
+        <v/>
+      </c>
+      <c r="D14" s="49" t="str">
+        <f>'THURSDAY SINGLES'!O20</f>
+        <v/>
+      </c>
+      <c r="E14" s="48" t="str">
+        <f>'THURSDAY SINGLES'!O21</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="B15" s="48" t="str">
+        <f>'SUNDAY SINGLES'!P24</f>
+        <v/>
+      </c>
+      <c r="C15" s="48" t="str">
+        <f>'SUNDAY SINGLES'!P25</f>
+        <v/>
+      </c>
+      <c r="D15" s="49" t="str">
+        <f>'THURSDAY SINGLES'!P20</f>
+        <v/>
+      </c>
+      <c r="E15" s="48" t="str">
+        <f>'THURSDAY SINGLES'!P21</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="B16" s="48" t="str">
+        <f>'SUNDAY SINGLES'!Q24</f>
+        <v/>
+      </c>
+      <c r="C16" s="48" t="str">
+        <f>'SUNDAY SINGLES'!Q25</f>
+        <v/>
+      </c>
+      <c r="D16" s="49" t="str">
+        <f>'THURSDAY SINGLES'!Q20</f>
+        <v/>
+      </c>
+      <c r="E16" s="48" t="str">
+        <f>'THURSDAY SINGLES'!Q21</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="B17" s="48" t="str">
+        <f>'SUNDAY SINGLES'!R24</f>
+        <v/>
+      </c>
+      <c r="C17" s="48" t="str">
+        <f>'SUNDAY SINGLES'!R25</f>
+        <v/>
+      </c>
+      <c r="D17" s="49" t="str">
+        <f>'THURSDAY SINGLES'!R20</f>
+        <v/>
+      </c>
+      <c r="E17" s="48" t="str">
+        <f>'THURSDAY SINGLES'!R21</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="B18" s="48" t="str">
+        <f>'SUNDAY SINGLES'!S24</f>
+        <v/>
+      </c>
+      <c r="C18" s="48" t="str">
+        <f>'SUNDAY SINGLES'!S25</f>
+        <v/>
+      </c>
+      <c r="D18" s="49" t="str">
+        <f>'THURSDAY SINGLES'!S20</f>
+        <v/>
+      </c>
+      <c r="E18" s="48" t="str">
+        <f>'THURSDAY SINGLES'!S21</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="B19" s="48" t="str">
+        <f>'SUNDAY SINGLES'!T24</f>
+        <v/>
+      </c>
+      <c r="C19" s="48" t="str">
+        <f>'SUNDAY SINGLES'!T25</f>
+        <v/>
+      </c>
+      <c r="D19" s="49" t="str">
+        <f>'THURSDAY SINGLES'!T20</f>
+        <v/>
+      </c>
+      <c r="E19" s="48" t="str">
+        <f>'THURSDAY SINGLES'!T21</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="D20" s="49"/>
+      <c r="B20" s="48" t="str">
+        <f>'SUNDAY SINGLES'!U24</f>
+        <v/>
+      </c>
+      <c r="C20" s="48" t="str">
+        <f>'SUNDAY SINGLES'!U25</f>
+        <v/>
+      </c>
+      <c r="D20" s="49" t="str">
+        <f>'THURSDAY SINGLES'!U20</f>
+        <v/>
+      </c>
+      <c r="E20" s="48" t="str">
+        <f>'THURSDAY SINGLES'!U21</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="B21" s="48" t="str">
+        <f>'SUNDAY SINGLES'!V24</f>
+        <v/>
+      </c>
+      <c r="C21" s="48" t="str">
+        <f>'SUNDAY SINGLES'!V25</f>
+        <v/>
+      </c>
+      <c r="D21" s="49" t="str">
+        <f>'THURSDAY SINGLES'!V20</f>
+        <v/>
+      </c>
+      <c r="E21" s="48" t="str">
+        <f>'THURSDAY SINGLES'!V21</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="B22" s="48" t="str">
+        <f>'SUNDAY SINGLES'!W24</f>
+        <v/>
+      </c>
+      <c r="C22" s="48" t="str">
+        <f>'SUNDAY SINGLES'!W25</f>
+        <v/>
+      </c>
+      <c r="D22" s="49" t="str">
+        <f>'THURSDAY SINGLES'!W20</f>
+        <v/>
+      </c>
+      <c r="E22" s="48" t="str">
+        <f>'THURSDAY SINGLES'!W21</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="B23" s="48" t="str">
+        <f>'SUNDAY SINGLES'!X24</f>
+        <v/>
+      </c>
+      <c r="C23" s="48" t="str">
+        <f>'SUNDAY SINGLES'!X25</f>
+        <v/>
+      </c>
+      <c r="D23" s="49" t="str">
+        <f>'THURSDAY SINGLES'!X20</f>
+        <v/>
+      </c>
+      <c r="E23" s="48" t="str">
+        <f>'THURSDAY SINGLES'!X21</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="B24" s="48" t="str">
+        <f>'SUNDAY SINGLES'!Y24</f>
+        <v/>
+      </c>
+      <c r="C24" s="48" t="str">
+        <f>'SUNDAY SINGLES'!Y25</f>
+        <v/>
+      </c>
+      <c r="D24" s="49" t="str">
+        <f>'THURSDAY SINGLES'!Y20</f>
+        <v/>
+      </c>
+      <c r="E24" s="48" t="str">
+        <f>'THURSDAY SINGLES'!Y21</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="B25" s="48" t="str">
+        <f>'SUNDAY SINGLES'!Z24</f>
+        <v/>
+      </c>
+      <c r="C25" s="48" t="str">
+        <f>'SUNDAY SINGLES'!Z25</f>
+        <v/>
+      </c>
+      <c r="D25" s="49" t="str">
+        <f>'THURSDAY SINGLES'!Z20</f>
+        <v/>
+      </c>
+      <c r="E25" s="48" t="str">
+        <f>'THURSDAY SINGLES'!Z21</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="14"/>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -1105,7 +1105,9 @@
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
+      <c r="N5" s="13">
+        <v>28.0</v>
+      </c>
       <c r="O5" s="15"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
@@ -1120,7 +1122,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6">
@@ -1158,7 +1160,9 @@
       <c r="M6" s="12">
         <v>31.0</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="13">
+        <v>28.0</v>
+      </c>
       <c r="O6" s="15"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
@@ -1173,7 +1177,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7">
@@ -1211,7 +1215,9 @@
       <c r="M7" s="12">
         <v>33.0</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="13">
+        <v>25.0</v>
+      </c>
       <c r="O7" s="15"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
@@ -1226,7 +1232,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
@@ -1264,7 +1270,9 @@
       <c r="M8" s="12">
         <v>41.0</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="13">
+        <v>34.0</v>
+      </c>
       <c r="O8" s="15"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
@@ -1279,7 +1287,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1319,9 @@
       <c r="M9" s="12">
         <v>31.0</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="13">
+        <v>25.0</v>
+      </c>
       <c r="O9" s="15"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
@@ -1326,7 +1336,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
@@ -1358,7 +1368,9 @@
       <c r="M10" s="12">
         <v>36.0</v>
       </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="13">
+        <v>37.0</v>
+      </c>
       <c r="O10" s="15"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
@@ -1373,7 +1385,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11">
@@ -1450,7 +1462,9 @@
       <c r="M12" s="12">
         <v>35.0</v>
       </c>
-      <c r="N12" s="14"/>
+      <c r="N12" s="13">
+        <v>27.0</v>
+      </c>
       <c r="O12" s="15"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
@@ -1465,7 +1479,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
@@ -1497,7 +1511,9 @@
         <v>25.0</v>
       </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="13">
+        <v>34.0</v>
+      </c>
       <c r="O13" s="15"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="15"/>
@@ -1512,7 +1528,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14">
@@ -1542,7 +1558,9 @@
       <c r="M14" s="12">
         <v>36.0</v>
       </c>
-      <c r="N14" s="14"/>
+      <c r="N14" s="13">
+        <v>39.0</v>
+      </c>
       <c r="O14" s="15"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15"/>
@@ -1557,7 +1575,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15">
@@ -1628,7 +1646,9 @@
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="14"/>
+      <c r="N16" s="13">
+        <v>33.0</v>
+      </c>
       <c r="O16" s="15"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
@@ -1643,7 +1663,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
@@ -1683,7 +1703,9 @@
       <c r="M17" s="12">
         <v>36.0</v>
       </c>
-      <c r="N17" s="14"/>
+      <c r="N17" s="13">
+        <v>30.0</v>
+      </c>
       <c r="O17" s="15"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
@@ -1698,7 +1720,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>356</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18">
@@ -1738,7 +1760,9 @@
       <c r="M18" s="12">
         <v>40.0</v>
       </c>
-      <c r="N18" s="14"/>
+      <c r="N18" s="13">
+        <v>33.0</v>
+      </c>
       <c r="O18" s="15"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
@@ -1753,7 +1777,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>346</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19">
@@ -1836,7 +1860,9 @@
       <c r="M20" s="12">
         <v>35.0</v>
       </c>
-      <c r="N20" s="14"/>
+      <c r="N20" s="13">
+        <v>33.0</v>
+      </c>
       <c r="O20" s="15"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
@@ -1851,7 +1877,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21">
@@ -1883,7 +1909,9 @@
       <c r="K21" s="15"/>
       <c r="L21" s="14"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="13">
+        <v>30.0</v>
+      </c>
       <c r="O21" s="15"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15"/>
@@ -1898,7 +1926,7 @@
       <c r="Z21" s="16"/>
       <c r="AA21" s="14">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22">
@@ -1936,7 +1964,9 @@
       <c r="M22" s="12">
         <v>37.0</v>
       </c>
-      <c r="N22" s="14"/>
+      <c r="N22" s="13">
+        <v>30.0</v>
+      </c>
       <c r="O22" s="15"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15"/>
@@ -1951,7 +1981,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -2017,7 +2047,9 @@
       <c r="M24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="21"/>
+      <c r="N24" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
@@ -2069,7 +2101,9 @@
       <c r="M25" s="24">
         <v>41.0</v>
       </c>
-      <c r="N25" s="24"/>
+      <c r="N25" s="24">
+        <v>39.0</v>
+      </c>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
@@ -2344,7 +2378,9 @@
       <c r="L6" s="13">
         <v>34.0</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="12">
+        <v>32.0</v>
+      </c>
       <c r="N6" s="14"/>
       <c r="O6" s="15"/>
       <c r="P6" s="14"/>
@@ -2360,7 +2396,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7">
@@ -2393,7 +2429,9 @@
       <c r="L7" s="13">
         <v>33.0</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="12">
+        <v>34.0</v>
+      </c>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
       <c r="P7" s="14"/>
@@ -2409,7 +2447,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -2442,7 +2480,9 @@
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="12">
+        <v>35.0</v>
+      </c>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
       <c r="P8" s="14"/>
@@ -2458,7 +2498,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>251</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -2489,7 +2529,9 @@
       <c r="L9" s="13">
         <v>30.0</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="12">
+        <v>35.0</v>
+      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
       <c r="P9" s="14"/>
@@ -2505,7 +2547,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
@@ -2536,7 +2578,9 @@
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="12">
+        <v>28.0</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
       <c r="P10" s="14"/>
@@ -2552,7 +2596,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
@@ -2632,7 +2676,9 @@
       <c r="L12" s="13">
         <v>27.0</v>
       </c>
-      <c r="M12" s="15"/>
+      <c r="M12" s="12">
+        <v>30.0</v>
+      </c>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
       <c r="P12" s="14"/>
@@ -2648,7 +2694,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
@@ -2718,7 +2764,9 @@
       <c r="L14" s="13">
         <v>31.0</v>
       </c>
-      <c r="M14" s="15"/>
+      <c r="M14" s="12">
+        <v>28.0</v>
+      </c>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
       <c r="P14" s="14"/>
@@ -2734,7 +2782,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -2765,7 +2813,9 @@
       <c r="L15" s="13">
         <v>28.0</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="12">
+        <v>32.0</v>
+      </c>
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
       <c r="P15" s="14"/>
@@ -2781,7 +2831,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -2906,7 +2956,9 @@
       <c r="L18" s="12">
         <v>33.0</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="12">
+        <v>26.0</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -2922,7 +2974,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -2985,7 +3037,9 @@
       <c r="L20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="21"/>
+      <c r="M20" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
@@ -3035,7 +3089,9 @@
       <c r="L21" s="24">
         <v>34.0</v>
       </c>
-      <c r="M21" s="24"/>
+      <c r="M21" s="24">
+        <v>35.0</v>
+      </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -7371,13 +7427,17 @@
       <c r="B12" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="42" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="C13" s="42"/>
     </row>
     <row r="14">
@@ -12580,11 +12640,11 @@
       </c>
       <c r="D12" s="49" t="str">
         <f>'THURSDAY SINGLES'!M20</f>
-        <v/>
-      </c>
-      <c r="E12" s="48" t="str">
+        <v>LES DOBBINS</v>
+      </c>
+      <c r="E12" s="48">
         <f>'THURSDAY SINGLES'!M21</f>
-        <v/>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -12593,11 +12653,11 @@
       </c>
       <c r="B13" s="48" t="str">
         <f>'SUNDAY SINGLES'!N24</f>
-        <v/>
-      </c>
-      <c r="C13" s="48" t="str">
+        <v>TONY SLATER</v>
+      </c>
+      <c r="C13" s="48">
         <f>'SUNDAY SINGLES'!N25</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="D13" s="49" t="str">
         <f>'THURSDAY SINGLES'!N20</f>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -230,6 +230,9 @@
     <t>FRED HOLINGWORTH</t>
   </si>
   <si>
+    <t>FRED HOLLINGWORTH</t>
+  </si>
+  <si>
     <t>WINNERS SCORE</t>
   </si>
   <si>
@@ -345,9 +348,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>FRED HOLLINGWORTH</t>
   </si>
   <si>
     <t>SUNDAY</t>
@@ -1163,7 +1163,9 @@
       <c r="N6" s="13">
         <v>28.0</v>
       </c>
-      <c r="O6" s="15"/>
+      <c r="O6" s="12">
+        <v>37.0</v>
+      </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="14"/>
@@ -1177,7 +1179,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7">
@@ -1273,7 +1275,9 @@
       <c r="N8" s="13">
         <v>34.0</v>
       </c>
-      <c r="O8" s="15"/>
+      <c r="O8" s="12">
+        <v>28.0</v>
+      </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="14"/>
@@ -1287,7 +1291,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9">
@@ -1322,7 +1326,9 @@
       <c r="N9" s="13">
         <v>25.0</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="12">
+        <v>30.0</v>
+      </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="14"/>
@@ -1336,7 +1342,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -1371,7 +1377,9 @@
       <c r="N10" s="13">
         <v>37.0</v>
       </c>
-      <c r="O10" s="15"/>
+      <c r="O10" s="12">
+        <v>41.0</v>
+      </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="14"/>
@@ -1385,7 +1393,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
@@ -1408,7 +1416,9 @@
         <v>39.0</v>
       </c>
       <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
+      <c r="O11" s="12">
+        <v>32.0</v>
+      </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="14"/>
@@ -1422,7 +1432,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -1514,7 +1524,9 @@
       <c r="N13" s="13">
         <v>34.0</v>
       </c>
-      <c r="O13" s="15"/>
+      <c r="O13" s="12">
+        <v>38.0</v>
+      </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="14"/>
@@ -1528,7 +1540,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14">
@@ -1561,7 +1573,9 @@
       <c r="N14" s="13">
         <v>39.0</v>
       </c>
-      <c r="O14" s="15"/>
+      <c r="O14" s="12">
+        <v>33.0</v>
+      </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="14"/>
@@ -1575,7 +1589,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>223</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1663,9 @@
       <c r="N16" s="13">
         <v>33.0</v>
       </c>
-      <c r="O16" s="15"/>
+      <c r="O16" s="12">
+        <v>34.0</v>
+      </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="14"/>
@@ -1663,7 +1679,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17">
@@ -1706,7 +1722,9 @@
       <c r="N17" s="13">
         <v>30.0</v>
       </c>
-      <c r="O17" s="15"/>
+      <c r="O17" s="12">
+        <v>37.0</v>
+      </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="14"/>
@@ -1720,7 +1738,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18">
@@ -1763,7 +1781,9 @@
       <c r="N18" s="13">
         <v>33.0</v>
       </c>
-      <c r="O18" s="15"/>
+      <c r="O18" s="12">
+        <v>39.0</v>
+      </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="14"/>
@@ -1777,7 +1797,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>379</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19">
@@ -1863,7 +1883,9 @@
       <c r="N20" s="13">
         <v>33.0</v>
       </c>
-      <c r="O20" s="15"/>
+      <c r="O20" s="12">
+        <v>41.0</v>
+      </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
@@ -1877,7 +1899,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>308</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21">
@@ -1967,7 +1989,9 @@
       <c r="N22" s="13">
         <v>30.0</v>
       </c>
-      <c r="O22" s="15"/>
+      <c r="O22" s="12">
+        <v>37.0</v>
+      </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="14"/>
@@ -1981,7 +2005,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -2050,7 +2074,9 @@
       <c r="N24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="21"/>
+      <c r="O24" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
@@ -2066,7 +2092,7 @@
     </row>
     <row r="25">
       <c r="B25" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="24">
         <v>35.0</v>
@@ -2104,7 +2130,9 @@
       <c r="N25" s="24">
         <v>39.0</v>
       </c>
-      <c r="O25" s="24"/>
+      <c r="O25" s="24">
+        <v>41.0</v>
+      </c>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
@@ -2141,83 +2169,83 @@
   <sheetData>
     <row r="2" ht="24.0" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
     <row r="3" ht="73.5" customHeight="1">
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA3" s="6"/>
     </row>
@@ -2381,7 +2409,9 @@
       <c r="M6" s="12">
         <v>32.0</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="13">
+        <v>33.0</v>
+      </c>
       <c r="O6" s="15"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
@@ -2396,7 +2426,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
@@ -2432,7 +2462,9 @@
       <c r="M7" s="12">
         <v>34.0</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="13">
+        <v>35.0</v>
+      </c>
       <c r="O7" s="15"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
@@ -2447,7 +2479,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
@@ -2483,7 +2515,9 @@
       <c r="M8" s="12">
         <v>35.0</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="13">
+        <v>41.0</v>
+      </c>
       <c r="O8" s="15"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
@@ -2498,7 +2532,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>286</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
@@ -2532,7 +2566,9 @@
       <c r="M9" s="12">
         <v>35.0</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="13">
+        <v>32.0</v>
+      </c>
       <c r="O9" s="15"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
@@ -2547,7 +2583,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10">
@@ -2581,7 +2617,9 @@
       <c r="M10" s="12">
         <v>28.0</v>
       </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="13">
+        <v>37.0</v>
+      </c>
       <c r="O10" s="15"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
@@ -2596,12 +2634,12 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="12">
         <v>22.0</v>
@@ -2646,7 +2684,7 @@
     </row>
     <row r="12">
       <c r="B12" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="12">
         <v>28.0</v>
@@ -2699,7 +2737,7 @@
     </row>
     <row r="13">
       <c r="B13" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="12">
         <v>31.0</v>
@@ -2767,7 +2805,9 @@
       <c r="M14" s="12">
         <v>28.0</v>
       </c>
-      <c r="N14" s="14"/>
+      <c r="N14" s="13">
+        <v>34.0</v>
+      </c>
       <c r="O14" s="15"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15"/>
@@ -2782,7 +2822,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
@@ -2816,7 +2856,9 @@
       <c r="M15" s="12">
         <v>32.0</v>
       </c>
-      <c r="N15" s="14"/>
+      <c r="N15" s="13">
+        <v>34.0</v>
+      </c>
       <c r="O15" s="15"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15"/>
@@ -2831,12 +2873,12 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="12">
         <v>32.0</v>
@@ -2932,7 +2974,7 @@
     </row>
     <row r="18">
       <c r="B18" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="12">
         <v>27.0</v>
@@ -2959,7 +3001,9 @@
       <c r="M18" s="12">
         <v>26.0</v>
       </c>
-      <c r="N18" s="15"/>
+      <c r="N18" s="12">
+        <v>26.0</v>
+      </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -2974,7 +3018,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -3014,10 +3058,10 @@
         <v>56</v>
       </c>
       <c r="E20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>64</v>
@@ -3029,7 +3073,7 @@
         <v>64</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>57</v>
@@ -3040,7 +3084,9 @@
       <c r="M20" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="21"/>
+      <c r="N20" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
@@ -3057,7 +3103,7 @@
     </row>
     <row r="21">
       <c r="B21" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="24">
         <v>40.0</v>
@@ -3092,7 +3138,9 @@
       <c r="M21" s="24">
         <v>35.0</v>
       </c>
-      <c r="N21" s="24"/>
+      <c r="N21" s="24">
+        <v>41.0</v>
+      </c>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -3131,10 +3179,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
@@ -3145,7 +3193,7 @@
         <v>14.0</v>
       </c>
       <c r="C2" s="32">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
@@ -3164,10 +3212,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="31">
+        <v>23.0</v>
+      </c>
+      <c r="C4" s="32">
         <v>21.0</v>
-      </c>
-      <c r="C4" s="32">
-        <v>19.0</v>
       </c>
     </row>
     <row r="5">
@@ -3175,7 +3223,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="31">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C5" s="32">
         <v>13.0</v>
@@ -3197,10 +3245,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="31">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" s="32">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
@@ -3208,7 +3256,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="31">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="32">
         <v>6.0</v>
@@ -3230,7 +3278,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="31">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C10" s="32">
         <v>7.0</v>
@@ -3241,10 +3289,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="31">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="32">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -3274,10 +3322,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="31">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C14" s="32">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
@@ -3285,10 +3333,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="31">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C15" s="32">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -3307,10 +3355,10 @@
         <v>66</v>
       </c>
       <c r="B17" s="31">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="C17" s="32">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -3337,29 +3385,29 @@
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="31">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C20" s="32">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="31">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C21" s="32">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="31">
         <v>15.0</v>
@@ -3370,7 +3418,7 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="31">
         <v>30.0</v>
@@ -3381,7 +3429,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="34">
         <v>27.0</v>
@@ -7300,13 +7348,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -7350,7 +7398,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -7361,7 +7409,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -7380,7 +7428,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>67</v>
@@ -7394,7 +7442,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -7405,7 +7453,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -7414,10 +7462,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -7425,10 +7473,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -7438,13 +7486,17 @@
       <c r="B13" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="42" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="41" t="s">
+        <v>60</v>
+      </c>
       <c r="C14" s="43"/>
     </row>
     <row r="15">
@@ -12401,7 +12453,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>111</v>
@@ -12661,11 +12713,11 @@
       </c>
       <c r="D13" s="49" t="str">
         <f>'THURSDAY SINGLES'!N20</f>
-        <v/>
-      </c>
-      <c r="E13" s="48" t="str">
+        <v>TONY SLATER</v>
+      </c>
+      <c r="E13" s="48">
         <f>'THURSDAY SINGLES'!N$21</f>
-        <v/>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -12674,11 +12726,11 @@
       </c>
       <c r="B14" s="48" t="str">
         <f>'SUNDAY SINGLES'!O24</f>
-        <v/>
-      </c>
-      <c r="C14" s="48" t="str">
+        <v>FRED HOLLINGWORTH</v>
+      </c>
+      <c r="C14" s="48">
         <f>'SUNDAY SINGLES'!O25</f>
-        <v/>
+        <v>41</v>
       </c>
       <c r="D14" s="49" t="str">
         <f>'THURSDAY SINGLES'!O20</f>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -1109,7 +1109,9 @@
         <v>28.0</v>
       </c>
       <c r="O5" s="15"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="13">
+        <v>25.0</v>
+      </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="14"/>
       <c r="S5" s="15"/>
@@ -1122,7 +1124,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
@@ -1221,7 +1223,9 @@
         <v>25.0</v>
       </c>
       <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="13">
+        <v>37.0</v>
+      </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="14"/>
       <c r="S7" s="15"/>
@@ -1234,7 +1238,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -1278,7 +1282,9 @@
       <c r="O8" s="12">
         <v>28.0</v>
       </c>
-      <c r="P8" s="14"/>
+      <c r="P8" s="13">
+        <v>29.0</v>
+      </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="14"/>
       <c r="S8" s="15"/>
@@ -1291,7 +1297,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>391</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">
@@ -1419,7 +1425,9 @@
       <c r="O11" s="12">
         <v>32.0</v>
       </c>
-      <c r="P11" s="14"/>
+      <c r="P11" s="13">
+        <v>32.0</v>
+      </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="14"/>
       <c r="S11" s="15"/>
@@ -1432,7 +1440,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -1476,7 +1484,9 @@
         <v>27.0</v>
       </c>
       <c r="O12" s="15"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="13">
+        <v>32.0</v>
+      </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="14"/>
       <c r="S12" s="15"/>
@@ -1489,7 +1499,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>355</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13">
@@ -1576,7 +1586,9 @@
       <c r="O14" s="12">
         <v>33.0</v>
       </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="13">
+        <v>33.0</v>
+      </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="14"/>
       <c r="S14" s="15"/>
@@ -1589,7 +1601,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15">
@@ -1666,7 +1678,9 @@
       <c r="O16" s="12">
         <v>34.0</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="13">
+        <v>39.0</v>
+      </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="14"/>
       <c r="S16" s="15"/>
@@ -1679,7 +1693,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17">
@@ -1784,7 +1798,9 @@
       <c r="O18" s="12">
         <v>39.0</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="13">
+        <v>25.0</v>
+      </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="14"/>
       <c r="S18" s="15"/>
@@ -1797,7 +1813,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19">
@@ -2077,7 +2093,9 @@
       <c r="O24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="21"/>
+      <c r="P24" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
@@ -2133,7 +2151,9 @@
       <c r="O25" s="24">
         <v>41.0</v>
       </c>
-      <c r="P25" s="24"/>
+      <c r="P25" s="24">
+        <v>39.0</v>
+      </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
@@ -2359,7 +2379,9 @@
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="12">
+        <v>42.0</v>
+      </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="14"/>
@@ -2373,7 +2395,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6">
@@ -2465,7 +2487,9 @@
       <c r="N7" s="13">
         <v>35.0</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="12">
+        <v>31.0</v>
+      </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="14"/>
@@ -2479,7 +2503,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
@@ -2518,7 +2542,9 @@
       <c r="N8" s="13">
         <v>41.0</v>
       </c>
-      <c r="O8" s="15"/>
+      <c r="O8" s="12">
+        <v>31.0</v>
+      </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="14"/>
@@ -2532,7 +2558,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>327</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
@@ -2569,7 +2595,9 @@
       <c r="N9" s="13">
         <v>32.0</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="12">
+        <v>34.0</v>
+      </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="14"/>
@@ -2583,7 +2611,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10">
@@ -2718,7 +2746,9 @@
         <v>30.0</v>
       </c>
       <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
+      <c r="O12" s="12">
+        <v>24.0</v>
+      </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="14"/>
@@ -2732,7 +2762,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13">
@@ -2808,7 +2838,9 @@
       <c r="N14" s="13">
         <v>34.0</v>
       </c>
-      <c r="O14" s="15"/>
+      <c r="O14" s="12">
+        <v>28.0</v>
+      </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="14"/>
@@ -2822,7 +2854,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15">
@@ -2859,7 +2891,9 @@
       <c r="N15" s="13">
         <v>34.0</v>
       </c>
-      <c r="O15" s="15"/>
+      <c r="O15" s="12">
+        <v>30.0</v>
+      </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="14"/>
@@ -2873,7 +2907,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16">
@@ -2908,7 +2942,9 @@
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
+      <c r="O16" s="12">
+        <v>37.0</v>
+      </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="14"/>
@@ -2922,7 +2958,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>223</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
@@ -2955,7 +2991,9 @@
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
+      <c r="O17" s="12">
+        <v>37.0</v>
+      </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="14"/>
@@ -2969,7 +3007,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
@@ -3004,7 +3042,9 @@
       <c r="N18" s="12">
         <v>26.0</v>
       </c>
-      <c r="O18" s="15"/>
+      <c r="O18" s="12">
+        <v>29.0</v>
+      </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
@@ -3018,7 +3058,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -3087,7 +3127,9 @@
       <c r="N20" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="21"/>
+      <c r="O20" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -3141,7 +3183,9 @@
       <c r="N21" s="24">
         <v>41.0</v>
       </c>
-      <c r="O21" s="24"/>
+      <c r="O21" s="24">
+        <v>42.0</v>
+      </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
@@ -3311,10 +3355,10 @@
         <v>62</v>
       </c>
       <c r="B13" s="31">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C13" s="32">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
@@ -7497,13 +7541,17 @@
       <c r="B14" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="42" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="41" t="s">
+        <v>110</v>
+      </c>
       <c r="C15" s="43"/>
     </row>
     <row r="16">
@@ -12734,11 +12782,11 @@
       </c>
       <c r="D14" s="49" t="str">
         <f>'THURSDAY SINGLES'!O20</f>
-        <v/>
-      </c>
-      <c r="E14" s="48" t="str">
+        <v>BAZ MASON</v>
+      </c>
+      <c r="E14" s="48">
         <f>'THURSDAY SINGLES'!O21</f>
-        <v/>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -12747,11 +12795,11 @@
       </c>
       <c r="B15" s="48" t="str">
         <f>'SUNDAY SINGLES'!P24</f>
-        <v/>
-      </c>
-      <c r="C15" s="48" t="str">
+        <v>STEVE FELLOWS</v>
+      </c>
+      <c r="C15" s="48">
         <f>'SUNDAY SINGLES'!P25</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="D15" s="49" t="str">
         <f>'THURSDAY SINGLES'!P20</f>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -215,7 +215,7 @@
     <t>PAUL HANCOX</t>
   </si>
   <si>
-    <t>FRED HOLLIWORTH</t>
+    <t>FRED HOLLINGWORTH</t>
   </si>
   <si>
     <t>SCOTT LEONARDE</t>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>FRED HOLINGWORTH</t>
-  </si>
-  <si>
-    <t>FRED HOLLINGWORTH</t>
   </si>
   <si>
     <t>WINNERS SCORE</t>
@@ -2091,7 +2088,7 @@
         <v>60</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P24" s="21" t="s">
         <v>62</v>
@@ -2110,7 +2107,7 @@
     </row>
     <row r="25">
       <c r="B25" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="24">
         <v>35.0</v>
@@ -2189,83 +2186,83 @@
   <sheetData>
     <row r="2" ht="24.0" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
     <row r="3" ht="73.5" customHeight="1">
       <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="AA3" s="6"/>
     </row>
@@ -2667,7 +2664,7 @@
     </row>
     <row r="11">
       <c r="B11" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="12">
         <v>22.0</v>
@@ -2712,7 +2709,7 @@
     </row>
     <row r="12">
       <c r="B12" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="12">
         <v>28.0</v>
@@ -2767,7 +2764,7 @@
     </row>
     <row r="13">
       <c r="B13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="12">
         <v>31.0</v>
@@ -2912,7 +2909,7 @@
     </row>
     <row r="16">
       <c r="B16" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="12">
         <v>32.0</v>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="18">
       <c r="B18" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="12">
         <v>27.0</v>
@@ -3098,10 +3095,10 @@
         <v>56</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>64</v>
@@ -3113,7 +3110,7 @@
         <v>64</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>57</v>
@@ -3145,7 +3142,7 @@
     </row>
     <row r="21">
       <c r="B21" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="24">
         <v>40.0</v>
@@ -3223,10 +3220,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2">
@@ -3429,7 +3426,7 @@
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="31">
         <v>19.0</v>
@@ -3440,7 +3437,7 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="31">
         <v>18.0</v>
@@ -3451,7 +3448,7 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="31">
         <v>15.0</v>
@@ -3462,7 +3459,7 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="31">
         <v>30.0</v>
@@ -3473,7 +3470,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="34">
         <v>27.0</v>
@@ -7392,13 +7389,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -7442,7 +7439,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
@@ -7453,7 +7450,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -7472,7 +7469,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>67</v>
@@ -7486,7 +7483,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -7497,7 +7494,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -7506,10 +7503,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -7517,10 +7514,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -7531,7 +7528,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -7550,7 +7547,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="43"/>
     </row>
@@ -12501,19 +12498,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E1" s="23" t="s">
         <v>113</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -1109,7 +1109,9 @@
       <c r="P5" s="13">
         <v>25.0</v>
       </c>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="12">
+        <v>36.0</v>
+      </c>
       <c r="R5" s="14"/>
       <c r="S5" s="15"/>
       <c r="T5" s="14"/>
@@ -1121,7 +1123,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6">
@@ -1223,7 +1225,9 @@
       <c r="P7" s="13">
         <v>37.0</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="12">
+        <v>28.0</v>
+      </c>
       <c r="R7" s="14"/>
       <c r="S7" s="15"/>
       <c r="T7" s="14"/>
@@ -1235,7 +1239,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8">
@@ -1282,7 +1286,9 @@
       <c r="P8" s="13">
         <v>29.0</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="12">
+        <v>33.0</v>
+      </c>
       <c r="R8" s="14"/>
       <c r="S8" s="15"/>
       <c r="T8" s="14"/>
@@ -1294,7 +1300,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9">
@@ -1384,7 +1390,9 @@
         <v>41.0</v>
       </c>
       <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="12">
+        <v>37.0</v>
+      </c>
       <c r="R10" s="14"/>
       <c r="S10" s="15"/>
       <c r="T10" s="14"/>
@@ -1396,7 +1404,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11">
@@ -1586,7 +1594,9 @@
       <c r="P14" s="13">
         <v>33.0</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="12">
+        <v>31.0</v>
+      </c>
       <c r="R14" s="14"/>
       <c r="S14" s="15"/>
       <c r="T14" s="14"/>
@@ -1598,7 +1608,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
@@ -1627,7 +1637,9 @@
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
+      <c r="Q15" s="12">
+        <v>36.0</v>
+      </c>
       <c r="R15" s="14"/>
       <c r="S15" s="15"/>
       <c r="T15" s="14"/>
@@ -1639,7 +1651,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -1678,7 +1690,9 @@
       <c r="P16" s="13">
         <v>39.0</v>
       </c>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="12">
+        <v>28.0</v>
+      </c>
       <c r="R16" s="14"/>
       <c r="S16" s="15"/>
       <c r="T16" s="14"/>
@@ -1690,7 +1704,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17">
@@ -1737,7 +1751,9 @@
         <v>37.0</v>
       </c>
       <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="12">
+        <v>29.0</v>
+      </c>
       <c r="R17" s="14"/>
       <c r="S17" s="15"/>
       <c r="T17" s="14"/>
@@ -1749,7 +1765,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18">
@@ -1900,7 +1916,9 @@
         <v>41.0</v>
       </c>
       <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
+      <c r="Q20" s="12">
+        <v>32.0</v>
+      </c>
       <c r="R20" s="14"/>
       <c r="S20" s="15"/>
       <c r="T20" s="14"/>
@@ -1912,7 +1930,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>349</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21">
@@ -1949,7 +1967,9 @@
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
+      <c r="Q21" s="12">
+        <v>25.0</v>
+      </c>
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
       <c r="T21" s="14"/>
@@ -1961,7 +1981,7 @@
       <c r="Z21" s="16"/>
       <c r="AA21" s="14">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22">
@@ -2006,7 +2026,9 @@
         <v>37.0</v>
       </c>
       <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
+      <c r="Q22" s="12">
+        <v>37.0</v>
+      </c>
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
       <c r="T22" s="14"/>
@@ -2018,7 +2040,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>379</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -2093,7 +2115,9 @@
       <c r="P24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Q24" s="21"/>
+      <c r="Q24" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
@@ -2151,7 +2175,9 @@
       <c r="P25" s="24">
         <v>39.0</v>
       </c>
-      <c r="Q25" s="24"/>
+      <c r="Q25" s="24">
+        <v>37.0</v>
+      </c>
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
@@ -2379,7 +2405,9 @@
       <c r="O5" s="12">
         <v>42.0</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="13">
+        <v>37.0</v>
+      </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="14"/>
       <c r="S5" s="15"/>
@@ -2392,7 +2420,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>253</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
@@ -2542,7 +2570,9 @@
       <c r="O8" s="12">
         <v>31.0</v>
       </c>
-      <c r="P8" s="14"/>
+      <c r="P8" s="13">
+        <v>39.0</v>
+      </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="14"/>
       <c r="S8" s="15"/>
@@ -2555,7 +2585,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9">
@@ -2595,7 +2625,9 @@
       <c r="O9" s="12">
         <v>34.0</v>
       </c>
-      <c r="P9" s="14"/>
+      <c r="P9" s="13">
+        <v>30.0</v>
+      </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="14"/>
       <c r="S9" s="15"/>
@@ -2608,7 +2640,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10">
@@ -2646,7 +2678,9 @@
         <v>37.0</v>
       </c>
       <c r="O10" s="15"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="13">
+        <v>30.0</v>
+      </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="14"/>
       <c r="S10" s="15"/>
@@ -2659,7 +2693,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11">
@@ -2746,7 +2780,9 @@
       <c r="O12" s="12">
         <v>24.0</v>
       </c>
-      <c r="P12" s="14"/>
+      <c r="P12" s="13">
+        <v>40.0</v>
+      </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="14"/>
       <c r="S12" s="15"/>
@@ -2759,7 +2795,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13">
@@ -2791,7 +2827,9 @@
       <c r="M13" s="15"/>
       <c r="N13" s="14"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="13">
+        <v>34.0</v>
+      </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="14"/>
       <c r="S13" s="15"/>
@@ -2804,7 +2842,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14">
@@ -2838,7 +2876,9 @@
       <c r="O14" s="12">
         <v>28.0</v>
       </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="13">
+        <v>34.0</v>
+      </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="14"/>
       <c r="S14" s="15"/>
@@ -2851,7 +2891,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
@@ -2891,7 +2931,9 @@
       <c r="O15" s="12">
         <v>30.0</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="13">
+        <v>38.0</v>
+      </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="14"/>
       <c r="S15" s="15"/>
@@ -2904,7 +2946,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16">
@@ -2942,7 +2984,9 @@
       <c r="O16" s="12">
         <v>37.0</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="13">
+        <v>34.0</v>
+      </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="14"/>
       <c r="S16" s="15"/>
@@ -2955,7 +2999,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17">
@@ -2991,7 +3035,9 @@
       <c r="O17" s="12">
         <v>37.0</v>
       </c>
-      <c r="P17" s="14"/>
+      <c r="P17" s="13">
+        <v>33.0</v>
+      </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="14"/>
       <c r="S17" s="15"/>
@@ -3004,7 +3050,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18">
@@ -3127,7 +3173,9 @@
       <c r="O20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="21"/>
+      <c r="P20" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
@@ -3183,7 +3231,9 @@
       <c r="O21" s="24">
         <v>42.0</v>
       </c>
-      <c r="P21" s="24"/>
+      <c r="P21" s="24">
+        <v>40.0</v>
+      </c>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
@@ -3231,7 +3281,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="31">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" s="32">
         <v>13.0</v>
@@ -3253,7 +3303,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="31">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C4" s="32">
         <v>21.0</v>
@@ -3267,7 +3317,7 @@
         <v>14.0</v>
       </c>
       <c r="C5" s="32">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
@@ -3330,10 +3380,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="31">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C11" s="32">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -3344,7 +3394,7 @@
         <v>18.0</v>
       </c>
       <c r="C12" s="32">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
@@ -3352,7 +3402,7 @@
         <v>62</v>
       </c>
       <c r="B13" s="31">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C13" s="32">
         <v>19.0</v>
@@ -3377,7 +3427,7 @@
         <v>29.0</v>
       </c>
       <c r="C15" s="32">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="16">
@@ -3418,10 +3468,10 @@
         <v>68</v>
       </c>
       <c r="B19" s="31">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" s="32">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="20">
@@ -3440,10 +3490,10 @@
         <v>98</v>
       </c>
       <c r="B21" s="31">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C21" s="32">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
@@ -3462,10 +3512,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="31">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C23" s="32">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="24">
@@ -3473,10 +3523,10 @@
         <v>100</v>
       </c>
       <c r="B24" s="34">
+        <v>28.0</v>
+      </c>
+      <c r="C24" s="35">
         <v>27.0</v>
-      </c>
-      <c r="C24" s="35">
-        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -7549,13 +7599,17 @@
       <c r="B15" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="42" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="42"/>
     </row>
     <row r="17">
@@ -12800,11 +12854,11 @@
       </c>
       <c r="D15" s="49" t="str">
         <f>'THURSDAY SINGLES'!P20</f>
-        <v/>
-      </c>
-      <c r="E15" s="48" t="str">
+        <v>DAVE BARNETT</v>
+      </c>
+      <c r="E15" s="48">
         <f>'THURSDAY SINGLES'!P21</f>
-        <v/>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -12813,11 +12867,11 @@
       </c>
       <c r="B16" s="48" t="str">
         <f>'SUNDAY SINGLES'!Q24</f>
-        <v/>
-      </c>
-      <c r="C16" s="48" t="str">
+        <v>ANDY THOMPSON</v>
+      </c>
+      <c r="C16" s="48">
         <f>'SUNDAY SINGLES'!Q25</f>
-        <v/>
+        <v>37</v>
       </c>
       <c r="D16" s="49" t="str">
         <f>'THURSDAY SINGLES'!Q20</f>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="114">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -1393,7 +1393,9 @@
       <c r="Q10" s="12">
         <v>37.0</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="13">
+        <v>39.0</v>
+      </c>
       <c r="S10" s="15"/>
       <c r="T10" s="14"/>
       <c r="U10" s="15"/>
@@ -1404,7 +1406,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
@@ -2118,7 +2120,9 @@
       <c r="Q24" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="21"/>
+      <c r="R24" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
@@ -2178,7 +2182,9 @@
       <c r="Q25" s="24">
         <v>37.0</v>
       </c>
-      <c r="R25" s="24"/>
+      <c r="R25" s="24">
+        <v>39.0</v>
+      </c>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
@@ -2461,7 +2467,9 @@
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="12">
+        <v>35.0</v>
+      </c>
       <c r="R6" s="14"/>
       <c r="S6" s="15"/>
       <c r="T6" s="14"/>
@@ -2473,7 +2481,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7">
@@ -2573,7 +2581,9 @@
       <c r="P8" s="13">
         <v>39.0</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="12">
+        <v>35.0</v>
+      </c>
       <c r="R8" s="14"/>
       <c r="S8" s="15"/>
       <c r="T8" s="14"/>
@@ -2585,7 +2595,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9">
@@ -2628,7 +2638,9 @@
       <c r="P9" s="13">
         <v>30.0</v>
       </c>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="12">
+        <v>29.0</v>
+      </c>
       <c r="R9" s="14"/>
       <c r="S9" s="15"/>
       <c r="T9" s="14"/>
@@ -2640,7 +2652,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
@@ -2681,7 +2693,9 @@
       <c r="P10" s="13">
         <v>30.0</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="12">
+        <v>35.0</v>
+      </c>
       <c r="R10" s="14"/>
       <c r="S10" s="15"/>
       <c r="T10" s="14"/>
@@ -2693,7 +2707,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11">
@@ -2783,7 +2797,9 @@
       <c r="P12" s="13">
         <v>40.0</v>
       </c>
-      <c r="Q12" s="15"/>
+      <c r="Q12" s="12">
+        <v>39.0</v>
+      </c>
       <c r="R12" s="14"/>
       <c r="S12" s="15"/>
       <c r="T12" s="14"/>
@@ -2795,7 +2811,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13">
@@ -2830,7 +2846,9 @@
       <c r="P13" s="13">
         <v>34.0</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="12">
+        <v>28.0</v>
+      </c>
       <c r="R13" s="14"/>
       <c r="S13" s="15"/>
       <c r="T13" s="14"/>
@@ -2842,7 +2860,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14">
@@ -2879,7 +2897,9 @@
       <c r="P14" s="13">
         <v>34.0</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="12">
+        <v>30.0</v>
+      </c>
       <c r="R14" s="14"/>
       <c r="S14" s="15"/>
       <c r="T14" s="14"/>
@@ -2891,7 +2911,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
@@ -2934,7 +2954,9 @@
       <c r="P15" s="13">
         <v>38.0</v>
       </c>
-      <c r="Q15" s="15"/>
+      <c r="Q15" s="12">
+        <v>28.0</v>
+      </c>
       <c r="R15" s="14"/>
       <c r="S15" s="15"/>
       <c r="T15" s="14"/>
@@ -2946,7 +2968,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
@@ -3089,7 +3111,9 @@
         <v>29.0</v>
       </c>
       <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="Q18" s="12">
+        <v>23.0</v>
+      </c>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
@@ -3101,7 +3125,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -3176,7 +3200,9 @@
       <c r="P20" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="Q20" s="21"/>
+      <c r="Q20" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
@@ -3234,7 +3260,9 @@
       <c r="P21" s="24">
         <v>40.0</v>
       </c>
-      <c r="Q21" s="24"/>
+      <c r="Q21" s="24">
+        <v>39.0</v>
+      </c>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
@@ -3303,7 +3331,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="31">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C4" s="32">
         <v>21.0</v>
@@ -3317,7 +3345,7 @@
         <v>14.0</v>
       </c>
       <c r="C5" s="32">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -3391,10 +3419,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="31">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C12" s="32">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
@@ -7610,13 +7638,17 @@
       <c r="B16" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="42" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="41" t="s">
+        <v>109</v>
+      </c>
       <c r="C17" s="42"/>
     </row>
     <row r="18">
@@ -12875,11 +12907,11 @@
       </c>
       <c r="D16" s="49" t="str">
         <f>'THURSDAY SINGLES'!Q20</f>
-        <v/>
-      </c>
-      <c r="E16" s="48" t="str">
+        <v>DAVE BARNETT</v>
+      </c>
+      <c r="E16" s="48">
         <f>'THURSDAY SINGLES'!Q21</f>
-        <v/>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -12888,11 +12920,11 @@
       </c>
       <c r="B17" s="48" t="str">
         <f>'SUNDAY SINGLES'!R24</f>
-        <v/>
-      </c>
-      <c r="C17" s="48" t="str">
+        <v>TONI SHIRLEY</v>
+      </c>
+      <c r="C17" s="48">
         <f>'SUNDAY SINGLES'!R25</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="D17" s="49" t="str">
         <f>'THURSDAY SINGLES'!R20</f>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -2415,7 +2415,9 @@
         <v>37.0</v>
       </c>
       <c r="Q5" s="15"/>
-      <c r="R5" s="14"/>
+      <c r="R5" s="13">
+        <v>32.0</v>
+      </c>
       <c r="S5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
@@ -2426,7 +2428,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
@@ -2470,7 +2472,9 @@
       <c r="Q6" s="12">
         <v>35.0</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="R6" s="13">
+        <v>31.0</v>
+      </c>
       <c r="S6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
@@ -2481,7 +2485,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>359</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
@@ -2525,7 +2529,9 @@
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="14"/>
+      <c r="R7" s="13">
+        <v>35.0</v>
+      </c>
       <c r="S7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
@@ -2536,7 +2542,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
@@ -2584,7 +2590,9 @@
       <c r="Q8" s="12">
         <v>35.0</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="13">
+        <v>29.0</v>
+      </c>
       <c r="S8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="15"/>
@@ -2595,7 +2603,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9">
@@ -2641,7 +2649,9 @@
       <c r="Q9" s="12">
         <v>29.0</v>
       </c>
-      <c r="R9" s="14"/>
+      <c r="R9" s="13">
+        <v>27.0</v>
+      </c>
       <c r="S9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="15"/>
@@ -2652,7 +2662,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>368</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10">
@@ -2741,7 +2751,9 @@
       <c r="O11" s="15"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="14"/>
+      <c r="R11" s="13">
+        <v>27.0</v>
+      </c>
       <c r="S11" s="15"/>
       <c r="T11" s="14"/>
       <c r="U11" s="15"/>
@@ -2752,7 +2764,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
@@ -2800,7 +2812,9 @@
       <c r="Q12" s="12">
         <v>39.0</v>
       </c>
-      <c r="R12" s="14"/>
+      <c r="R12" s="13">
+        <v>36.0</v>
+      </c>
       <c r="S12" s="15"/>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
@@ -2811,7 +2825,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13">
@@ -2849,7 +2863,9 @@
       <c r="Q13" s="12">
         <v>28.0</v>
       </c>
-      <c r="R13" s="14"/>
+      <c r="R13" s="13">
+        <v>39.0</v>
+      </c>
       <c r="S13" s="15"/>
       <c r="T13" s="14"/>
       <c r="U13" s="15"/>
@@ -2860,7 +2876,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14">
@@ -2900,7 +2916,9 @@
       <c r="Q14" s="12">
         <v>30.0</v>
       </c>
-      <c r="R14" s="14"/>
+      <c r="R14" s="13">
+        <v>31.0</v>
+      </c>
       <c r="S14" s="15"/>
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
@@ -2911,7 +2929,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15">
@@ -2957,7 +2975,9 @@
       <c r="Q15" s="12">
         <v>28.0</v>
       </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="13">
+        <v>24.0</v>
+      </c>
       <c r="S15" s="15"/>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
@@ -2968,7 +2988,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16">
@@ -3061,7 +3081,9 @@
         <v>33.0</v>
       </c>
       <c r="Q17" s="15"/>
-      <c r="R17" s="14"/>
+      <c r="R17" s="13">
+        <v>30.0</v>
+      </c>
       <c r="S17" s="15"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
@@ -3072,7 +3094,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18">
@@ -3203,7 +3225,9 @@
       <c r="Q20" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="R20" s="21"/>
+      <c r="R20" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
@@ -3263,7 +3287,9 @@
       <c r="Q21" s="24">
         <v>39.0</v>
       </c>
-      <c r="R21" s="24"/>
+      <c r="R21" s="24">
+        <v>39.0</v>
+      </c>
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
@@ -3312,7 +3338,7 @@
         <v>15.0</v>
       </c>
       <c r="C2" s="32">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
@@ -3375,10 +3401,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="31">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" s="32">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -3400,7 +3426,7 @@
         <v>9.0</v>
       </c>
       <c r="C10" s="32">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
@@ -3518,7 +3544,7 @@
         <v>98</v>
       </c>
       <c r="B21" s="31">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C21" s="32">
         <v>15.0</v>
@@ -3529,7 +3555,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="31">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C22" s="32">
         <v>13.0</v>
@@ -3540,10 +3566,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="31">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C23" s="32">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="24">
@@ -7649,7 +7675,9 @@
       <c r="B17" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="42" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="13">
@@ -12928,11 +12956,11 @@
       </c>
       <c r="D17" s="49" t="str">
         <f>'THURSDAY SINGLES'!R20</f>
-        <v/>
-      </c>
-      <c r="E17" s="48" t="str">
+        <v>MARTIN BROCK</v>
+      </c>
+      <c r="E17" s="48">
         <f>'THURSDAY SINGLES'!R21</f>
-        <v/>
+        <v>39</v>
       </c>
     </row>
     <row r="18">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="114">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -654,10 +654,10 @@
     <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1112,8 +1112,10 @@
       <c r="Q5" s="12">
         <v>36.0</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="15"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="12">
+        <v>29.0</v>
+      </c>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
       <c r="V5" s="14"/>
@@ -1123,7 +1125,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
@@ -1169,8 +1171,10 @@
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="15"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="12">
+        <v>31.0</v>
+      </c>
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
       <c r="V6" s="14"/>
@@ -1180,7 +1184,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7">
@@ -1228,8 +1232,10 @@
       <c r="Q7" s="12">
         <v>28.0</v>
       </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="12">
+        <v>33.0</v>
+      </c>
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
       <c r="V7" s="14"/>
@@ -1239,7 +1245,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>358</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8">
@@ -1289,8 +1295,10 @@
       <c r="Q8" s="12">
         <v>33.0</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="15"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="12">
+        <v>35.0</v>
+      </c>
       <c r="T8" s="14"/>
       <c r="U8" s="15"/>
       <c r="V8" s="14"/>
@@ -1300,7 +1308,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9">
@@ -1496,7 +1504,9 @@
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="14"/>
-      <c r="S12" s="15"/>
+      <c r="S12" s="12">
+        <v>33.0</v>
+      </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
       <c r="V12" s="14"/>
@@ -1506,7 +1516,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13">
@@ -1643,7 +1653,9 @@
         <v>36.0</v>
       </c>
       <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
+      <c r="S15" s="12">
+        <v>39.0</v>
+      </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
       <c r="V15" s="14"/>
@@ -1653,7 +1665,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16">
@@ -1696,7 +1708,9 @@
         <v>28.0</v>
       </c>
       <c r="R16" s="14"/>
-      <c r="S16" s="15"/>
+      <c r="S16" s="12">
+        <v>32.0</v>
+      </c>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
       <c r="V16" s="14"/>
@@ -1706,7 +1720,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17">
@@ -1757,7 +1771,9 @@
         <v>29.0</v>
       </c>
       <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
+      <c r="S17" s="12">
+        <v>34.0</v>
+      </c>
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
       <c r="V17" s="14"/>
@@ -1767,7 +1783,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>452</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18">
@@ -1867,7 +1883,9 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="15"/>
+      <c r="S19" s="12">
+        <v>33.0</v>
+      </c>
       <c r="T19" s="14"/>
       <c r="U19" s="15"/>
       <c r="V19" s="14"/>
@@ -1877,7 +1895,7 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1922,7 +1940,9 @@
         <v>32.0</v>
       </c>
       <c r="R20" s="14"/>
-      <c r="S20" s="15"/>
+      <c r="S20" s="12">
+        <v>35.0</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="15"/>
       <c r="V20" s="14"/>
@@ -1932,7 +1952,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>381</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21">
@@ -2123,7 +2143,9 @@
       <c r="R24" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="21"/>
+      <c r="S24" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
@@ -2185,7 +2207,9 @@
       <c r="R25" s="24">
         <v>39.0</v>
       </c>
-      <c r="S25" s="24"/>
+      <c r="S25" s="24">
+        <v>39.0</v>
+      </c>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
       <c r="V25" s="24"/>
@@ -2418,7 +2442,9 @@
       <c r="R5" s="13">
         <v>32.0</v>
       </c>
-      <c r="S5" s="15"/>
+      <c r="S5" s="12">
+        <v>26.0</v>
+      </c>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
       <c r="V5" s="14"/>
@@ -2428,7 +2454,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -2475,7 +2501,9 @@
       <c r="R6" s="13">
         <v>31.0</v>
       </c>
-      <c r="S6" s="15"/>
+      <c r="S6" s="12">
+        <v>35.0</v>
+      </c>
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
       <c r="V6" s="14"/>
@@ -2485,7 +2513,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>390</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
@@ -2532,7 +2560,9 @@
       <c r="R7" s="13">
         <v>35.0</v>
       </c>
-      <c r="S7" s="15"/>
+      <c r="S7" s="12">
+        <v>40.0</v>
+      </c>
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
       <c r="V7" s="14"/>
@@ -2542,7 +2572,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8">
@@ -2593,7 +2623,9 @@
       <c r="R8" s="13">
         <v>29.0</v>
       </c>
-      <c r="S8" s="15"/>
+      <c r="S8" s="12">
+        <v>33.0</v>
+      </c>
       <c r="T8" s="14"/>
       <c r="U8" s="15"/>
       <c r="V8" s="14"/>
@@ -2603,7 +2635,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>461</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9">
@@ -2652,7 +2684,9 @@
       <c r="R9" s="13">
         <v>27.0</v>
       </c>
-      <c r="S9" s="15"/>
+      <c r="S9" s="12">
+        <v>30.0</v>
+      </c>
       <c r="T9" s="14"/>
       <c r="U9" s="15"/>
       <c r="V9" s="14"/>
@@ -2662,7 +2696,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>395</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10">
@@ -2754,7 +2788,9 @@
       <c r="R11" s="13">
         <v>27.0</v>
       </c>
-      <c r="S11" s="15"/>
+      <c r="S11" s="12">
+        <v>34.0</v>
+      </c>
       <c r="T11" s="14"/>
       <c r="U11" s="15"/>
       <c r="V11" s="14"/>
@@ -2764,7 +2800,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12">
@@ -2815,7 +2851,9 @@
       <c r="R12" s="13">
         <v>36.0</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="12">
+        <v>32.0</v>
+      </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
       <c r="V12" s="14"/>
@@ -2825,7 +2863,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13">
@@ -2919,7 +2957,9 @@
       <c r="R14" s="13">
         <v>31.0</v>
       </c>
-      <c r="S14" s="15"/>
+      <c r="S14" s="12">
+        <v>40.0</v>
+      </c>
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
       <c r="V14" s="14"/>
@@ -2929,7 +2969,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15">
@@ -2978,7 +3018,9 @@
       <c r="R15" s="13">
         <v>24.0</v>
       </c>
-      <c r="S15" s="15"/>
+      <c r="S15" s="12">
+        <v>35.0</v>
+      </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
       <c r="V15" s="14"/>
@@ -2988,7 +3030,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>394</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16">
@@ -3031,7 +3073,9 @@
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="15"/>
+      <c r="S16" s="12">
+        <v>29.0</v>
+      </c>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
       <c r="V16" s="14"/>
@@ -3041,7 +3085,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17">
@@ -3228,7 +3272,9 @@
       <c r="R20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="S20" s="21"/>
+      <c r="S20" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
@@ -3290,7 +3336,9 @@
       <c r="R21" s="24">
         <v>39.0</v>
       </c>
-      <c r="S21" s="24"/>
+      <c r="S21" s="24">
+        <v>40.0</v>
+      </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
@@ -3335,10 +3383,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="31">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C2" s="32">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
@@ -3368,10 +3416,10 @@
         <v>54</v>
       </c>
       <c r="B5" s="31">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C5" s="32">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3471,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="31">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" s="32">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
@@ -3434,10 +3482,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="31">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C11" s="32">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -3456,10 +3504,10 @@
         <v>62</v>
       </c>
       <c r="B13" s="31">
+        <v>22.0</v>
+      </c>
+      <c r="C13" s="32">
         <v>21.0</v>
-      </c>
-      <c r="C13" s="32">
-        <v>19.0</v>
       </c>
     </row>
     <row r="14">
@@ -3467,7 +3515,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="31">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C14" s="32">
         <v>13.0</v>
@@ -3555,7 +3603,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="31">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C22" s="32">
         <v>13.0</v>
@@ -3566,10 +3614,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="31">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="C23" s="32">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="24">
@@ -3577,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="34">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C24" s="35">
         <v>27.0</v>
@@ -7683,15 +7731,19 @@
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20">
       <c r="A20" s="13">
@@ -7704,28 +7756,28 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22">
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="42"/>
     </row>
     <row r="23">
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
     </row>
     <row r="24">
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="42"/>
     </row>
     <row r="25">
@@ -12969,19 +13021,19 @@
       </c>
       <c r="B18" s="48" t="str">
         <f>'SUNDAY SINGLES'!S24</f>
-        <v/>
-      </c>
-      <c r="C18" s="48" t="str">
+        <v>ADY STEANE</v>
+      </c>
+      <c r="C18" s="48">
         <f>'SUNDAY SINGLES'!S25</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="D18" s="49" t="str">
         <f>'THURSDAY SINGLES'!S20</f>
-        <v/>
-      </c>
-      <c r="E18" s="48" t="str">
+        <v>ALBIE GILLESPIE</v>
+      </c>
+      <c r="E18" s="48">
         <f>'THURSDAY SINGLES'!S21</f>
-        <v/>
+        <v>40</v>
       </c>
     </row>
     <row r="19">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="116">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -230,6 +230,9 @@
     <t>FRED HOLINGWORTH</t>
   </si>
   <si>
+    <t>HELEN RIGG</t>
+  </si>
+  <si>
     <t>WINNERS SCORE</t>
   </si>
   <si>
@@ -345,6 +348,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>ARTHUR YOUNG</t>
   </si>
   <si>
     <t>SUNDAY</t>
@@ -1116,7 +1122,9 @@
       <c r="S5" s="12">
         <v>29.0</v>
       </c>
-      <c r="T5" s="14"/>
+      <c r="T5" s="13">
+        <v>33.0</v>
+      </c>
       <c r="U5" s="15"/>
       <c r="V5" s="14"/>
       <c r="W5" s="15"/>
@@ -1125,7 +1133,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>343</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
@@ -1175,7 +1183,9 @@
       <c r="S6" s="12">
         <v>31.0</v>
       </c>
-      <c r="T6" s="14"/>
+      <c r="T6" s="13">
+        <v>35.0</v>
+      </c>
       <c r="U6" s="15"/>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
@@ -1184,7 +1194,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>406</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7">
@@ -1236,7 +1246,9 @@
       <c r="S7" s="12">
         <v>33.0</v>
       </c>
-      <c r="T7" s="14"/>
+      <c r="T7" s="13">
+        <v>36.0</v>
+      </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14"/>
       <c r="W7" s="15"/>
@@ -1245,7 +1257,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>391</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1417,9 @@
         <v>39.0</v>
       </c>
       <c r="S10" s="15"/>
-      <c r="T10" s="14"/>
+      <c r="T10" s="13">
+        <v>33.0</v>
+      </c>
       <c r="U10" s="15"/>
       <c r="V10" s="14"/>
       <c r="W10" s="15"/>
@@ -1414,7 +1428,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>396</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11">
@@ -1558,7 +1572,9 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="14"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
+      <c r="T13" s="13">
+        <v>30.0</v>
+      </c>
       <c r="U13" s="15"/>
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
@@ -1567,7 +1583,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
@@ -1774,7 +1790,9 @@
       <c r="S17" s="12">
         <v>34.0</v>
       </c>
-      <c r="T17" s="14"/>
+      <c r="T17" s="13">
+        <v>35.0</v>
+      </c>
       <c r="U17" s="15"/>
       <c r="V17" s="14"/>
       <c r="W17" s="15"/>
@@ -1783,7 +1801,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18">
@@ -1835,7 +1853,9 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="14"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="14"/>
+      <c r="T18" s="13">
+        <v>31.0</v>
+      </c>
       <c r="U18" s="15"/>
       <c r="V18" s="14"/>
       <c r="W18" s="15"/>
@@ -1844,7 +1864,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>443</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19">
@@ -1943,7 +1963,9 @@
       <c r="S20" s="12">
         <v>35.0</v>
       </c>
-      <c r="T20" s="14"/>
+      <c r="T20" s="13">
+        <v>33.0</v>
+      </c>
       <c r="U20" s="15"/>
       <c r="V20" s="14"/>
       <c r="W20" s="15"/>
@@ -1952,7 +1974,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>416</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21">
@@ -1994,7 +2016,9 @@
       </c>
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="14"/>
+      <c r="T21" s="13">
+        <v>37.0</v>
+      </c>
       <c r="U21" s="15"/>
       <c r="V21" s="14"/>
       <c r="W21" s="15"/>
@@ -2003,7 +2027,7 @@
       <c r="Z21" s="16"/>
       <c r="AA21" s="14">
         <f t="shared" si="1"/>
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22">
@@ -2053,7 +2077,9 @@
       </c>
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
-      <c r="T22" s="14"/>
+      <c r="T22" s="13">
+        <v>28.0</v>
+      </c>
       <c r="U22" s="15"/>
       <c r="V22" s="14"/>
       <c r="W22" s="15"/>
@@ -2062,7 +2088,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>416</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -2146,7 +2172,9 @@
       <c r="S24" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="T24" s="21"/>
+      <c r="T24" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
@@ -2157,7 +2185,7 @@
     </row>
     <row r="25">
       <c r="B25" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="24">
         <v>35.0</v>
@@ -2210,7 +2238,9 @@
       <c r="S25" s="24">
         <v>39.0</v>
       </c>
-      <c r="T25" s="24"/>
+      <c r="T25" s="24">
+        <v>44.0</v>
+      </c>
       <c r="U25" s="24"/>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
@@ -2242,83 +2272,83 @@
   <sheetData>
     <row r="2" ht="24.0" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
     <row r="3" ht="73.5" customHeight="1">
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA3" s="6"/>
     </row>
@@ -2445,7 +2475,9 @@
       <c r="S5" s="12">
         <v>26.0</v>
       </c>
-      <c r="T5" s="14"/>
+      <c r="T5" s="13">
+        <v>29.0</v>
+      </c>
       <c r="U5" s="15"/>
       <c r="V5" s="14"/>
       <c r="W5" s="15"/>
@@ -2454,7 +2486,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>348</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">
@@ -2504,7 +2536,9 @@
       <c r="S6" s="12">
         <v>35.0</v>
       </c>
-      <c r="T6" s="14"/>
+      <c r="T6" s="13">
+        <v>28.0</v>
+      </c>
       <c r="U6" s="15"/>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
@@ -2513,7 +2547,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7">
@@ -2563,7 +2597,9 @@
       <c r="S7" s="12">
         <v>40.0</v>
       </c>
-      <c r="T7" s="14"/>
+      <c r="T7" s="13">
+        <v>35.0</v>
+      </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14"/>
       <c r="W7" s="15"/>
@@ -2572,7 +2608,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8">
@@ -2626,7 +2662,9 @@
       <c r="S8" s="12">
         <v>33.0</v>
       </c>
-      <c r="T8" s="14"/>
+      <c r="T8" s="13">
+        <v>27.0</v>
+      </c>
       <c r="U8" s="15"/>
       <c r="V8" s="14"/>
       <c r="W8" s="15"/>
@@ -2635,7 +2673,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>494</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9">
@@ -2687,7 +2725,9 @@
       <c r="S9" s="12">
         <v>30.0</v>
       </c>
-      <c r="T9" s="14"/>
+      <c r="T9" s="13">
+        <v>34.0</v>
+      </c>
       <c r="U9" s="15"/>
       <c r="V9" s="14"/>
       <c r="W9" s="15"/>
@@ -2696,7 +2736,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10">
@@ -2742,7 +2782,9 @@
       </c>
       <c r="R10" s="14"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="14"/>
+      <c r="T10" s="13">
+        <v>38.0</v>
+      </c>
       <c r="U10" s="15"/>
       <c r="V10" s="14"/>
       <c r="W10" s="15"/>
@@ -2751,12 +2793,12 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="12">
         <v>22.0</v>
@@ -2791,7 +2833,9 @@
       <c r="S11" s="12">
         <v>34.0</v>
       </c>
-      <c r="T11" s="14"/>
+      <c r="T11" s="13">
+        <v>28.0</v>
+      </c>
       <c r="U11" s="15"/>
       <c r="V11" s="14"/>
       <c r="W11" s="15"/>
@@ -2800,12 +2844,12 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="12">
         <v>28.0</v>
@@ -2868,7 +2912,7 @@
     </row>
     <row r="13">
       <c r="B13" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="12">
         <v>31.0</v>
@@ -2905,7 +2949,9 @@
         <v>39.0</v>
       </c>
       <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
+      <c r="T13" s="13">
+        <v>31.0</v>
+      </c>
       <c r="U13" s="15"/>
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
@@ -2914,7 +2960,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14">
@@ -3035,7 +3081,7 @@
     </row>
     <row r="16">
       <c r="B16" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="12">
         <v>32.0</v>
@@ -3076,7 +3122,9 @@
       <c r="S16" s="12">
         <v>29.0</v>
       </c>
-      <c r="T16" s="14"/>
+      <c r="T16" s="13">
+        <v>29.0</v>
+      </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14"/>
       <c r="W16" s="15"/>
@@ -3085,7 +3133,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17">
@@ -3129,7 +3177,9 @@
         <v>30.0</v>
       </c>
       <c r="S17" s="15"/>
-      <c r="T17" s="14"/>
+      <c r="T17" s="13">
+        <v>36.0</v>
+      </c>
       <c r="U17" s="15"/>
       <c r="V17" s="14"/>
       <c r="W17" s="15"/>
@@ -3138,12 +3188,12 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="12">
         <v>27.0</v>
@@ -3182,7 +3232,9 @@
       </c>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="T18" s="12">
+        <v>35.0</v>
+      </c>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -3191,7 +3243,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -3231,10 +3283,10 @@
         <v>56</v>
       </c>
       <c r="E20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>64</v>
@@ -3246,7 +3298,7 @@
         <v>64</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>57</v>
@@ -3264,18 +3316,20 @@
         <v>51</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="21"/>
+      <c r="T20" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -3286,7 +3340,7 @@
     </row>
     <row r="21">
       <c r="B21" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="24">
         <v>40.0</v>
@@ -3339,7 +3393,9 @@
       <c r="S21" s="24">
         <v>40.0</v>
       </c>
-      <c r="T21" s="24"/>
+      <c r="T21" s="24">
+        <v>38.0</v>
+      </c>
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
@@ -3372,10 +3428,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
@@ -3578,7 +3634,7 @@
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="31">
         <v>19.0</v>
@@ -3589,7 +3645,7 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="31">
         <v>16.0</v>
@@ -3600,7 +3656,7 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="31">
         <v>15.0</v>
@@ -3611,7 +3667,7 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="31">
         <v>29.0</v>
@@ -3622,7 +3678,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="34">
         <v>29.0</v>
@@ -7541,13 +7597,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -7591,7 +7647,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -7602,7 +7658,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -7621,7 +7677,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>67</v>
@@ -7635,7 +7691,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -7646,7 +7702,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -7655,10 +7711,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -7669,7 +7725,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -7680,7 +7736,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -7699,7 +7755,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>57</v>
@@ -7721,7 +7777,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>59</v>
@@ -7742,8 +7798,12 @@
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="13">
@@ -12664,19 +12724,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
@@ -13042,19 +13102,19 @@
       </c>
       <c r="B19" s="48" t="str">
         <f>'SUNDAY SINGLES'!T24</f>
-        <v/>
-      </c>
-      <c r="C19" s="48" t="str">
+        <v>HELEN RIGG</v>
+      </c>
+      <c r="C19" s="48">
         <f>'SUNDAY SINGLES'!T25</f>
-        <v/>
+        <v>44</v>
       </c>
       <c r="D19" s="49" t="str">
         <f>'THURSDAY SINGLES'!T20</f>
-        <v/>
-      </c>
-      <c r="E19" s="48" t="str">
+        <v>KEN PEEL</v>
+      </c>
+      <c r="E19" s="48">
         <f>'THURSDAY SINGLES'!T21</f>
-        <v/>
+        <v>38</v>
       </c>
     </row>
     <row r="20">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -1186,7 +1186,9 @@
       <c r="T6" s="13">
         <v>35.0</v>
       </c>
-      <c r="U6" s="15"/>
+      <c r="U6" s="12">
+        <v>37.0</v>
+      </c>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
       <c r="X6" s="14"/>
@@ -1194,7 +1196,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7">
@@ -1312,7 +1314,9 @@
         <v>35.0</v>
       </c>
       <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="12">
+        <v>39.0</v>
+      </c>
       <c r="V8" s="14"/>
       <c r="W8" s="15"/>
       <c r="X8" s="14"/>
@@ -1320,7 +1324,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>488</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9">
@@ -1363,7 +1367,9 @@
       <c r="R9" s="14"/>
       <c r="S9" s="15"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
+      <c r="U9" s="12">
+        <v>34.0</v>
+      </c>
       <c r="V9" s="14"/>
       <c r="W9" s="15"/>
       <c r="X9" s="14"/>
@@ -1371,7 +1377,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10">
@@ -1420,7 +1426,9 @@
       <c r="T10" s="13">
         <v>33.0</v>
       </c>
-      <c r="U10" s="15"/>
+      <c r="U10" s="12">
+        <v>40.0</v>
+      </c>
       <c r="V10" s="14"/>
       <c r="W10" s="15"/>
       <c r="X10" s="14"/>
@@ -1428,7 +1436,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11">
@@ -1575,7 +1583,9 @@
       <c r="T13" s="13">
         <v>30.0</v>
       </c>
-      <c r="U13" s="15"/>
+      <c r="U13" s="12">
+        <v>40.0</v>
+      </c>
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
       <c r="X13" s="14"/>
@@ -1583,7 +1593,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14">
@@ -1628,7 +1638,9 @@
       <c r="R14" s="14"/>
       <c r="S14" s="15"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
+      <c r="U14" s="12">
+        <v>34.0</v>
+      </c>
       <c r="V14" s="14"/>
       <c r="W14" s="15"/>
       <c r="X14" s="14"/>
@@ -1636,7 +1648,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15">
@@ -1728,7 +1740,9 @@
         <v>32.0</v>
       </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
+      <c r="U16" s="12">
+        <v>36.0</v>
+      </c>
       <c r="V16" s="14"/>
       <c r="W16" s="15"/>
       <c r="X16" s="14"/>
@@ -1736,7 +1750,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17">
@@ -1793,7 +1807,9 @@
       <c r="T17" s="13">
         <v>35.0</v>
       </c>
-      <c r="U17" s="15"/>
+      <c r="U17" s="12">
+        <v>34.0</v>
+      </c>
       <c r="V17" s="14"/>
       <c r="W17" s="15"/>
       <c r="X17" s="14"/>
@@ -1801,7 +1817,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>521</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18">
@@ -1856,7 +1872,9 @@
       <c r="T18" s="13">
         <v>31.0</v>
       </c>
-      <c r="U18" s="15"/>
+      <c r="U18" s="12">
+        <v>36.0</v>
+      </c>
       <c r="V18" s="14"/>
       <c r="W18" s="15"/>
       <c r="X18" s="14"/>
@@ -1864,7 +1882,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>474</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19">
@@ -1907,7 +1925,9 @@
         <v>33.0</v>
       </c>
       <c r="T19" s="14"/>
-      <c r="U19" s="15"/>
+      <c r="U19" s="12">
+        <v>34.0</v>
+      </c>
       <c r="V19" s="14"/>
       <c r="W19" s="15"/>
       <c r="X19" s="14"/>
@@ -1915,7 +1935,7 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20">
@@ -2175,7 +2195,9 @@
       <c r="T24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="U24" s="21"/>
+      <c r="U24" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -2241,7 +2263,9 @@
       <c r="T25" s="24">
         <v>44.0</v>
       </c>
-      <c r="U25" s="24"/>
+      <c r="U25" s="24">
+        <v>47.0</v>
+      </c>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
@@ -2478,7 +2502,9 @@
       <c r="T5" s="13">
         <v>29.0</v>
       </c>
-      <c r="U5" s="15"/>
+      <c r="U5" s="12">
+        <v>35.0</v>
+      </c>
       <c r="V5" s="14"/>
       <c r="W5" s="15"/>
       <c r="X5" s="14"/>
@@ -2486,7 +2512,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA18" si="1">sum(C5:Z5)</f>
-        <v>377</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6">
@@ -2539,7 +2565,9 @@
       <c r="T6" s="13">
         <v>28.0</v>
       </c>
-      <c r="U6" s="15"/>
+      <c r="U6" s="12">
+        <v>37.0</v>
+      </c>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
       <c r="X6" s="14"/>
@@ -2547,7 +2575,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7">
@@ -2600,7 +2628,9 @@
       <c r="T7" s="13">
         <v>35.0</v>
       </c>
-      <c r="U7" s="15"/>
+      <c r="U7" s="12">
+        <v>34.0</v>
+      </c>
       <c r="V7" s="14"/>
       <c r="W7" s="15"/>
       <c r="X7" s="14"/>
@@ -2608,7 +2638,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>464</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8">
@@ -2665,7 +2695,9 @@
       <c r="T8" s="13">
         <v>27.0</v>
       </c>
-      <c r="U8" s="15"/>
+      <c r="U8" s="12">
+        <v>32.0</v>
+      </c>
       <c r="V8" s="14"/>
       <c r="W8" s="15"/>
       <c r="X8" s="14"/>
@@ -2673,7 +2705,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>521</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9">
@@ -2728,7 +2760,9 @@
       <c r="T9" s="13">
         <v>34.0</v>
       </c>
-      <c r="U9" s="15"/>
+      <c r="U9" s="12">
+        <v>34.0</v>
+      </c>
       <c r="V9" s="14"/>
       <c r="W9" s="15"/>
       <c r="X9" s="14"/>
@@ -2736,7 +2770,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10">
@@ -2785,7 +2819,9 @@
       <c r="T10" s="13">
         <v>38.0</v>
       </c>
-      <c r="U10" s="15"/>
+      <c r="U10" s="12">
+        <v>33.0</v>
+      </c>
       <c r="V10" s="14"/>
       <c r="W10" s="15"/>
       <c r="X10" s="14"/>
@@ -2793,7 +2829,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>411</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11">
@@ -2952,7 +2988,9 @@
       <c r="T13" s="13">
         <v>31.0</v>
       </c>
-      <c r="U13" s="15"/>
+      <c r="U13" s="12">
+        <v>33.0</v>
+      </c>
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
       <c r="X13" s="14"/>
@@ -2960,7 +2998,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14">
@@ -3068,7 +3106,9 @@
         <v>35.0</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
+      <c r="U15" s="12">
+        <v>27.0</v>
+      </c>
       <c r="V15" s="14"/>
       <c r="W15" s="15"/>
       <c r="X15" s="14"/>
@@ -3076,7 +3116,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16">
@@ -3180,7 +3220,9 @@
       <c r="T17" s="13">
         <v>36.0</v>
       </c>
-      <c r="U17" s="15"/>
+      <c r="U17" s="12">
+        <v>38.0</v>
+      </c>
       <c r="V17" s="14"/>
       <c r="W17" s="15"/>
       <c r="X17" s="14"/>
@@ -3188,7 +3230,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18">
@@ -3330,7 +3372,9 @@
       <c r="T20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="U20" s="21"/>
+      <c r="U20" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
@@ -3396,7 +3440,9 @@
       <c r="T21" s="24">
         <v>38.0</v>
       </c>
-      <c r="U21" s="24"/>
+      <c r="U21" s="24">
+        <v>39.0</v>
+      </c>
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
       <c r="X21" s="24"/>
@@ -3472,10 +3518,10 @@
         <v>54</v>
       </c>
       <c r="B5" s="31">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C5" s="32">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
@@ -3494,10 +3540,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="31">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C7" s="32">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
@@ -3505,10 +3551,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="31">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" s="32">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -3516,7 +3562,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="31">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C9" s="32">
         <v>18.0</v>
@@ -3549,10 +3595,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="31">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="C12" s="32">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
@@ -3563,7 +3609,7 @@
         <v>22.0</v>
       </c>
       <c r="C13" s="32">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
@@ -3571,10 +3617,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="31">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C14" s="32">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
@@ -3582,10 +3628,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="31">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C15" s="32">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -3593,7 +3639,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="31">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C16" s="32">
         <v>12.0</v>
@@ -3640,7 +3686,7 @@
         <v>19.0</v>
       </c>
       <c r="C20" s="32">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
@@ -3651,7 +3697,7 @@
         <v>16.0</v>
       </c>
       <c r="C21" s="32">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
@@ -3681,10 +3727,10 @@
         <v>101</v>
       </c>
       <c r="B24" s="34">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C24" s="35">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -7809,8 +7855,12 @@
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="13">
@@ -13123,19 +13173,19 @@
       </c>
       <c r="B20" s="48" t="str">
         <f>'SUNDAY SINGLES'!U24</f>
-        <v/>
-      </c>
-      <c r="C20" s="48" t="str">
+        <v>HELEN RIGG</v>
+      </c>
+      <c r="C20" s="48">
         <f>'SUNDAY SINGLES'!U25</f>
-        <v/>
+        <v>47</v>
       </c>
       <c r="D20" s="49" t="str">
         <f>'THURSDAY SINGLES'!U20</f>
-        <v/>
-      </c>
-      <c r="E20" s="48" t="str">
+        <v>ADY STEANE</v>
+      </c>
+      <c r="E20" s="48">
         <f>'THURSDAY SINGLES'!U21</f>
-        <v/>
+        <v>39</v>
       </c>
     </row>
     <row r="21">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="117">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>JODAN HOWARD</t>
+  </si>
+  <si>
+    <t>SIMON EDWARDS</t>
   </si>
   <si>
     <t>WHITE TEES</t>
@@ -1126,14 +1129,16 @@
         <v>33.0</v>
       </c>
       <c r="U5" s="15"/>
-      <c r="V5" s="14"/>
+      <c r="V5" s="13">
+        <v>31.0</v>
+      </c>
       <c r="W5" s="15"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5:AA22" si="1">SUM(C5:Z5)</f>
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
@@ -1189,14 +1194,16 @@
       <c r="U6" s="12">
         <v>37.0</v>
       </c>
-      <c r="V6" s="14"/>
+      <c r="V6" s="13">
+        <v>32.0</v>
+      </c>
       <c r="W6" s="15"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>478</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7">
@@ -1317,14 +1324,16 @@
       <c r="U8" s="12">
         <v>39.0</v>
       </c>
-      <c r="V8" s="14"/>
+      <c r="V8" s="13">
+        <v>30.0</v>
+      </c>
       <c r="W8" s="15"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9">
@@ -1370,14 +1379,16 @@
       <c r="U9" s="12">
         <v>34.0</v>
       </c>
-      <c r="V9" s="14"/>
+      <c r="V9" s="13">
+        <v>29.0</v>
+      </c>
       <c r="W9" s="15"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
@@ -1429,14 +1440,16 @@
       <c r="U10" s="12">
         <v>40.0</v>
       </c>
-      <c r="V10" s="14"/>
+      <c r="V10" s="13">
+        <v>26.0</v>
+      </c>
       <c r="W10" s="15"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>469</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11">
@@ -1586,14 +1599,16 @@
       <c r="U13" s="12">
         <v>40.0</v>
       </c>
-      <c r="V13" s="14"/>
+      <c r="V13" s="13">
+        <v>29.0</v>
+      </c>
       <c r="W13" s="15"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14">
@@ -1641,14 +1656,16 @@
       <c r="U14" s="12">
         <v>34.0</v>
       </c>
-      <c r="V14" s="14"/>
+      <c r="V14" s="13">
+        <v>29.0</v>
+      </c>
       <c r="W14" s="15"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15">
@@ -1686,14 +1703,16 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="14"/>
+      <c r="V15" s="13">
+        <v>28.0</v>
+      </c>
       <c r="W15" s="15"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -1743,14 +1762,16 @@
       <c r="U16" s="12">
         <v>36.0</v>
       </c>
-      <c r="V16" s="14"/>
+      <c r="V16" s="13">
+        <v>38.0</v>
+      </c>
       <c r="W16" s="15"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17">
@@ -1810,14 +1831,16 @@
       <c r="U17" s="12">
         <v>34.0</v>
       </c>
-      <c r="V17" s="14"/>
+      <c r="V17" s="13">
+        <v>33.0</v>
+      </c>
       <c r="W17" s="15"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>555</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18">
@@ -1875,14 +1898,16 @@
       <c r="U18" s="12">
         <v>36.0</v>
       </c>
-      <c r="V18" s="14"/>
+      <c r="V18" s="13">
+        <v>25.0</v>
+      </c>
       <c r="W18" s="15"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19">
@@ -1928,14 +1953,16 @@
       <c r="U19" s="12">
         <v>34.0</v>
       </c>
-      <c r="V19" s="14"/>
+      <c r="V19" s="13">
+        <v>34.0</v>
+      </c>
       <c r="W19" s="15"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20">
@@ -1987,14 +2014,16 @@
         <v>33.0</v>
       </c>
       <c r="U20" s="15"/>
-      <c r="V20" s="14"/>
+      <c r="V20" s="13">
+        <v>32.0</v>
+      </c>
       <c r="W20" s="15"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>449</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21">
@@ -2101,14 +2130,16 @@
         <v>28.0</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="14"/>
+      <c r="V22" s="13">
+        <v>32.0</v>
+      </c>
       <c r="W22" s="15"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>444</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -2198,7 +2229,9 @@
       <c r="U24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="V24" s="21"/>
+      <c r="V24" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
@@ -2266,7 +2299,9 @@
       <c r="U25" s="24">
         <v>47.0</v>
       </c>
-      <c r="V25" s="24"/>
+      <c r="V25" s="24">
+        <v>38.0</v>
+      </c>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
@@ -2568,14 +2603,16 @@
       <c r="U6" s="12">
         <v>37.0</v>
       </c>
-      <c r="V6" s="14"/>
+      <c r="V6" s="13">
+        <v>35.0</v>
+      </c>
       <c r="W6" s="15"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7">
@@ -2822,14 +2859,16 @@
       <c r="U10" s="12">
         <v>33.0</v>
       </c>
-      <c r="V10" s="14"/>
+      <c r="V10" s="13">
+        <v>35.0</v>
+      </c>
       <c r="W10" s="15"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>444</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11">
@@ -2936,14 +2975,16 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="13">
+        <v>37.0</v>
+      </c>
       <c r="W12" s="15"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>477</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13">
@@ -2991,14 +3032,16 @@
       <c r="U13" s="12">
         <v>33.0</v>
       </c>
-      <c r="V13" s="14"/>
+      <c r="V13" s="13">
+        <v>38.0</v>
+      </c>
       <c r="W13" s="15"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14">
@@ -3046,14 +3089,16 @@
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="14"/>
+      <c r="V14" s="13">
+        <v>32.0</v>
+      </c>
       <c r="W14" s="15"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15">
@@ -3109,14 +3154,16 @@
       <c r="U15" s="12">
         <v>27.0</v>
       </c>
-      <c r="V15" s="14"/>
+      <c r="V15" s="13">
+        <v>34.0</v>
+      </c>
       <c r="W15" s="15"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
@@ -3375,7 +3422,9 @@
       <c r="U20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="21"/>
+      <c r="V20" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
@@ -3443,7 +3492,9 @@
       <c r="U21" s="24">
         <v>39.0</v>
       </c>
-      <c r="V21" s="24"/>
+      <c r="V21" s="24">
+        <v>39.0</v>
+      </c>
       <c r="W21" s="24"/>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
@@ -3474,10 +3525,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -7643,13 +7694,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -7693,7 +7744,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -7723,7 +7774,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>67</v>
@@ -7737,7 +7788,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -7748,7 +7799,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -7757,10 +7808,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -7782,7 +7833,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
@@ -7801,7 +7852,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>57</v>
@@ -7823,7 +7874,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>59</v>
@@ -7845,7 +7896,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>51</v>
@@ -7866,8 +7917,12 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="13">
@@ -12774,19 +12829,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -13194,19 +13249,19 @@
       </c>
       <c r="B21" s="48" t="str">
         <f>'SUNDAY SINGLES'!V24</f>
-        <v/>
-      </c>
-      <c r="C21" s="48" t="str">
+        <v>STEVE FELLOWS</v>
+      </c>
+      <c r="C21" s="48">
         <f>'SUNDAY SINGLES'!V25</f>
-        <v/>
+        <v>38</v>
       </c>
       <c r="D21" s="49" t="str">
         <f>'THURSDAY SINGLES'!V20</f>
-        <v/>
-      </c>
-      <c r="E21" s="48" t="str">
+        <v>SIMON EDWARDS</v>
+      </c>
+      <c r="E21" s="48">
         <f>'THURSDAY SINGLES'!V21</f>
-        <v/>
+        <v>39</v>
       </c>
     </row>
     <row r="22">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="117">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -614,6 +614,7 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1197,13 +1198,15 @@
       <c r="V6" s="13">
         <v>32.0</v>
       </c>
-      <c r="W6" s="15"/>
+      <c r="W6" s="12">
+        <v>36.0</v>
+      </c>
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7">
@@ -1327,13 +1330,15 @@
       <c r="V8" s="13">
         <v>30.0</v>
       </c>
-      <c r="W8" s="15"/>
+      <c r="W8" s="12">
+        <v>34.0</v>
+      </c>
       <c r="X8" s="14"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9">
@@ -1382,13 +1387,15 @@
       <c r="V9" s="13">
         <v>29.0</v>
       </c>
-      <c r="W9" s="15"/>
+      <c r="W9" s="12">
+        <v>33.0</v>
+      </c>
       <c r="X9" s="14"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
@@ -1443,13 +1450,15 @@
       <c r="V10" s="13">
         <v>26.0</v>
       </c>
-      <c r="W10" s="15"/>
+      <c r="W10" s="12">
+        <v>32.0</v>
+      </c>
       <c r="X10" s="14"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>495</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11">
@@ -1484,13 +1493,15 @@
       <c r="T11" s="14"/>
       <c r="U11" s="15"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
+      <c r="W11" s="12">
+        <v>36.0</v>
+      </c>
       <c r="X11" s="14"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -1545,13 +1556,15 @@
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
       <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
+      <c r="W12" s="12">
+        <v>38.0</v>
+      </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
@@ -1602,13 +1615,15 @@
       <c r="V13" s="13">
         <v>29.0</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="12">
+        <v>29.0</v>
+      </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>369</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14">
@@ -1659,13 +1674,15 @@
       <c r="V14" s="13">
         <v>29.0</v>
       </c>
-      <c r="W14" s="15"/>
+      <c r="W14" s="12">
+        <v>31.0</v>
+      </c>
       <c r="X14" s="14"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15">
@@ -1706,13 +1723,15 @@
       <c r="V15" s="13">
         <v>28.0</v>
       </c>
-      <c r="W15" s="15"/>
+      <c r="W15" s="12">
+        <v>31.0</v>
+      </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16">
@@ -1765,13 +1784,15 @@
       <c r="V16" s="13">
         <v>38.0</v>
       </c>
-      <c r="W16" s="15"/>
+      <c r="W16" s="12">
+        <v>24.0</v>
+      </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17">
@@ -1834,13 +1855,15 @@
       <c r="V17" s="13">
         <v>33.0</v>
       </c>
-      <c r="W17" s="15"/>
+      <c r="W17" s="12">
+        <v>33.0</v>
+      </c>
       <c r="X17" s="14"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>588</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18">
@@ -1901,13 +1924,15 @@
       <c r="V18" s="13">
         <v>25.0</v>
       </c>
-      <c r="W18" s="15"/>
+      <c r="W18" s="12">
+        <v>32.0</v>
+      </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19">
@@ -2017,13 +2042,15 @@
       <c r="V20" s="13">
         <v>32.0</v>
       </c>
-      <c r="W20" s="15"/>
+      <c r="W20" s="12">
+        <v>38.0</v>
+      </c>
       <c r="X20" s="14"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>481</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21">
@@ -2133,13 +2160,15 @@
       <c r="V22" s="13">
         <v>32.0</v>
       </c>
-      <c r="W22" s="15"/>
+      <c r="W22" s="12">
+        <v>37.0</v>
+      </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>476</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -2232,7 +2261,9 @@
       <c r="V24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="W24" s="21"/>
+      <c r="W24" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
@@ -2302,7 +2333,9 @@
       <c r="V25" s="24">
         <v>38.0</v>
       </c>
-      <c r="W25" s="24"/>
+      <c r="W25" s="24">
+        <v>38.0</v>
+      </c>
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
@@ -2606,13 +2639,15 @@
       <c r="V6" s="13">
         <v>35.0</v>
       </c>
-      <c r="W6" s="15"/>
+      <c r="W6" s="12">
+        <v>35.0</v>
+      </c>
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>525</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7">
@@ -2669,13 +2704,15 @@
         <v>34.0</v>
       </c>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="12">
+        <v>39.0</v>
+      </c>
       <c r="X7" s="14"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>498</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8">
@@ -2862,13 +2899,15 @@
       <c r="V10" s="13">
         <v>35.0</v>
       </c>
-      <c r="W10" s="15"/>
+      <c r="W10" s="12">
+        <v>26.0</v>
+      </c>
       <c r="X10" s="14"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>479</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11">
@@ -2978,13 +3017,15 @@
       <c r="V12" s="13">
         <v>37.0</v>
       </c>
-      <c r="W12" s="15"/>
+      <c r="W12" s="12">
+        <v>28.0</v>
+      </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13">
@@ -3035,13 +3076,15 @@
       <c r="V13" s="13">
         <v>38.0</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="12">
+        <v>34.0</v>
+      </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14">
@@ -3157,13 +3200,15 @@
       <c r="V15" s="13">
         <v>34.0</v>
       </c>
-      <c r="W15" s="15"/>
+      <c r="W15" s="12">
+        <v>30.0</v>
+      </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16">
@@ -3214,13 +3259,15 @@
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
+      <c r="W16" s="12">
+        <v>31.0</v>
+      </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17">
@@ -3271,7 +3318,7 @@
         <v>38.0</v>
       </c>
       <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
+      <c r="W17" s="26"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="16"/>
@@ -3281,7 +3328,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="12">
@@ -3326,13 +3373,15 @@
       </c>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
+      <c r="W18" s="12">
+        <v>20.0</v>
+      </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -3425,11 +3474,13 @@
       <c r="V20" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="W20" s="21"/>
+      <c r="W20" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
-      <c r="AA20" s="27"/>
+      <c r="AA20" s="28"/>
     </row>
     <row r="21">
       <c r="B21" s="23" t="s">
@@ -3495,7 +3546,9 @@
       <c r="V21" s="24">
         <v>39.0</v>
       </c>
-      <c r="W21" s="24"/>
+      <c r="W21" s="24">
+        <v>42.0</v>
+      </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
@@ -3521,13 +3574,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3535,10 +3588,10 @@
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="32">
         <v>14.0</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="33">
         <v>13.0</v>
       </c>
     </row>
@@ -3546,10 +3599,10 @@
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="32">
         <v>7.0</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="33">
         <v>6.0</v>
       </c>
     </row>
@@ -3557,10 +3610,10 @@
       <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>23.0</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33">
         <v>21.0</v>
       </c>
     </row>
@@ -3568,10 +3621,10 @@
       <c r="A5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>12.0</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="33">
         <v>11.0</v>
       </c>
     </row>
@@ -3579,10 +3632,10 @@
       <c r="A6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>-1.0</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="33">
         <v>-2.0</v>
       </c>
     </row>
@@ -3590,10 +3643,10 @@
       <c r="A7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="32">
         <v>11.0</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33">
         <v>11.0</v>
       </c>
     </row>
@@ -3601,10 +3654,10 @@
       <c r="A8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="32">
         <v>8.0</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>7.0</v>
       </c>
     </row>
@@ -3612,10 +3665,10 @@
       <c r="A9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="32">
         <v>20.0</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <v>18.0</v>
       </c>
     </row>
@@ -3623,10 +3676,10 @@
       <c r="A10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="32">
         <v>8.0</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="33">
         <v>7.0</v>
       </c>
     </row>
@@ -3634,10 +3687,10 @@
       <c r="A11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="32">
         <v>8.0</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="33">
         <v>7.0</v>
       </c>
     </row>
@@ -3645,10 +3698,10 @@
       <c r="A12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="32">
         <v>17.0</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="33">
         <v>16.0</v>
       </c>
     </row>
@@ -3656,10 +3709,10 @@
       <c r="A13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="32">
         <v>22.0</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>20.0</v>
       </c>
     </row>
@@ -3667,10 +3720,10 @@
       <c r="A14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="32">
         <v>13.0</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="33">
         <v>11.0</v>
       </c>
     </row>
@@ -3678,10 +3731,10 @@
       <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="32">
         <v>28.0</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="33">
         <v>27.0</v>
       </c>
     </row>
@@ -3689,10 +3742,10 @@
       <c r="A16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="32">
         <v>14.0</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="33">
         <v>12.0</v>
       </c>
     </row>
@@ -3700,10 +3753,10 @@
       <c r="A17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="32">
         <v>7.0</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="33">
         <v>6.0</v>
       </c>
     </row>
@@ -3711,10 +3764,10 @@
       <c r="A18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="32">
         <v>8.0</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="33">
         <v>7.0</v>
       </c>
     </row>
@@ -3722,21 +3775,21 @@
       <c r="A19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="32">
         <v>8.0</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="33">
         <v>7.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="32">
         <v>19.0</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="33">
         <v>18.0</v>
       </c>
     </row>
@@ -3744,10 +3797,10 @@
       <c r="A21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="32">
         <v>16.0</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="33">
         <v>14.0</v>
       </c>
     </row>
@@ -3755,10 +3808,10 @@
       <c r="A22" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="32">
         <v>15.0</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="33">
         <v>13.0</v>
       </c>
     </row>
@@ -3766,10 +3819,10 @@
       <c r="A23" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="32">
         <v>29.0</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="33">
         <v>28.0</v>
       </c>
     </row>
@@ -3777,10 +3830,10 @@
       <c r="A24" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="35">
         <v>28.0</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="36">
         <v>26.0</v>
       </c>
     </row>
@@ -7696,21 +7749,21 @@
       <c r="A1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38">
+      <c r="A2" s="39">
         <v>1.0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7718,10 +7771,10 @@
       <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7729,10 +7782,10 @@
       <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7740,10 +7793,10 @@
       <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="43" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7751,10 +7804,10 @@
       <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7762,10 +7815,10 @@
       <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -7773,10 +7826,10 @@
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7784,10 +7837,10 @@
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7795,10 +7848,10 @@
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="43" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="14"/>
@@ -7807,10 +7860,10 @@
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7818,10 +7871,10 @@
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7829,10 +7882,10 @@
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7840,10 +7893,10 @@
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7851,10 +7904,10 @@
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7862,10 +7915,10 @@
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7873,10 +7926,10 @@
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7884,10 +7937,10 @@
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7895,10 +7948,10 @@
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7906,10 +7959,10 @@
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7917,10 +7970,10 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7928,29 +7981,33 @@
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
     </row>
     <row r="24">
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="43"/>
     </row>
     <row r="25">
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
@@ -12837,7 +12894,7 @@
       <c r="C1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>115</v>
       </c>
       <c r="E1" s="23" t="s">
@@ -12848,19 +12905,19 @@
       <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="49" t="str">
         <f>'SUNDAY SINGLES'!C24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="49">
         <f>'SUNDAY SINGLES'!C25</f>
         <v>35</v>
       </c>
-      <c r="D2" s="49" t="str">
+      <c r="D2" s="50" t="str">
         <f>'THURSDAY SINGLES'!C20</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="49">
         <f>'THURSDAY SINGLES'!C21</f>
         <v>40</v>
       </c>
@@ -12869,19 +12926,19 @@
       <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="49" t="str">
         <f>'SUNDAY SINGLES'!D24</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="49">
         <f>'SUNDAY SINGLES'!D25</f>
         <v>43</v>
       </c>
-      <c r="D3" s="49" t="str">
+      <c r="D3" s="50" t="str">
         <f>'THURSDAY SINGLES'!D20</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="49">
         <f>'THURSDAY SINGLES'!D21</f>
         <v>36</v>
       </c>
@@ -12890,19 +12947,19 @@
       <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="48" t="str">
+      <c r="B4" s="49" t="str">
         <f>'SUNDAY SINGLES'!E24</f>
         <v>CHRIS DUFFY</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="49">
         <f>'SUNDAY SINGLES'!E25</f>
         <v>37</v>
       </c>
-      <c r="D4" s="49" t="str">
+      <c r="D4" s="50" t="str">
         <f>'THURSDAY SINGLES'!E20</f>
         <v>MARTIN BROCK</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="49">
         <f>'THURSDAY SINGLES'!E21</f>
         <v>37</v>
       </c>
@@ -12911,19 +12968,19 @@
       <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="49" t="str">
         <f>'SUNDAY SINGLES'!F24</f>
         <v>MAL JONES</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="49">
         <f>'SUNDAY SINGLES'!F25</f>
         <v>37</v>
       </c>
-      <c r="D5" s="49" t="str">
+      <c r="D5" s="50" t="str">
         <f>'THURSDAY SINGLES'!F20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="49">
         <f>'THURSDAY SINGLES'!F21</f>
         <v>38</v>
       </c>
@@ -12932,19 +12989,19 @@
       <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="49" t="str">
         <f>'SUNDAY SINGLES'!G24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="49">
         <f>'SUNDAY SINGLES'!G25</f>
         <v>42</v>
       </c>
-      <c r="D6" s="49" t="str">
+      <c r="D6" s="50" t="str">
         <f>'THURSDAY SINGLES'!G20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="49">
         <f>'THURSDAY SINGLES'!G21</f>
         <v>38</v>
       </c>
@@ -12953,19 +13010,19 @@
       <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="48" t="str">
+      <c r="B7" s="49" t="str">
         <f>'SUNDAY SINGLES'!H24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="49">
         <f>'SUNDAY SINGLES'!H25</f>
         <v>35</v>
       </c>
-      <c r="D7" s="49" t="str">
+      <c r="D7" s="50" t="str">
         <f>'THURSDAY SINGLES'!H20</f>
         <v>BAZ MASON</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="49">
         <f>'THURSDAY SINGLES'!H21</f>
         <v>37</v>
       </c>
@@ -12974,19 +13031,19 @@
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="48" t="str">
+      <c r="B8" s="49" t="str">
         <f>'SUNDAY SINGLES'!I24</f>
         <v>SCOTT LEONARDE</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="49">
         <f>'SUNDAY SINGLES'!I25</f>
         <v>34</v>
       </c>
-      <c r="D8" s="49" t="str">
+      <c r="D8" s="50" t="str">
         <f>'THURSDAY SINGLES'!I20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="49">
         <f>'THURSDAY SINGLES'!I$21</f>
         <v>42</v>
       </c>
@@ -12995,19 +13052,19 @@
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="48" t="str">
+      <c r="B9" s="49" t="str">
         <f>'SUNDAY SINGLES'!J24</f>
         <v>FRED HOLINGWORTH</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="49">
         <f>'SUNDAY SINGLES'!J25</f>
         <v>35</v>
       </c>
-      <c r="D9" s="49" t="str">
+      <c r="D9" s="50" t="str">
         <f>'THURSDAY SINGLES'!J20</f>
         <v>JOHN KING</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="49">
         <f>'THURSDAY SINGLES'!J$21</f>
         <v>32</v>
       </c>
@@ -13016,19 +13073,19 @@
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="48" t="str">
+      <c r="B10" s="49" t="str">
         <f>'SUNDAY SINGLES'!K24</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="49">
         <f>'SUNDAY SINGLES'!K25</f>
         <v>39</v>
       </c>
-      <c r="D10" s="49" t="str">
+      <c r="D10" s="50" t="str">
         <f>'THURSDAY SINGLES'!K20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="49">
         <f>'THURSDAY SINGLES'!K$21</f>
         <v>30</v>
       </c>
@@ -13037,19 +13094,19 @@
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="48" t="str">
+      <c r="B11" s="49" t="str">
         <f>'SUNDAY SINGLES'!L24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="49">
         <f>'SUNDAY SINGLES'!L25</f>
         <v>39</v>
       </c>
-      <c r="D11" s="49" t="str">
+      <c r="D11" s="50" t="str">
         <f>'THURSDAY SINGLES'!L20</f>
         <v>MAL JONES</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="49">
         <f>'THURSDAY SINGLES'!L$21</f>
         <v>34</v>
       </c>
@@ -13058,19 +13115,19 @@
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="48" t="str">
+      <c r="B12" s="49" t="str">
         <f>'SUNDAY SINGLES'!M24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="49">
         <f>'SUNDAY SINGLES'!M25</f>
         <v>41</v>
       </c>
-      <c r="D12" s="49" t="str">
+      <c r="D12" s="50" t="str">
         <f>'THURSDAY SINGLES'!M20</f>
         <v>LES DOBBINS</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="49">
         <f>'THURSDAY SINGLES'!M21</f>
         <v>35</v>
       </c>
@@ -13079,19 +13136,19 @@
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="48" t="str">
+      <c r="B13" s="49" t="str">
         <f>'SUNDAY SINGLES'!N24</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="49">
         <f>'SUNDAY SINGLES'!N25</f>
         <v>39</v>
       </c>
-      <c r="D13" s="49" t="str">
+      <c r="D13" s="50" t="str">
         <f>'THURSDAY SINGLES'!N20</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="49">
         <f>'THURSDAY SINGLES'!N$21</f>
         <v>41</v>
       </c>
@@ -13100,19 +13157,19 @@
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="48" t="str">
+      <c r="B14" s="49" t="str">
         <f>'SUNDAY SINGLES'!O24</f>
         <v>FRED HOLLINGWORTH</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="49">
         <f>'SUNDAY SINGLES'!O25</f>
         <v>41</v>
       </c>
-      <c r="D14" s="49" t="str">
+      <c r="D14" s="50" t="str">
         <f>'THURSDAY SINGLES'!O20</f>
         <v>BAZ MASON</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="49">
         <f>'THURSDAY SINGLES'!O21</f>
         <v>42</v>
       </c>
@@ -13121,19 +13178,19 @@
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="48" t="str">
+      <c r="B15" s="49" t="str">
         <f>'SUNDAY SINGLES'!P24</f>
         <v>STEVE FELLOWS</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="49">
         <f>'SUNDAY SINGLES'!P25</f>
         <v>39</v>
       </c>
-      <c r="D15" s="49" t="str">
+      <c r="D15" s="50" t="str">
         <f>'THURSDAY SINGLES'!P20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="49">
         <f>'THURSDAY SINGLES'!P21</f>
         <v>40</v>
       </c>
@@ -13142,19 +13199,19 @@
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="48" t="str">
+      <c r="B16" s="49" t="str">
         <f>'SUNDAY SINGLES'!Q24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="49">
         <f>'SUNDAY SINGLES'!Q25</f>
         <v>37</v>
       </c>
-      <c r="D16" s="49" t="str">
+      <c r="D16" s="50" t="str">
         <f>'THURSDAY SINGLES'!Q20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="49">
         <f>'THURSDAY SINGLES'!Q21</f>
         <v>39</v>
       </c>
@@ -13163,19 +13220,19 @@
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="48" t="str">
+      <c r="B17" s="49" t="str">
         <f>'SUNDAY SINGLES'!R24</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="49">
         <f>'SUNDAY SINGLES'!R25</f>
         <v>39</v>
       </c>
-      <c r="D17" s="49" t="str">
+      <c r="D17" s="50" t="str">
         <f>'THURSDAY SINGLES'!R20</f>
         <v>MARTIN BROCK</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="49">
         <f>'THURSDAY SINGLES'!R21</f>
         <v>39</v>
       </c>
@@ -13184,19 +13241,19 @@
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="48" t="str">
+      <c r="B18" s="49" t="str">
         <f>'SUNDAY SINGLES'!S24</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="49">
         <f>'SUNDAY SINGLES'!S25</f>
         <v>39</v>
       </c>
-      <c r="D18" s="49" t="str">
+      <c r="D18" s="50" t="str">
         <f>'THURSDAY SINGLES'!S20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="49">
         <f>'THURSDAY SINGLES'!S21</f>
         <v>40</v>
       </c>
@@ -13205,19 +13262,19 @@
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="48" t="str">
+      <c r="B19" s="49" t="str">
         <f>'SUNDAY SINGLES'!T24</f>
         <v>HELEN RIGG</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="49">
         <f>'SUNDAY SINGLES'!T25</f>
         <v>44</v>
       </c>
-      <c r="D19" s="49" t="str">
+      <c r="D19" s="50" t="str">
         <f>'THURSDAY SINGLES'!T20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="49">
         <f>'THURSDAY SINGLES'!T21</f>
         <v>38</v>
       </c>
@@ -13226,19 +13283,19 @@
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="48" t="str">
+      <c r="B20" s="49" t="str">
         <f>'SUNDAY SINGLES'!U24</f>
         <v>HELEN RIGG</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="49">
         <f>'SUNDAY SINGLES'!U25</f>
         <v>47</v>
       </c>
-      <c r="D20" s="49" t="str">
+      <c r="D20" s="50" t="str">
         <f>'THURSDAY SINGLES'!U20</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="49">
         <f>'THURSDAY SINGLES'!U21</f>
         <v>39</v>
       </c>
@@ -13247,19 +13304,19 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="48" t="str">
+      <c r="B21" s="49" t="str">
         <f>'SUNDAY SINGLES'!V24</f>
         <v>STEVE FELLOWS</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="49">
         <f>'SUNDAY SINGLES'!V25</f>
         <v>38</v>
       </c>
-      <c r="D21" s="49" t="str">
+      <c r="D21" s="50" t="str">
         <f>'THURSDAY SINGLES'!V20</f>
         <v>SIMON EDWARDS</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="49">
         <f>'THURSDAY SINGLES'!V21</f>
         <v>39</v>
       </c>
@@ -13268,40 +13325,40 @@
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="48" t="str">
+      <c r="B22" s="49" t="str">
         <f>'SUNDAY SINGLES'!W24</f>
-        <v/>
-      </c>
-      <c r="C22" s="48" t="str">
+        <v>FRED HOLLINGWORTH</v>
+      </c>
+      <c r="C22" s="49">
         <f>'SUNDAY SINGLES'!W25</f>
-        <v/>
-      </c>
-      <c r="D22" s="49" t="str">
+        <v>38</v>
+      </c>
+      <c r="D22" s="50" t="str">
         <f>'THURSDAY SINGLES'!W20</f>
-        <v/>
-      </c>
-      <c r="E22" s="48" t="str">
+        <v>ADY STEANE</v>
+      </c>
+      <c r="E22" s="49">
         <f>'THURSDAY SINGLES'!W21</f>
-        <v/>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="48" t="str">
+      <c r="B23" s="49" t="str">
         <f>'SUNDAY SINGLES'!X24</f>
         <v/>
       </c>
-      <c r="C23" s="48" t="str">
+      <c r="C23" s="49" t="str">
         <f>'SUNDAY SINGLES'!X25</f>
         <v/>
       </c>
-      <c r="D23" s="49" t="str">
+      <c r="D23" s="50" t="str">
         <f>'THURSDAY SINGLES'!X20</f>
         <v/>
       </c>
-      <c r="E23" s="48" t="str">
+      <c r="E23" s="49" t="str">
         <f>'THURSDAY SINGLES'!X21</f>
         <v/>
       </c>
@@ -13310,19 +13367,19 @@
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="48" t="str">
+      <c r="B24" s="49" t="str">
         <f>'SUNDAY SINGLES'!Y24</f>
         <v/>
       </c>
-      <c r="C24" s="48" t="str">
+      <c r="C24" s="49" t="str">
         <f>'SUNDAY SINGLES'!Y25</f>
         <v/>
       </c>
-      <c r="D24" s="49" t="str">
+      <c r="D24" s="50" t="str">
         <f>'THURSDAY SINGLES'!Y20</f>
         <v/>
       </c>
-      <c r="E24" s="48" t="str">
+      <c r="E24" s="49" t="str">
         <f>'THURSDAY SINGLES'!Y21</f>
         <v/>
       </c>
@@ -13331,3918 +13388,3918 @@
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="48" t="str">
+      <c r="B25" s="49" t="str">
         <f>'SUNDAY SINGLES'!Z24</f>
         <v/>
       </c>
-      <c r="C25" s="48" t="str">
+      <c r="C25" s="49" t="str">
         <f>'SUNDAY SINGLES'!Z25</f>
         <v/>
       </c>
-      <c r="D25" s="49" t="str">
+      <c r="D25" s="50" t="str">
         <f>'THURSDAY SINGLES'!Z20</f>
         <v/>
       </c>
-      <c r="E25" s="48" t="str">
+      <c r="E25" s="49" t="str">
         <f>'THURSDAY SINGLES'!Z21</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27">
       <c r="A27" s="14"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="50"/>
     </row>
     <row r="28">
       <c r="A28" s="14"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="50"/>
     </row>
     <row r="29">
       <c r="A29" s="14"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30">
       <c r="A30" s="14"/>
-      <c r="D30" s="49"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="31">
       <c r="A31" s="14"/>
-      <c r="D31" s="49"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32">
       <c r="A32" s="14"/>
-      <c r="D32" s="49"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33">
       <c r="A33" s="14"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34">
       <c r="A34" s="14"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35">
       <c r="A35" s="14"/>
-      <c r="D35" s="49"/>
+      <c r="D35" s="50"/>
     </row>
     <row r="36">
       <c r="A36" s="14"/>
-      <c r="D36" s="49"/>
+      <c r="D36" s="50"/>
     </row>
     <row r="37">
       <c r="A37" s="14"/>
-      <c r="D37" s="49"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38">
       <c r="A38" s="14"/>
-      <c r="D38" s="49"/>
+      <c r="D38" s="50"/>
     </row>
     <row r="39">
       <c r="A39" s="14"/>
-      <c r="D39" s="49"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40">
       <c r="A40" s="14"/>
-      <c r="D40" s="49"/>
+      <c r="D40" s="50"/>
     </row>
     <row r="41">
       <c r="A41" s="14"/>
-      <c r="D41" s="49"/>
+      <c r="D41" s="50"/>
     </row>
     <row r="42">
       <c r="A42" s="14"/>
-      <c r="D42" s="49"/>
+      <c r="D42" s="50"/>
     </row>
     <row r="43">
       <c r="A43" s="14"/>
-      <c r="D43" s="49"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44">
       <c r="A44" s="14"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45">
       <c r="A45" s="14"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="50"/>
     </row>
     <row r="46">
       <c r="A46" s="14"/>
-      <c r="D46" s="49"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47">
       <c r="A47" s="14"/>
-      <c r="D47" s="49"/>
+      <c r="D47" s="50"/>
     </row>
     <row r="48">
       <c r="A48" s="14"/>
-      <c r="D48" s="49"/>
+      <c r="D48" s="50"/>
     </row>
     <row r="49">
       <c r="A49" s="14"/>
-      <c r="D49" s="49"/>
+      <c r="D49" s="50"/>
     </row>
     <row r="50">
       <c r="A50" s="14"/>
-      <c r="D50" s="49"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51">
       <c r="A51" s="14"/>
-      <c r="D51" s="49"/>
+      <c r="D51" s="50"/>
     </row>
     <row r="52">
       <c r="A52" s="14"/>
-      <c r="D52" s="49"/>
+      <c r="D52" s="50"/>
     </row>
     <row r="53">
       <c r="A53" s="14"/>
-      <c r="D53" s="49"/>
+      <c r="D53" s="50"/>
     </row>
     <row r="54">
       <c r="A54" s="14"/>
-      <c r="D54" s="49"/>
+      <c r="D54" s="50"/>
     </row>
     <row r="55">
       <c r="A55" s="14"/>
-      <c r="D55" s="49"/>
+      <c r="D55" s="50"/>
     </row>
     <row r="56">
       <c r="A56" s="14"/>
-      <c r="D56" s="49"/>
+      <c r="D56" s="50"/>
     </row>
     <row r="57">
       <c r="A57" s="14"/>
-      <c r="D57" s="49"/>
+      <c r="D57" s="50"/>
     </row>
     <row r="58">
       <c r="A58" s="14"/>
-      <c r="D58" s="49"/>
+      <c r="D58" s="50"/>
     </row>
     <row r="59">
       <c r="A59" s="14"/>
-      <c r="D59" s="49"/>
+      <c r="D59" s="50"/>
     </row>
     <row r="60">
       <c r="A60" s="14"/>
-      <c r="D60" s="49"/>
+      <c r="D60" s="50"/>
     </row>
     <row r="61">
       <c r="A61" s="14"/>
-      <c r="D61" s="49"/>
+      <c r="D61" s="50"/>
     </row>
     <row r="62">
       <c r="A62" s="14"/>
-      <c r="D62" s="49"/>
+      <c r="D62" s="50"/>
     </row>
     <row r="63">
       <c r="A63" s="14"/>
-      <c r="D63" s="49"/>
+      <c r="D63" s="50"/>
     </row>
     <row r="64">
       <c r="A64" s="14"/>
-      <c r="D64" s="49"/>
+      <c r="D64" s="50"/>
     </row>
     <row r="65">
       <c r="A65" s="14"/>
-      <c r="D65" s="49"/>
+      <c r="D65" s="50"/>
     </row>
     <row r="66">
       <c r="A66" s="14"/>
-      <c r="D66" s="49"/>
+      <c r="D66" s="50"/>
     </row>
     <row r="67">
       <c r="A67" s="14"/>
-      <c r="D67" s="49"/>
+      <c r="D67" s="50"/>
     </row>
     <row r="68">
       <c r="A68" s="14"/>
-      <c r="D68" s="49"/>
+      <c r="D68" s="50"/>
     </row>
     <row r="69">
       <c r="A69" s="14"/>
-      <c r="D69" s="49"/>
+      <c r="D69" s="50"/>
     </row>
     <row r="70">
       <c r="A70" s="14"/>
-      <c r="D70" s="49"/>
+      <c r="D70" s="50"/>
     </row>
     <row r="71">
       <c r="A71" s="14"/>
-      <c r="D71" s="49"/>
+      <c r="D71" s="50"/>
     </row>
     <row r="72">
       <c r="A72" s="14"/>
-      <c r="D72" s="49"/>
+      <c r="D72" s="50"/>
     </row>
     <row r="73">
       <c r="A73" s="14"/>
-      <c r="D73" s="49"/>
+      <c r="D73" s="50"/>
     </row>
     <row r="74">
       <c r="A74" s="14"/>
-      <c r="D74" s="49"/>
+      <c r="D74" s="50"/>
     </row>
     <row r="75">
       <c r="A75" s="14"/>
-      <c r="D75" s="49"/>
+      <c r="D75" s="50"/>
     </row>
     <row r="76">
       <c r="A76" s="14"/>
-      <c r="D76" s="49"/>
+      <c r="D76" s="50"/>
     </row>
     <row r="77">
       <c r="A77" s="14"/>
-      <c r="D77" s="49"/>
+      <c r="D77" s="50"/>
     </row>
     <row r="78">
       <c r="A78" s="14"/>
-      <c r="D78" s="49"/>
+      <c r="D78" s="50"/>
     </row>
     <row r="79">
       <c r="A79" s="14"/>
-      <c r="D79" s="49"/>
+      <c r="D79" s="50"/>
     </row>
     <row r="80">
       <c r="A80" s="14"/>
-      <c r="D80" s="49"/>
+      <c r="D80" s="50"/>
     </row>
     <row r="81">
       <c r="A81" s="14"/>
-      <c r="D81" s="49"/>
+      <c r="D81" s="50"/>
     </row>
     <row r="82">
       <c r="A82" s="14"/>
-      <c r="D82" s="49"/>
+      <c r="D82" s="50"/>
     </row>
     <row r="83">
       <c r="A83" s="14"/>
-      <c r="D83" s="49"/>
+      <c r="D83" s="50"/>
     </row>
     <row r="84">
       <c r="A84" s="14"/>
-      <c r="D84" s="49"/>
+      <c r="D84" s="50"/>
     </row>
     <row r="85">
       <c r="A85" s="14"/>
-      <c r="D85" s="49"/>
+      <c r="D85" s="50"/>
     </row>
     <row r="86">
       <c r="A86" s="14"/>
-      <c r="D86" s="49"/>
+      <c r="D86" s="50"/>
     </row>
     <row r="87">
       <c r="A87" s="14"/>
-      <c r="D87" s="49"/>
+      <c r="D87" s="50"/>
     </row>
     <row r="88">
       <c r="A88" s="14"/>
-      <c r="D88" s="49"/>
+      <c r="D88" s="50"/>
     </row>
     <row r="89">
       <c r="A89" s="14"/>
-      <c r="D89" s="49"/>
+      <c r="D89" s="50"/>
     </row>
     <row r="90">
       <c r="A90" s="14"/>
-      <c r="D90" s="49"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91">
       <c r="A91" s="14"/>
-      <c r="D91" s="49"/>
+      <c r="D91" s="50"/>
     </row>
     <row r="92">
       <c r="A92" s="14"/>
-      <c r="D92" s="49"/>
+      <c r="D92" s="50"/>
     </row>
     <row r="93">
       <c r="A93" s="14"/>
-      <c r="D93" s="49"/>
+      <c r="D93" s="50"/>
     </row>
     <row r="94">
       <c r="A94" s="14"/>
-      <c r="D94" s="49"/>
+      <c r="D94" s="50"/>
     </row>
     <row r="95">
       <c r="A95" s="14"/>
-      <c r="D95" s="49"/>
+      <c r="D95" s="50"/>
     </row>
     <row r="96">
       <c r="A96" s="14"/>
-      <c r="D96" s="49"/>
+      <c r="D96" s="50"/>
     </row>
     <row r="97">
       <c r="A97" s="14"/>
-      <c r="D97" s="49"/>
+      <c r="D97" s="50"/>
     </row>
     <row r="98">
       <c r="A98" s="14"/>
-      <c r="D98" s="49"/>
+      <c r="D98" s="50"/>
     </row>
     <row r="99">
       <c r="A99" s="14"/>
-      <c r="D99" s="49"/>
+      <c r="D99" s="50"/>
     </row>
     <row r="100">
       <c r="A100" s="14"/>
-      <c r="D100" s="49"/>
+      <c r="D100" s="50"/>
     </row>
     <row r="101">
       <c r="A101" s="14"/>
-      <c r="D101" s="49"/>
+      <c r="D101" s="50"/>
     </row>
     <row r="102">
       <c r="A102" s="14"/>
-      <c r="D102" s="49"/>
+      <c r="D102" s="50"/>
     </row>
     <row r="103">
       <c r="A103" s="14"/>
-      <c r="D103" s="49"/>
+      <c r="D103" s="50"/>
     </row>
     <row r="104">
       <c r="A104" s="14"/>
-      <c r="D104" s="49"/>
+      <c r="D104" s="50"/>
     </row>
     <row r="105">
       <c r="A105" s="14"/>
-      <c r="D105" s="49"/>
+      <c r="D105" s="50"/>
     </row>
     <row r="106">
       <c r="A106" s="14"/>
-      <c r="D106" s="49"/>
+      <c r="D106" s="50"/>
     </row>
     <row r="107">
       <c r="A107" s="14"/>
-      <c r="D107" s="49"/>
+      <c r="D107" s="50"/>
     </row>
     <row r="108">
       <c r="A108" s="14"/>
-      <c r="D108" s="49"/>
+      <c r="D108" s="50"/>
     </row>
     <row r="109">
       <c r="A109" s="14"/>
-      <c r="D109" s="49"/>
+      <c r="D109" s="50"/>
     </row>
     <row r="110">
       <c r="A110" s="14"/>
-      <c r="D110" s="49"/>
+      <c r="D110" s="50"/>
     </row>
     <row r="111">
       <c r="A111" s="14"/>
-      <c r="D111" s="49"/>
+      <c r="D111" s="50"/>
     </row>
     <row r="112">
       <c r="A112" s="14"/>
-      <c r="D112" s="49"/>
+      <c r="D112" s="50"/>
     </row>
     <row r="113">
       <c r="A113" s="14"/>
-      <c r="D113" s="49"/>
+      <c r="D113" s="50"/>
     </row>
     <row r="114">
       <c r="A114" s="14"/>
-      <c r="D114" s="49"/>
+      <c r="D114" s="50"/>
     </row>
     <row r="115">
       <c r="A115" s="14"/>
-      <c r="D115" s="49"/>
+      <c r="D115" s="50"/>
     </row>
     <row r="116">
       <c r="A116" s="14"/>
-      <c r="D116" s="49"/>
+      <c r="D116" s="50"/>
     </row>
     <row r="117">
       <c r="A117" s="14"/>
-      <c r="D117" s="49"/>
+      <c r="D117" s="50"/>
     </row>
     <row r="118">
       <c r="A118" s="14"/>
-      <c r="D118" s="49"/>
+      <c r="D118" s="50"/>
     </row>
     <row r="119">
       <c r="A119" s="14"/>
-      <c r="D119" s="49"/>
+      <c r="D119" s="50"/>
     </row>
     <row r="120">
       <c r="A120" s="14"/>
-      <c r="D120" s="49"/>
+      <c r="D120" s="50"/>
     </row>
     <row r="121">
       <c r="A121" s="14"/>
-      <c r="D121" s="49"/>
+      <c r="D121" s="50"/>
     </row>
     <row r="122">
       <c r="A122" s="14"/>
-      <c r="D122" s="49"/>
+      <c r="D122" s="50"/>
     </row>
     <row r="123">
       <c r="A123" s="14"/>
-      <c r="D123" s="49"/>
+      <c r="D123" s="50"/>
     </row>
     <row r="124">
       <c r="A124" s="14"/>
-      <c r="D124" s="49"/>
+      <c r="D124" s="50"/>
     </row>
     <row r="125">
       <c r="A125" s="14"/>
-      <c r="D125" s="49"/>
+      <c r="D125" s="50"/>
     </row>
     <row r="126">
       <c r="A126" s="14"/>
-      <c r="D126" s="49"/>
+      <c r="D126" s="50"/>
     </row>
     <row r="127">
       <c r="A127" s="14"/>
-      <c r="D127" s="49"/>
+      <c r="D127" s="50"/>
     </row>
     <row r="128">
       <c r="A128" s="14"/>
-      <c r="D128" s="49"/>
+      <c r="D128" s="50"/>
     </row>
     <row r="129">
       <c r="A129" s="14"/>
-      <c r="D129" s="49"/>
+      <c r="D129" s="50"/>
     </row>
     <row r="130">
       <c r="A130" s="14"/>
-      <c r="D130" s="49"/>
+      <c r="D130" s="50"/>
     </row>
     <row r="131">
       <c r="A131" s="14"/>
-      <c r="D131" s="49"/>
+      <c r="D131" s="50"/>
     </row>
     <row r="132">
       <c r="A132" s="14"/>
-      <c r="D132" s="49"/>
+      <c r="D132" s="50"/>
     </row>
     <row r="133">
       <c r="A133" s="14"/>
-      <c r="D133" s="49"/>
+      <c r="D133" s="50"/>
     </row>
     <row r="134">
       <c r="A134" s="14"/>
-      <c r="D134" s="49"/>
+      <c r="D134" s="50"/>
     </row>
     <row r="135">
       <c r="A135" s="14"/>
-      <c r="D135" s="49"/>
+      <c r="D135" s="50"/>
     </row>
     <row r="136">
       <c r="A136" s="14"/>
-      <c r="D136" s="49"/>
+      <c r="D136" s="50"/>
     </row>
     <row r="137">
       <c r="A137" s="14"/>
-      <c r="D137" s="49"/>
+      <c r="D137" s="50"/>
     </row>
     <row r="138">
       <c r="A138" s="14"/>
-      <c r="D138" s="49"/>
+      <c r="D138" s="50"/>
     </row>
     <row r="139">
       <c r="A139" s="14"/>
-      <c r="D139" s="49"/>
+      <c r="D139" s="50"/>
     </row>
     <row r="140">
       <c r="A140" s="14"/>
-      <c r="D140" s="49"/>
+      <c r="D140" s="50"/>
     </row>
     <row r="141">
       <c r="A141" s="14"/>
-      <c r="D141" s="49"/>
+      <c r="D141" s="50"/>
     </row>
     <row r="142">
       <c r="A142" s="14"/>
-      <c r="D142" s="49"/>
+      <c r="D142" s="50"/>
     </row>
     <row r="143">
       <c r="A143" s="14"/>
-      <c r="D143" s="49"/>
+      <c r="D143" s="50"/>
     </row>
     <row r="144">
       <c r="A144" s="14"/>
-      <c r="D144" s="49"/>
+      <c r="D144" s="50"/>
     </row>
     <row r="145">
       <c r="A145" s="14"/>
-      <c r="D145" s="49"/>
+      <c r="D145" s="50"/>
     </row>
     <row r="146">
       <c r="A146" s="14"/>
-      <c r="D146" s="49"/>
+      <c r="D146" s="50"/>
     </row>
     <row r="147">
       <c r="A147" s="14"/>
-      <c r="D147" s="49"/>
+      <c r="D147" s="50"/>
     </row>
     <row r="148">
       <c r="A148" s="14"/>
-      <c r="D148" s="49"/>
+      <c r="D148" s="50"/>
     </row>
     <row r="149">
       <c r="A149" s="14"/>
-      <c r="D149" s="49"/>
+      <c r="D149" s="50"/>
     </row>
     <row r="150">
       <c r="A150" s="14"/>
-      <c r="D150" s="49"/>
+      <c r="D150" s="50"/>
     </row>
     <row r="151">
       <c r="A151" s="14"/>
-      <c r="D151" s="49"/>
+      <c r="D151" s="50"/>
     </row>
     <row r="152">
       <c r="A152" s="14"/>
-      <c r="D152" s="49"/>
+      <c r="D152" s="50"/>
     </row>
     <row r="153">
       <c r="A153" s="14"/>
-      <c r="D153" s="49"/>
+      <c r="D153" s="50"/>
     </row>
     <row r="154">
       <c r="A154" s="14"/>
-      <c r="D154" s="49"/>
+      <c r="D154" s="50"/>
     </row>
     <row r="155">
       <c r="A155" s="14"/>
-      <c r="D155" s="49"/>
+      <c r="D155" s="50"/>
     </row>
     <row r="156">
       <c r="A156" s="14"/>
-      <c r="D156" s="49"/>
+      <c r="D156" s="50"/>
     </row>
     <row r="157">
       <c r="A157" s="14"/>
-      <c r="D157" s="49"/>
+      <c r="D157" s="50"/>
     </row>
     <row r="158">
       <c r="A158" s="14"/>
-      <c r="D158" s="49"/>
+      <c r="D158" s="50"/>
     </row>
     <row r="159">
       <c r="A159" s="14"/>
-      <c r="D159" s="49"/>
+      <c r="D159" s="50"/>
     </row>
     <row r="160">
       <c r="A160" s="14"/>
-      <c r="D160" s="49"/>
+      <c r="D160" s="50"/>
     </row>
     <row r="161">
       <c r="A161" s="14"/>
-      <c r="D161" s="49"/>
+      <c r="D161" s="50"/>
     </row>
     <row r="162">
       <c r="A162" s="14"/>
-      <c r="D162" s="49"/>
+      <c r="D162" s="50"/>
     </row>
     <row r="163">
       <c r="A163" s="14"/>
-      <c r="D163" s="49"/>
+      <c r="D163" s="50"/>
     </row>
     <row r="164">
       <c r="A164" s="14"/>
-      <c r="D164" s="49"/>
+      <c r="D164" s="50"/>
     </row>
     <row r="165">
       <c r="A165" s="14"/>
-      <c r="D165" s="49"/>
+      <c r="D165" s="50"/>
     </row>
     <row r="166">
       <c r="A166" s="14"/>
-      <c r="D166" s="49"/>
+      <c r="D166" s="50"/>
     </row>
     <row r="167">
       <c r="A167" s="14"/>
-      <c r="D167" s="49"/>
+      <c r="D167" s="50"/>
     </row>
     <row r="168">
       <c r="A168" s="14"/>
-      <c r="D168" s="49"/>
+      <c r="D168" s="50"/>
     </row>
     <row r="169">
       <c r="A169" s="14"/>
-      <c r="D169" s="49"/>
+      <c r="D169" s="50"/>
     </row>
     <row r="170">
       <c r="A170" s="14"/>
-      <c r="D170" s="49"/>
+      <c r="D170" s="50"/>
     </row>
     <row r="171">
       <c r="A171" s="14"/>
-      <c r="D171" s="49"/>
+      <c r="D171" s="50"/>
     </row>
     <row r="172">
       <c r="A172" s="14"/>
-      <c r="D172" s="49"/>
+      <c r="D172" s="50"/>
     </row>
     <row r="173">
       <c r="A173" s="14"/>
-      <c r="D173" s="49"/>
+      <c r="D173" s="50"/>
     </row>
     <row r="174">
       <c r="A174" s="14"/>
-      <c r="D174" s="49"/>
+      <c r="D174" s="50"/>
     </row>
     <row r="175">
       <c r="A175" s="14"/>
-      <c r="D175" s="49"/>
+      <c r="D175" s="50"/>
     </row>
     <row r="176">
       <c r="A176" s="14"/>
-      <c r="D176" s="49"/>
+      <c r="D176" s="50"/>
     </row>
     <row r="177">
       <c r="A177" s="14"/>
-      <c r="D177" s="49"/>
+      <c r="D177" s="50"/>
     </row>
     <row r="178">
       <c r="A178" s="14"/>
-      <c r="D178" s="49"/>
+      <c r="D178" s="50"/>
     </row>
     <row r="179">
       <c r="A179" s="14"/>
-      <c r="D179" s="49"/>
+      <c r="D179" s="50"/>
     </row>
     <row r="180">
       <c r="A180" s="14"/>
-      <c r="D180" s="49"/>
+      <c r="D180" s="50"/>
     </row>
     <row r="181">
       <c r="A181" s="14"/>
-      <c r="D181" s="49"/>
+      <c r="D181" s="50"/>
     </row>
     <row r="182">
       <c r="A182" s="14"/>
-      <c r="D182" s="49"/>
+      <c r="D182" s="50"/>
     </row>
     <row r="183">
       <c r="A183" s="14"/>
-      <c r="D183" s="49"/>
+      <c r="D183" s="50"/>
     </row>
     <row r="184">
       <c r="A184" s="14"/>
-      <c r="D184" s="49"/>
+      <c r="D184" s="50"/>
     </row>
     <row r="185">
       <c r="A185" s="14"/>
-      <c r="D185" s="49"/>
+      <c r="D185" s="50"/>
     </row>
     <row r="186">
       <c r="A186" s="14"/>
-      <c r="D186" s="49"/>
+      <c r="D186" s="50"/>
     </row>
     <row r="187">
       <c r="A187" s="14"/>
-      <c r="D187" s="49"/>
+      <c r="D187" s="50"/>
     </row>
     <row r="188">
       <c r="A188" s="14"/>
-      <c r="D188" s="49"/>
+      <c r="D188" s="50"/>
     </row>
     <row r="189">
       <c r="A189" s="14"/>
-      <c r="D189" s="49"/>
+      <c r="D189" s="50"/>
     </row>
     <row r="190">
       <c r="A190" s="14"/>
-      <c r="D190" s="49"/>
+      <c r="D190" s="50"/>
     </row>
     <row r="191">
       <c r="A191" s="14"/>
-      <c r="D191" s="49"/>
+      <c r="D191" s="50"/>
     </row>
     <row r="192">
       <c r="A192" s="14"/>
-      <c r="D192" s="49"/>
+      <c r="D192" s="50"/>
     </row>
     <row r="193">
       <c r="A193" s="14"/>
-      <c r="D193" s="49"/>
+      <c r="D193" s="50"/>
     </row>
     <row r="194">
       <c r="A194" s="14"/>
-      <c r="D194" s="49"/>
+      <c r="D194" s="50"/>
     </row>
     <row r="195">
       <c r="A195" s="14"/>
-      <c r="D195" s="49"/>
+      <c r="D195" s="50"/>
     </row>
     <row r="196">
       <c r="A196" s="14"/>
-      <c r="D196" s="49"/>
+      <c r="D196" s="50"/>
     </row>
     <row r="197">
       <c r="A197" s="14"/>
-      <c r="D197" s="49"/>
+      <c r="D197" s="50"/>
     </row>
     <row r="198">
       <c r="A198" s="14"/>
-      <c r="D198" s="49"/>
+      <c r="D198" s="50"/>
     </row>
     <row r="199">
       <c r="A199" s="14"/>
-      <c r="D199" s="49"/>
+      <c r="D199" s="50"/>
     </row>
     <row r="200">
       <c r="A200" s="14"/>
-      <c r="D200" s="49"/>
+      <c r="D200" s="50"/>
     </row>
     <row r="201">
       <c r="A201" s="14"/>
-      <c r="D201" s="49"/>
+      <c r="D201" s="50"/>
     </row>
     <row r="202">
       <c r="A202" s="14"/>
-      <c r="D202" s="49"/>
+      <c r="D202" s="50"/>
     </row>
     <row r="203">
       <c r="A203" s="14"/>
-      <c r="D203" s="49"/>
+      <c r="D203" s="50"/>
     </row>
     <row r="204">
       <c r="A204" s="14"/>
-      <c r="D204" s="49"/>
+      <c r="D204" s="50"/>
     </row>
     <row r="205">
       <c r="A205" s="14"/>
-      <c r="D205" s="49"/>
+      <c r="D205" s="50"/>
     </row>
     <row r="206">
       <c r="A206" s="14"/>
-      <c r="D206" s="49"/>
+      <c r="D206" s="50"/>
     </row>
     <row r="207">
       <c r="A207" s="14"/>
-      <c r="D207" s="49"/>
+      <c r="D207" s="50"/>
     </row>
     <row r="208">
       <c r="A208" s="14"/>
-      <c r="D208" s="49"/>
+      <c r="D208" s="50"/>
     </row>
     <row r="209">
       <c r="A209" s="14"/>
-      <c r="D209" s="49"/>
+      <c r="D209" s="50"/>
     </row>
     <row r="210">
       <c r="A210" s="14"/>
-      <c r="D210" s="49"/>
+      <c r="D210" s="50"/>
     </row>
     <row r="211">
       <c r="A211" s="14"/>
-      <c r="D211" s="49"/>
+      <c r="D211" s="50"/>
     </row>
     <row r="212">
       <c r="A212" s="14"/>
-      <c r="D212" s="49"/>
+      <c r="D212" s="50"/>
     </row>
     <row r="213">
       <c r="A213" s="14"/>
-      <c r="D213" s="49"/>
+      <c r="D213" s="50"/>
     </row>
     <row r="214">
       <c r="A214" s="14"/>
-      <c r="D214" s="49"/>
+      <c r="D214" s="50"/>
     </row>
     <row r="215">
       <c r="A215" s="14"/>
-      <c r="D215" s="49"/>
+      <c r="D215" s="50"/>
     </row>
     <row r="216">
       <c r="A216" s="14"/>
-      <c r="D216" s="49"/>
+      <c r="D216" s="50"/>
     </row>
     <row r="217">
       <c r="A217" s="14"/>
-      <c r="D217" s="49"/>
+      <c r="D217" s="50"/>
     </row>
     <row r="218">
       <c r="A218" s="14"/>
-      <c r="D218" s="49"/>
+      <c r="D218" s="50"/>
     </row>
     <row r="219">
       <c r="A219" s="14"/>
-      <c r="D219" s="49"/>
+      <c r="D219" s="50"/>
     </row>
     <row r="220">
       <c r="A220" s="14"/>
-      <c r="D220" s="49"/>
+      <c r="D220" s="50"/>
     </row>
     <row r="221">
       <c r="A221" s="14"/>
-      <c r="D221" s="49"/>
+      <c r="D221" s="50"/>
     </row>
     <row r="222">
       <c r="A222" s="14"/>
-      <c r="D222" s="49"/>
+      <c r="D222" s="50"/>
     </row>
     <row r="223">
       <c r="A223" s="14"/>
-      <c r="D223" s="49"/>
+      <c r="D223" s="50"/>
     </row>
     <row r="224">
       <c r="A224" s="14"/>
-      <c r="D224" s="49"/>
+      <c r="D224" s="50"/>
     </row>
     <row r="225">
       <c r="A225" s="14"/>
-      <c r="D225" s="49"/>
+      <c r="D225" s="50"/>
     </row>
     <row r="226">
       <c r="A226" s="14"/>
-      <c r="D226" s="49"/>
+      <c r="D226" s="50"/>
     </row>
     <row r="227">
       <c r="A227" s="14"/>
-      <c r="D227" s="49"/>
+      <c r="D227" s="50"/>
     </row>
     <row r="228">
       <c r="A228" s="14"/>
-      <c r="D228" s="49"/>
+      <c r="D228" s="50"/>
     </row>
     <row r="229">
       <c r="A229" s="14"/>
-      <c r="D229" s="49"/>
+      <c r="D229" s="50"/>
     </row>
     <row r="230">
       <c r="A230" s="14"/>
-      <c r="D230" s="49"/>
+      <c r="D230" s="50"/>
     </row>
     <row r="231">
       <c r="A231" s="14"/>
-      <c r="D231" s="49"/>
+      <c r="D231" s="50"/>
     </row>
     <row r="232">
       <c r="A232" s="14"/>
-      <c r="D232" s="49"/>
+      <c r="D232" s="50"/>
     </row>
     <row r="233">
       <c r="A233" s="14"/>
-      <c r="D233" s="49"/>
+      <c r="D233" s="50"/>
     </row>
     <row r="234">
       <c r="A234" s="14"/>
-      <c r="D234" s="49"/>
+      <c r="D234" s="50"/>
     </row>
     <row r="235">
       <c r="A235" s="14"/>
-      <c r="D235" s="49"/>
+      <c r="D235" s="50"/>
     </row>
     <row r="236">
       <c r="A236" s="14"/>
-      <c r="D236" s="49"/>
+      <c r="D236" s="50"/>
     </row>
     <row r="237">
       <c r="A237" s="14"/>
-      <c r="D237" s="49"/>
+      <c r="D237" s="50"/>
     </row>
     <row r="238">
       <c r="A238" s="14"/>
-      <c r="D238" s="49"/>
+      <c r="D238" s="50"/>
     </row>
     <row r="239">
       <c r="A239" s="14"/>
-      <c r="D239" s="49"/>
+      <c r="D239" s="50"/>
     </row>
     <row r="240">
       <c r="A240" s="14"/>
-      <c r="D240" s="49"/>
+      <c r="D240" s="50"/>
     </row>
     <row r="241">
       <c r="A241" s="14"/>
-      <c r="D241" s="49"/>
+      <c r="D241" s="50"/>
     </row>
     <row r="242">
       <c r="A242" s="14"/>
-      <c r="D242" s="49"/>
+      <c r="D242" s="50"/>
     </row>
     <row r="243">
       <c r="A243" s="14"/>
-      <c r="D243" s="49"/>
+      <c r="D243" s="50"/>
     </row>
     <row r="244">
       <c r="A244" s="14"/>
-      <c r="D244" s="49"/>
+      <c r="D244" s="50"/>
     </row>
     <row r="245">
       <c r="A245" s="14"/>
-      <c r="D245" s="49"/>
+      <c r="D245" s="50"/>
     </row>
     <row r="246">
       <c r="A246" s="14"/>
-      <c r="D246" s="49"/>
+      <c r="D246" s="50"/>
     </row>
     <row r="247">
       <c r="A247" s="14"/>
-      <c r="D247" s="49"/>
+      <c r="D247" s="50"/>
     </row>
     <row r="248">
       <c r="A248" s="14"/>
-      <c r="D248" s="49"/>
+      <c r="D248" s="50"/>
     </row>
     <row r="249">
       <c r="A249" s="14"/>
-      <c r="D249" s="49"/>
+      <c r="D249" s="50"/>
     </row>
     <row r="250">
       <c r="A250" s="14"/>
-      <c r="D250" s="49"/>
+      <c r="D250" s="50"/>
     </row>
     <row r="251">
       <c r="A251" s="14"/>
-      <c r="D251" s="49"/>
+      <c r="D251" s="50"/>
     </row>
     <row r="252">
       <c r="A252" s="14"/>
-      <c r="D252" s="49"/>
+      <c r="D252" s="50"/>
     </row>
     <row r="253">
       <c r="A253" s="14"/>
-      <c r="D253" s="49"/>
+      <c r="D253" s="50"/>
     </row>
     <row r="254">
       <c r="A254" s="14"/>
-      <c r="D254" s="49"/>
+      <c r="D254" s="50"/>
     </row>
     <row r="255">
       <c r="A255" s="14"/>
-      <c r="D255" s="49"/>
+      <c r="D255" s="50"/>
     </row>
     <row r="256">
       <c r="A256" s="14"/>
-      <c r="D256" s="49"/>
+      <c r="D256" s="50"/>
     </row>
     <row r="257">
       <c r="A257" s="14"/>
-      <c r="D257" s="49"/>
+      <c r="D257" s="50"/>
     </row>
     <row r="258">
       <c r="A258" s="14"/>
-      <c r="D258" s="49"/>
+      <c r="D258" s="50"/>
     </row>
     <row r="259">
       <c r="A259" s="14"/>
-      <c r="D259" s="49"/>
+      <c r="D259" s="50"/>
     </row>
     <row r="260">
       <c r="A260" s="14"/>
-      <c r="D260" s="49"/>
+      <c r="D260" s="50"/>
     </row>
     <row r="261">
       <c r="A261" s="14"/>
-      <c r="D261" s="49"/>
+      <c r="D261" s="50"/>
     </row>
     <row r="262">
       <c r="A262" s="14"/>
-      <c r="D262" s="49"/>
+      <c r="D262" s="50"/>
     </row>
     <row r="263">
       <c r="A263" s="14"/>
-      <c r="D263" s="49"/>
+      <c r="D263" s="50"/>
     </row>
     <row r="264">
       <c r="A264" s="14"/>
-      <c r="D264" s="49"/>
+      <c r="D264" s="50"/>
     </row>
     <row r="265">
       <c r="A265" s="14"/>
-      <c r="D265" s="49"/>
+      <c r="D265" s="50"/>
     </row>
     <row r="266">
       <c r="A266" s="14"/>
-      <c r="D266" s="49"/>
+      <c r="D266" s="50"/>
     </row>
     <row r="267">
       <c r="A267" s="14"/>
-      <c r="D267" s="49"/>
+      <c r="D267" s="50"/>
     </row>
     <row r="268">
       <c r="A268" s="14"/>
-      <c r="D268" s="49"/>
+      <c r="D268" s="50"/>
     </row>
     <row r="269">
       <c r="A269" s="14"/>
-      <c r="D269" s="49"/>
+      <c r="D269" s="50"/>
     </row>
     <row r="270">
       <c r="A270" s="14"/>
-      <c r="D270" s="49"/>
+      <c r="D270" s="50"/>
     </row>
     <row r="271">
       <c r="A271" s="14"/>
-      <c r="D271" s="49"/>
+      <c r="D271" s="50"/>
     </row>
     <row r="272">
       <c r="A272" s="14"/>
-      <c r="D272" s="49"/>
+      <c r="D272" s="50"/>
     </row>
     <row r="273">
       <c r="A273" s="14"/>
-      <c r="D273" s="49"/>
+      <c r="D273" s="50"/>
     </row>
     <row r="274">
       <c r="A274" s="14"/>
-      <c r="D274" s="49"/>
+      <c r="D274" s="50"/>
     </row>
     <row r="275">
       <c r="A275" s="14"/>
-      <c r="D275" s="49"/>
+      <c r="D275" s="50"/>
     </row>
     <row r="276">
       <c r="A276" s="14"/>
-      <c r="D276" s="49"/>
+      <c r="D276" s="50"/>
     </row>
     <row r="277">
       <c r="A277" s="14"/>
-      <c r="D277" s="49"/>
+      <c r="D277" s="50"/>
     </row>
     <row r="278">
       <c r="A278" s="14"/>
-      <c r="D278" s="49"/>
+      <c r="D278" s="50"/>
     </row>
     <row r="279">
       <c r="A279" s="14"/>
-      <c r="D279" s="49"/>
+      <c r="D279" s="50"/>
     </row>
     <row r="280">
       <c r="A280" s="14"/>
-      <c r="D280" s="49"/>
+      <c r="D280" s="50"/>
     </row>
     <row r="281">
       <c r="A281" s="14"/>
-      <c r="D281" s="49"/>
+      <c r="D281" s="50"/>
     </row>
     <row r="282">
       <c r="A282" s="14"/>
-      <c r="D282" s="49"/>
+      <c r="D282" s="50"/>
     </row>
     <row r="283">
       <c r="A283" s="14"/>
-      <c r="D283" s="49"/>
+      <c r="D283" s="50"/>
     </row>
     <row r="284">
       <c r="A284" s="14"/>
-      <c r="D284" s="49"/>
+      <c r="D284" s="50"/>
     </row>
     <row r="285">
       <c r="A285" s="14"/>
-      <c r="D285" s="49"/>
+      <c r="D285" s="50"/>
     </row>
     <row r="286">
       <c r="A286" s="14"/>
-      <c r="D286" s="49"/>
+      <c r="D286" s="50"/>
     </row>
     <row r="287">
       <c r="A287" s="14"/>
-      <c r="D287" s="49"/>
+      <c r="D287" s="50"/>
     </row>
     <row r="288">
       <c r="A288" s="14"/>
-      <c r="D288" s="49"/>
+      <c r="D288" s="50"/>
     </row>
     <row r="289">
       <c r="A289" s="14"/>
-      <c r="D289" s="49"/>
+      <c r="D289" s="50"/>
     </row>
     <row r="290">
       <c r="A290" s="14"/>
-      <c r="D290" s="49"/>
+      <c r="D290" s="50"/>
     </row>
     <row r="291">
       <c r="A291" s="14"/>
-      <c r="D291" s="49"/>
+      <c r="D291" s="50"/>
     </row>
     <row r="292">
       <c r="A292" s="14"/>
-      <c r="D292" s="49"/>
+      <c r="D292" s="50"/>
     </row>
     <row r="293">
       <c r="A293" s="14"/>
-      <c r="D293" s="49"/>
+      <c r="D293" s="50"/>
     </row>
     <row r="294">
       <c r="A294" s="14"/>
-      <c r="D294" s="49"/>
+      <c r="D294" s="50"/>
     </row>
     <row r="295">
       <c r="A295" s="14"/>
-      <c r="D295" s="49"/>
+      <c r="D295" s="50"/>
     </row>
     <row r="296">
       <c r="A296" s="14"/>
-      <c r="D296" s="49"/>
+      <c r="D296" s="50"/>
     </row>
     <row r="297">
       <c r="A297" s="14"/>
-      <c r="D297" s="49"/>
+      <c r="D297" s="50"/>
     </row>
     <row r="298">
       <c r="A298" s="14"/>
-      <c r="D298" s="49"/>
+      <c r="D298" s="50"/>
     </row>
     <row r="299">
       <c r="A299" s="14"/>
-      <c r="D299" s="49"/>
+      <c r="D299" s="50"/>
     </row>
     <row r="300">
       <c r="A300" s="14"/>
-      <c r="D300" s="49"/>
+      <c r="D300" s="50"/>
     </row>
     <row r="301">
       <c r="A301" s="14"/>
-      <c r="D301" s="49"/>
+      <c r="D301" s="50"/>
     </row>
     <row r="302">
       <c r="A302" s="14"/>
-      <c r="D302" s="49"/>
+      <c r="D302" s="50"/>
     </row>
     <row r="303">
       <c r="A303" s="14"/>
-      <c r="D303" s="49"/>
+      <c r="D303" s="50"/>
     </row>
     <row r="304">
       <c r="A304" s="14"/>
-      <c r="D304" s="49"/>
+      <c r="D304" s="50"/>
     </row>
     <row r="305">
       <c r="A305" s="14"/>
-      <c r="D305" s="49"/>
+      <c r="D305" s="50"/>
     </row>
     <row r="306">
       <c r="A306" s="14"/>
-      <c r="D306" s="49"/>
+      <c r="D306" s="50"/>
     </row>
     <row r="307">
       <c r="A307" s="14"/>
-      <c r="D307" s="49"/>
+      <c r="D307" s="50"/>
     </row>
     <row r="308">
       <c r="A308" s="14"/>
-      <c r="D308" s="49"/>
+      <c r="D308" s="50"/>
     </row>
     <row r="309">
       <c r="A309" s="14"/>
-      <c r="D309" s="49"/>
+      <c r="D309" s="50"/>
     </row>
     <row r="310">
       <c r="A310" s="14"/>
-      <c r="D310" s="49"/>
+      <c r="D310" s="50"/>
     </row>
     <row r="311">
       <c r="A311" s="14"/>
-      <c r="D311" s="49"/>
+      <c r="D311" s="50"/>
     </row>
     <row r="312">
       <c r="A312" s="14"/>
-      <c r="D312" s="49"/>
+      <c r="D312" s="50"/>
     </row>
     <row r="313">
       <c r="A313" s="14"/>
-      <c r="D313" s="49"/>
+      <c r="D313" s="50"/>
     </row>
     <row r="314">
       <c r="A314" s="14"/>
-      <c r="D314" s="49"/>
+      <c r="D314" s="50"/>
     </row>
     <row r="315">
       <c r="A315" s="14"/>
-      <c r="D315" s="49"/>
+      <c r="D315" s="50"/>
     </row>
     <row r="316">
       <c r="A316" s="14"/>
-      <c r="D316" s="49"/>
+      <c r="D316" s="50"/>
     </row>
     <row r="317">
       <c r="A317" s="14"/>
-      <c r="D317" s="49"/>
+      <c r="D317" s="50"/>
     </row>
     <row r="318">
       <c r="A318" s="14"/>
-      <c r="D318" s="49"/>
+      <c r="D318" s="50"/>
     </row>
     <row r="319">
       <c r="A319" s="14"/>
-      <c r="D319" s="49"/>
+      <c r="D319" s="50"/>
     </row>
     <row r="320">
       <c r="A320" s="14"/>
-      <c r="D320" s="49"/>
+      <c r="D320" s="50"/>
     </row>
     <row r="321">
       <c r="A321" s="14"/>
-      <c r="D321" s="49"/>
+      <c r="D321" s="50"/>
     </row>
     <row r="322">
       <c r="A322" s="14"/>
-      <c r="D322" s="49"/>
+      <c r="D322" s="50"/>
     </row>
     <row r="323">
       <c r="A323" s="14"/>
-      <c r="D323" s="49"/>
+      <c r="D323" s="50"/>
     </row>
     <row r="324">
       <c r="A324" s="14"/>
-      <c r="D324" s="49"/>
+      <c r="D324" s="50"/>
     </row>
     <row r="325">
       <c r="A325" s="14"/>
-      <c r="D325" s="49"/>
+      <c r="D325" s="50"/>
     </row>
     <row r="326">
       <c r="A326" s="14"/>
-      <c r="D326" s="49"/>
+      <c r="D326" s="50"/>
     </row>
     <row r="327">
       <c r="A327" s="14"/>
-      <c r="D327" s="49"/>
+      <c r="D327" s="50"/>
     </row>
     <row r="328">
       <c r="A328" s="14"/>
-      <c r="D328" s="49"/>
+      <c r="D328" s="50"/>
     </row>
     <row r="329">
       <c r="A329" s="14"/>
-      <c r="D329" s="49"/>
+      <c r="D329" s="50"/>
     </row>
     <row r="330">
       <c r="A330" s="14"/>
-      <c r="D330" s="49"/>
+      <c r="D330" s="50"/>
     </row>
     <row r="331">
       <c r="A331" s="14"/>
-      <c r="D331" s="49"/>
+      <c r="D331" s="50"/>
     </row>
     <row r="332">
       <c r="A332" s="14"/>
-      <c r="D332" s="49"/>
+      <c r="D332" s="50"/>
     </row>
     <row r="333">
       <c r="A333" s="14"/>
-      <c r="D333" s="49"/>
+      <c r="D333" s="50"/>
     </row>
     <row r="334">
       <c r="A334" s="14"/>
-      <c r="D334" s="49"/>
+      <c r="D334" s="50"/>
     </row>
     <row r="335">
       <c r="A335" s="14"/>
-      <c r="D335" s="49"/>
+      <c r="D335" s="50"/>
     </row>
     <row r="336">
       <c r="A336" s="14"/>
-      <c r="D336" s="49"/>
+      <c r="D336" s="50"/>
     </row>
     <row r="337">
       <c r="A337" s="14"/>
-      <c r="D337" s="49"/>
+      <c r="D337" s="50"/>
     </row>
     <row r="338">
       <c r="A338" s="14"/>
-      <c r="D338" s="49"/>
+      <c r="D338" s="50"/>
     </row>
     <row r="339">
       <c r="A339" s="14"/>
-      <c r="D339" s="49"/>
+      <c r="D339" s="50"/>
     </row>
     <row r="340">
       <c r="A340" s="14"/>
-      <c r="D340" s="49"/>
+      <c r="D340" s="50"/>
     </row>
     <row r="341">
       <c r="A341" s="14"/>
-      <c r="D341" s="49"/>
+      <c r="D341" s="50"/>
     </row>
     <row r="342">
       <c r="A342" s="14"/>
-      <c r="D342" s="49"/>
+      <c r="D342" s="50"/>
     </row>
     <row r="343">
       <c r="A343" s="14"/>
-      <c r="D343" s="49"/>
+      <c r="D343" s="50"/>
     </row>
     <row r="344">
       <c r="A344" s="14"/>
-      <c r="D344" s="49"/>
+      <c r="D344" s="50"/>
     </row>
     <row r="345">
       <c r="A345" s="14"/>
-      <c r="D345" s="49"/>
+      <c r="D345" s="50"/>
     </row>
     <row r="346">
       <c r="A346" s="14"/>
-      <c r="D346" s="49"/>
+      <c r="D346" s="50"/>
     </row>
     <row r="347">
       <c r="A347" s="14"/>
-      <c r="D347" s="49"/>
+      <c r="D347" s="50"/>
     </row>
     <row r="348">
       <c r="A348" s="14"/>
-      <c r="D348" s="49"/>
+      <c r="D348" s="50"/>
     </row>
     <row r="349">
       <c r="A349" s="14"/>
-      <c r="D349" s="49"/>
+      <c r="D349" s="50"/>
     </row>
     <row r="350">
       <c r="A350" s="14"/>
-      <c r="D350" s="49"/>
+      <c r="D350" s="50"/>
     </row>
     <row r="351">
       <c r="A351" s="14"/>
-      <c r="D351" s="49"/>
+      <c r="D351" s="50"/>
     </row>
     <row r="352">
       <c r="A352" s="14"/>
-      <c r="D352" s="49"/>
+      <c r="D352" s="50"/>
     </row>
     <row r="353">
       <c r="A353" s="14"/>
-      <c r="D353" s="49"/>
+      <c r="D353" s="50"/>
     </row>
     <row r="354">
       <c r="A354" s="14"/>
-      <c r="D354" s="49"/>
+      <c r="D354" s="50"/>
     </row>
     <row r="355">
       <c r="A355" s="14"/>
-      <c r="D355" s="49"/>
+      <c r="D355" s="50"/>
     </row>
     <row r="356">
       <c r="A356" s="14"/>
-      <c r="D356" s="49"/>
+      <c r="D356" s="50"/>
     </row>
     <row r="357">
       <c r="A357" s="14"/>
-      <c r="D357" s="49"/>
+      <c r="D357" s="50"/>
     </row>
     <row r="358">
       <c r="A358" s="14"/>
-      <c r="D358" s="49"/>
+      <c r="D358" s="50"/>
     </row>
     <row r="359">
       <c r="A359" s="14"/>
-      <c r="D359" s="49"/>
+      <c r="D359" s="50"/>
     </row>
     <row r="360">
       <c r="A360" s="14"/>
-      <c r="D360" s="49"/>
+      <c r="D360" s="50"/>
     </row>
     <row r="361">
       <c r="A361" s="14"/>
-      <c r="D361" s="49"/>
+      <c r="D361" s="50"/>
     </row>
     <row r="362">
       <c r="A362" s="14"/>
-      <c r="D362" s="49"/>
+      <c r="D362" s="50"/>
     </row>
     <row r="363">
       <c r="A363" s="14"/>
-      <c r="D363" s="49"/>
+      <c r="D363" s="50"/>
     </row>
     <row r="364">
       <c r="A364" s="14"/>
-      <c r="D364" s="49"/>
+      <c r="D364" s="50"/>
     </row>
     <row r="365">
       <c r="A365" s="14"/>
-      <c r="D365" s="49"/>
+      <c r="D365" s="50"/>
     </row>
     <row r="366">
       <c r="A366" s="14"/>
-      <c r="D366" s="49"/>
+      <c r="D366" s="50"/>
     </row>
     <row r="367">
       <c r="A367" s="14"/>
-      <c r="D367" s="49"/>
+      <c r="D367" s="50"/>
     </row>
     <row r="368">
       <c r="A368" s="14"/>
-      <c r="D368" s="49"/>
+      <c r="D368" s="50"/>
     </row>
     <row r="369">
       <c r="A369" s="14"/>
-      <c r="D369" s="49"/>
+      <c r="D369" s="50"/>
     </row>
     <row r="370">
       <c r="A370" s="14"/>
-      <c r="D370" s="49"/>
+      <c r="D370" s="50"/>
     </row>
     <row r="371">
       <c r="A371" s="14"/>
-      <c r="D371" s="49"/>
+      <c r="D371" s="50"/>
     </row>
     <row r="372">
       <c r="A372" s="14"/>
-      <c r="D372" s="49"/>
+      <c r="D372" s="50"/>
     </row>
     <row r="373">
       <c r="A373" s="14"/>
-      <c r="D373" s="49"/>
+      <c r="D373" s="50"/>
     </row>
     <row r="374">
       <c r="A374" s="14"/>
-      <c r="D374" s="49"/>
+      <c r="D374" s="50"/>
     </row>
     <row r="375">
       <c r="A375" s="14"/>
-      <c r="D375" s="49"/>
+      <c r="D375" s="50"/>
     </row>
     <row r="376">
       <c r="A376" s="14"/>
-      <c r="D376" s="49"/>
+      <c r="D376" s="50"/>
     </row>
     <row r="377">
       <c r="A377" s="14"/>
-      <c r="D377" s="49"/>
+      <c r="D377" s="50"/>
     </row>
     <row r="378">
       <c r="A378" s="14"/>
-      <c r="D378" s="49"/>
+      <c r="D378" s="50"/>
     </row>
     <row r="379">
       <c r="A379" s="14"/>
-      <c r="D379" s="49"/>
+      <c r="D379" s="50"/>
     </row>
     <row r="380">
       <c r="A380" s="14"/>
-      <c r="D380" s="49"/>
+      <c r="D380" s="50"/>
     </row>
     <row r="381">
       <c r="A381" s="14"/>
-      <c r="D381" s="49"/>
+      <c r="D381" s="50"/>
     </row>
     <row r="382">
       <c r="A382" s="14"/>
-      <c r="D382" s="49"/>
+      <c r="D382" s="50"/>
     </row>
     <row r="383">
       <c r="A383" s="14"/>
-      <c r="D383" s="49"/>
+      <c r="D383" s="50"/>
     </row>
     <row r="384">
       <c r="A384" s="14"/>
-      <c r="D384" s="49"/>
+      <c r="D384" s="50"/>
     </row>
     <row r="385">
       <c r="A385" s="14"/>
-      <c r="D385" s="49"/>
+      <c r="D385" s="50"/>
     </row>
     <row r="386">
       <c r="A386" s="14"/>
-      <c r="D386" s="49"/>
+      <c r="D386" s="50"/>
     </row>
     <row r="387">
       <c r="A387" s="14"/>
-      <c r="D387" s="49"/>
+      <c r="D387" s="50"/>
     </row>
     <row r="388">
       <c r="A388" s="14"/>
-      <c r="D388" s="49"/>
+      <c r="D388" s="50"/>
     </row>
     <row r="389">
       <c r="A389" s="14"/>
-      <c r="D389" s="49"/>
+      <c r="D389" s="50"/>
     </row>
     <row r="390">
       <c r="A390" s="14"/>
-      <c r="D390" s="49"/>
+      <c r="D390" s="50"/>
     </row>
     <row r="391">
       <c r="A391" s="14"/>
-      <c r="D391" s="49"/>
+      <c r="D391" s="50"/>
     </row>
     <row r="392">
       <c r="A392" s="14"/>
-      <c r="D392" s="49"/>
+      <c r="D392" s="50"/>
     </row>
     <row r="393">
       <c r="A393" s="14"/>
-      <c r="D393" s="49"/>
+      <c r="D393" s="50"/>
     </row>
     <row r="394">
       <c r="A394" s="14"/>
-      <c r="D394" s="49"/>
+      <c r="D394" s="50"/>
     </row>
     <row r="395">
       <c r="A395" s="14"/>
-      <c r="D395" s="49"/>
+      <c r="D395" s="50"/>
     </row>
     <row r="396">
       <c r="A396" s="14"/>
-      <c r="D396" s="49"/>
+      <c r="D396" s="50"/>
     </row>
     <row r="397">
       <c r="A397" s="14"/>
-      <c r="D397" s="49"/>
+      <c r="D397" s="50"/>
     </row>
     <row r="398">
       <c r="A398" s="14"/>
-      <c r="D398" s="49"/>
+      <c r="D398" s="50"/>
     </row>
     <row r="399">
       <c r="A399" s="14"/>
-      <c r="D399" s="49"/>
+      <c r="D399" s="50"/>
     </row>
     <row r="400">
       <c r="A400" s="14"/>
-      <c r="D400" s="49"/>
+      <c r="D400" s="50"/>
     </row>
     <row r="401">
       <c r="A401" s="14"/>
-      <c r="D401" s="49"/>
+      <c r="D401" s="50"/>
     </row>
     <row r="402">
       <c r="A402" s="14"/>
-      <c r="D402" s="49"/>
+      <c r="D402" s="50"/>
     </row>
     <row r="403">
       <c r="A403" s="14"/>
-      <c r="D403" s="49"/>
+      <c r="D403" s="50"/>
     </row>
     <row r="404">
       <c r="A404" s="14"/>
-      <c r="D404" s="49"/>
+      <c r="D404" s="50"/>
     </row>
     <row r="405">
       <c r="A405" s="14"/>
-      <c r="D405" s="49"/>
+      <c r="D405" s="50"/>
     </row>
     <row r="406">
       <c r="A406" s="14"/>
-      <c r="D406" s="49"/>
+      <c r="D406" s="50"/>
     </row>
     <row r="407">
       <c r="A407" s="14"/>
-      <c r="D407" s="49"/>
+      <c r="D407" s="50"/>
     </row>
     <row r="408">
       <c r="A408" s="14"/>
-      <c r="D408" s="49"/>
+      <c r="D408" s="50"/>
     </row>
     <row r="409">
       <c r="A409" s="14"/>
-      <c r="D409" s="49"/>
+      <c r="D409" s="50"/>
     </row>
     <row r="410">
       <c r="A410" s="14"/>
-      <c r="D410" s="49"/>
+      <c r="D410" s="50"/>
     </row>
     <row r="411">
       <c r="A411" s="14"/>
-      <c r="D411" s="49"/>
+      <c r="D411" s="50"/>
     </row>
     <row r="412">
       <c r="A412" s="14"/>
-      <c r="D412" s="49"/>
+      <c r="D412" s="50"/>
     </row>
     <row r="413">
       <c r="A413" s="14"/>
-      <c r="D413" s="49"/>
+      <c r="D413" s="50"/>
     </row>
     <row r="414">
       <c r="A414" s="14"/>
-      <c r="D414" s="49"/>
+      <c r="D414" s="50"/>
     </row>
     <row r="415">
       <c r="A415" s="14"/>
-      <c r="D415" s="49"/>
+      <c r="D415" s="50"/>
     </row>
     <row r="416">
       <c r="A416" s="14"/>
-      <c r="D416" s="49"/>
+      <c r="D416" s="50"/>
     </row>
     <row r="417">
       <c r="A417" s="14"/>
-      <c r="D417" s="49"/>
+      <c r="D417" s="50"/>
     </row>
     <row r="418">
       <c r="A418" s="14"/>
-      <c r="D418" s="49"/>
+      <c r="D418" s="50"/>
     </row>
     <row r="419">
       <c r="A419" s="14"/>
-      <c r="D419" s="49"/>
+      <c r="D419" s="50"/>
     </row>
     <row r="420">
       <c r="A420" s="14"/>
-      <c r="D420" s="49"/>
+      <c r="D420" s="50"/>
     </row>
     <row r="421">
       <c r="A421" s="14"/>
-      <c r="D421" s="49"/>
+      <c r="D421" s="50"/>
     </row>
     <row r="422">
       <c r="A422" s="14"/>
-      <c r="D422" s="49"/>
+      <c r="D422" s="50"/>
     </row>
     <row r="423">
       <c r="A423" s="14"/>
-      <c r="D423" s="49"/>
+      <c r="D423" s="50"/>
     </row>
     <row r="424">
       <c r="A424" s="14"/>
-      <c r="D424" s="49"/>
+      <c r="D424" s="50"/>
     </row>
     <row r="425">
       <c r="A425" s="14"/>
-      <c r="D425" s="49"/>
+      <c r="D425" s="50"/>
     </row>
     <row r="426">
       <c r="A426" s="14"/>
-      <c r="D426" s="49"/>
+      <c r="D426" s="50"/>
     </row>
     <row r="427">
       <c r="A427" s="14"/>
-      <c r="D427" s="49"/>
+      <c r="D427" s="50"/>
     </row>
     <row r="428">
       <c r="A428" s="14"/>
-      <c r="D428" s="49"/>
+      <c r="D428" s="50"/>
     </row>
     <row r="429">
       <c r="A429" s="14"/>
-      <c r="D429" s="49"/>
+      <c r="D429" s="50"/>
     </row>
     <row r="430">
       <c r="A430" s="14"/>
-      <c r="D430" s="49"/>
+      <c r="D430" s="50"/>
     </row>
     <row r="431">
       <c r="A431" s="14"/>
-      <c r="D431" s="49"/>
+      <c r="D431" s="50"/>
     </row>
     <row r="432">
       <c r="A432" s="14"/>
-      <c r="D432" s="49"/>
+      <c r="D432" s="50"/>
     </row>
     <row r="433">
       <c r="A433" s="14"/>
-      <c r="D433" s="49"/>
+      <c r="D433" s="50"/>
     </row>
     <row r="434">
       <c r="A434" s="14"/>
-      <c r="D434" s="49"/>
+      <c r="D434" s="50"/>
     </row>
     <row r="435">
       <c r="A435" s="14"/>
-      <c r="D435" s="49"/>
+      <c r="D435" s="50"/>
     </row>
     <row r="436">
       <c r="A436" s="14"/>
-      <c r="D436" s="49"/>
+      <c r="D436" s="50"/>
     </row>
     <row r="437">
       <c r="A437" s="14"/>
-      <c r="D437" s="49"/>
+      <c r="D437" s="50"/>
     </row>
     <row r="438">
       <c r="A438" s="14"/>
-      <c r="D438" s="49"/>
+      <c r="D438" s="50"/>
     </row>
     <row r="439">
       <c r="A439" s="14"/>
-      <c r="D439" s="49"/>
+      <c r="D439" s="50"/>
     </row>
     <row r="440">
       <c r="A440" s="14"/>
-      <c r="D440" s="49"/>
+      <c r="D440" s="50"/>
     </row>
     <row r="441">
       <c r="A441" s="14"/>
-      <c r="D441" s="49"/>
+      <c r="D441" s="50"/>
     </row>
     <row r="442">
       <c r="A442" s="14"/>
-      <c r="D442" s="49"/>
+      <c r="D442" s="50"/>
     </row>
     <row r="443">
       <c r="A443" s="14"/>
-      <c r="D443" s="49"/>
+      <c r="D443" s="50"/>
     </row>
     <row r="444">
       <c r="A444" s="14"/>
-      <c r="D444" s="49"/>
+      <c r="D444" s="50"/>
     </row>
     <row r="445">
       <c r="A445" s="14"/>
-      <c r="D445" s="49"/>
+      <c r="D445" s="50"/>
     </row>
     <row r="446">
       <c r="A446" s="14"/>
-      <c r="D446" s="49"/>
+      <c r="D446" s="50"/>
     </row>
     <row r="447">
       <c r="A447" s="14"/>
-      <c r="D447" s="49"/>
+      <c r="D447" s="50"/>
     </row>
     <row r="448">
       <c r="A448" s="14"/>
-      <c r="D448" s="49"/>
+      <c r="D448" s="50"/>
     </row>
     <row r="449">
       <c r="A449" s="14"/>
-      <c r="D449" s="49"/>
+      <c r="D449" s="50"/>
     </row>
     <row r="450">
       <c r="A450" s="14"/>
-      <c r="D450" s="49"/>
+      <c r="D450" s="50"/>
     </row>
     <row r="451">
       <c r="A451" s="14"/>
-      <c r="D451" s="49"/>
+      <c r="D451" s="50"/>
     </row>
     <row r="452">
       <c r="A452" s="14"/>
-      <c r="D452" s="49"/>
+      <c r="D452" s="50"/>
     </row>
     <row r="453">
       <c r="A453" s="14"/>
-      <c r="D453" s="49"/>
+      <c r="D453" s="50"/>
     </row>
     <row r="454">
       <c r="A454" s="14"/>
-      <c r="D454" s="49"/>
+      <c r="D454" s="50"/>
     </row>
     <row r="455">
       <c r="A455" s="14"/>
-      <c r="D455" s="49"/>
+      <c r="D455" s="50"/>
     </row>
     <row r="456">
       <c r="A456" s="14"/>
-      <c r="D456" s="49"/>
+      <c r="D456" s="50"/>
     </row>
     <row r="457">
       <c r="A457" s="14"/>
-      <c r="D457" s="49"/>
+      <c r="D457" s="50"/>
     </row>
     <row r="458">
       <c r="A458" s="14"/>
-      <c r="D458" s="49"/>
+      <c r="D458" s="50"/>
     </row>
     <row r="459">
       <c r="A459" s="14"/>
-      <c r="D459" s="49"/>
+      <c r="D459" s="50"/>
     </row>
     <row r="460">
       <c r="A460" s="14"/>
-      <c r="D460" s="49"/>
+      <c r="D460" s="50"/>
     </row>
     <row r="461">
       <c r="A461" s="14"/>
-      <c r="D461" s="49"/>
+      <c r="D461" s="50"/>
     </row>
     <row r="462">
       <c r="A462" s="14"/>
-      <c r="D462" s="49"/>
+      <c r="D462" s="50"/>
     </row>
     <row r="463">
       <c r="A463" s="14"/>
-      <c r="D463" s="49"/>
+      <c r="D463" s="50"/>
     </row>
     <row r="464">
       <c r="A464" s="14"/>
-      <c r="D464" s="49"/>
+      <c r="D464" s="50"/>
     </row>
     <row r="465">
       <c r="A465" s="14"/>
-      <c r="D465" s="49"/>
+      <c r="D465" s="50"/>
     </row>
     <row r="466">
       <c r="A466" s="14"/>
-      <c r="D466" s="49"/>
+      <c r="D466" s="50"/>
     </row>
     <row r="467">
       <c r="A467" s="14"/>
-      <c r="D467" s="49"/>
+      <c r="D467" s="50"/>
     </row>
     <row r="468">
       <c r="A468" s="14"/>
-      <c r="D468" s="49"/>
+      <c r="D468" s="50"/>
     </row>
     <row r="469">
       <c r="A469" s="14"/>
-      <c r="D469" s="49"/>
+      <c r="D469" s="50"/>
     </row>
     <row r="470">
       <c r="A470" s="14"/>
-      <c r="D470" s="49"/>
+      <c r="D470" s="50"/>
     </row>
     <row r="471">
       <c r="A471" s="14"/>
-      <c r="D471" s="49"/>
+      <c r="D471" s="50"/>
     </row>
     <row r="472">
       <c r="A472" s="14"/>
-      <c r="D472" s="49"/>
+      <c r="D472" s="50"/>
     </row>
     <row r="473">
       <c r="A473" s="14"/>
-      <c r="D473" s="49"/>
+      <c r="D473" s="50"/>
     </row>
     <row r="474">
       <c r="A474" s="14"/>
-      <c r="D474" s="49"/>
+      <c r="D474" s="50"/>
     </row>
     <row r="475">
       <c r="A475" s="14"/>
-      <c r="D475" s="49"/>
+      <c r="D475" s="50"/>
     </row>
     <row r="476">
       <c r="A476" s="14"/>
-      <c r="D476" s="49"/>
+      <c r="D476" s="50"/>
     </row>
     <row r="477">
       <c r="A477" s="14"/>
-      <c r="D477" s="49"/>
+      <c r="D477" s="50"/>
     </row>
     <row r="478">
       <c r="A478" s="14"/>
-      <c r="D478" s="49"/>
+      <c r="D478" s="50"/>
     </row>
     <row r="479">
       <c r="A479" s="14"/>
-      <c r="D479" s="49"/>
+      <c r="D479" s="50"/>
     </row>
     <row r="480">
       <c r="A480" s="14"/>
-      <c r="D480" s="49"/>
+      <c r="D480" s="50"/>
     </row>
     <row r="481">
       <c r="A481" s="14"/>
-      <c r="D481" s="49"/>
+      <c r="D481" s="50"/>
     </row>
     <row r="482">
       <c r="A482" s="14"/>
-      <c r="D482" s="49"/>
+      <c r="D482" s="50"/>
     </row>
     <row r="483">
       <c r="A483" s="14"/>
-      <c r="D483" s="49"/>
+      <c r="D483" s="50"/>
     </row>
     <row r="484">
       <c r="A484" s="14"/>
-      <c r="D484" s="49"/>
+      <c r="D484" s="50"/>
     </row>
     <row r="485">
       <c r="A485" s="14"/>
-      <c r="D485" s="49"/>
+      <c r="D485" s="50"/>
     </row>
     <row r="486">
       <c r="A486" s="14"/>
-      <c r="D486" s="49"/>
+      <c r="D486" s="50"/>
     </row>
     <row r="487">
       <c r="A487" s="14"/>
-      <c r="D487" s="49"/>
+      <c r="D487" s="50"/>
     </row>
     <row r="488">
       <c r="A488" s="14"/>
-      <c r="D488" s="49"/>
+      <c r="D488" s="50"/>
     </row>
     <row r="489">
       <c r="A489" s="14"/>
-      <c r="D489" s="49"/>
+      <c r="D489" s="50"/>
     </row>
     <row r="490">
       <c r="A490" s="14"/>
-      <c r="D490" s="49"/>
+      <c r="D490" s="50"/>
     </row>
     <row r="491">
       <c r="A491" s="14"/>
-      <c r="D491" s="49"/>
+      <c r="D491" s="50"/>
     </row>
     <row r="492">
       <c r="A492" s="14"/>
-      <c r="D492" s="49"/>
+      <c r="D492" s="50"/>
     </row>
     <row r="493">
       <c r="A493" s="14"/>
-      <c r="D493" s="49"/>
+      <c r="D493" s="50"/>
     </row>
     <row r="494">
       <c r="A494" s="14"/>
-      <c r="D494" s="49"/>
+      <c r="D494" s="50"/>
     </row>
     <row r="495">
       <c r="A495" s="14"/>
-      <c r="D495" s="49"/>
+      <c r="D495" s="50"/>
     </row>
     <row r="496">
       <c r="A496" s="14"/>
-      <c r="D496" s="49"/>
+      <c r="D496" s="50"/>
     </row>
     <row r="497">
       <c r="A497" s="14"/>
-      <c r="D497" s="49"/>
+      <c r="D497" s="50"/>
     </row>
     <row r="498">
       <c r="A498" s="14"/>
-      <c r="D498" s="49"/>
+      <c r="D498" s="50"/>
     </row>
     <row r="499">
       <c r="A499" s="14"/>
-      <c r="D499" s="49"/>
+      <c r="D499" s="50"/>
     </row>
     <row r="500">
       <c r="A500" s="14"/>
-      <c r="D500" s="49"/>
+      <c r="D500" s="50"/>
     </row>
     <row r="501">
       <c r="A501" s="14"/>
-      <c r="D501" s="49"/>
+      <c r="D501" s="50"/>
     </row>
     <row r="502">
       <c r="A502" s="14"/>
-      <c r="D502" s="49"/>
+      <c r="D502" s="50"/>
     </row>
     <row r="503">
       <c r="A503" s="14"/>
-      <c r="D503" s="49"/>
+      <c r="D503" s="50"/>
     </row>
     <row r="504">
       <c r="A504" s="14"/>
-      <c r="D504" s="49"/>
+      <c r="D504" s="50"/>
     </row>
     <row r="505">
       <c r="A505" s="14"/>
-      <c r="D505" s="49"/>
+      <c r="D505" s="50"/>
     </row>
     <row r="506">
       <c r="A506" s="14"/>
-      <c r="D506" s="49"/>
+      <c r="D506" s="50"/>
     </row>
     <row r="507">
       <c r="A507" s="14"/>
-      <c r="D507" s="49"/>
+      <c r="D507" s="50"/>
     </row>
     <row r="508">
       <c r="A508" s="14"/>
-      <c r="D508" s="49"/>
+      <c r="D508" s="50"/>
     </row>
     <row r="509">
       <c r="A509" s="14"/>
-      <c r="D509" s="49"/>
+      <c r="D509" s="50"/>
     </row>
     <row r="510">
       <c r="A510" s="14"/>
-      <c r="D510" s="49"/>
+      <c r="D510" s="50"/>
     </row>
     <row r="511">
       <c r="A511" s="14"/>
-      <c r="D511" s="49"/>
+      <c r="D511" s="50"/>
     </row>
     <row r="512">
       <c r="A512" s="14"/>
-      <c r="D512" s="49"/>
+      <c r="D512" s="50"/>
     </row>
     <row r="513">
       <c r="A513" s="14"/>
-      <c r="D513" s="49"/>
+      <c r="D513" s="50"/>
     </row>
     <row r="514">
       <c r="A514" s="14"/>
-      <c r="D514" s="49"/>
+      <c r="D514" s="50"/>
     </row>
     <row r="515">
       <c r="A515" s="14"/>
-      <c r="D515" s="49"/>
+      <c r="D515" s="50"/>
     </row>
     <row r="516">
       <c r="A516" s="14"/>
-      <c r="D516" s="49"/>
+      <c r="D516" s="50"/>
     </row>
     <row r="517">
       <c r="A517" s="14"/>
-      <c r="D517" s="49"/>
+      <c r="D517" s="50"/>
     </row>
     <row r="518">
       <c r="A518" s="14"/>
-      <c r="D518" s="49"/>
+      <c r="D518" s="50"/>
     </row>
     <row r="519">
       <c r="A519" s="14"/>
-      <c r="D519" s="49"/>
+      <c r="D519" s="50"/>
     </row>
     <row r="520">
       <c r="A520" s="14"/>
-      <c r="D520" s="49"/>
+      <c r="D520" s="50"/>
     </row>
     <row r="521">
       <c r="A521" s="14"/>
-      <c r="D521" s="49"/>
+      <c r="D521" s="50"/>
     </row>
     <row r="522">
       <c r="A522" s="14"/>
-      <c r="D522" s="49"/>
+      <c r="D522" s="50"/>
     </row>
     <row r="523">
       <c r="A523" s="14"/>
-      <c r="D523" s="49"/>
+      <c r="D523" s="50"/>
     </row>
     <row r="524">
       <c r="A524" s="14"/>
-      <c r="D524" s="49"/>
+      <c r="D524" s="50"/>
     </row>
     <row r="525">
       <c r="A525" s="14"/>
-      <c r="D525" s="49"/>
+      <c r="D525" s="50"/>
     </row>
     <row r="526">
       <c r="A526" s="14"/>
-      <c r="D526" s="49"/>
+      <c r="D526" s="50"/>
     </row>
     <row r="527">
       <c r="A527" s="14"/>
-      <c r="D527" s="49"/>
+      <c r="D527" s="50"/>
     </row>
     <row r="528">
       <c r="A528" s="14"/>
-      <c r="D528" s="49"/>
+      <c r="D528" s="50"/>
     </row>
     <row r="529">
       <c r="A529" s="14"/>
-      <c r="D529" s="49"/>
+      <c r="D529" s="50"/>
     </row>
     <row r="530">
       <c r="A530" s="14"/>
-      <c r="D530" s="49"/>
+      <c r="D530" s="50"/>
     </row>
     <row r="531">
       <c r="A531" s="14"/>
-      <c r="D531" s="49"/>
+      <c r="D531" s="50"/>
     </row>
     <row r="532">
       <c r="A532" s="14"/>
-      <c r="D532" s="49"/>
+      <c r="D532" s="50"/>
     </row>
     <row r="533">
       <c r="A533" s="14"/>
-      <c r="D533" s="49"/>
+      <c r="D533" s="50"/>
     </row>
     <row r="534">
       <c r="A534" s="14"/>
-      <c r="D534" s="49"/>
+      <c r="D534" s="50"/>
     </row>
     <row r="535">
       <c r="A535" s="14"/>
-      <c r="D535" s="49"/>
+      <c r="D535" s="50"/>
     </row>
     <row r="536">
       <c r="A536" s="14"/>
-      <c r="D536" s="49"/>
+      <c r="D536" s="50"/>
     </row>
     <row r="537">
       <c r="A537" s="14"/>
-      <c r="D537" s="49"/>
+      <c r="D537" s="50"/>
     </row>
     <row r="538">
       <c r="A538" s="14"/>
-      <c r="D538" s="49"/>
+      <c r="D538" s="50"/>
     </row>
     <row r="539">
       <c r="A539" s="14"/>
-      <c r="D539" s="49"/>
+      <c r="D539" s="50"/>
     </row>
     <row r="540">
       <c r="A540" s="14"/>
-      <c r="D540" s="49"/>
+      <c r="D540" s="50"/>
     </row>
     <row r="541">
       <c r="A541" s="14"/>
-      <c r="D541" s="49"/>
+      <c r="D541" s="50"/>
     </row>
     <row r="542">
       <c r="A542" s="14"/>
-      <c r="D542" s="49"/>
+      <c r="D542" s="50"/>
     </row>
     <row r="543">
       <c r="A543" s="14"/>
-      <c r="D543" s="49"/>
+      <c r="D543" s="50"/>
     </row>
     <row r="544">
       <c r="A544" s="14"/>
-      <c r="D544" s="49"/>
+      <c r="D544" s="50"/>
     </row>
     <row r="545">
       <c r="A545" s="14"/>
-      <c r="D545" s="49"/>
+      <c r="D545" s="50"/>
     </row>
     <row r="546">
       <c r="A546" s="14"/>
-      <c r="D546" s="49"/>
+      <c r="D546" s="50"/>
     </row>
     <row r="547">
       <c r="A547" s="14"/>
-      <c r="D547" s="49"/>
+      <c r="D547" s="50"/>
     </row>
     <row r="548">
       <c r="A548" s="14"/>
-      <c r="D548" s="49"/>
+      <c r="D548" s="50"/>
     </row>
     <row r="549">
       <c r="A549" s="14"/>
-      <c r="D549" s="49"/>
+      <c r="D549" s="50"/>
     </row>
     <row r="550">
       <c r="A550" s="14"/>
-      <c r="D550" s="49"/>
+      <c r="D550" s="50"/>
     </row>
     <row r="551">
       <c r="A551" s="14"/>
-      <c r="D551" s="49"/>
+      <c r="D551" s="50"/>
     </row>
     <row r="552">
       <c r="A552" s="14"/>
-      <c r="D552" s="49"/>
+      <c r="D552" s="50"/>
     </row>
     <row r="553">
       <c r="A553" s="14"/>
-      <c r="D553" s="49"/>
+      <c r="D553" s="50"/>
     </row>
     <row r="554">
       <c r="A554" s="14"/>
-      <c r="D554" s="49"/>
+      <c r="D554" s="50"/>
     </row>
     <row r="555">
       <c r="A555" s="14"/>
-      <c r="D555" s="49"/>
+      <c r="D555" s="50"/>
     </row>
     <row r="556">
       <c r="A556" s="14"/>
-      <c r="D556" s="49"/>
+      <c r="D556" s="50"/>
     </row>
     <row r="557">
       <c r="A557" s="14"/>
-      <c r="D557" s="49"/>
+      <c r="D557" s="50"/>
     </row>
     <row r="558">
       <c r="A558" s="14"/>
-      <c r="D558" s="49"/>
+      <c r="D558" s="50"/>
     </row>
     <row r="559">
       <c r="A559" s="14"/>
-      <c r="D559" s="49"/>
+      <c r="D559" s="50"/>
     </row>
     <row r="560">
       <c r="A560" s="14"/>
-      <c r="D560" s="49"/>
+      <c r="D560" s="50"/>
     </row>
     <row r="561">
       <c r="A561" s="14"/>
-      <c r="D561" s="49"/>
+      <c r="D561" s="50"/>
     </row>
     <row r="562">
       <c r="A562" s="14"/>
-      <c r="D562" s="49"/>
+      <c r="D562" s="50"/>
     </row>
     <row r="563">
       <c r="A563" s="14"/>
-      <c r="D563" s="49"/>
+      <c r="D563" s="50"/>
     </row>
     <row r="564">
       <c r="A564" s="14"/>
-      <c r="D564" s="49"/>
+      <c r="D564" s="50"/>
     </row>
     <row r="565">
       <c r="A565" s="14"/>
-      <c r="D565" s="49"/>
+      <c r="D565" s="50"/>
     </row>
     <row r="566">
       <c r="A566" s="14"/>
-      <c r="D566" s="49"/>
+      <c r="D566" s="50"/>
     </row>
     <row r="567">
       <c r="A567" s="14"/>
-      <c r="D567" s="49"/>
+      <c r="D567" s="50"/>
     </row>
     <row r="568">
       <c r="A568" s="14"/>
-      <c r="D568" s="49"/>
+      <c r="D568" s="50"/>
     </row>
     <row r="569">
       <c r="A569" s="14"/>
-      <c r="D569" s="49"/>
+      <c r="D569" s="50"/>
     </row>
     <row r="570">
       <c r="A570" s="14"/>
-      <c r="D570" s="49"/>
+      <c r="D570" s="50"/>
     </row>
     <row r="571">
       <c r="A571" s="14"/>
-      <c r="D571" s="49"/>
+      <c r="D571" s="50"/>
     </row>
     <row r="572">
       <c r="A572" s="14"/>
-      <c r="D572" s="49"/>
+      <c r="D572" s="50"/>
     </row>
     <row r="573">
       <c r="A573" s="14"/>
-      <c r="D573" s="49"/>
+      <c r="D573" s="50"/>
     </row>
     <row r="574">
       <c r="A574" s="14"/>
-      <c r="D574" s="49"/>
+      <c r="D574" s="50"/>
     </row>
     <row r="575">
       <c r="A575" s="14"/>
-      <c r="D575" s="49"/>
+      <c r="D575" s="50"/>
     </row>
     <row r="576">
       <c r="A576" s="14"/>
-      <c r="D576" s="49"/>
+      <c r="D576" s="50"/>
     </row>
     <row r="577">
       <c r="A577" s="14"/>
-      <c r="D577" s="49"/>
+      <c r="D577" s="50"/>
     </row>
     <row r="578">
       <c r="A578" s="14"/>
-      <c r="D578" s="49"/>
+      <c r="D578" s="50"/>
     </row>
     <row r="579">
       <c r="A579" s="14"/>
-      <c r="D579" s="49"/>
+      <c r="D579" s="50"/>
     </row>
     <row r="580">
       <c r="A580" s="14"/>
-      <c r="D580" s="49"/>
+      <c r="D580" s="50"/>
     </row>
     <row r="581">
       <c r="A581" s="14"/>
-      <c r="D581" s="49"/>
+      <c r="D581" s="50"/>
     </row>
     <row r="582">
       <c r="A582" s="14"/>
-      <c r="D582" s="49"/>
+      <c r="D582" s="50"/>
     </row>
     <row r="583">
       <c r="A583" s="14"/>
-      <c r="D583" s="49"/>
+      <c r="D583" s="50"/>
     </row>
     <row r="584">
       <c r="A584" s="14"/>
-      <c r="D584" s="49"/>
+      <c r="D584" s="50"/>
     </row>
     <row r="585">
       <c r="A585" s="14"/>
-      <c r="D585" s="49"/>
+      <c r="D585" s="50"/>
     </row>
     <row r="586">
       <c r="A586" s="14"/>
-      <c r="D586" s="49"/>
+      <c r="D586" s="50"/>
     </row>
     <row r="587">
       <c r="A587" s="14"/>
-      <c r="D587" s="49"/>
+      <c r="D587" s="50"/>
     </row>
     <row r="588">
       <c r="A588" s="14"/>
-      <c r="D588" s="49"/>
+      <c r="D588" s="50"/>
     </row>
     <row r="589">
       <c r="A589" s="14"/>
-      <c r="D589" s="49"/>
+      <c r="D589" s="50"/>
     </row>
     <row r="590">
       <c r="A590" s="14"/>
-      <c r="D590" s="49"/>
+      <c r="D590" s="50"/>
     </row>
     <row r="591">
       <c r="A591" s="14"/>
-      <c r="D591" s="49"/>
+      <c r="D591" s="50"/>
     </row>
     <row r="592">
       <c r="A592" s="14"/>
-      <c r="D592" s="49"/>
+      <c r="D592" s="50"/>
     </row>
     <row r="593">
       <c r="A593" s="14"/>
-      <c r="D593" s="49"/>
+      <c r="D593" s="50"/>
     </row>
     <row r="594">
       <c r="A594" s="14"/>
-      <c r="D594" s="49"/>
+      <c r="D594" s="50"/>
     </row>
     <row r="595">
       <c r="A595" s="14"/>
-      <c r="D595" s="49"/>
+      <c r="D595" s="50"/>
     </row>
     <row r="596">
       <c r="A596" s="14"/>
-      <c r="D596" s="49"/>
+      <c r="D596" s="50"/>
     </row>
     <row r="597">
       <c r="A597" s="14"/>
-      <c r="D597" s="49"/>
+      <c r="D597" s="50"/>
     </row>
     <row r="598">
       <c r="A598" s="14"/>
-      <c r="D598" s="49"/>
+      <c r="D598" s="50"/>
     </row>
     <row r="599">
       <c r="A599" s="14"/>
-      <c r="D599" s="49"/>
+      <c r="D599" s="50"/>
     </row>
     <row r="600">
       <c r="A600" s="14"/>
-      <c r="D600" s="49"/>
+      <c r="D600" s="50"/>
     </row>
     <row r="601">
       <c r="A601" s="14"/>
-      <c r="D601" s="49"/>
+      <c r="D601" s="50"/>
     </row>
     <row r="602">
       <c r="A602" s="14"/>
-      <c r="D602" s="49"/>
+      <c r="D602" s="50"/>
     </row>
     <row r="603">
       <c r="A603" s="14"/>
-      <c r="D603" s="49"/>
+      <c r="D603" s="50"/>
     </row>
     <row r="604">
       <c r="A604" s="14"/>
-      <c r="D604" s="49"/>
+      <c r="D604" s="50"/>
     </row>
     <row r="605">
       <c r="A605" s="14"/>
-      <c r="D605" s="49"/>
+      <c r="D605" s="50"/>
     </row>
     <row r="606">
       <c r="A606" s="14"/>
-      <c r="D606" s="49"/>
+      <c r="D606" s="50"/>
     </row>
     <row r="607">
       <c r="A607" s="14"/>
-      <c r="D607" s="49"/>
+      <c r="D607" s="50"/>
     </row>
     <row r="608">
       <c r="A608" s="14"/>
-      <c r="D608" s="49"/>
+      <c r="D608" s="50"/>
     </row>
     <row r="609">
       <c r="A609" s="14"/>
-      <c r="D609" s="49"/>
+      <c r="D609" s="50"/>
     </row>
     <row r="610">
       <c r="A610" s="14"/>
-      <c r="D610" s="49"/>
+      <c r="D610" s="50"/>
     </row>
     <row r="611">
       <c r="A611" s="14"/>
-      <c r="D611" s="49"/>
+      <c r="D611" s="50"/>
     </row>
     <row r="612">
       <c r="A612" s="14"/>
-      <c r="D612" s="49"/>
+      <c r="D612" s="50"/>
     </row>
     <row r="613">
       <c r="A613" s="14"/>
-      <c r="D613" s="49"/>
+      <c r="D613" s="50"/>
     </row>
     <row r="614">
       <c r="A614" s="14"/>
-      <c r="D614" s="49"/>
+      <c r="D614" s="50"/>
     </row>
     <row r="615">
       <c r="A615" s="14"/>
-      <c r="D615" s="49"/>
+      <c r="D615" s="50"/>
     </row>
     <row r="616">
       <c r="A616" s="14"/>
-      <c r="D616" s="49"/>
+      <c r="D616" s="50"/>
     </row>
     <row r="617">
       <c r="A617" s="14"/>
-      <c r="D617" s="49"/>
+      <c r="D617" s="50"/>
     </row>
     <row r="618">
       <c r="A618" s="14"/>
-      <c r="D618" s="49"/>
+      <c r="D618" s="50"/>
     </row>
     <row r="619">
       <c r="A619" s="14"/>
-      <c r="D619" s="49"/>
+      <c r="D619" s="50"/>
     </row>
     <row r="620">
       <c r="A620" s="14"/>
-      <c r="D620" s="49"/>
+      <c r="D620" s="50"/>
     </row>
     <row r="621">
       <c r="A621" s="14"/>
-      <c r="D621" s="49"/>
+      <c r="D621" s="50"/>
     </row>
     <row r="622">
       <c r="A622" s="14"/>
-      <c r="D622" s="49"/>
+      <c r="D622" s="50"/>
     </row>
     <row r="623">
       <c r="A623" s="14"/>
-      <c r="D623" s="49"/>
+      <c r="D623" s="50"/>
     </row>
     <row r="624">
       <c r="A624" s="14"/>
-      <c r="D624" s="49"/>
+      <c r="D624" s="50"/>
     </row>
     <row r="625">
       <c r="A625" s="14"/>
-      <c r="D625" s="49"/>
+      <c r="D625" s="50"/>
     </row>
     <row r="626">
       <c r="A626" s="14"/>
-      <c r="D626" s="49"/>
+      <c r="D626" s="50"/>
     </row>
     <row r="627">
       <c r="A627" s="14"/>
-      <c r="D627" s="49"/>
+      <c r="D627" s="50"/>
     </row>
     <row r="628">
       <c r="A628" s="14"/>
-      <c r="D628" s="49"/>
+      <c r="D628" s="50"/>
     </row>
     <row r="629">
       <c r="A629" s="14"/>
-      <c r="D629" s="49"/>
+      <c r="D629" s="50"/>
     </row>
     <row r="630">
       <c r="A630" s="14"/>
-      <c r="D630" s="49"/>
+      <c r="D630" s="50"/>
     </row>
     <row r="631">
       <c r="A631" s="14"/>
-      <c r="D631" s="49"/>
+      <c r="D631" s="50"/>
     </row>
     <row r="632">
       <c r="A632" s="14"/>
-      <c r="D632" s="49"/>
+      <c r="D632" s="50"/>
     </row>
     <row r="633">
       <c r="A633" s="14"/>
-      <c r="D633" s="49"/>
+      <c r="D633" s="50"/>
     </row>
     <row r="634">
       <c r="A634" s="14"/>
-      <c r="D634" s="49"/>
+      <c r="D634" s="50"/>
     </row>
     <row r="635">
       <c r="A635" s="14"/>
-      <c r="D635" s="49"/>
+      <c r="D635" s="50"/>
     </row>
     <row r="636">
       <c r="A636" s="14"/>
-      <c r="D636" s="49"/>
+      <c r="D636" s="50"/>
     </row>
     <row r="637">
       <c r="A637" s="14"/>
-      <c r="D637" s="49"/>
+      <c r="D637" s="50"/>
     </row>
     <row r="638">
       <c r="A638" s="14"/>
-      <c r="D638" s="49"/>
+      <c r="D638" s="50"/>
     </row>
     <row r="639">
       <c r="A639" s="14"/>
-      <c r="D639" s="49"/>
+      <c r="D639" s="50"/>
     </row>
     <row r="640">
       <c r="A640" s="14"/>
-      <c r="D640" s="49"/>
+      <c r="D640" s="50"/>
     </row>
     <row r="641">
       <c r="A641" s="14"/>
-      <c r="D641" s="49"/>
+      <c r="D641" s="50"/>
     </row>
     <row r="642">
       <c r="A642" s="14"/>
-      <c r="D642" s="49"/>
+      <c r="D642" s="50"/>
     </row>
     <row r="643">
       <c r="A643" s="14"/>
-      <c r="D643" s="49"/>
+      <c r="D643" s="50"/>
     </row>
     <row r="644">
       <c r="A644" s="14"/>
-      <c r="D644" s="49"/>
+      <c r="D644" s="50"/>
     </row>
     <row r="645">
       <c r="A645" s="14"/>
-      <c r="D645" s="49"/>
+      <c r="D645" s="50"/>
     </row>
     <row r="646">
       <c r="A646" s="14"/>
-      <c r="D646" s="49"/>
+      <c r="D646" s="50"/>
     </row>
     <row r="647">
       <c r="A647" s="14"/>
-      <c r="D647" s="49"/>
+      <c r="D647" s="50"/>
     </row>
     <row r="648">
       <c r="A648" s="14"/>
-      <c r="D648" s="49"/>
+      <c r="D648" s="50"/>
     </row>
     <row r="649">
       <c r="A649" s="14"/>
-      <c r="D649" s="49"/>
+      <c r="D649" s="50"/>
     </row>
     <row r="650">
       <c r="A650" s="14"/>
-      <c r="D650" s="49"/>
+      <c r="D650" s="50"/>
     </row>
     <row r="651">
       <c r="A651" s="14"/>
-      <c r="D651" s="49"/>
+      <c r="D651" s="50"/>
     </row>
     <row r="652">
       <c r="A652" s="14"/>
-      <c r="D652" s="49"/>
+      <c r="D652" s="50"/>
     </row>
     <row r="653">
       <c r="A653" s="14"/>
-      <c r="D653" s="49"/>
+      <c r="D653" s="50"/>
     </row>
     <row r="654">
       <c r="A654" s="14"/>
-      <c r="D654" s="49"/>
+      <c r="D654" s="50"/>
     </row>
     <row r="655">
       <c r="A655" s="14"/>
-      <c r="D655" s="49"/>
+      <c r="D655" s="50"/>
     </row>
     <row r="656">
       <c r="A656" s="14"/>
-      <c r="D656" s="49"/>
+      <c r="D656" s="50"/>
     </row>
     <row r="657">
       <c r="A657" s="14"/>
-      <c r="D657" s="49"/>
+      <c r="D657" s="50"/>
     </row>
     <row r="658">
       <c r="A658" s="14"/>
-      <c r="D658" s="49"/>
+      <c r="D658" s="50"/>
     </row>
     <row r="659">
       <c r="A659" s="14"/>
-      <c r="D659" s="49"/>
+      <c r="D659" s="50"/>
     </row>
     <row r="660">
       <c r="A660" s="14"/>
-      <c r="D660" s="49"/>
+      <c r="D660" s="50"/>
     </row>
     <row r="661">
       <c r="A661" s="14"/>
-      <c r="D661" s="49"/>
+      <c r="D661" s="50"/>
     </row>
     <row r="662">
       <c r="A662" s="14"/>
-      <c r="D662" s="49"/>
+      <c r="D662" s="50"/>
     </row>
     <row r="663">
       <c r="A663" s="14"/>
-      <c r="D663" s="49"/>
+      <c r="D663" s="50"/>
     </row>
     <row r="664">
       <c r="A664" s="14"/>
-      <c r="D664" s="49"/>
+      <c r="D664" s="50"/>
     </row>
     <row r="665">
       <c r="A665" s="14"/>
-      <c r="D665" s="49"/>
+      <c r="D665" s="50"/>
     </row>
     <row r="666">
       <c r="A666" s="14"/>
-      <c r="D666" s="49"/>
+      <c r="D666" s="50"/>
     </row>
     <row r="667">
       <c r="A667" s="14"/>
-      <c r="D667" s="49"/>
+      <c r="D667" s="50"/>
     </row>
     <row r="668">
       <c r="A668" s="14"/>
-      <c r="D668" s="49"/>
+      <c r="D668" s="50"/>
     </row>
     <row r="669">
       <c r="A669" s="14"/>
-      <c r="D669" s="49"/>
+      <c r="D669" s="50"/>
     </row>
     <row r="670">
       <c r="A670" s="14"/>
-      <c r="D670" s="49"/>
+      <c r="D670" s="50"/>
     </row>
     <row r="671">
       <c r="A671" s="14"/>
-      <c r="D671" s="49"/>
+      <c r="D671" s="50"/>
     </row>
     <row r="672">
       <c r="A672" s="14"/>
-      <c r="D672" s="49"/>
+      <c r="D672" s="50"/>
     </row>
     <row r="673">
       <c r="A673" s="14"/>
-      <c r="D673" s="49"/>
+      <c r="D673" s="50"/>
     </row>
     <row r="674">
       <c r="A674" s="14"/>
-      <c r="D674" s="49"/>
+      <c r="D674" s="50"/>
     </row>
     <row r="675">
       <c r="A675" s="14"/>
-      <c r="D675" s="49"/>
+      <c r="D675" s="50"/>
     </row>
     <row r="676">
       <c r="A676" s="14"/>
-      <c r="D676" s="49"/>
+      <c r="D676" s="50"/>
     </row>
     <row r="677">
       <c r="A677" s="14"/>
-      <c r="D677" s="49"/>
+      <c r="D677" s="50"/>
     </row>
     <row r="678">
       <c r="A678" s="14"/>
-      <c r="D678" s="49"/>
+      <c r="D678" s="50"/>
     </row>
     <row r="679">
       <c r="A679" s="14"/>
-      <c r="D679" s="49"/>
+      <c r="D679" s="50"/>
     </row>
     <row r="680">
       <c r="A680" s="14"/>
-      <c r="D680" s="49"/>
+      <c r="D680" s="50"/>
     </row>
     <row r="681">
       <c r="A681" s="14"/>
-      <c r="D681" s="49"/>
+      <c r="D681" s="50"/>
     </row>
     <row r="682">
       <c r="A682" s="14"/>
-      <c r="D682" s="49"/>
+      <c r="D682" s="50"/>
     </row>
     <row r="683">
       <c r="A683" s="14"/>
-      <c r="D683" s="49"/>
+      <c r="D683" s="50"/>
     </row>
     <row r="684">
       <c r="A684" s="14"/>
-      <c r="D684" s="49"/>
+      <c r="D684" s="50"/>
     </row>
     <row r="685">
       <c r="A685" s="14"/>
-      <c r="D685" s="49"/>
+      <c r="D685" s="50"/>
     </row>
     <row r="686">
       <c r="A686" s="14"/>
-      <c r="D686" s="49"/>
+      <c r="D686" s="50"/>
     </row>
     <row r="687">
       <c r="A687" s="14"/>
-      <c r="D687" s="49"/>
+      <c r="D687" s="50"/>
     </row>
     <row r="688">
       <c r="A688" s="14"/>
-      <c r="D688" s="49"/>
+      <c r="D688" s="50"/>
     </row>
     <row r="689">
       <c r="A689" s="14"/>
-      <c r="D689" s="49"/>
+      <c r="D689" s="50"/>
     </row>
     <row r="690">
       <c r="A690" s="14"/>
-      <c r="D690" s="49"/>
+      <c r="D690" s="50"/>
     </row>
     <row r="691">
       <c r="A691" s="14"/>
-      <c r="D691" s="49"/>
+      <c r="D691" s="50"/>
     </row>
     <row r="692">
       <c r="A692" s="14"/>
-      <c r="D692" s="49"/>
+      <c r="D692" s="50"/>
     </row>
     <row r="693">
       <c r="A693" s="14"/>
-      <c r="D693" s="49"/>
+      <c r="D693" s="50"/>
     </row>
     <row r="694">
       <c r="A694" s="14"/>
-      <c r="D694" s="49"/>
+      <c r="D694" s="50"/>
     </row>
     <row r="695">
       <c r="A695" s="14"/>
-      <c r="D695" s="49"/>
+      <c r="D695" s="50"/>
     </row>
     <row r="696">
       <c r="A696" s="14"/>
-      <c r="D696" s="49"/>
+      <c r="D696" s="50"/>
     </row>
     <row r="697">
       <c r="A697" s="14"/>
-      <c r="D697" s="49"/>
+      <c r="D697" s="50"/>
     </row>
     <row r="698">
       <c r="A698" s="14"/>
-      <c r="D698" s="49"/>
+      <c r="D698" s="50"/>
     </row>
     <row r="699">
       <c r="A699" s="14"/>
-      <c r="D699" s="49"/>
+      <c r="D699" s="50"/>
     </row>
     <row r="700">
       <c r="A700" s="14"/>
-      <c r="D700" s="49"/>
+      <c r="D700" s="50"/>
     </row>
     <row r="701">
       <c r="A701" s="14"/>
-      <c r="D701" s="49"/>
+      <c r="D701" s="50"/>
     </row>
     <row r="702">
       <c r="A702" s="14"/>
-      <c r="D702" s="49"/>
+      <c r="D702" s="50"/>
     </row>
     <row r="703">
       <c r="A703" s="14"/>
-      <c r="D703" s="49"/>
+      <c r="D703" s="50"/>
     </row>
     <row r="704">
       <c r="A704" s="14"/>
-      <c r="D704" s="49"/>
+      <c r="D704" s="50"/>
     </row>
     <row r="705">
       <c r="A705" s="14"/>
-      <c r="D705" s="49"/>
+      <c r="D705" s="50"/>
     </row>
     <row r="706">
       <c r="A706" s="14"/>
-      <c r="D706" s="49"/>
+      <c r="D706" s="50"/>
     </row>
     <row r="707">
       <c r="A707" s="14"/>
-      <c r="D707" s="49"/>
+      <c r="D707" s="50"/>
     </row>
     <row r="708">
       <c r="A708" s="14"/>
-      <c r="D708" s="49"/>
+      <c r="D708" s="50"/>
     </row>
     <row r="709">
       <c r="A709" s="14"/>
-      <c r="D709" s="49"/>
+      <c r="D709" s="50"/>
     </row>
     <row r="710">
       <c r="A710" s="14"/>
-      <c r="D710" s="49"/>
+      <c r="D710" s="50"/>
     </row>
     <row r="711">
       <c r="A711" s="14"/>
-      <c r="D711" s="49"/>
+      <c r="D711" s="50"/>
     </row>
     <row r="712">
       <c r="A712" s="14"/>
-      <c r="D712" s="49"/>
+      <c r="D712" s="50"/>
     </row>
     <row r="713">
       <c r="A713" s="14"/>
-      <c r="D713" s="49"/>
+      <c r="D713" s="50"/>
     </row>
     <row r="714">
       <c r="A714" s="14"/>
-      <c r="D714" s="49"/>
+      <c r="D714" s="50"/>
     </row>
     <row r="715">
       <c r="A715" s="14"/>
-      <c r="D715" s="49"/>
+      <c r="D715" s="50"/>
     </row>
     <row r="716">
       <c r="A716" s="14"/>
-      <c r="D716" s="49"/>
+      <c r="D716" s="50"/>
     </row>
     <row r="717">
       <c r="A717" s="14"/>
-      <c r="D717" s="49"/>
+      <c r="D717" s="50"/>
     </row>
     <row r="718">
       <c r="A718" s="14"/>
-      <c r="D718" s="49"/>
+      <c r="D718" s="50"/>
     </row>
     <row r="719">
       <c r="A719" s="14"/>
-      <c r="D719" s="49"/>
+      <c r="D719" s="50"/>
     </row>
     <row r="720">
       <c r="A720" s="14"/>
-      <c r="D720" s="49"/>
+      <c r="D720" s="50"/>
     </row>
     <row r="721">
       <c r="A721" s="14"/>
-      <c r="D721" s="49"/>
+      <c r="D721" s="50"/>
     </row>
     <row r="722">
       <c r="A722" s="14"/>
-      <c r="D722" s="49"/>
+      <c r="D722" s="50"/>
     </row>
     <row r="723">
       <c r="A723" s="14"/>
-      <c r="D723" s="49"/>
+      <c r="D723" s="50"/>
     </row>
     <row r="724">
       <c r="A724" s="14"/>
-      <c r="D724" s="49"/>
+      <c r="D724" s="50"/>
     </row>
     <row r="725">
       <c r="A725" s="14"/>
-      <c r="D725" s="49"/>
+      <c r="D725" s="50"/>
     </row>
     <row r="726">
       <c r="A726" s="14"/>
-      <c r="D726" s="49"/>
+      <c r="D726" s="50"/>
     </row>
     <row r="727">
       <c r="A727" s="14"/>
-      <c r="D727" s="49"/>
+      <c r="D727" s="50"/>
     </row>
     <row r="728">
       <c r="A728" s="14"/>
-      <c r="D728" s="49"/>
+      <c r="D728" s="50"/>
     </row>
     <row r="729">
       <c r="A729" s="14"/>
-      <c r="D729" s="49"/>
+      <c r="D729" s="50"/>
     </row>
     <row r="730">
       <c r="A730" s="14"/>
-      <c r="D730" s="49"/>
+      <c r="D730" s="50"/>
     </row>
     <row r="731">
       <c r="A731" s="14"/>
-      <c r="D731" s="49"/>
+      <c r="D731" s="50"/>
     </row>
     <row r="732">
       <c r="A732" s="14"/>
-      <c r="D732" s="49"/>
+      <c r="D732" s="50"/>
     </row>
     <row r="733">
       <c r="A733" s="14"/>
-      <c r="D733" s="49"/>
+      <c r="D733" s="50"/>
     </row>
     <row r="734">
       <c r="A734" s="14"/>
-      <c r="D734" s="49"/>
+      <c r="D734" s="50"/>
     </row>
     <row r="735">
       <c r="A735" s="14"/>
-      <c r="D735" s="49"/>
+      <c r="D735" s="50"/>
     </row>
     <row r="736">
       <c r="A736" s="14"/>
-      <c r="D736" s="49"/>
+      <c r="D736" s="50"/>
     </row>
     <row r="737">
       <c r="A737" s="14"/>
-      <c r="D737" s="49"/>
+      <c r="D737" s="50"/>
     </row>
     <row r="738">
       <c r="A738" s="14"/>
-      <c r="D738" s="49"/>
+      <c r="D738" s="50"/>
     </row>
     <row r="739">
       <c r="A739" s="14"/>
-      <c r="D739" s="49"/>
+      <c r="D739" s="50"/>
     </row>
     <row r="740">
       <c r="A740" s="14"/>
-      <c r="D740" s="49"/>
+      <c r="D740" s="50"/>
     </row>
     <row r="741">
       <c r="A741" s="14"/>
-      <c r="D741" s="49"/>
+      <c r="D741" s="50"/>
     </row>
     <row r="742">
       <c r="A742" s="14"/>
-      <c r="D742" s="49"/>
+      <c r="D742" s="50"/>
     </row>
     <row r="743">
       <c r="A743" s="14"/>
-      <c r="D743" s="49"/>
+      <c r="D743" s="50"/>
     </row>
     <row r="744">
       <c r="A744" s="14"/>
-      <c r="D744" s="49"/>
+      <c r="D744" s="50"/>
     </row>
     <row r="745">
       <c r="A745" s="14"/>
-      <c r="D745" s="49"/>
+      <c r="D745" s="50"/>
     </row>
     <row r="746">
       <c r="A746" s="14"/>
-      <c r="D746" s="49"/>
+      <c r="D746" s="50"/>
     </row>
     <row r="747">
       <c r="A747" s="14"/>
-      <c r="D747" s="49"/>
+      <c r="D747" s="50"/>
     </row>
     <row r="748">
       <c r="A748" s="14"/>
-      <c r="D748" s="49"/>
+      <c r="D748" s="50"/>
     </row>
     <row r="749">
       <c r="A749" s="14"/>
-      <c r="D749" s="49"/>
+      <c r="D749" s="50"/>
     </row>
     <row r="750">
       <c r="A750" s="14"/>
-      <c r="D750" s="49"/>
+      <c r="D750" s="50"/>
     </row>
     <row r="751">
       <c r="A751" s="14"/>
-      <c r="D751" s="49"/>
+      <c r="D751" s="50"/>
     </row>
     <row r="752">
       <c r="A752" s="14"/>
-      <c r="D752" s="49"/>
+      <c r="D752" s="50"/>
     </row>
     <row r="753">
       <c r="A753" s="14"/>
-      <c r="D753" s="49"/>
+      <c r="D753" s="50"/>
     </row>
     <row r="754">
       <c r="A754" s="14"/>
-      <c r="D754" s="49"/>
+      <c r="D754" s="50"/>
     </row>
     <row r="755">
       <c r="A755" s="14"/>
-      <c r="D755" s="49"/>
+      <c r="D755" s="50"/>
     </row>
     <row r="756">
       <c r="A756" s="14"/>
-      <c r="D756" s="49"/>
+      <c r="D756" s="50"/>
     </row>
     <row r="757">
       <c r="A757" s="14"/>
-      <c r="D757" s="49"/>
+      <c r="D757" s="50"/>
     </row>
     <row r="758">
       <c r="A758" s="14"/>
-      <c r="D758" s="49"/>
+      <c r="D758" s="50"/>
     </row>
     <row r="759">
       <c r="A759" s="14"/>
-      <c r="D759" s="49"/>
+      <c r="D759" s="50"/>
     </row>
     <row r="760">
       <c r="A760" s="14"/>
-      <c r="D760" s="49"/>
+      <c r="D760" s="50"/>
     </row>
     <row r="761">
       <c r="A761" s="14"/>
-      <c r="D761" s="49"/>
+      <c r="D761" s="50"/>
     </row>
     <row r="762">
       <c r="A762" s="14"/>
-      <c r="D762" s="49"/>
+      <c r="D762" s="50"/>
     </row>
     <row r="763">
       <c r="A763" s="14"/>
-      <c r="D763" s="49"/>
+      <c r="D763" s="50"/>
     </row>
     <row r="764">
       <c r="A764" s="14"/>
-      <c r="D764" s="49"/>
+      <c r="D764" s="50"/>
     </row>
     <row r="765">
       <c r="A765" s="14"/>
-      <c r="D765" s="49"/>
+      <c r="D765" s="50"/>
     </row>
     <row r="766">
       <c r="A766" s="14"/>
-      <c r="D766" s="49"/>
+      <c r="D766" s="50"/>
     </row>
     <row r="767">
       <c r="A767" s="14"/>
-      <c r="D767" s="49"/>
+      <c r="D767" s="50"/>
     </row>
     <row r="768">
       <c r="A768" s="14"/>
-      <c r="D768" s="49"/>
+      <c r="D768" s="50"/>
     </row>
     <row r="769">
       <c r="A769" s="14"/>
-      <c r="D769" s="49"/>
+      <c r="D769" s="50"/>
     </row>
     <row r="770">
       <c r="A770" s="14"/>
-      <c r="D770" s="49"/>
+      <c r="D770" s="50"/>
     </row>
     <row r="771">
       <c r="A771" s="14"/>
-      <c r="D771" s="49"/>
+      <c r="D771" s="50"/>
     </row>
     <row r="772">
       <c r="A772" s="14"/>
-      <c r="D772" s="49"/>
+      <c r="D772" s="50"/>
     </row>
     <row r="773">
       <c r="A773" s="14"/>
-      <c r="D773" s="49"/>
+      <c r="D773" s="50"/>
     </row>
     <row r="774">
       <c r="A774" s="14"/>
-      <c r="D774" s="49"/>
+      <c r="D774" s="50"/>
     </row>
     <row r="775">
       <c r="A775" s="14"/>
-      <c r="D775" s="49"/>
+      <c r="D775" s="50"/>
     </row>
     <row r="776">
       <c r="A776" s="14"/>
-      <c r="D776" s="49"/>
+      <c r="D776" s="50"/>
     </row>
     <row r="777">
       <c r="A777" s="14"/>
-      <c r="D777" s="49"/>
+      <c r="D777" s="50"/>
     </row>
     <row r="778">
       <c r="A778" s="14"/>
-      <c r="D778" s="49"/>
+      <c r="D778" s="50"/>
     </row>
     <row r="779">
       <c r="A779" s="14"/>
-      <c r="D779" s="49"/>
+      <c r="D779" s="50"/>
     </row>
     <row r="780">
       <c r="A780" s="14"/>
-      <c r="D780" s="49"/>
+      <c r="D780" s="50"/>
     </row>
     <row r="781">
       <c r="A781" s="14"/>
-      <c r="D781" s="49"/>
+      <c r="D781" s="50"/>
     </row>
     <row r="782">
       <c r="A782" s="14"/>
-      <c r="D782" s="49"/>
+      <c r="D782" s="50"/>
     </row>
     <row r="783">
       <c r="A783" s="14"/>
-      <c r="D783" s="49"/>
+      <c r="D783" s="50"/>
     </row>
     <row r="784">
       <c r="A784" s="14"/>
-      <c r="D784" s="49"/>
+      <c r="D784" s="50"/>
     </row>
     <row r="785">
       <c r="A785" s="14"/>
-      <c r="D785" s="49"/>
+      <c r="D785" s="50"/>
     </row>
     <row r="786">
       <c r="A786" s="14"/>
-      <c r="D786" s="49"/>
+      <c r="D786" s="50"/>
     </row>
     <row r="787">
       <c r="A787" s="14"/>
-      <c r="D787" s="49"/>
+      <c r="D787" s="50"/>
     </row>
     <row r="788">
       <c r="A788" s="14"/>
-      <c r="D788" s="49"/>
+      <c r="D788" s="50"/>
     </row>
     <row r="789">
       <c r="A789" s="14"/>
-      <c r="D789" s="49"/>
+      <c r="D789" s="50"/>
     </row>
     <row r="790">
       <c r="A790" s="14"/>
-      <c r="D790" s="49"/>
+      <c r="D790" s="50"/>
     </row>
     <row r="791">
       <c r="A791" s="14"/>
-      <c r="D791" s="49"/>
+      <c r="D791" s="50"/>
     </row>
     <row r="792">
       <c r="A792" s="14"/>
-      <c r="D792" s="49"/>
+      <c r="D792" s="50"/>
     </row>
     <row r="793">
       <c r="A793" s="14"/>
-      <c r="D793" s="49"/>
+      <c r="D793" s="50"/>
     </row>
     <row r="794">
       <c r="A794" s="14"/>
-      <c r="D794" s="49"/>
+      <c r="D794" s="50"/>
     </row>
     <row r="795">
       <c r="A795" s="14"/>
-      <c r="D795" s="49"/>
+      <c r="D795" s="50"/>
     </row>
     <row r="796">
       <c r="A796" s="14"/>
-      <c r="D796" s="49"/>
+      <c r="D796" s="50"/>
     </row>
     <row r="797">
       <c r="A797" s="14"/>
-      <c r="D797" s="49"/>
+      <c r="D797" s="50"/>
     </row>
     <row r="798">
       <c r="A798" s="14"/>
-      <c r="D798" s="49"/>
+      <c r="D798" s="50"/>
     </row>
     <row r="799">
       <c r="A799" s="14"/>
-      <c r="D799" s="49"/>
+      <c r="D799" s="50"/>
     </row>
     <row r="800">
       <c r="A800" s="14"/>
-      <c r="D800" s="49"/>
+      <c r="D800" s="50"/>
     </row>
     <row r="801">
       <c r="A801" s="14"/>
-      <c r="D801" s="49"/>
+      <c r="D801" s="50"/>
     </row>
     <row r="802">
       <c r="A802" s="14"/>
-      <c r="D802" s="49"/>
+      <c r="D802" s="50"/>
     </row>
     <row r="803">
       <c r="A803" s="14"/>
-      <c r="D803" s="49"/>
+      <c r="D803" s="50"/>
     </row>
     <row r="804">
       <c r="A804" s="14"/>
-      <c r="D804" s="49"/>
+      <c r="D804" s="50"/>
     </row>
     <row r="805">
       <c r="A805" s="14"/>
-      <c r="D805" s="49"/>
+      <c r="D805" s="50"/>
     </row>
     <row r="806">
       <c r="A806" s="14"/>
-      <c r="D806" s="49"/>
+      <c r="D806" s="50"/>
     </row>
     <row r="807">
       <c r="A807" s="14"/>
-      <c r="D807" s="49"/>
+      <c r="D807" s="50"/>
     </row>
     <row r="808">
       <c r="A808" s="14"/>
-      <c r="D808" s="49"/>
+      <c r="D808" s="50"/>
     </row>
     <row r="809">
       <c r="A809" s="14"/>
-      <c r="D809" s="49"/>
+      <c r="D809" s="50"/>
     </row>
     <row r="810">
       <c r="A810" s="14"/>
-      <c r="D810" s="49"/>
+      <c r="D810" s="50"/>
     </row>
     <row r="811">
       <c r="A811" s="14"/>
-      <c r="D811" s="49"/>
+      <c r="D811" s="50"/>
     </row>
     <row r="812">
       <c r="A812" s="14"/>
-      <c r="D812" s="49"/>
+      <c r="D812" s="50"/>
     </row>
     <row r="813">
       <c r="A813" s="14"/>
-      <c r="D813" s="49"/>
+      <c r="D813" s="50"/>
     </row>
     <row r="814">
       <c r="A814" s="14"/>
-      <c r="D814" s="49"/>
+      <c r="D814" s="50"/>
     </row>
     <row r="815">
       <c r="A815" s="14"/>
-      <c r="D815" s="49"/>
+      <c r="D815" s="50"/>
     </row>
     <row r="816">
       <c r="A816" s="14"/>
-      <c r="D816" s="49"/>
+      <c r="D816" s="50"/>
     </row>
     <row r="817">
       <c r="A817" s="14"/>
-      <c r="D817" s="49"/>
+      <c r="D817" s="50"/>
     </row>
     <row r="818">
       <c r="A818" s="14"/>
-      <c r="D818" s="49"/>
+      <c r="D818" s="50"/>
     </row>
     <row r="819">
       <c r="A819" s="14"/>
-      <c r="D819" s="49"/>
+      <c r="D819" s="50"/>
     </row>
     <row r="820">
       <c r="A820" s="14"/>
-      <c r="D820" s="49"/>
+      <c r="D820" s="50"/>
     </row>
     <row r="821">
       <c r="A821" s="14"/>
-      <c r="D821" s="49"/>
+      <c r="D821" s="50"/>
     </row>
     <row r="822">
       <c r="A822" s="14"/>
-      <c r="D822" s="49"/>
+      <c r="D822" s="50"/>
     </row>
     <row r="823">
       <c r="A823" s="14"/>
-      <c r="D823" s="49"/>
+      <c r="D823" s="50"/>
     </row>
     <row r="824">
       <c r="A824" s="14"/>
-      <c r="D824" s="49"/>
+      <c r="D824" s="50"/>
     </row>
     <row r="825">
       <c r="A825" s="14"/>
-      <c r="D825" s="49"/>
+      <c r="D825" s="50"/>
     </row>
     <row r="826">
       <c r="A826" s="14"/>
-      <c r="D826" s="49"/>
+      <c r="D826" s="50"/>
     </row>
     <row r="827">
       <c r="A827" s="14"/>
-      <c r="D827" s="49"/>
+      <c r="D827" s="50"/>
     </row>
     <row r="828">
       <c r="A828" s="14"/>
-      <c r="D828" s="49"/>
+      <c r="D828" s="50"/>
     </row>
     <row r="829">
       <c r="A829" s="14"/>
-      <c r="D829" s="49"/>
+      <c r="D829" s="50"/>
     </row>
     <row r="830">
       <c r="A830" s="14"/>
-      <c r="D830" s="49"/>
+      <c r="D830" s="50"/>
     </row>
     <row r="831">
       <c r="A831" s="14"/>
-      <c r="D831" s="49"/>
+      <c r="D831" s="50"/>
     </row>
     <row r="832">
       <c r="A832" s="14"/>
-      <c r="D832" s="49"/>
+      <c r="D832" s="50"/>
     </row>
     <row r="833">
       <c r="A833" s="14"/>
-      <c r="D833" s="49"/>
+      <c r="D833" s="50"/>
     </row>
     <row r="834">
       <c r="A834" s="14"/>
-      <c r="D834" s="49"/>
+      <c r="D834" s="50"/>
     </row>
     <row r="835">
       <c r="A835" s="14"/>
-      <c r="D835" s="49"/>
+      <c r="D835" s="50"/>
     </row>
     <row r="836">
       <c r="A836" s="14"/>
-      <c r="D836" s="49"/>
+      <c r="D836" s="50"/>
     </row>
     <row r="837">
       <c r="A837" s="14"/>
-      <c r="D837" s="49"/>
+      <c r="D837" s="50"/>
     </row>
     <row r="838">
       <c r="A838" s="14"/>
-      <c r="D838" s="49"/>
+      <c r="D838" s="50"/>
     </row>
     <row r="839">
       <c r="A839" s="14"/>
-      <c r="D839" s="49"/>
+      <c r="D839" s="50"/>
     </row>
     <row r="840">
       <c r="A840" s="14"/>
-      <c r="D840" s="49"/>
+      <c r="D840" s="50"/>
     </row>
     <row r="841">
       <c r="A841" s="14"/>
-      <c r="D841" s="49"/>
+      <c r="D841" s="50"/>
     </row>
     <row r="842">
       <c r="A842" s="14"/>
-      <c r="D842" s="49"/>
+      <c r="D842" s="50"/>
     </row>
     <row r="843">
       <c r="A843" s="14"/>
-      <c r="D843" s="49"/>
+      <c r="D843" s="50"/>
     </row>
     <row r="844">
       <c r="A844" s="14"/>
-      <c r="D844" s="49"/>
+      <c r="D844" s="50"/>
     </row>
     <row r="845">
       <c r="A845" s="14"/>
-      <c r="D845" s="49"/>
+      <c r="D845" s="50"/>
     </row>
     <row r="846">
       <c r="A846" s="14"/>
-      <c r="D846" s="49"/>
+      <c r="D846" s="50"/>
     </row>
     <row r="847">
       <c r="A847" s="14"/>
-      <c r="D847" s="49"/>
+      <c r="D847" s="50"/>
     </row>
     <row r="848">
       <c r="A848" s="14"/>
-      <c r="D848" s="49"/>
+      <c r="D848" s="50"/>
     </row>
     <row r="849">
       <c r="A849" s="14"/>
-      <c r="D849" s="49"/>
+      <c r="D849" s="50"/>
     </row>
     <row r="850">
       <c r="A850" s="14"/>
-      <c r="D850" s="49"/>
+      <c r="D850" s="50"/>
     </row>
     <row r="851">
       <c r="A851" s="14"/>
-      <c r="D851" s="49"/>
+      <c r="D851" s="50"/>
     </row>
     <row r="852">
       <c r="A852" s="14"/>
-      <c r="D852" s="49"/>
+      <c r="D852" s="50"/>
     </row>
     <row r="853">
       <c r="A853" s="14"/>
-      <c r="D853" s="49"/>
+      <c r="D853" s="50"/>
     </row>
     <row r="854">
       <c r="A854" s="14"/>
-      <c r="D854" s="49"/>
+      <c r="D854" s="50"/>
     </row>
     <row r="855">
       <c r="A855" s="14"/>
-      <c r="D855" s="49"/>
+      <c r="D855" s="50"/>
     </row>
     <row r="856">
       <c r="A856" s="14"/>
-      <c r="D856" s="49"/>
+      <c r="D856" s="50"/>
     </row>
     <row r="857">
       <c r="A857" s="14"/>
-      <c r="D857" s="49"/>
+      <c r="D857" s="50"/>
     </row>
     <row r="858">
       <c r="A858" s="14"/>
-      <c r="D858" s="49"/>
+      <c r="D858" s="50"/>
     </row>
     <row r="859">
       <c r="A859" s="14"/>
-      <c r="D859" s="49"/>
+      <c r="D859" s="50"/>
     </row>
     <row r="860">
       <c r="A860" s="14"/>
-      <c r="D860" s="49"/>
+      <c r="D860" s="50"/>
     </row>
     <row r="861">
       <c r="A861" s="14"/>
-      <c r="D861" s="49"/>
+      <c r="D861" s="50"/>
     </row>
     <row r="862">
       <c r="A862" s="14"/>
-      <c r="D862" s="49"/>
+      <c r="D862" s="50"/>
     </row>
     <row r="863">
       <c r="A863" s="14"/>
-      <c r="D863" s="49"/>
+      <c r="D863" s="50"/>
     </row>
     <row r="864">
       <c r="A864" s="14"/>
-      <c r="D864" s="49"/>
+      <c r="D864" s="50"/>
     </row>
     <row r="865">
       <c r="A865" s="14"/>
-      <c r="D865" s="49"/>
+      <c r="D865" s="50"/>
     </row>
     <row r="866">
       <c r="A866" s="14"/>
-      <c r="D866" s="49"/>
+      <c r="D866" s="50"/>
     </row>
     <row r="867">
       <c r="A867" s="14"/>
-      <c r="D867" s="49"/>
+      <c r="D867" s="50"/>
     </row>
     <row r="868">
       <c r="A868" s="14"/>
-      <c r="D868" s="49"/>
+      <c r="D868" s="50"/>
     </row>
     <row r="869">
       <c r="A869" s="14"/>
-      <c r="D869" s="49"/>
+      <c r="D869" s="50"/>
     </row>
     <row r="870">
       <c r="A870" s="14"/>
-      <c r="D870" s="49"/>
+      <c r="D870" s="50"/>
     </row>
     <row r="871">
       <c r="A871" s="14"/>
-      <c r="D871" s="49"/>
+      <c r="D871" s="50"/>
     </row>
     <row r="872">
       <c r="A872" s="14"/>
-      <c r="D872" s="49"/>
+      <c r="D872" s="50"/>
     </row>
     <row r="873">
       <c r="A873" s="14"/>
-      <c r="D873" s="49"/>
+      <c r="D873" s="50"/>
     </row>
     <row r="874">
       <c r="A874" s="14"/>
-      <c r="D874" s="49"/>
+      <c r="D874" s="50"/>
     </row>
     <row r="875">
       <c r="A875" s="14"/>
-      <c r="D875" s="49"/>
+      <c r="D875" s="50"/>
     </row>
     <row r="876">
       <c r="A876" s="14"/>
-      <c r="D876" s="49"/>
+      <c r="D876" s="50"/>
     </row>
     <row r="877">
       <c r="A877" s="14"/>
-      <c r="D877" s="49"/>
+      <c r="D877" s="50"/>
     </row>
     <row r="878">
       <c r="A878" s="14"/>
-      <c r="D878" s="49"/>
+      <c r="D878" s="50"/>
     </row>
     <row r="879">
       <c r="A879" s="14"/>
-      <c r="D879" s="49"/>
+      <c r="D879" s="50"/>
     </row>
     <row r="880">
       <c r="A880" s="14"/>
-      <c r="D880" s="49"/>
+      <c r="D880" s="50"/>
     </row>
     <row r="881">
       <c r="A881" s="14"/>
-      <c r="D881" s="49"/>
+      <c r="D881" s="50"/>
     </row>
     <row r="882">
       <c r="A882" s="14"/>
-      <c r="D882" s="49"/>
+      <c r="D882" s="50"/>
     </row>
     <row r="883">
       <c r="A883" s="14"/>
-      <c r="D883" s="49"/>
+      <c r="D883" s="50"/>
     </row>
     <row r="884">
       <c r="A884" s="14"/>
-      <c r="D884" s="49"/>
+      <c r="D884" s="50"/>
     </row>
     <row r="885">
       <c r="A885" s="14"/>
-      <c r="D885" s="49"/>
+      <c r="D885" s="50"/>
     </row>
     <row r="886">
       <c r="A886" s="14"/>
-      <c r="D886" s="49"/>
+      <c r="D886" s="50"/>
     </row>
     <row r="887">
       <c r="A887" s="14"/>
-      <c r="D887" s="49"/>
+      <c r="D887" s="50"/>
     </row>
     <row r="888">
       <c r="A888" s="14"/>
-      <c r="D888" s="49"/>
+      <c r="D888" s="50"/>
     </row>
     <row r="889">
       <c r="A889" s="14"/>
-      <c r="D889" s="49"/>
+      <c r="D889" s="50"/>
     </row>
     <row r="890">
       <c r="A890" s="14"/>
-      <c r="D890" s="49"/>
+      <c r="D890" s="50"/>
     </row>
     <row r="891">
       <c r="A891" s="14"/>
-      <c r="D891" s="49"/>
+      <c r="D891" s="50"/>
     </row>
     <row r="892">
       <c r="A892" s="14"/>
-      <c r="D892" s="49"/>
+      <c r="D892" s="50"/>
     </row>
     <row r="893">
       <c r="A893" s="14"/>
-      <c r="D893" s="49"/>
+      <c r="D893" s="50"/>
     </row>
     <row r="894">
       <c r="A894" s="14"/>
-      <c r="D894" s="49"/>
+      <c r="D894" s="50"/>
     </row>
     <row r="895">
       <c r="A895" s="14"/>
-      <c r="D895" s="49"/>
+      <c r="D895" s="50"/>
     </row>
     <row r="896">
       <c r="A896" s="14"/>
-      <c r="D896" s="49"/>
+      <c r="D896" s="50"/>
     </row>
     <row r="897">
       <c r="A897" s="14"/>
-      <c r="D897" s="49"/>
+      <c r="D897" s="50"/>
     </row>
     <row r="898">
       <c r="A898" s="14"/>
-      <c r="D898" s="49"/>
+      <c r="D898" s="50"/>
     </row>
     <row r="899">
       <c r="A899" s="14"/>
-      <c r="D899" s="49"/>
+      <c r="D899" s="50"/>
     </row>
     <row r="900">
       <c r="A900" s="14"/>
-      <c r="D900" s="49"/>
+      <c r="D900" s="50"/>
     </row>
     <row r="901">
       <c r="A901" s="14"/>
-      <c r="D901" s="49"/>
+      <c r="D901" s="50"/>
     </row>
     <row r="902">
       <c r="A902" s="14"/>
-      <c r="D902" s="49"/>
+      <c r="D902" s="50"/>
     </row>
     <row r="903">
       <c r="A903" s="14"/>
-      <c r="D903" s="49"/>
+      <c r="D903" s="50"/>
     </row>
     <row r="904">
       <c r="A904" s="14"/>
-      <c r="D904" s="49"/>
+      <c r="D904" s="50"/>
     </row>
     <row r="905">
       <c r="A905" s="14"/>
-      <c r="D905" s="49"/>
+      <c r="D905" s="50"/>
     </row>
     <row r="906">
       <c r="A906" s="14"/>
-      <c r="D906" s="49"/>
+      <c r="D906" s="50"/>
     </row>
     <row r="907">
       <c r="A907" s="14"/>
-      <c r="D907" s="49"/>
+      <c r="D907" s="50"/>
     </row>
     <row r="908">
       <c r="A908" s="14"/>
-      <c r="D908" s="49"/>
+      <c r="D908" s="50"/>
     </row>
     <row r="909">
       <c r="A909" s="14"/>
-      <c r="D909" s="49"/>
+      <c r="D909" s="50"/>
     </row>
     <row r="910">
       <c r="A910" s="14"/>
-      <c r="D910" s="49"/>
+      <c r="D910" s="50"/>
     </row>
     <row r="911">
       <c r="A911" s="14"/>
-      <c r="D911" s="49"/>
+      <c r="D911" s="50"/>
     </row>
     <row r="912">
       <c r="A912" s="14"/>
-      <c r="D912" s="49"/>
+      <c r="D912" s="50"/>
     </row>
     <row r="913">
       <c r="A913" s="14"/>
-      <c r="D913" s="49"/>
+      <c r="D913" s="50"/>
     </row>
     <row r="914">
       <c r="A914" s="14"/>
-      <c r="D914" s="49"/>
+      <c r="D914" s="50"/>
     </row>
     <row r="915">
       <c r="A915" s="14"/>
-      <c r="D915" s="49"/>
+      <c r="D915" s="50"/>
     </row>
     <row r="916">
       <c r="A916" s="14"/>
-      <c r="D916" s="49"/>
+      <c r="D916" s="50"/>
     </row>
     <row r="917">
       <c r="A917" s="14"/>
-      <c r="D917" s="49"/>
+      <c r="D917" s="50"/>
     </row>
     <row r="918">
       <c r="A918" s="14"/>
-      <c r="D918" s="49"/>
+      <c r="D918" s="50"/>
     </row>
     <row r="919">
       <c r="A919" s="14"/>
-      <c r="D919" s="49"/>
+      <c r="D919" s="50"/>
     </row>
     <row r="920">
       <c r="A920" s="14"/>
-      <c r="D920" s="49"/>
+      <c r="D920" s="50"/>
     </row>
     <row r="921">
       <c r="A921" s="14"/>
-      <c r="D921" s="49"/>
+      <c r="D921" s="50"/>
     </row>
     <row r="922">
       <c r="A922" s="14"/>
-      <c r="D922" s="49"/>
+      <c r="D922" s="50"/>
     </row>
     <row r="923">
       <c r="A923" s="14"/>
-      <c r="D923" s="49"/>
+      <c r="D923" s="50"/>
     </row>
     <row r="924">
       <c r="A924" s="14"/>
-      <c r="D924" s="49"/>
+      <c r="D924" s="50"/>
     </row>
     <row r="925">
       <c r="A925" s="14"/>
-      <c r="D925" s="49"/>
+      <c r="D925" s="50"/>
     </row>
     <row r="926">
       <c r="A926" s="14"/>
-      <c r="D926" s="49"/>
+      <c r="D926" s="50"/>
     </row>
     <row r="927">
       <c r="A927" s="14"/>
-      <c r="D927" s="49"/>
+      <c r="D927" s="50"/>
     </row>
     <row r="928">
       <c r="A928" s="14"/>
-      <c r="D928" s="49"/>
+      <c r="D928" s="50"/>
     </row>
     <row r="929">
       <c r="A929" s="14"/>
-      <c r="D929" s="49"/>
+      <c r="D929" s="50"/>
     </row>
     <row r="930">
       <c r="A930" s="14"/>
-      <c r="D930" s="49"/>
+      <c r="D930" s="50"/>
     </row>
     <row r="931">
       <c r="A931" s="14"/>
-      <c r="D931" s="49"/>
+      <c r="D931" s="50"/>
     </row>
     <row r="932">
       <c r="A932" s="14"/>
-      <c r="D932" s="49"/>
+      <c r="D932" s="50"/>
     </row>
     <row r="933">
       <c r="A933" s="14"/>
-      <c r="D933" s="49"/>
+      <c r="D933" s="50"/>
     </row>
     <row r="934">
       <c r="A934" s="14"/>
-      <c r="D934" s="49"/>
+      <c r="D934" s="50"/>
     </row>
     <row r="935">
       <c r="A935" s="14"/>
-      <c r="D935" s="49"/>
+      <c r="D935" s="50"/>
     </row>
     <row r="936">
       <c r="A936" s="14"/>
-      <c r="D936" s="49"/>
+      <c r="D936" s="50"/>
     </row>
     <row r="937">
       <c r="A937" s="14"/>
-      <c r="D937" s="49"/>
+      <c r="D937" s="50"/>
     </row>
     <row r="938">
       <c r="A938" s="14"/>
-      <c r="D938" s="49"/>
+      <c r="D938" s="50"/>
     </row>
     <row r="939">
       <c r="A939" s="14"/>
-      <c r="D939" s="49"/>
+      <c r="D939" s="50"/>
     </row>
     <row r="940">
       <c r="A940" s="14"/>
-      <c r="D940" s="49"/>
+      <c r="D940" s="50"/>
     </row>
     <row r="941">
       <c r="A941" s="14"/>
-      <c r="D941" s="49"/>
+      <c r="D941" s="50"/>
     </row>
     <row r="942">
       <c r="A942" s="14"/>
-      <c r="D942" s="49"/>
+      <c r="D942" s="50"/>
     </row>
     <row r="943">
       <c r="A943" s="14"/>
-      <c r="D943" s="49"/>
+      <c r="D943" s="50"/>
     </row>
     <row r="944">
       <c r="A944" s="14"/>
-      <c r="D944" s="49"/>
+      <c r="D944" s="50"/>
     </row>
     <row r="945">
       <c r="A945" s="14"/>
-      <c r="D945" s="49"/>
+      <c r="D945" s="50"/>
     </row>
     <row r="946">
       <c r="A946" s="14"/>
-      <c r="D946" s="49"/>
+      <c r="D946" s="50"/>
     </row>
     <row r="947">
       <c r="A947" s="14"/>
-      <c r="D947" s="49"/>
+      <c r="D947" s="50"/>
     </row>
     <row r="948">
       <c r="A948" s="14"/>
-      <c r="D948" s="49"/>
+      <c r="D948" s="50"/>
     </row>
     <row r="949">
       <c r="A949" s="14"/>
-      <c r="D949" s="49"/>
+      <c r="D949" s="50"/>
     </row>
     <row r="950">
       <c r="A950" s="14"/>
-      <c r="D950" s="49"/>
+      <c r="D950" s="50"/>
     </row>
     <row r="951">
       <c r="A951" s="14"/>
-      <c r="D951" s="49"/>
+      <c r="D951" s="50"/>
     </row>
     <row r="952">
       <c r="A952" s="14"/>
-      <c r="D952" s="49"/>
+      <c r="D952" s="50"/>
     </row>
     <row r="953">
       <c r="A953" s="14"/>
-      <c r="D953" s="49"/>
+      <c r="D953" s="50"/>
     </row>
     <row r="954">
       <c r="A954" s="14"/>
-      <c r="D954" s="49"/>
+      <c r="D954" s="50"/>
     </row>
     <row r="955">
       <c r="A955" s="14"/>
-      <c r="D955" s="49"/>
+      <c r="D955" s="50"/>
     </row>
     <row r="956">
       <c r="A956" s="14"/>
-      <c r="D956" s="49"/>
+      <c r="D956" s="50"/>
     </row>
     <row r="957">
       <c r="A957" s="14"/>
-      <c r="D957" s="49"/>
+      <c r="D957" s="50"/>
     </row>
     <row r="958">
       <c r="A958" s="14"/>
-      <c r="D958" s="49"/>
+      <c r="D958" s="50"/>
     </row>
     <row r="959">
       <c r="A959" s="14"/>
-      <c r="D959" s="49"/>
+      <c r="D959" s="50"/>
     </row>
     <row r="960">
       <c r="A960" s="14"/>
-      <c r="D960" s="49"/>
+      <c r="D960" s="50"/>
     </row>
     <row r="961">
       <c r="A961" s="14"/>
-      <c r="D961" s="49"/>
+      <c r="D961" s="50"/>
     </row>
     <row r="962">
       <c r="A962" s="14"/>
-      <c r="D962" s="49"/>
+      <c r="D962" s="50"/>
     </row>
     <row r="963">
       <c r="A963" s="14"/>
-      <c r="D963" s="49"/>
+      <c r="D963" s="50"/>
     </row>
     <row r="964">
       <c r="A964" s="14"/>
-      <c r="D964" s="49"/>
+      <c r="D964" s="50"/>
     </row>
     <row r="965">
       <c r="A965" s="14"/>
-      <c r="D965" s="49"/>
+      <c r="D965" s="50"/>
     </row>
     <row r="966">
       <c r="A966" s="14"/>
-      <c r="D966" s="49"/>
+      <c r="D966" s="50"/>
     </row>
     <row r="967">
       <c r="A967" s="14"/>
-      <c r="D967" s="49"/>
+      <c r="D967" s="50"/>
     </row>
     <row r="968">
       <c r="A968" s="14"/>
-      <c r="D968" s="49"/>
+      <c r="D968" s="50"/>
     </row>
     <row r="969">
       <c r="A969" s="14"/>
-      <c r="D969" s="49"/>
+      <c r="D969" s="50"/>
     </row>
     <row r="970">
       <c r="A970" s="14"/>
-      <c r="D970" s="49"/>
+      <c r="D970" s="50"/>
     </row>
     <row r="971">
       <c r="A971" s="14"/>
-      <c r="D971" s="49"/>
+      <c r="D971" s="50"/>
     </row>
     <row r="972">
       <c r="A972" s="14"/>
-      <c r="D972" s="49"/>
+      <c r="D972" s="50"/>
     </row>
     <row r="973">
       <c r="A973" s="14"/>
-      <c r="D973" s="49"/>
+      <c r="D973" s="50"/>
     </row>
     <row r="974">
       <c r="A974" s="14"/>
-      <c r="D974" s="49"/>
+      <c r="D974" s="50"/>
     </row>
     <row r="975">
       <c r="A975" s="14"/>
-      <c r="D975" s="49"/>
+      <c r="D975" s="50"/>
     </row>
     <row r="976">
       <c r="A976" s="14"/>
-      <c r="D976" s="49"/>
+      <c r="D976" s="50"/>
     </row>
     <row r="977">
       <c r="A977" s="14"/>
-      <c r="D977" s="49"/>
+      <c r="D977" s="50"/>
     </row>
     <row r="978">
       <c r="A978" s="14"/>
-      <c r="D978" s="49"/>
+      <c r="D978" s="50"/>
     </row>
     <row r="979">
       <c r="A979" s="14"/>
-      <c r="D979" s="49"/>
+      <c r="D979" s="50"/>
     </row>
     <row r="980">
       <c r="A980" s="14"/>
-      <c r="D980" s="49"/>
+      <c r="D980" s="50"/>
     </row>
     <row r="981">
       <c r="A981" s="14"/>
-      <c r="D981" s="49"/>
+      <c r="D981" s="50"/>
     </row>
     <row r="982">
       <c r="A982" s="14"/>
-      <c r="D982" s="49"/>
+      <c r="D982" s="50"/>
     </row>
     <row r="983">
       <c r="A983" s="14"/>
-      <c r="D983" s="49"/>
+      <c r="D983" s="50"/>
     </row>
     <row r="984">
       <c r="A984" s="14"/>
-      <c r="D984" s="49"/>
+      <c r="D984" s="50"/>
     </row>
     <row r="985">
       <c r="A985" s="14"/>
-      <c r="D985" s="49"/>
+      <c r="D985" s="50"/>
     </row>
     <row r="986">
       <c r="A986" s="14"/>
-      <c r="D986" s="49"/>
+      <c r="D986" s="50"/>
     </row>
     <row r="987">
       <c r="A987" s="14"/>
-      <c r="D987" s="49"/>
+      <c r="D987" s="50"/>
     </row>
     <row r="988">
       <c r="A988" s="14"/>
-      <c r="D988" s="49"/>
+      <c r="D988" s="50"/>
     </row>
     <row r="989">
       <c r="A989" s="14"/>
-      <c r="D989" s="49"/>
+      <c r="D989" s="50"/>
     </row>
     <row r="990">
       <c r="A990" s="14"/>
-      <c r="D990" s="49"/>
+      <c r="D990" s="50"/>
     </row>
     <row r="991">
       <c r="A991" s="14"/>
-      <c r="D991" s="49"/>
+      <c r="D991" s="50"/>
     </row>
     <row r="992">
       <c r="A992" s="14"/>
-      <c r="D992" s="49"/>
+      <c r="D992" s="50"/>
     </row>
     <row r="993">
       <c r="A993" s="14"/>
-      <c r="D993" s="49"/>
+      <c r="D993" s="50"/>
     </row>
     <row r="994">
       <c r="A994" s="14"/>
-      <c r="D994" s="49"/>
+      <c r="D994" s="50"/>
     </row>
     <row r="995">
       <c r="A995" s="14"/>
-      <c r="D995" s="49"/>
+      <c r="D995" s="50"/>
     </row>
     <row r="996">
       <c r="A996" s="14"/>
-      <c r="D996" s="49"/>
+      <c r="D996" s="50"/>
     </row>
     <row r="997">
-      <c r="D997" s="49"/>
+      <c r="D997" s="50"/>
     </row>
     <row r="998">
-      <c r="D998" s="49"/>
+      <c r="D998" s="50"/>
     </row>
     <row r="999">
-      <c r="D999" s="49"/>
+      <c r="D999" s="50"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="49"/>
+      <c r="D1000" s="50"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -665,9 +665,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2642,12 +2639,14 @@
       <c r="W6" s="12">
         <v>35.0</v>
       </c>
-      <c r="X6" s="14"/>
+      <c r="X6" s="13">
+        <v>36.0</v>
+      </c>
       <c r="Y6" s="15"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
@@ -2774,12 +2773,14 @@
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="14"/>
+      <c r="X8" s="13">
+        <v>37.0</v>
+      </c>
       <c r="Y8" s="15"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>553</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9">
@@ -2902,12 +2903,14 @@
       <c r="W10" s="12">
         <v>26.0</v>
       </c>
-      <c r="X10" s="14"/>
+      <c r="X10" s="13">
+        <v>31.0</v>
+      </c>
       <c r="Y10" s="15"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>505</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11">
@@ -2953,12 +2956,14 @@
       <c r="U11" s="15"/>
       <c r="V11" s="14"/>
       <c r="W11" s="15"/>
-      <c r="X11" s="14"/>
+      <c r="X11" s="13">
+        <v>28.0</v>
+      </c>
       <c r="Y11" s="15"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -3020,12 +3025,14 @@
       <c r="W12" s="12">
         <v>28.0</v>
       </c>
-      <c r="X12" s="14"/>
+      <c r="X12" s="13">
+        <v>28.0</v>
+      </c>
       <c r="Y12" s="15"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>542</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13">
@@ -3136,12 +3143,14 @@
         <v>32.0</v>
       </c>
       <c r="W14" s="15"/>
-      <c r="X14" s="14"/>
+      <c r="X14" s="13">
+        <v>39.0</v>
+      </c>
       <c r="Y14" s="15"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15">
@@ -3262,12 +3271,14 @@
       <c r="W16" s="12">
         <v>31.0</v>
       </c>
-      <c r="X16" s="14"/>
+      <c r="X16" s="13">
+        <v>30.0</v>
+      </c>
       <c r="Y16" s="15"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>383</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17">
@@ -3376,12 +3387,14 @@
       <c r="W18" s="12">
         <v>20.0</v>
       </c>
-      <c r="X18" s="15"/>
+      <c r="X18" s="12">
+        <v>30.0</v>
+      </c>
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>341</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -3477,7 +3490,9 @@
       <c r="W20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="X20" s="21"/>
+      <c r="X20" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="28"/>
@@ -3549,7 +3564,9 @@
       <c r="W21" s="24">
         <v>42.0</v>
       </c>
-      <c r="X21" s="24"/>
+      <c r="X21" s="24">
+        <v>39.0</v>
+      </c>
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
@@ -3622,10 +3639,10 @@
         <v>54</v>
       </c>
       <c r="B5" s="32">
+        <v>13.0</v>
+      </c>
+      <c r="C5" s="33">
         <v>12.0</v>
-      </c>
-      <c r="C5" s="33">
-        <v>11.0</v>
       </c>
     </row>
     <row r="6">
@@ -3655,10 +3672,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="32">
+        <v>9.0</v>
+      </c>
+      <c r="C8" s="33">
         <v>8.0</v>
-      </c>
-      <c r="C8" s="33">
-        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -3680,7 +3697,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="33">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -3688,10 +3705,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="32">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -3699,10 +3716,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="32">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C12" s="33">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
@@ -3713,7 +3730,7 @@
         <v>22.0</v>
       </c>
       <c r="C13" s="33">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="14">
@@ -3721,10 +3738,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="32">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C14" s="33">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
@@ -3732,10 +3749,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="32">
+        <v>29.0</v>
+      </c>
+      <c r="C15" s="33">
         <v>28.0</v>
-      </c>
-      <c r="C15" s="33">
-        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -3787,7 +3804,7 @@
         <v>102</v>
       </c>
       <c r="B20" s="32">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C20" s="33">
         <v>18.0</v>
@@ -3798,7 +3815,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="32">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C21" s="33">
         <v>14.0</v>
@@ -3831,10 +3848,10 @@
         <v>101</v>
       </c>
       <c r="B24" s="35">
+        <v>30.0</v>
+      </c>
+      <c r="C24" s="36">
         <v>28.0</v>
-      </c>
-      <c r="C24" s="36">
-        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -7993,7 +8010,9 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="43" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="13">
@@ -8006,8 +8025,8 @@
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
@@ -12894,7 +12913,7 @@
       <c r="C1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E1" s="23" t="s">
@@ -12905,19 +12924,19 @@
       <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="48" t="str">
         <f>'SUNDAY SINGLES'!C24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <f>'SUNDAY SINGLES'!C25</f>
         <v>35</v>
       </c>
-      <c r="D2" s="50" t="str">
+      <c r="D2" s="49" t="str">
         <f>'THURSDAY SINGLES'!C20</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="48">
         <f>'THURSDAY SINGLES'!C21</f>
         <v>40</v>
       </c>
@@ -12926,19 +12945,19 @@
       <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="48" t="str">
         <f>'SUNDAY SINGLES'!D24</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <f>'SUNDAY SINGLES'!D25</f>
         <v>43</v>
       </c>
-      <c r="D3" s="50" t="str">
+      <c r="D3" s="49" t="str">
         <f>'THURSDAY SINGLES'!D20</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f>'THURSDAY SINGLES'!D21</f>
         <v>36</v>
       </c>
@@ -12947,19 +12966,19 @@
       <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="48" t="str">
         <f>'SUNDAY SINGLES'!E24</f>
         <v>CHRIS DUFFY</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <f>'SUNDAY SINGLES'!E25</f>
         <v>37</v>
       </c>
-      <c r="D4" s="50" t="str">
+      <c r="D4" s="49" t="str">
         <f>'THURSDAY SINGLES'!E20</f>
         <v>MARTIN BROCK</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <f>'THURSDAY SINGLES'!E21</f>
         <v>37</v>
       </c>
@@ -12968,19 +12987,19 @@
       <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="49" t="str">
+      <c r="B5" s="48" t="str">
         <f>'SUNDAY SINGLES'!F24</f>
         <v>MAL JONES</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <f>'SUNDAY SINGLES'!F25</f>
         <v>37</v>
       </c>
-      <c r="D5" s="50" t="str">
+      <c r="D5" s="49" t="str">
         <f>'THURSDAY SINGLES'!F20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <f>'THURSDAY SINGLES'!F21</f>
         <v>38</v>
       </c>
@@ -12989,19 +13008,19 @@
       <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="49" t="str">
+      <c r="B6" s="48" t="str">
         <f>'SUNDAY SINGLES'!G24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <f>'SUNDAY SINGLES'!G25</f>
         <v>42</v>
       </c>
-      <c r="D6" s="50" t="str">
+      <c r="D6" s="49" t="str">
         <f>'THURSDAY SINGLES'!G20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <f>'THURSDAY SINGLES'!G21</f>
         <v>38</v>
       </c>
@@ -13010,19 +13029,19 @@
       <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="49" t="str">
+      <c r="B7" s="48" t="str">
         <f>'SUNDAY SINGLES'!H24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <f>'SUNDAY SINGLES'!H25</f>
         <v>35</v>
       </c>
-      <c r="D7" s="50" t="str">
+      <c r="D7" s="49" t="str">
         <f>'THURSDAY SINGLES'!H20</f>
         <v>BAZ MASON</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <f>'THURSDAY SINGLES'!H21</f>
         <v>37</v>
       </c>
@@ -13031,19 +13050,19 @@
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="49" t="str">
+      <c r="B8" s="48" t="str">
         <f>'SUNDAY SINGLES'!I24</f>
         <v>SCOTT LEONARDE</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <f>'SUNDAY SINGLES'!I25</f>
         <v>34</v>
       </c>
-      <c r="D8" s="50" t="str">
+      <c r="D8" s="49" t="str">
         <f>'THURSDAY SINGLES'!I20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="48">
         <f>'THURSDAY SINGLES'!I$21</f>
         <v>42</v>
       </c>
@@ -13052,19 +13071,19 @@
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="49" t="str">
+      <c r="B9" s="48" t="str">
         <f>'SUNDAY SINGLES'!J24</f>
         <v>FRED HOLINGWORTH</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <f>'SUNDAY SINGLES'!J25</f>
         <v>35</v>
       </c>
-      <c r="D9" s="50" t="str">
+      <c r="D9" s="49" t="str">
         <f>'THURSDAY SINGLES'!J20</f>
         <v>JOHN KING</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="48">
         <f>'THURSDAY SINGLES'!J$21</f>
         <v>32</v>
       </c>
@@ -13073,19 +13092,19 @@
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="49" t="str">
+      <c r="B10" s="48" t="str">
         <f>'SUNDAY SINGLES'!K24</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <f>'SUNDAY SINGLES'!K25</f>
         <v>39</v>
       </c>
-      <c r="D10" s="50" t="str">
+      <c r="D10" s="49" t="str">
         <f>'THURSDAY SINGLES'!K20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>'THURSDAY SINGLES'!K$21</f>
         <v>30</v>
       </c>
@@ -13094,19 +13113,19 @@
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="49" t="str">
+      <c r="B11" s="48" t="str">
         <f>'SUNDAY SINGLES'!L24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <f>'SUNDAY SINGLES'!L25</f>
         <v>39</v>
       </c>
-      <c r="D11" s="50" t="str">
+      <c r="D11" s="49" t="str">
         <f>'THURSDAY SINGLES'!L20</f>
         <v>MAL JONES</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="48">
         <f>'THURSDAY SINGLES'!L$21</f>
         <v>34</v>
       </c>
@@ -13115,19 +13134,19 @@
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="49" t="str">
+      <c r="B12" s="48" t="str">
         <f>'SUNDAY SINGLES'!M24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <f>'SUNDAY SINGLES'!M25</f>
         <v>41</v>
       </c>
-      <c r="D12" s="50" t="str">
+      <c r="D12" s="49" t="str">
         <f>'THURSDAY SINGLES'!M20</f>
         <v>LES DOBBINS</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="48">
         <f>'THURSDAY SINGLES'!M21</f>
         <v>35</v>
       </c>
@@ -13136,19 +13155,19 @@
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="49" t="str">
+      <c r="B13" s="48" t="str">
         <f>'SUNDAY SINGLES'!N24</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="48">
         <f>'SUNDAY SINGLES'!N25</f>
         <v>39</v>
       </c>
-      <c r="D13" s="50" t="str">
+      <c r="D13" s="49" t="str">
         <f>'THURSDAY SINGLES'!N20</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="48">
         <f>'THURSDAY SINGLES'!N$21</f>
         <v>41</v>
       </c>
@@ -13157,19 +13176,19 @@
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="49" t="str">
+      <c r="B14" s="48" t="str">
         <f>'SUNDAY SINGLES'!O24</f>
         <v>FRED HOLLINGWORTH</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="48">
         <f>'SUNDAY SINGLES'!O25</f>
         <v>41</v>
       </c>
-      <c r="D14" s="50" t="str">
+      <c r="D14" s="49" t="str">
         <f>'THURSDAY SINGLES'!O20</f>
         <v>BAZ MASON</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="48">
         <f>'THURSDAY SINGLES'!O21</f>
         <v>42</v>
       </c>
@@ -13178,19 +13197,19 @@
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="49" t="str">
+      <c r="B15" s="48" t="str">
         <f>'SUNDAY SINGLES'!P24</f>
         <v>STEVE FELLOWS</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <f>'SUNDAY SINGLES'!P25</f>
         <v>39</v>
       </c>
-      <c r="D15" s="50" t="str">
+      <c r="D15" s="49" t="str">
         <f>'THURSDAY SINGLES'!P20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="48">
         <f>'THURSDAY SINGLES'!P21</f>
         <v>40</v>
       </c>
@@ -13199,19 +13218,19 @@
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="49" t="str">
+      <c r="B16" s="48" t="str">
         <f>'SUNDAY SINGLES'!Q24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="48">
         <f>'SUNDAY SINGLES'!Q25</f>
         <v>37</v>
       </c>
-      <c r="D16" s="50" t="str">
+      <c r="D16" s="49" t="str">
         <f>'THURSDAY SINGLES'!Q20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="48">
         <f>'THURSDAY SINGLES'!Q21</f>
         <v>39</v>
       </c>
@@ -13220,19 +13239,19 @@
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="49" t="str">
+      <c r="B17" s="48" t="str">
         <f>'SUNDAY SINGLES'!R24</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="48">
         <f>'SUNDAY SINGLES'!R25</f>
         <v>39</v>
       </c>
-      <c r="D17" s="50" t="str">
+      <c r="D17" s="49" t="str">
         <f>'THURSDAY SINGLES'!R20</f>
         <v>MARTIN BROCK</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="48">
         <f>'THURSDAY SINGLES'!R21</f>
         <v>39</v>
       </c>
@@ -13241,19 +13260,19 @@
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="49" t="str">
+      <c r="B18" s="48" t="str">
         <f>'SUNDAY SINGLES'!S24</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="48">
         <f>'SUNDAY SINGLES'!S25</f>
         <v>39</v>
       </c>
-      <c r="D18" s="50" t="str">
+      <c r="D18" s="49" t="str">
         <f>'THURSDAY SINGLES'!S20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="48">
         <f>'THURSDAY SINGLES'!S21</f>
         <v>40</v>
       </c>
@@ -13262,19 +13281,19 @@
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="49" t="str">
+      <c r="B19" s="48" t="str">
         <f>'SUNDAY SINGLES'!T24</f>
         <v>HELEN RIGG</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <f>'SUNDAY SINGLES'!T25</f>
         <v>44</v>
       </c>
-      <c r="D19" s="50" t="str">
+      <c r="D19" s="49" t="str">
         <f>'THURSDAY SINGLES'!T20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="48">
         <f>'THURSDAY SINGLES'!T21</f>
         <v>38</v>
       </c>
@@ -13283,19 +13302,19 @@
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="49" t="str">
+      <c r="B20" s="48" t="str">
         <f>'SUNDAY SINGLES'!U24</f>
         <v>HELEN RIGG</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <f>'SUNDAY SINGLES'!U25</f>
         <v>47</v>
       </c>
-      <c r="D20" s="50" t="str">
+      <c r="D20" s="49" t="str">
         <f>'THURSDAY SINGLES'!U20</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="48">
         <f>'THURSDAY SINGLES'!U21</f>
         <v>39</v>
       </c>
@@ -13304,19 +13323,19 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="49" t="str">
+      <c r="B21" s="48" t="str">
         <f>'SUNDAY SINGLES'!V24</f>
         <v>STEVE FELLOWS</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="48">
         <f>'SUNDAY SINGLES'!V25</f>
         <v>38</v>
       </c>
-      <c r="D21" s="50" t="str">
+      <c r="D21" s="49" t="str">
         <f>'THURSDAY SINGLES'!V20</f>
         <v>SIMON EDWARDS</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="48">
         <f>'THURSDAY SINGLES'!V21</f>
         <v>39</v>
       </c>
@@ -13325,19 +13344,19 @@
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="49" t="str">
+      <c r="B22" s="48" t="str">
         <f>'SUNDAY SINGLES'!W24</f>
         <v>FRED HOLLINGWORTH</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="48">
         <f>'SUNDAY SINGLES'!W25</f>
         <v>38</v>
       </c>
-      <c r="D22" s="50" t="str">
+      <c r="D22" s="49" t="str">
         <f>'THURSDAY SINGLES'!W20</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="48">
         <f>'THURSDAY SINGLES'!W21</f>
         <v>42</v>
       </c>
@@ -13346,40 +13365,40 @@
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="49" t="str">
+      <c r="B23" s="48" t="str">
         <f>'SUNDAY SINGLES'!X24</f>
         <v/>
       </c>
-      <c r="C23" s="49" t="str">
+      <c r="C23" s="48" t="str">
         <f>'SUNDAY SINGLES'!X25</f>
         <v/>
       </c>
-      <c r="D23" s="50" t="str">
+      <c r="D23" s="49" t="str">
         <f>'THURSDAY SINGLES'!X20</f>
-        <v/>
-      </c>
-      <c r="E23" s="49" t="str">
+        <v>ALBIE GILLESPIE</v>
+      </c>
+      <c r="E23" s="48">
         <f>'THURSDAY SINGLES'!X21</f>
-        <v/>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="49" t="str">
+      <c r="B24" s="48" t="str">
         <f>'SUNDAY SINGLES'!Y24</f>
         <v/>
       </c>
-      <c r="C24" s="49" t="str">
+      <c r="C24" s="48" t="str">
         <f>'SUNDAY SINGLES'!Y25</f>
         <v/>
       </c>
-      <c r="D24" s="50" t="str">
+      <c r="D24" s="49" t="str">
         <f>'THURSDAY SINGLES'!Y20</f>
         <v/>
       </c>
-      <c r="E24" s="49" t="str">
+      <c r="E24" s="48" t="str">
         <f>'THURSDAY SINGLES'!Y21</f>
         <v/>
       </c>
@@ -13388,3918 +13407,3918 @@
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="49" t="str">
+      <c r="B25" s="48" t="str">
         <f>'SUNDAY SINGLES'!Z24</f>
         <v/>
       </c>
-      <c r="C25" s="49" t="str">
+      <c r="C25" s="48" t="str">
         <f>'SUNDAY SINGLES'!Z25</f>
         <v/>
       </c>
-      <c r="D25" s="50" t="str">
+      <c r="D25" s="49" t="str">
         <f>'THURSDAY SINGLES'!Z20</f>
         <v/>
       </c>
-      <c r="E25" s="49" t="str">
+      <c r="E25" s="48" t="str">
         <f>'THURSDAY SINGLES'!Z21</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
-      <c r="D26" s="50"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27">
       <c r="A27" s="14"/>
-      <c r="D27" s="50"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28">
       <c r="A28" s="14"/>
-      <c r="D28" s="50"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29">
       <c r="A29" s="14"/>
-      <c r="D29" s="50"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30">
       <c r="A30" s="14"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31">
       <c r="A31" s="14"/>
-      <c r="D31" s="50"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32">
       <c r="A32" s="14"/>
-      <c r="D32" s="50"/>
+      <c r="D32" s="49"/>
     </row>
     <row r="33">
       <c r="A33" s="14"/>
-      <c r="D33" s="50"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34">
       <c r="A34" s="14"/>
-      <c r="D34" s="50"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35">
       <c r="A35" s="14"/>
-      <c r="D35" s="50"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36">
       <c r="A36" s="14"/>
-      <c r="D36" s="50"/>
+      <c r="D36" s="49"/>
     </row>
     <row r="37">
       <c r="A37" s="14"/>
-      <c r="D37" s="50"/>
+      <c r="D37" s="49"/>
     </row>
     <row r="38">
       <c r="A38" s="14"/>
-      <c r="D38" s="50"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39">
       <c r="A39" s="14"/>
-      <c r="D39" s="50"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40">
       <c r="A40" s="14"/>
-      <c r="D40" s="50"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41">
       <c r="A41" s="14"/>
-      <c r="D41" s="50"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42">
       <c r="A42" s="14"/>
-      <c r="D42" s="50"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43">
       <c r="A43" s="14"/>
-      <c r="D43" s="50"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44">
       <c r="A44" s="14"/>
-      <c r="D44" s="50"/>
+      <c r="D44" s="49"/>
     </row>
     <row r="45">
       <c r="A45" s="14"/>
-      <c r="D45" s="50"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46">
       <c r="A46" s="14"/>
-      <c r="D46" s="50"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47">
       <c r="A47" s="14"/>
-      <c r="D47" s="50"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48">
       <c r="A48" s="14"/>
-      <c r="D48" s="50"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49">
       <c r="A49" s="14"/>
-      <c r="D49" s="50"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50">
       <c r="A50" s="14"/>
-      <c r="D50" s="50"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51">
       <c r="A51" s="14"/>
-      <c r="D51" s="50"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52">
       <c r="A52" s="14"/>
-      <c r="D52" s="50"/>
+      <c r="D52" s="49"/>
     </row>
     <row r="53">
       <c r="A53" s="14"/>
-      <c r="D53" s="50"/>
+      <c r="D53" s="49"/>
     </row>
     <row r="54">
       <c r="A54" s="14"/>
-      <c r="D54" s="50"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55">
       <c r="A55" s="14"/>
-      <c r="D55" s="50"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56">
       <c r="A56" s="14"/>
-      <c r="D56" s="50"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="57">
       <c r="A57" s="14"/>
-      <c r="D57" s="50"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58">
       <c r="A58" s="14"/>
-      <c r="D58" s="50"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59">
       <c r="A59" s="14"/>
-      <c r="D59" s="50"/>
+      <c r="D59" s="49"/>
     </row>
     <row r="60">
       <c r="A60" s="14"/>
-      <c r="D60" s="50"/>
+      <c r="D60" s="49"/>
     </row>
     <row r="61">
       <c r="A61" s="14"/>
-      <c r="D61" s="50"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62">
       <c r="A62" s="14"/>
-      <c r="D62" s="50"/>
+      <c r="D62" s="49"/>
     </row>
     <row r="63">
       <c r="A63" s="14"/>
-      <c r="D63" s="50"/>
+      <c r="D63" s="49"/>
     </row>
     <row r="64">
       <c r="A64" s="14"/>
-      <c r="D64" s="50"/>
+      <c r="D64" s="49"/>
     </row>
     <row r="65">
       <c r="A65" s="14"/>
-      <c r="D65" s="50"/>
+      <c r="D65" s="49"/>
     </row>
     <row r="66">
       <c r="A66" s="14"/>
-      <c r="D66" s="50"/>
+      <c r="D66" s="49"/>
     </row>
     <row r="67">
       <c r="A67" s="14"/>
-      <c r="D67" s="50"/>
+      <c r="D67" s="49"/>
     </row>
     <row r="68">
       <c r="A68" s="14"/>
-      <c r="D68" s="50"/>
+      <c r="D68" s="49"/>
     </row>
     <row r="69">
       <c r="A69" s="14"/>
-      <c r="D69" s="50"/>
+      <c r="D69" s="49"/>
     </row>
     <row r="70">
       <c r="A70" s="14"/>
-      <c r="D70" s="50"/>
+      <c r="D70" s="49"/>
     </row>
     <row r="71">
       <c r="A71" s="14"/>
-      <c r="D71" s="50"/>
+      <c r="D71" s="49"/>
     </row>
     <row r="72">
       <c r="A72" s="14"/>
-      <c r="D72" s="50"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73">
       <c r="A73" s="14"/>
-      <c r="D73" s="50"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74">
       <c r="A74" s="14"/>
-      <c r="D74" s="50"/>
+      <c r="D74" s="49"/>
     </row>
     <row r="75">
       <c r="A75" s="14"/>
-      <c r="D75" s="50"/>
+      <c r="D75" s="49"/>
     </row>
     <row r="76">
       <c r="A76" s="14"/>
-      <c r="D76" s="50"/>
+      <c r="D76" s="49"/>
     </row>
     <row r="77">
       <c r="A77" s="14"/>
-      <c r="D77" s="50"/>
+      <c r="D77" s="49"/>
     </row>
     <row r="78">
       <c r="A78" s="14"/>
-      <c r="D78" s="50"/>
+      <c r="D78" s="49"/>
     </row>
     <row r="79">
       <c r="A79" s="14"/>
-      <c r="D79" s="50"/>
+      <c r="D79" s="49"/>
     </row>
     <row r="80">
       <c r="A80" s="14"/>
-      <c r="D80" s="50"/>
+      <c r="D80" s="49"/>
     </row>
     <row r="81">
       <c r="A81" s="14"/>
-      <c r="D81" s="50"/>
+      <c r="D81" s="49"/>
     </row>
     <row r="82">
       <c r="A82" s="14"/>
-      <c r="D82" s="50"/>
+      <c r="D82" s="49"/>
     </row>
     <row r="83">
       <c r="A83" s="14"/>
-      <c r="D83" s="50"/>
+      <c r="D83" s="49"/>
     </row>
     <row r="84">
       <c r="A84" s="14"/>
-      <c r="D84" s="50"/>
+      <c r="D84" s="49"/>
     </row>
     <row r="85">
       <c r="A85" s="14"/>
-      <c r="D85" s="50"/>
+      <c r="D85" s="49"/>
     </row>
     <row r="86">
       <c r="A86" s="14"/>
-      <c r="D86" s="50"/>
+      <c r="D86" s="49"/>
     </row>
     <row r="87">
       <c r="A87" s="14"/>
-      <c r="D87" s="50"/>
+      <c r="D87" s="49"/>
     </row>
     <row r="88">
       <c r="A88" s="14"/>
-      <c r="D88" s="50"/>
+      <c r="D88" s="49"/>
     </row>
     <row r="89">
       <c r="A89" s="14"/>
-      <c r="D89" s="50"/>
+      <c r="D89" s="49"/>
     </row>
     <row r="90">
       <c r="A90" s="14"/>
-      <c r="D90" s="50"/>
+      <c r="D90" s="49"/>
     </row>
     <row r="91">
       <c r="A91" s="14"/>
-      <c r="D91" s="50"/>
+      <c r="D91" s="49"/>
     </row>
     <row r="92">
       <c r="A92" s="14"/>
-      <c r="D92" s="50"/>
+      <c r="D92" s="49"/>
     </row>
     <row r="93">
       <c r="A93" s="14"/>
-      <c r="D93" s="50"/>
+      <c r="D93" s="49"/>
     </row>
     <row r="94">
       <c r="A94" s="14"/>
-      <c r="D94" s="50"/>
+      <c r="D94" s="49"/>
     </row>
     <row r="95">
       <c r="A95" s="14"/>
-      <c r="D95" s="50"/>
+      <c r="D95" s="49"/>
     </row>
     <row r="96">
       <c r="A96" s="14"/>
-      <c r="D96" s="50"/>
+      <c r="D96" s="49"/>
     </row>
     <row r="97">
       <c r="A97" s="14"/>
-      <c r="D97" s="50"/>
+      <c r="D97" s="49"/>
     </row>
     <row r="98">
       <c r="A98" s="14"/>
-      <c r="D98" s="50"/>
+      <c r="D98" s="49"/>
     </row>
     <row r="99">
       <c r="A99" s="14"/>
-      <c r="D99" s="50"/>
+      <c r="D99" s="49"/>
     </row>
     <row r="100">
       <c r="A100" s="14"/>
-      <c r="D100" s="50"/>
+      <c r="D100" s="49"/>
     </row>
     <row r="101">
       <c r="A101" s="14"/>
-      <c r="D101" s="50"/>
+      <c r="D101" s="49"/>
     </row>
     <row r="102">
       <c r="A102" s="14"/>
-      <c r="D102" s="50"/>
+      <c r="D102" s="49"/>
     </row>
     <row r="103">
       <c r="A103" s="14"/>
-      <c r="D103" s="50"/>
+      <c r="D103" s="49"/>
     </row>
     <row r="104">
       <c r="A104" s="14"/>
-      <c r="D104" s="50"/>
+      <c r="D104" s="49"/>
     </row>
     <row r="105">
       <c r="A105" s="14"/>
-      <c r="D105" s="50"/>
+      <c r="D105" s="49"/>
     </row>
     <row r="106">
       <c r="A106" s="14"/>
-      <c r="D106" s="50"/>
+      <c r="D106" s="49"/>
     </row>
     <row r="107">
       <c r="A107" s="14"/>
-      <c r="D107" s="50"/>
+      <c r="D107" s="49"/>
     </row>
     <row r="108">
       <c r="A108" s="14"/>
-      <c r="D108" s="50"/>
+      <c r="D108" s="49"/>
     </row>
     <row r="109">
       <c r="A109" s="14"/>
-      <c r="D109" s="50"/>
+      <c r="D109" s="49"/>
     </row>
     <row r="110">
       <c r="A110" s="14"/>
-      <c r="D110" s="50"/>
+      <c r="D110" s="49"/>
     </row>
     <row r="111">
       <c r="A111" s="14"/>
-      <c r="D111" s="50"/>
+      <c r="D111" s="49"/>
     </row>
     <row r="112">
       <c r="A112" s="14"/>
-      <c r="D112" s="50"/>
+      <c r="D112" s="49"/>
     </row>
     <row r="113">
       <c r="A113" s="14"/>
-      <c r="D113" s="50"/>
+      <c r="D113" s="49"/>
     </row>
     <row r="114">
       <c r="A114" s="14"/>
-      <c r="D114" s="50"/>
+      <c r="D114" s="49"/>
     </row>
     <row r="115">
       <c r="A115" s="14"/>
-      <c r="D115" s="50"/>
+      <c r="D115" s="49"/>
     </row>
     <row r="116">
       <c r="A116" s="14"/>
-      <c r="D116" s="50"/>
+      <c r="D116" s="49"/>
     </row>
     <row r="117">
       <c r="A117" s="14"/>
-      <c r="D117" s="50"/>
+      <c r="D117" s="49"/>
     </row>
     <row r="118">
       <c r="A118" s="14"/>
-      <c r="D118" s="50"/>
+      <c r="D118" s="49"/>
     </row>
     <row r="119">
       <c r="A119" s="14"/>
-      <c r="D119" s="50"/>
+      <c r="D119" s="49"/>
     </row>
     <row r="120">
       <c r="A120" s="14"/>
-      <c r="D120" s="50"/>
+      <c r="D120" s="49"/>
     </row>
     <row r="121">
       <c r="A121" s="14"/>
-      <c r="D121" s="50"/>
+      <c r="D121" s="49"/>
     </row>
     <row r="122">
       <c r="A122" s="14"/>
-      <c r="D122" s="50"/>
+      <c r="D122" s="49"/>
     </row>
     <row r="123">
       <c r="A123" s="14"/>
-      <c r="D123" s="50"/>
+      <c r="D123" s="49"/>
     </row>
     <row r="124">
       <c r="A124" s="14"/>
-      <c r="D124" s="50"/>
+      <c r="D124" s="49"/>
     </row>
     <row r="125">
       <c r="A125" s="14"/>
-      <c r="D125" s="50"/>
+      <c r="D125" s="49"/>
     </row>
     <row r="126">
       <c r="A126" s="14"/>
-      <c r="D126" s="50"/>
+      <c r="D126" s="49"/>
     </row>
     <row r="127">
       <c r="A127" s="14"/>
-      <c r="D127" s="50"/>
+      <c r="D127" s="49"/>
     </row>
     <row r="128">
       <c r="A128" s="14"/>
-      <c r="D128" s="50"/>
+      <c r="D128" s="49"/>
     </row>
     <row r="129">
       <c r="A129" s="14"/>
-      <c r="D129" s="50"/>
+      <c r="D129" s="49"/>
     </row>
     <row r="130">
       <c r="A130" s="14"/>
-      <c r="D130" s="50"/>
+      <c r="D130" s="49"/>
     </row>
     <row r="131">
       <c r="A131" s="14"/>
-      <c r="D131" s="50"/>
+      <c r="D131" s="49"/>
     </row>
     <row r="132">
       <c r="A132" s="14"/>
-      <c r="D132" s="50"/>
+      <c r="D132" s="49"/>
     </row>
     <row r="133">
       <c r="A133" s="14"/>
-      <c r="D133" s="50"/>
+      <c r="D133" s="49"/>
     </row>
     <row r="134">
       <c r="A134" s="14"/>
-      <c r="D134" s="50"/>
+      <c r="D134" s="49"/>
     </row>
     <row r="135">
       <c r="A135" s="14"/>
-      <c r="D135" s="50"/>
+      <c r="D135" s="49"/>
     </row>
     <row r="136">
       <c r="A136" s="14"/>
-      <c r="D136" s="50"/>
+      <c r="D136" s="49"/>
     </row>
     <row r="137">
       <c r="A137" s="14"/>
-      <c r="D137" s="50"/>
+      <c r="D137" s="49"/>
     </row>
     <row r="138">
       <c r="A138" s="14"/>
-      <c r="D138" s="50"/>
+      <c r="D138" s="49"/>
     </row>
     <row r="139">
       <c r="A139" s="14"/>
-      <c r="D139" s="50"/>
+      <c r="D139" s="49"/>
     </row>
     <row r="140">
       <c r="A140" s="14"/>
-      <c r="D140" s="50"/>
+      <c r="D140" s="49"/>
     </row>
     <row r="141">
       <c r="A141" s="14"/>
-      <c r="D141" s="50"/>
+      <c r="D141" s="49"/>
     </row>
     <row r="142">
       <c r="A142" s="14"/>
-      <c r="D142" s="50"/>
+      <c r="D142" s="49"/>
     </row>
     <row r="143">
       <c r="A143" s="14"/>
-      <c r="D143" s="50"/>
+      <c r="D143" s="49"/>
     </row>
     <row r="144">
       <c r="A144" s="14"/>
-      <c r="D144" s="50"/>
+      <c r="D144" s="49"/>
     </row>
     <row r="145">
       <c r="A145" s="14"/>
-      <c r="D145" s="50"/>
+      <c r="D145" s="49"/>
     </row>
     <row r="146">
       <c r="A146" s="14"/>
-      <c r="D146" s="50"/>
+      <c r="D146" s="49"/>
     </row>
     <row r="147">
       <c r="A147" s="14"/>
-      <c r="D147" s="50"/>
+      <c r="D147" s="49"/>
     </row>
     <row r="148">
       <c r="A148" s="14"/>
-      <c r="D148" s="50"/>
+      <c r="D148" s="49"/>
     </row>
     <row r="149">
       <c r="A149" s="14"/>
-      <c r="D149" s="50"/>
+      <c r="D149" s="49"/>
     </row>
     <row r="150">
       <c r="A150" s="14"/>
-      <c r="D150" s="50"/>
+      <c r="D150" s="49"/>
     </row>
     <row r="151">
       <c r="A151" s="14"/>
-      <c r="D151" s="50"/>
+      <c r="D151" s="49"/>
     </row>
     <row r="152">
       <c r="A152" s="14"/>
-      <c r="D152" s="50"/>
+      <c r="D152" s="49"/>
     </row>
     <row r="153">
       <c r="A153" s="14"/>
-      <c r="D153" s="50"/>
+      <c r="D153" s="49"/>
     </row>
     <row r="154">
       <c r="A154" s="14"/>
-      <c r="D154" s="50"/>
+      <c r="D154" s="49"/>
     </row>
     <row r="155">
       <c r="A155" s="14"/>
-      <c r="D155" s="50"/>
+      <c r="D155" s="49"/>
     </row>
     <row r="156">
       <c r="A156" s="14"/>
-      <c r="D156" s="50"/>
+      <c r="D156" s="49"/>
     </row>
     <row r="157">
       <c r="A157" s="14"/>
-      <c r="D157" s="50"/>
+      <c r="D157" s="49"/>
     </row>
     <row r="158">
       <c r="A158" s="14"/>
-      <c r="D158" s="50"/>
+      <c r="D158" s="49"/>
     </row>
     <row r="159">
       <c r="A159" s="14"/>
-      <c r="D159" s="50"/>
+      <c r="D159" s="49"/>
     </row>
     <row r="160">
       <c r="A160" s="14"/>
-      <c r="D160" s="50"/>
+      <c r="D160" s="49"/>
     </row>
     <row r="161">
       <c r="A161" s="14"/>
-      <c r="D161" s="50"/>
+      <c r="D161" s="49"/>
     </row>
     <row r="162">
       <c r="A162" s="14"/>
-      <c r="D162" s="50"/>
+      <c r="D162" s="49"/>
     </row>
     <row r="163">
       <c r="A163" s="14"/>
-      <c r="D163" s="50"/>
+      <c r="D163" s="49"/>
     </row>
     <row r="164">
       <c r="A164" s="14"/>
-      <c r="D164" s="50"/>
+      <c r="D164" s="49"/>
     </row>
     <row r="165">
       <c r="A165" s="14"/>
-      <c r="D165" s="50"/>
+      <c r="D165" s="49"/>
     </row>
     <row r="166">
       <c r="A166" s="14"/>
-      <c r="D166" s="50"/>
+      <c r="D166" s="49"/>
     </row>
     <row r="167">
       <c r="A167" s="14"/>
-      <c r="D167" s="50"/>
+      <c r="D167" s="49"/>
     </row>
     <row r="168">
       <c r="A168" s="14"/>
-      <c r="D168" s="50"/>
+      <c r="D168" s="49"/>
     </row>
     <row r="169">
       <c r="A169" s="14"/>
-      <c r="D169" s="50"/>
+      <c r="D169" s="49"/>
     </row>
     <row r="170">
       <c r="A170" s="14"/>
-      <c r="D170" s="50"/>
+      <c r="D170" s="49"/>
     </row>
     <row r="171">
       <c r="A171" s="14"/>
-      <c r="D171" s="50"/>
+      <c r="D171" s="49"/>
     </row>
     <row r="172">
       <c r="A172" s="14"/>
-      <c r="D172" s="50"/>
+      <c r="D172" s="49"/>
     </row>
     <row r="173">
       <c r="A173" s="14"/>
-      <c r="D173" s="50"/>
+      <c r="D173" s="49"/>
     </row>
     <row r="174">
       <c r="A174" s="14"/>
-      <c r="D174" s="50"/>
+      <c r="D174" s="49"/>
     </row>
     <row r="175">
       <c r="A175" s="14"/>
-      <c r="D175" s="50"/>
+      <c r="D175" s="49"/>
     </row>
     <row r="176">
       <c r="A176" s="14"/>
-      <c r="D176" s="50"/>
+      <c r="D176" s="49"/>
     </row>
     <row r="177">
       <c r="A177" s="14"/>
-      <c r="D177" s="50"/>
+      <c r="D177" s="49"/>
     </row>
     <row r="178">
       <c r="A178" s="14"/>
-      <c r="D178" s="50"/>
+      <c r="D178" s="49"/>
     </row>
     <row r="179">
       <c r="A179" s="14"/>
-      <c r="D179" s="50"/>
+      <c r="D179" s="49"/>
     </row>
     <row r="180">
       <c r="A180" s="14"/>
-      <c r="D180" s="50"/>
+      <c r="D180" s="49"/>
     </row>
     <row r="181">
       <c r="A181" s="14"/>
-      <c r="D181" s="50"/>
+      <c r="D181" s="49"/>
     </row>
     <row r="182">
       <c r="A182" s="14"/>
-      <c r="D182" s="50"/>
+      <c r="D182" s="49"/>
     </row>
     <row r="183">
       <c r="A183" s="14"/>
-      <c r="D183" s="50"/>
+      <c r="D183" s="49"/>
     </row>
     <row r="184">
       <c r="A184" s="14"/>
-      <c r="D184" s="50"/>
+      <c r="D184" s="49"/>
     </row>
     <row r="185">
       <c r="A185" s="14"/>
-      <c r="D185" s="50"/>
+      <c r="D185" s="49"/>
     </row>
     <row r="186">
       <c r="A186" s="14"/>
-      <c r="D186" s="50"/>
+      <c r="D186" s="49"/>
     </row>
     <row r="187">
       <c r="A187" s="14"/>
-      <c r="D187" s="50"/>
+      <c r="D187" s="49"/>
     </row>
     <row r="188">
       <c r="A188" s="14"/>
-      <c r="D188" s="50"/>
+      <c r="D188" s="49"/>
     </row>
     <row r="189">
       <c r="A189" s="14"/>
-      <c r="D189" s="50"/>
+      <c r="D189" s="49"/>
     </row>
     <row r="190">
       <c r="A190" s="14"/>
-      <c r="D190" s="50"/>
+      <c r="D190" s="49"/>
     </row>
     <row r="191">
       <c r="A191" s="14"/>
-      <c r="D191" s="50"/>
+      <c r="D191" s="49"/>
     </row>
     <row r="192">
       <c r="A192" s="14"/>
-      <c r="D192" s="50"/>
+      <c r="D192" s="49"/>
     </row>
     <row r="193">
       <c r="A193" s="14"/>
-      <c r="D193" s="50"/>
+      <c r="D193" s="49"/>
     </row>
     <row r="194">
       <c r="A194" s="14"/>
-      <c r="D194" s="50"/>
+      <c r="D194" s="49"/>
     </row>
     <row r="195">
       <c r="A195" s="14"/>
-      <c r="D195" s="50"/>
+      <c r="D195" s="49"/>
     </row>
     <row r="196">
       <c r="A196" s="14"/>
-      <c r="D196" s="50"/>
+      <c r="D196" s="49"/>
     </row>
     <row r="197">
       <c r="A197" s="14"/>
-      <c r="D197" s="50"/>
+      <c r="D197" s="49"/>
     </row>
     <row r="198">
       <c r="A198" s="14"/>
-      <c r="D198" s="50"/>
+      <c r="D198" s="49"/>
     </row>
     <row r="199">
       <c r="A199" s="14"/>
-      <c r="D199" s="50"/>
+      <c r="D199" s="49"/>
     </row>
     <row r="200">
       <c r="A200" s="14"/>
-      <c r="D200" s="50"/>
+      <c r="D200" s="49"/>
     </row>
     <row r="201">
       <c r="A201" s="14"/>
-      <c r="D201" s="50"/>
+      <c r="D201" s="49"/>
     </row>
     <row r="202">
       <c r="A202" s="14"/>
-      <c r="D202" s="50"/>
+      <c r="D202" s="49"/>
     </row>
     <row r="203">
       <c r="A203" s="14"/>
-      <c r="D203" s="50"/>
+      <c r="D203" s="49"/>
     </row>
     <row r="204">
       <c r="A204" s="14"/>
-      <c r="D204" s="50"/>
+      <c r="D204" s="49"/>
     </row>
     <row r="205">
       <c r="A205" s="14"/>
-      <c r="D205" s="50"/>
+      <c r="D205" s="49"/>
     </row>
     <row r="206">
       <c r="A206" s="14"/>
-      <c r="D206" s="50"/>
+      <c r="D206" s="49"/>
     </row>
     <row r="207">
       <c r="A207" s="14"/>
-      <c r="D207" s="50"/>
+      <c r="D207" s="49"/>
     </row>
     <row r="208">
       <c r="A208" s="14"/>
-      <c r="D208" s="50"/>
+      <c r="D208" s="49"/>
     </row>
     <row r="209">
       <c r="A209" s="14"/>
-      <c r="D209" s="50"/>
+      <c r="D209" s="49"/>
     </row>
     <row r="210">
       <c r="A210" s="14"/>
-      <c r="D210" s="50"/>
+      <c r="D210" s="49"/>
     </row>
     <row r="211">
       <c r="A211" s="14"/>
-      <c r="D211" s="50"/>
+      <c r="D211" s="49"/>
     </row>
     <row r="212">
       <c r="A212" s="14"/>
-      <c r="D212" s="50"/>
+      <c r="D212" s="49"/>
     </row>
     <row r="213">
       <c r="A213" s="14"/>
-      <c r="D213" s="50"/>
+      <c r="D213" s="49"/>
     </row>
     <row r="214">
       <c r="A214" s="14"/>
-      <c r="D214" s="50"/>
+      <c r="D214" s="49"/>
     </row>
     <row r="215">
       <c r="A215" s="14"/>
-      <c r="D215" s="50"/>
+      <c r="D215" s="49"/>
     </row>
     <row r="216">
       <c r="A216" s="14"/>
-      <c r="D216" s="50"/>
+      <c r="D216" s="49"/>
     </row>
     <row r="217">
       <c r="A217" s="14"/>
-      <c r="D217" s="50"/>
+      <c r="D217" s="49"/>
     </row>
     <row r="218">
       <c r="A218" s="14"/>
-      <c r="D218" s="50"/>
+      <c r="D218" s="49"/>
     </row>
     <row r="219">
       <c r="A219" s="14"/>
-      <c r="D219" s="50"/>
+      <c r="D219" s="49"/>
     </row>
     <row r="220">
       <c r="A220" s="14"/>
-      <c r="D220" s="50"/>
+      <c r="D220" s="49"/>
     </row>
     <row r="221">
       <c r="A221" s="14"/>
-      <c r="D221" s="50"/>
+      <c r="D221" s="49"/>
     </row>
     <row r="222">
       <c r="A222" s="14"/>
-      <c r="D222" s="50"/>
+      <c r="D222" s="49"/>
     </row>
     <row r="223">
       <c r="A223" s="14"/>
-      <c r="D223" s="50"/>
+      <c r="D223" s="49"/>
     </row>
     <row r="224">
       <c r="A224" s="14"/>
-      <c r="D224" s="50"/>
+      <c r="D224" s="49"/>
     </row>
     <row r="225">
       <c r="A225" s="14"/>
-      <c r="D225" s="50"/>
+      <c r="D225" s="49"/>
     </row>
     <row r="226">
       <c r="A226" s="14"/>
-      <c r="D226" s="50"/>
+      <c r="D226" s="49"/>
     </row>
     <row r="227">
       <c r="A227" s="14"/>
-      <c r="D227" s="50"/>
+      <c r="D227" s="49"/>
     </row>
     <row r="228">
       <c r="A228" s="14"/>
-      <c r="D228" s="50"/>
+      <c r="D228" s="49"/>
     </row>
     <row r="229">
       <c r="A229" s="14"/>
-      <c r="D229" s="50"/>
+      <c r="D229" s="49"/>
     </row>
     <row r="230">
       <c r="A230" s="14"/>
-      <c r="D230" s="50"/>
+      <c r="D230" s="49"/>
     </row>
     <row r="231">
       <c r="A231" s="14"/>
-      <c r="D231" s="50"/>
+      <c r="D231" s="49"/>
     </row>
     <row r="232">
       <c r="A232" s="14"/>
-      <c r="D232" s="50"/>
+      <c r="D232" s="49"/>
     </row>
     <row r="233">
       <c r="A233" s="14"/>
-      <c r="D233" s="50"/>
+      <c r="D233" s="49"/>
     </row>
     <row r="234">
       <c r="A234" s="14"/>
-      <c r="D234" s="50"/>
+      <c r="D234" s="49"/>
     </row>
     <row r="235">
       <c r="A235" s="14"/>
-      <c r="D235" s="50"/>
+      <c r="D235" s="49"/>
     </row>
     <row r="236">
       <c r="A236" s="14"/>
-      <c r="D236" s="50"/>
+      <c r="D236" s="49"/>
     </row>
     <row r="237">
       <c r="A237" s="14"/>
-      <c r="D237" s="50"/>
+      <c r="D237" s="49"/>
     </row>
     <row r="238">
       <c r="A238" s="14"/>
-      <c r="D238" s="50"/>
+      <c r="D238" s="49"/>
     </row>
     <row r="239">
       <c r="A239" s="14"/>
-      <c r="D239" s="50"/>
+      <c r="D239" s="49"/>
     </row>
     <row r="240">
       <c r="A240" s="14"/>
-      <c r="D240" s="50"/>
+      <c r="D240" s="49"/>
     </row>
     <row r="241">
       <c r="A241" s="14"/>
-      <c r="D241" s="50"/>
+      <c r="D241" s="49"/>
     </row>
     <row r="242">
       <c r="A242" s="14"/>
-      <c r="D242" s="50"/>
+      <c r="D242" s="49"/>
     </row>
     <row r="243">
       <c r="A243" s="14"/>
-      <c r="D243" s="50"/>
+      <c r="D243" s="49"/>
     </row>
     <row r="244">
       <c r="A244" s="14"/>
-      <c r="D244" s="50"/>
+      <c r="D244" s="49"/>
     </row>
     <row r="245">
       <c r="A245" s="14"/>
-      <c r="D245" s="50"/>
+      <c r="D245" s="49"/>
     </row>
     <row r="246">
       <c r="A246" s="14"/>
-      <c r="D246" s="50"/>
+      <c r="D246" s="49"/>
     </row>
     <row r="247">
       <c r="A247" s="14"/>
-      <c r="D247" s="50"/>
+      <c r="D247" s="49"/>
     </row>
     <row r="248">
       <c r="A248" s="14"/>
-      <c r="D248" s="50"/>
+      <c r="D248" s="49"/>
     </row>
     <row r="249">
       <c r="A249" s="14"/>
-      <c r="D249" s="50"/>
+      <c r="D249" s="49"/>
     </row>
     <row r="250">
       <c r="A250" s="14"/>
-      <c r="D250" s="50"/>
+      <c r="D250" s="49"/>
     </row>
     <row r="251">
       <c r="A251" s="14"/>
-      <c r="D251" s="50"/>
+      <c r="D251" s="49"/>
     </row>
     <row r="252">
       <c r="A252" s="14"/>
-      <c r="D252" s="50"/>
+      <c r="D252" s="49"/>
     </row>
     <row r="253">
       <c r="A253" s="14"/>
-      <c r="D253" s="50"/>
+      <c r="D253" s="49"/>
     </row>
     <row r="254">
       <c r="A254" s="14"/>
-      <c r="D254" s="50"/>
+      <c r="D254" s="49"/>
     </row>
     <row r="255">
       <c r="A255" s="14"/>
-      <c r="D255" s="50"/>
+      <c r="D255" s="49"/>
     </row>
     <row r="256">
       <c r="A256" s="14"/>
-      <c r="D256" s="50"/>
+      <c r="D256" s="49"/>
     </row>
     <row r="257">
       <c r="A257" s="14"/>
-      <c r="D257" s="50"/>
+      <c r="D257" s="49"/>
     </row>
     <row r="258">
       <c r="A258" s="14"/>
-      <c r="D258" s="50"/>
+      <c r="D258" s="49"/>
     </row>
     <row r="259">
       <c r="A259" s="14"/>
-      <c r="D259" s="50"/>
+      <c r="D259" s="49"/>
     </row>
     <row r="260">
       <c r="A260" s="14"/>
-      <c r="D260" s="50"/>
+      <c r="D260" s="49"/>
     </row>
     <row r="261">
       <c r="A261" s="14"/>
-      <c r="D261" s="50"/>
+      <c r="D261" s="49"/>
     </row>
     <row r="262">
       <c r="A262" s="14"/>
-      <c r="D262" s="50"/>
+      <c r="D262" s="49"/>
     </row>
     <row r="263">
       <c r="A263" s="14"/>
-      <c r="D263" s="50"/>
+      <c r="D263" s="49"/>
     </row>
     <row r="264">
       <c r="A264" s="14"/>
-      <c r="D264" s="50"/>
+      <c r="D264" s="49"/>
     </row>
     <row r="265">
       <c r="A265" s="14"/>
-      <c r="D265" s="50"/>
+      <c r="D265" s="49"/>
     </row>
     <row r="266">
       <c r="A266" s="14"/>
-      <c r="D266" s="50"/>
+      <c r="D266" s="49"/>
     </row>
     <row r="267">
       <c r="A267" s="14"/>
-      <c r="D267" s="50"/>
+      <c r="D267" s="49"/>
     </row>
     <row r="268">
       <c r="A268" s="14"/>
-      <c r="D268" s="50"/>
+      <c r="D268" s="49"/>
     </row>
     <row r="269">
       <c r="A269" s="14"/>
-      <c r="D269" s="50"/>
+      <c r="D269" s="49"/>
     </row>
     <row r="270">
       <c r="A270" s="14"/>
-      <c r="D270" s="50"/>
+      <c r="D270" s="49"/>
     </row>
     <row r="271">
       <c r="A271" s="14"/>
-      <c r="D271" s="50"/>
+      <c r="D271" s="49"/>
     </row>
     <row r="272">
       <c r="A272" s="14"/>
-      <c r="D272" s="50"/>
+      <c r="D272" s="49"/>
     </row>
     <row r="273">
       <c r="A273" s="14"/>
-      <c r="D273" s="50"/>
+      <c r="D273" s="49"/>
     </row>
     <row r="274">
       <c r="A274" s="14"/>
-      <c r="D274" s="50"/>
+      <c r="D274" s="49"/>
     </row>
     <row r="275">
       <c r="A275" s="14"/>
-      <c r="D275" s="50"/>
+      <c r="D275" s="49"/>
     </row>
     <row r="276">
       <c r="A276" s="14"/>
-      <c r="D276" s="50"/>
+      <c r="D276" s="49"/>
     </row>
     <row r="277">
       <c r="A277" s="14"/>
-      <c r="D277" s="50"/>
+      <c r="D277" s="49"/>
     </row>
     <row r="278">
       <c r="A278" s="14"/>
-      <c r="D278" s="50"/>
+      <c r="D278" s="49"/>
     </row>
     <row r="279">
       <c r="A279" s="14"/>
-      <c r="D279" s="50"/>
+      <c r="D279" s="49"/>
     </row>
     <row r="280">
       <c r="A280" s="14"/>
-      <c r="D280" s="50"/>
+      <c r="D280" s="49"/>
     </row>
     <row r="281">
       <c r="A281" s="14"/>
-      <c r="D281" s="50"/>
+      <c r="D281" s="49"/>
     </row>
     <row r="282">
       <c r="A282" s="14"/>
-      <c r="D282" s="50"/>
+      <c r="D282" s="49"/>
     </row>
     <row r="283">
       <c r="A283" s="14"/>
-      <c r="D283" s="50"/>
+      <c r="D283" s="49"/>
     </row>
     <row r="284">
       <c r="A284" s="14"/>
-      <c r="D284" s="50"/>
+      <c r="D284" s="49"/>
     </row>
     <row r="285">
       <c r="A285" s="14"/>
-      <c r="D285" s="50"/>
+      <c r="D285" s="49"/>
     </row>
     <row r="286">
       <c r="A286" s="14"/>
-      <c r="D286" s="50"/>
+      <c r="D286" s="49"/>
     </row>
     <row r="287">
       <c r="A287" s="14"/>
-      <c r="D287" s="50"/>
+      <c r="D287" s="49"/>
     </row>
     <row r="288">
       <c r="A288" s="14"/>
-      <c r="D288" s="50"/>
+      <c r="D288" s="49"/>
     </row>
     <row r="289">
       <c r="A289" s="14"/>
-      <c r="D289" s="50"/>
+      <c r="D289" s="49"/>
     </row>
     <row r="290">
       <c r="A290" s="14"/>
-      <c r="D290" s="50"/>
+      <c r="D290" s="49"/>
     </row>
     <row r="291">
       <c r="A291" s="14"/>
-      <c r="D291" s="50"/>
+      <c r="D291" s="49"/>
     </row>
     <row r="292">
       <c r="A292" s="14"/>
-      <c r="D292" s="50"/>
+      <c r="D292" s="49"/>
     </row>
     <row r="293">
       <c r="A293" s="14"/>
-      <c r="D293" s="50"/>
+      <c r="D293" s="49"/>
     </row>
     <row r="294">
       <c r="A294" s="14"/>
-      <c r="D294" s="50"/>
+      <c r="D294" s="49"/>
     </row>
     <row r="295">
       <c r="A295" s="14"/>
-      <c r="D295" s="50"/>
+      <c r="D295" s="49"/>
     </row>
     <row r="296">
       <c r="A296" s="14"/>
-      <c r="D296" s="50"/>
+      <c r="D296" s="49"/>
     </row>
     <row r="297">
       <c r="A297" s="14"/>
-      <c r="D297" s="50"/>
+      <c r="D297" s="49"/>
     </row>
     <row r="298">
       <c r="A298" s="14"/>
-      <c r="D298" s="50"/>
+      <c r="D298" s="49"/>
     </row>
     <row r="299">
       <c r="A299" s="14"/>
-      <c r="D299" s="50"/>
+      <c r="D299" s="49"/>
     </row>
     <row r="300">
       <c r="A300" s="14"/>
-      <c r="D300" s="50"/>
+      <c r="D300" s="49"/>
     </row>
     <row r="301">
       <c r="A301" s="14"/>
-      <c r="D301" s="50"/>
+      <c r="D301" s="49"/>
     </row>
     <row r="302">
       <c r="A302" s="14"/>
-      <c r="D302" s="50"/>
+      <c r="D302" s="49"/>
     </row>
     <row r="303">
       <c r="A303" s="14"/>
-      <c r="D303" s="50"/>
+      <c r="D303" s="49"/>
     </row>
     <row r="304">
       <c r="A304" s="14"/>
-      <c r="D304" s="50"/>
+      <c r="D304" s="49"/>
     </row>
     <row r="305">
       <c r="A305" s="14"/>
-      <c r="D305" s="50"/>
+      <c r="D305" s="49"/>
     </row>
     <row r="306">
       <c r="A306" s="14"/>
-      <c r="D306" s="50"/>
+      <c r="D306" s="49"/>
     </row>
     <row r="307">
       <c r="A307" s="14"/>
-      <c r="D307" s="50"/>
+      <c r="D307" s="49"/>
     </row>
     <row r="308">
       <c r="A308" s="14"/>
-      <c r="D308" s="50"/>
+      <c r="D308" s="49"/>
     </row>
     <row r="309">
       <c r="A309" s="14"/>
-      <c r="D309" s="50"/>
+      <c r="D309" s="49"/>
     </row>
     <row r="310">
       <c r="A310" s="14"/>
-      <c r="D310" s="50"/>
+      <c r="D310" s="49"/>
     </row>
     <row r="311">
       <c r="A311" s="14"/>
-      <c r="D311" s="50"/>
+      <c r="D311" s="49"/>
     </row>
     <row r="312">
       <c r="A312" s="14"/>
-      <c r="D312" s="50"/>
+      <c r="D312" s="49"/>
     </row>
     <row r="313">
       <c r="A313" s="14"/>
-      <c r="D313" s="50"/>
+      <c r="D313" s="49"/>
     </row>
     <row r="314">
       <c r="A314" s="14"/>
-      <c r="D314" s="50"/>
+      <c r="D314" s="49"/>
     </row>
     <row r="315">
       <c r="A315" s="14"/>
-      <c r="D315" s="50"/>
+      <c r="D315" s="49"/>
     </row>
     <row r="316">
       <c r="A316" s="14"/>
-      <c r="D316" s="50"/>
+      <c r="D316" s="49"/>
     </row>
     <row r="317">
       <c r="A317" s="14"/>
-      <c r="D317" s="50"/>
+      <c r="D317" s="49"/>
     </row>
     <row r="318">
       <c r="A318" s="14"/>
-      <c r="D318" s="50"/>
+      <c r="D318" s="49"/>
     </row>
     <row r="319">
       <c r="A319" s="14"/>
-      <c r="D319" s="50"/>
+      <c r="D319" s="49"/>
     </row>
     <row r="320">
       <c r="A320" s="14"/>
-      <c r="D320" s="50"/>
+      <c r="D320" s="49"/>
     </row>
     <row r="321">
       <c r="A321" s="14"/>
-      <c r="D321" s="50"/>
+      <c r="D321" s="49"/>
     </row>
     <row r="322">
       <c r="A322" s="14"/>
-      <c r="D322" s="50"/>
+      <c r="D322" s="49"/>
     </row>
     <row r="323">
       <c r="A323" s="14"/>
-      <c r="D323" s="50"/>
+      <c r="D323" s="49"/>
     </row>
     <row r="324">
       <c r="A324" s="14"/>
-      <c r="D324" s="50"/>
+      <c r="D324" s="49"/>
     </row>
     <row r="325">
       <c r="A325" s="14"/>
-      <c r="D325" s="50"/>
+      <c r="D325" s="49"/>
     </row>
     <row r="326">
       <c r="A326" s="14"/>
-      <c r="D326" s="50"/>
+      <c r="D326" s="49"/>
     </row>
     <row r="327">
       <c r="A327" s="14"/>
-      <c r="D327" s="50"/>
+      <c r="D327" s="49"/>
     </row>
     <row r="328">
       <c r="A328" s="14"/>
-      <c r="D328" s="50"/>
+      <c r="D328" s="49"/>
     </row>
     <row r="329">
       <c r="A329" s="14"/>
-      <c r="D329" s="50"/>
+      <c r="D329" s="49"/>
     </row>
     <row r="330">
       <c r="A330" s="14"/>
-      <c r="D330" s="50"/>
+      <c r="D330" s="49"/>
     </row>
     <row r="331">
       <c r="A331" s="14"/>
-      <c r="D331" s="50"/>
+      <c r="D331" s="49"/>
     </row>
     <row r="332">
       <c r="A332" s="14"/>
-      <c r="D332" s="50"/>
+      <c r="D332" s="49"/>
     </row>
     <row r="333">
       <c r="A333" s="14"/>
-      <c r="D333" s="50"/>
+      <c r="D333" s="49"/>
     </row>
     <row r="334">
       <c r="A334" s="14"/>
-      <c r="D334" s="50"/>
+      <c r="D334" s="49"/>
     </row>
     <row r="335">
       <c r="A335" s="14"/>
-      <c r="D335" s="50"/>
+      <c r="D335" s="49"/>
     </row>
     <row r="336">
       <c r="A336" s="14"/>
-      <c r="D336" s="50"/>
+      <c r="D336" s="49"/>
     </row>
     <row r="337">
       <c r="A337" s="14"/>
-      <c r="D337" s="50"/>
+      <c r="D337" s="49"/>
     </row>
     <row r="338">
       <c r="A338" s="14"/>
-      <c r="D338" s="50"/>
+      <c r="D338" s="49"/>
     </row>
     <row r="339">
       <c r="A339" s="14"/>
-      <c r="D339" s="50"/>
+      <c r="D339" s="49"/>
     </row>
     <row r="340">
       <c r="A340" s="14"/>
-      <c r="D340" s="50"/>
+      <c r="D340" s="49"/>
     </row>
     <row r="341">
       <c r="A341" s="14"/>
-      <c r="D341" s="50"/>
+      <c r="D341" s="49"/>
     </row>
     <row r="342">
       <c r="A342" s="14"/>
-      <c r="D342" s="50"/>
+      <c r="D342" s="49"/>
     </row>
     <row r="343">
       <c r="A343" s="14"/>
-      <c r="D343" s="50"/>
+      <c r="D343" s="49"/>
     </row>
     <row r="344">
       <c r="A344" s="14"/>
-      <c r="D344" s="50"/>
+      <c r="D344" s="49"/>
     </row>
     <row r="345">
       <c r="A345" s="14"/>
-      <c r="D345" s="50"/>
+      <c r="D345" s="49"/>
     </row>
     <row r="346">
       <c r="A346" s="14"/>
-      <c r="D346" s="50"/>
+      <c r="D346" s="49"/>
     </row>
     <row r="347">
       <c r="A347" s="14"/>
-      <c r="D347" s="50"/>
+      <c r="D347" s="49"/>
     </row>
     <row r="348">
       <c r="A348" s="14"/>
-      <c r="D348" s="50"/>
+      <c r="D348" s="49"/>
     </row>
     <row r="349">
       <c r="A349" s="14"/>
-      <c r="D349" s="50"/>
+      <c r="D349" s="49"/>
     </row>
     <row r="350">
       <c r="A350" s="14"/>
-      <c r="D350" s="50"/>
+      <c r="D350" s="49"/>
     </row>
     <row r="351">
       <c r="A351" s="14"/>
-      <c r="D351" s="50"/>
+      <c r="D351" s="49"/>
     </row>
     <row r="352">
       <c r="A352" s="14"/>
-      <c r="D352" s="50"/>
+      <c r="D352" s="49"/>
     </row>
     <row r="353">
       <c r="A353" s="14"/>
-      <c r="D353" s="50"/>
+      <c r="D353" s="49"/>
     </row>
     <row r="354">
       <c r="A354" s="14"/>
-      <c r="D354" s="50"/>
+      <c r="D354" s="49"/>
     </row>
     <row r="355">
       <c r="A355" s="14"/>
-      <c r="D355" s="50"/>
+      <c r="D355" s="49"/>
     </row>
     <row r="356">
       <c r="A356" s="14"/>
-      <c r="D356" s="50"/>
+      <c r="D356" s="49"/>
     </row>
     <row r="357">
       <c r="A357" s="14"/>
-      <c r="D357" s="50"/>
+      <c r="D357" s="49"/>
     </row>
     <row r="358">
       <c r="A358" s="14"/>
-      <c r="D358" s="50"/>
+      <c r="D358" s="49"/>
     </row>
     <row r="359">
       <c r="A359" s="14"/>
-      <c r="D359" s="50"/>
+      <c r="D359" s="49"/>
     </row>
     <row r="360">
       <c r="A360" s="14"/>
-      <c r="D360" s="50"/>
+      <c r="D360" s="49"/>
     </row>
     <row r="361">
       <c r="A361" s="14"/>
-      <c r="D361" s="50"/>
+      <c r="D361" s="49"/>
     </row>
     <row r="362">
       <c r="A362" s="14"/>
-      <c r="D362" s="50"/>
+      <c r="D362" s="49"/>
     </row>
     <row r="363">
       <c r="A363" s="14"/>
-      <c r="D363" s="50"/>
+      <c r="D363" s="49"/>
     </row>
     <row r="364">
       <c r="A364" s="14"/>
-      <c r="D364" s="50"/>
+      <c r="D364" s="49"/>
     </row>
     <row r="365">
       <c r="A365" s="14"/>
-      <c r="D365" s="50"/>
+      <c r="D365" s="49"/>
     </row>
     <row r="366">
       <c r="A366" s="14"/>
-      <c r="D366" s="50"/>
+      <c r="D366" s="49"/>
     </row>
     <row r="367">
       <c r="A367" s="14"/>
-      <c r="D367" s="50"/>
+      <c r="D367" s="49"/>
     </row>
     <row r="368">
       <c r="A368" s="14"/>
-      <c r="D368" s="50"/>
+      <c r="D368" s="49"/>
     </row>
     <row r="369">
       <c r="A369" s="14"/>
-      <c r="D369" s="50"/>
+      <c r="D369" s="49"/>
     </row>
     <row r="370">
       <c r="A370" s="14"/>
-      <c r="D370" s="50"/>
+      <c r="D370" s="49"/>
     </row>
     <row r="371">
       <c r="A371" s="14"/>
-      <c r="D371" s="50"/>
+      <c r="D371" s="49"/>
     </row>
     <row r="372">
       <c r="A372" s="14"/>
-      <c r="D372" s="50"/>
+      <c r="D372" s="49"/>
     </row>
     <row r="373">
       <c r="A373" s="14"/>
-      <c r="D373" s="50"/>
+      <c r="D373" s="49"/>
     </row>
     <row r="374">
       <c r="A374" s="14"/>
-      <c r="D374" s="50"/>
+      <c r="D374" s="49"/>
     </row>
     <row r="375">
       <c r="A375" s="14"/>
-      <c r="D375" s="50"/>
+      <c r="D375" s="49"/>
     </row>
     <row r="376">
       <c r="A376" s="14"/>
-      <c r="D376" s="50"/>
+      <c r="D376" s="49"/>
     </row>
     <row r="377">
       <c r="A377" s="14"/>
-      <c r="D377" s="50"/>
+      <c r="D377" s="49"/>
     </row>
     <row r="378">
       <c r="A378" s="14"/>
-      <c r="D378" s="50"/>
+      <c r="D378" s="49"/>
     </row>
     <row r="379">
       <c r="A379" s="14"/>
-      <c r="D379" s="50"/>
+      <c r="D379" s="49"/>
     </row>
     <row r="380">
       <c r="A380" s="14"/>
-      <c r="D380" s="50"/>
+      <c r="D380" s="49"/>
     </row>
     <row r="381">
       <c r="A381" s="14"/>
-      <c r="D381" s="50"/>
+      <c r="D381" s="49"/>
     </row>
     <row r="382">
       <c r="A382" s="14"/>
-      <c r="D382" s="50"/>
+      <c r="D382" s="49"/>
     </row>
     <row r="383">
       <c r="A383" s="14"/>
-      <c r="D383" s="50"/>
+      <c r="D383" s="49"/>
     </row>
     <row r="384">
       <c r="A384" s="14"/>
-      <c r="D384" s="50"/>
+      <c r="D384" s="49"/>
     </row>
     <row r="385">
       <c r="A385" s="14"/>
-      <c r="D385" s="50"/>
+      <c r="D385" s="49"/>
     </row>
     <row r="386">
       <c r="A386" s="14"/>
-      <c r="D386" s="50"/>
+      <c r="D386" s="49"/>
     </row>
     <row r="387">
       <c r="A387" s="14"/>
-      <c r="D387" s="50"/>
+      <c r="D387" s="49"/>
     </row>
     <row r="388">
       <c r="A388" s="14"/>
-      <c r="D388" s="50"/>
+      <c r="D388" s="49"/>
     </row>
     <row r="389">
       <c r="A389" s="14"/>
-      <c r="D389" s="50"/>
+      <c r="D389" s="49"/>
     </row>
     <row r="390">
       <c r="A390" s="14"/>
-      <c r="D390" s="50"/>
+      <c r="D390" s="49"/>
     </row>
     <row r="391">
       <c r="A391" s="14"/>
-      <c r="D391" s="50"/>
+      <c r="D391" s="49"/>
     </row>
     <row r="392">
       <c r="A392" s="14"/>
-      <c r="D392" s="50"/>
+      <c r="D392" s="49"/>
     </row>
     <row r="393">
       <c r="A393" s="14"/>
-      <c r="D393" s="50"/>
+      <c r="D393" s="49"/>
     </row>
     <row r="394">
       <c r="A394" s="14"/>
-      <c r="D394" s="50"/>
+      <c r="D394" s="49"/>
     </row>
     <row r="395">
       <c r="A395" s="14"/>
-      <c r="D395" s="50"/>
+      <c r="D395" s="49"/>
     </row>
     <row r="396">
       <c r="A396" s="14"/>
-      <c r="D396" s="50"/>
+      <c r="D396" s="49"/>
     </row>
     <row r="397">
       <c r="A397" s="14"/>
-      <c r="D397" s="50"/>
+      <c r="D397" s="49"/>
     </row>
     <row r="398">
       <c r="A398" s="14"/>
-      <c r="D398" s="50"/>
+      <c r="D398" s="49"/>
     </row>
     <row r="399">
       <c r="A399" s="14"/>
-      <c r="D399" s="50"/>
+      <c r="D399" s="49"/>
     </row>
     <row r="400">
       <c r="A400" s="14"/>
-      <c r="D400" s="50"/>
+      <c r="D400" s="49"/>
     </row>
     <row r="401">
       <c r="A401" s="14"/>
-      <c r="D401" s="50"/>
+      <c r="D401" s="49"/>
     </row>
     <row r="402">
       <c r="A402" s="14"/>
-      <c r="D402" s="50"/>
+      <c r="D402" s="49"/>
     </row>
     <row r="403">
       <c r="A403" s="14"/>
-      <c r="D403" s="50"/>
+      <c r="D403" s="49"/>
     </row>
     <row r="404">
       <c r="A404" s="14"/>
-      <c r="D404" s="50"/>
+      <c r="D404" s="49"/>
     </row>
     <row r="405">
       <c r="A405" s="14"/>
-      <c r="D405" s="50"/>
+      <c r="D405" s="49"/>
     </row>
     <row r="406">
       <c r="A406" s="14"/>
-      <c r="D406" s="50"/>
+      <c r="D406" s="49"/>
     </row>
     <row r="407">
       <c r="A407" s="14"/>
-      <c r="D407" s="50"/>
+      <c r="D407" s="49"/>
     </row>
     <row r="408">
       <c r="A408" s="14"/>
-      <c r="D408" s="50"/>
+      <c r="D408" s="49"/>
     </row>
     <row r="409">
       <c r="A409" s="14"/>
-      <c r="D409" s="50"/>
+      <c r="D409" s="49"/>
     </row>
     <row r="410">
       <c r="A410" s="14"/>
-      <c r="D410" s="50"/>
+      <c r="D410" s="49"/>
     </row>
     <row r="411">
       <c r="A411" s="14"/>
-      <c r="D411" s="50"/>
+      <c r="D411" s="49"/>
     </row>
     <row r="412">
       <c r="A412" s="14"/>
-      <c r="D412" s="50"/>
+      <c r="D412" s="49"/>
     </row>
     <row r="413">
       <c r="A413" s="14"/>
-      <c r="D413" s="50"/>
+      <c r="D413" s="49"/>
     </row>
     <row r="414">
       <c r="A414" s="14"/>
-      <c r="D414" s="50"/>
+      <c r="D414" s="49"/>
     </row>
     <row r="415">
       <c r="A415" s="14"/>
-      <c r="D415" s="50"/>
+      <c r="D415" s="49"/>
     </row>
     <row r="416">
       <c r="A416" s="14"/>
-      <c r="D416" s="50"/>
+      <c r="D416" s="49"/>
     </row>
     <row r="417">
       <c r="A417" s="14"/>
-      <c r="D417" s="50"/>
+      <c r="D417" s="49"/>
     </row>
     <row r="418">
       <c r="A418" s="14"/>
-      <c r="D418" s="50"/>
+      <c r="D418" s="49"/>
     </row>
     <row r="419">
       <c r="A419" s="14"/>
-      <c r="D419" s="50"/>
+      <c r="D419" s="49"/>
     </row>
     <row r="420">
       <c r="A420" s="14"/>
-      <c r="D420" s="50"/>
+      <c r="D420" s="49"/>
     </row>
     <row r="421">
       <c r="A421" s="14"/>
-      <c r="D421" s="50"/>
+      <c r="D421" s="49"/>
     </row>
     <row r="422">
       <c r="A422" s="14"/>
-      <c r="D422" s="50"/>
+      <c r="D422" s="49"/>
     </row>
     <row r="423">
       <c r="A423" s="14"/>
-      <c r="D423" s="50"/>
+      <c r="D423" s="49"/>
     </row>
     <row r="424">
       <c r="A424" s="14"/>
-      <c r="D424" s="50"/>
+      <c r="D424" s="49"/>
     </row>
     <row r="425">
       <c r="A425" s="14"/>
-      <c r="D425" s="50"/>
+      <c r="D425" s="49"/>
     </row>
     <row r="426">
       <c r="A426" s="14"/>
-      <c r="D426" s="50"/>
+      <c r="D426" s="49"/>
     </row>
     <row r="427">
       <c r="A427" s="14"/>
-      <c r="D427" s="50"/>
+      <c r="D427" s="49"/>
     </row>
     <row r="428">
       <c r="A428" s="14"/>
-      <c r="D428" s="50"/>
+      <c r="D428" s="49"/>
     </row>
     <row r="429">
       <c r="A429" s="14"/>
-      <c r="D429" s="50"/>
+      <c r="D429" s="49"/>
     </row>
     <row r="430">
       <c r="A430" s="14"/>
-      <c r="D430" s="50"/>
+      <c r="D430" s="49"/>
     </row>
     <row r="431">
       <c r="A431" s="14"/>
-      <c r="D431" s="50"/>
+      <c r="D431" s="49"/>
     </row>
     <row r="432">
       <c r="A432" s="14"/>
-      <c r="D432" s="50"/>
+      <c r="D432" s="49"/>
     </row>
     <row r="433">
       <c r="A433" s="14"/>
-      <c r="D433" s="50"/>
+      <c r="D433" s="49"/>
     </row>
     <row r="434">
       <c r="A434" s="14"/>
-      <c r="D434" s="50"/>
+      <c r="D434" s="49"/>
     </row>
     <row r="435">
       <c r="A435" s="14"/>
-      <c r="D435" s="50"/>
+      <c r="D435" s="49"/>
     </row>
     <row r="436">
       <c r="A436" s="14"/>
-      <c r="D436" s="50"/>
+      <c r="D436" s="49"/>
     </row>
     <row r="437">
       <c r="A437" s="14"/>
-      <c r="D437" s="50"/>
+      <c r="D437" s="49"/>
     </row>
     <row r="438">
       <c r="A438" s="14"/>
-      <c r="D438" s="50"/>
+      <c r="D438" s="49"/>
     </row>
     <row r="439">
       <c r="A439" s="14"/>
-      <c r="D439" s="50"/>
+      <c r="D439" s="49"/>
     </row>
     <row r="440">
       <c r="A440" s="14"/>
-      <c r="D440" s="50"/>
+      <c r="D440" s="49"/>
     </row>
     <row r="441">
       <c r="A441" s="14"/>
-      <c r="D441" s="50"/>
+      <c r="D441" s="49"/>
     </row>
     <row r="442">
       <c r="A442" s="14"/>
-      <c r="D442" s="50"/>
+      <c r="D442" s="49"/>
     </row>
     <row r="443">
       <c r="A443" s="14"/>
-      <c r="D443" s="50"/>
+      <c r="D443" s="49"/>
     </row>
     <row r="444">
       <c r="A444" s="14"/>
-      <c r="D444" s="50"/>
+      <c r="D444" s="49"/>
     </row>
     <row r="445">
       <c r="A445" s="14"/>
-      <c r="D445" s="50"/>
+      <c r="D445" s="49"/>
     </row>
     <row r="446">
       <c r="A446" s="14"/>
-      <c r="D446" s="50"/>
+      <c r="D446" s="49"/>
     </row>
     <row r="447">
       <c r="A447" s="14"/>
-      <c r="D447" s="50"/>
+      <c r="D447" s="49"/>
     </row>
     <row r="448">
       <c r="A448" s="14"/>
-      <c r="D448" s="50"/>
+      <c r="D448" s="49"/>
     </row>
     <row r="449">
       <c r="A449" s="14"/>
-      <c r="D449" s="50"/>
+      <c r="D449" s="49"/>
     </row>
     <row r="450">
       <c r="A450" s="14"/>
-      <c r="D450" s="50"/>
+      <c r="D450" s="49"/>
     </row>
     <row r="451">
       <c r="A451" s="14"/>
-      <c r="D451" s="50"/>
+      <c r="D451" s="49"/>
     </row>
     <row r="452">
       <c r="A452" s="14"/>
-      <c r="D452" s="50"/>
+      <c r="D452" s="49"/>
     </row>
     <row r="453">
       <c r="A453" s="14"/>
-      <c r="D453" s="50"/>
+      <c r="D453" s="49"/>
     </row>
     <row r="454">
       <c r="A454" s="14"/>
-      <c r="D454" s="50"/>
+      <c r="D454" s="49"/>
     </row>
     <row r="455">
       <c r="A455" s="14"/>
-      <c r="D455" s="50"/>
+      <c r="D455" s="49"/>
     </row>
     <row r="456">
       <c r="A456" s="14"/>
-      <c r="D456" s="50"/>
+      <c r="D456" s="49"/>
     </row>
     <row r="457">
       <c r="A457" s="14"/>
-      <c r="D457" s="50"/>
+      <c r="D457" s="49"/>
     </row>
     <row r="458">
       <c r="A458" s="14"/>
-      <c r="D458" s="50"/>
+      <c r="D458" s="49"/>
     </row>
     <row r="459">
       <c r="A459" s="14"/>
-      <c r="D459" s="50"/>
+      <c r="D459" s="49"/>
     </row>
     <row r="460">
       <c r="A460" s="14"/>
-      <c r="D460" s="50"/>
+      <c r="D460" s="49"/>
     </row>
     <row r="461">
       <c r="A461" s="14"/>
-      <c r="D461" s="50"/>
+      <c r="D461" s="49"/>
     </row>
     <row r="462">
       <c r="A462" s="14"/>
-      <c r="D462" s="50"/>
+      <c r="D462" s="49"/>
     </row>
     <row r="463">
       <c r="A463" s="14"/>
-      <c r="D463" s="50"/>
+      <c r="D463" s="49"/>
     </row>
     <row r="464">
       <c r="A464" s="14"/>
-      <c r="D464" s="50"/>
+      <c r="D464" s="49"/>
     </row>
     <row r="465">
       <c r="A465" s="14"/>
-      <c r="D465" s="50"/>
+      <c r="D465" s="49"/>
     </row>
     <row r="466">
       <c r="A466" s="14"/>
-      <c r="D466" s="50"/>
+      <c r="D466" s="49"/>
     </row>
     <row r="467">
       <c r="A467" s="14"/>
-      <c r="D467" s="50"/>
+      <c r="D467" s="49"/>
     </row>
     <row r="468">
       <c r="A468" s="14"/>
-      <c r="D468" s="50"/>
+      <c r="D468" s="49"/>
     </row>
     <row r="469">
       <c r="A469" s="14"/>
-      <c r="D469" s="50"/>
+      <c r="D469" s="49"/>
     </row>
     <row r="470">
       <c r="A470" s="14"/>
-      <c r="D470" s="50"/>
+      <c r="D470" s="49"/>
     </row>
     <row r="471">
       <c r="A471" s="14"/>
-      <c r="D471" s="50"/>
+      <c r="D471" s="49"/>
     </row>
     <row r="472">
       <c r="A472" s="14"/>
-      <c r="D472" s="50"/>
+      <c r="D472" s="49"/>
     </row>
     <row r="473">
       <c r="A473" s="14"/>
-      <c r="D473" s="50"/>
+      <c r="D473" s="49"/>
     </row>
     <row r="474">
       <c r="A474" s="14"/>
-      <c r="D474" s="50"/>
+      <c r="D474" s="49"/>
     </row>
     <row r="475">
       <c r="A475" s="14"/>
-      <c r="D475" s="50"/>
+      <c r="D475" s="49"/>
     </row>
     <row r="476">
       <c r="A476" s="14"/>
-      <c r="D476" s="50"/>
+      <c r="D476" s="49"/>
     </row>
     <row r="477">
       <c r="A477" s="14"/>
-      <c r="D477" s="50"/>
+      <c r="D477" s="49"/>
     </row>
     <row r="478">
       <c r="A478" s="14"/>
-      <c r="D478" s="50"/>
+      <c r="D478" s="49"/>
     </row>
     <row r="479">
       <c r="A479" s="14"/>
-      <c r="D479" s="50"/>
+      <c r="D479" s="49"/>
     </row>
     <row r="480">
       <c r="A480" s="14"/>
-      <c r="D480" s="50"/>
+      <c r="D480" s="49"/>
     </row>
     <row r="481">
       <c r="A481" s="14"/>
-      <c r="D481" s="50"/>
+      <c r="D481" s="49"/>
     </row>
     <row r="482">
       <c r="A482" s="14"/>
-      <c r="D482" s="50"/>
+      <c r="D482" s="49"/>
     </row>
     <row r="483">
       <c r="A483" s="14"/>
-      <c r="D483" s="50"/>
+      <c r="D483" s="49"/>
     </row>
     <row r="484">
       <c r="A484" s="14"/>
-      <c r="D484" s="50"/>
+      <c r="D484" s="49"/>
     </row>
     <row r="485">
       <c r="A485" s="14"/>
-      <c r="D485" s="50"/>
+      <c r="D485" s="49"/>
     </row>
     <row r="486">
       <c r="A486" s="14"/>
-      <c r="D486" s="50"/>
+      <c r="D486" s="49"/>
     </row>
     <row r="487">
       <c r="A487" s="14"/>
-      <c r="D487" s="50"/>
+      <c r="D487" s="49"/>
     </row>
     <row r="488">
       <c r="A488" s="14"/>
-      <c r="D488" s="50"/>
+      <c r="D488" s="49"/>
     </row>
     <row r="489">
       <c r="A489" s="14"/>
-      <c r="D489" s="50"/>
+      <c r="D489" s="49"/>
     </row>
     <row r="490">
       <c r="A490" s="14"/>
-      <c r="D490" s="50"/>
+      <c r="D490" s="49"/>
     </row>
     <row r="491">
       <c r="A491" s="14"/>
-      <c r="D491" s="50"/>
+      <c r="D491" s="49"/>
     </row>
     <row r="492">
       <c r="A492" s="14"/>
-      <c r="D492" s="50"/>
+      <c r="D492" s="49"/>
     </row>
     <row r="493">
       <c r="A493" s="14"/>
-      <c r="D493" s="50"/>
+      <c r="D493" s="49"/>
     </row>
     <row r="494">
       <c r="A494" s="14"/>
-      <c r="D494" s="50"/>
+      <c r="D494" s="49"/>
     </row>
     <row r="495">
       <c r="A495" s="14"/>
-      <c r="D495" s="50"/>
+      <c r="D495" s="49"/>
     </row>
     <row r="496">
       <c r="A496" s="14"/>
-      <c r="D496" s="50"/>
+      <c r="D496" s="49"/>
     </row>
     <row r="497">
       <c r="A497" s="14"/>
-      <c r="D497" s="50"/>
+      <c r="D497" s="49"/>
     </row>
     <row r="498">
       <c r="A498" s="14"/>
-      <c r="D498" s="50"/>
+      <c r="D498" s="49"/>
     </row>
     <row r="499">
       <c r="A499" s="14"/>
-      <c r="D499" s="50"/>
+      <c r="D499" s="49"/>
     </row>
     <row r="500">
       <c r="A500" s="14"/>
-      <c r="D500" s="50"/>
+      <c r="D500" s="49"/>
     </row>
     <row r="501">
       <c r="A501" s="14"/>
-      <c r="D501" s="50"/>
+      <c r="D501" s="49"/>
     </row>
     <row r="502">
       <c r="A502" s="14"/>
-      <c r="D502" s="50"/>
+      <c r="D502" s="49"/>
     </row>
     <row r="503">
       <c r="A503" s="14"/>
-      <c r="D503" s="50"/>
+      <c r="D503" s="49"/>
     </row>
     <row r="504">
       <c r="A504" s="14"/>
-      <c r="D504" s="50"/>
+      <c r="D504" s="49"/>
     </row>
     <row r="505">
       <c r="A505" s="14"/>
-      <c r="D505" s="50"/>
+      <c r="D505" s="49"/>
     </row>
     <row r="506">
       <c r="A506" s="14"/>
-      <c r="D506" s="50"/>
+      <c r="D506" s="49"/>
     </row>
     <row r="507">
       <c r="A507" s="14"/>
-      <c r="D507" s="50"/>
+      <c r="D507" s="49"/>
     </row>
     <row r="508">
       <c r="A508" s="14"/>
-      <c r="D508" s="50"/>
+      <c r="D508" s="49"/>
     </row>
     <row r="509">
       <c r="A509" s="14"/>
-      <c r="D509" s="50"/>
+      <c r="D509" s="49"/>
     </row>
     <row r="510">
       <c r="A510" s="14"/>
-      <c r="D510" s="50"/>
+      <c r="D510" s="49"/>
     </row>
     <row r="511">
       <c r="A511" s="14"/>
-      <c r="D511" s="50"/>
+      <c r="D511" s="49"/>
     </row>
     <row r="512">
       <c r="A512" s="14"/>
-      <c r="D512" s="50"/>
+      <c r="D512" s="49"/>
     </row>
     <row r="513">
       <c r="A513" s="14"/>
-      <c r="D513" s="50"/>
+      <c r="D513" s="49"/>
     </row>
     <row r="514">
       <c r="A514" s="14"/>
-      <c r="D514" s="50"/>
+      <c r="D514" s="49"/>
     </row>
     <row r="515">
       <c r="A515" s="14"/>
-      <c r="D515" s="50"/>
+      <c r="D515" s="49"/>
     </row>
     <row r="516">
       <c r="A516" s="14"/>
-      <c r="D516" s="50"/>
+      <c r="D516" s="49"/>
     </row>
     <row r="517">
       <c r="A517" s="14"/>
-      <c r="D517" s="50"/>
+      <c r="D517" s="49"/>
     </row>
     <row r="518">
       <c r="A518" s="14"/>
-      <c r="D518" s="50"/>
+      <c r="D518" s="49"/>
     </row>
     <row r="519">
       <c r="A519" s="14"/>
-      <c r="D519" s="50"/>
+      <c r="D519" s="49"/>
     </row>
     <row r="520">
       <c r="A520" s="14"/>
-      <c r="D520" s="50"/>
+      <c r="D520" s="49"/>
     </row>
     <row r="521">
       <c r="A521" s="14"/>
-      <c r="D521" s="50"/>
+      <c r="D521" s="49"/>
     </row>
     <row r="522">
       <c r="A522" s="14"/>
-      <c r="D522" s="50"/>
+      <c r="D522" s="49"/>
     </row>
     <row r="523">
       <c r="A523" s="14"/>
-      <c r="D523" s="50"/>
+      <c r="D523" s="49"/>
     </row>
     <row r="524">
       <c r="A524" s="14"/>
-      <c r="D524" s="50"/>
+      <c r="D524" s="49"/>
     </row>
     <row r="525">
       <c r="A525" s="14"/>
-      <c r="D525" s="50"/>
+      <c r="D525" s="49"/>
     </row>
     <row r="526">
       <c r="A526" s="14"/>
-      <c r="D526" s="50"/>
+      <c r="D526" s="49"/>
     </row>
     <row r="527">
       <c r="A527" s="14"/>
-      <c r="D527" s="50"/>
+      <c r="D527" s="49"/>
     </row>
     <row r="528">
       <c r="A528" s="14"/>
-      <c r="D528" s="50"/>
+      <c r="D528" s="49"/>
     </row>
     <row r="529">
       <c r="A529" s="14"/>
-      <c r="D529" s="50"/>
+      <c r="D529" s="49"/>
     </row>
     <row r="530">
       <c r="A530" s="14"/>
-      <c r="D530" s="50"/>
+      <c r="D530" s="49"/>
     </row>
     <row r="531">
       <c r="A531" s="14"/>
-      <c r="D531" s="50"/>
+      <c r="D531" s="49"/>
     </row>
     <row r="532">
       <c r="A532" s="14"/>
-      <c r="D532" s="50"/>
+      <c r="D532" s="49"/>
     </row>
     <row r="533">
       <c r="A533" s="14"/>
-      <c r="D533" s="50"/>
+      <c r="D533" s="49"/>
     </row>
     <row r="534">
       <c r="A534" s="14"/>
-      <c r="D534" s="50"/>
+      <c r="D534" s="49"/>
     </row>
     <row r="535">
       <c r="A535" s="14"/>
-      <c r="D535" s="50"/>
+      <c r="D535" s="49"/>
     </row>
     <row r="536">
       <c r="A536" s="14"/>
-      <c r="D536" s="50"/>
+      <c r="D536" s="49"/>
     </row>
     <row r="537">
       <c r="A537" s="14"/>
-      <c r="D537" s="50"/>
+      <c r="D537" s="49"/>
     </row>
     <row r="538">
       <c r="A538" s="14"/>
-      <c r="D538" s="50"/>
+      <c r="D538" s="49"/>
     </row>
     <row r="539">
       <c r="A539" s="14"/>
-      <c r="D539" s="50"/>
+      <c r="D539" s="49"/>
     </row>
     <row r="540">
       <c r="A540" s="14"/>
-      <c r="D540" s="50"/>
+      <c r="D540" s="49"/>
     </row>
     <row r="541">
       <c r="A541" s="14"/>
-      <c r="D541" s="50"/>
+      <c r="D541" s="49"/>
     </row>
     <row r="542">
       <c r="A542" s="14"/>
-      <c r="D542" s="50"/>
+      <c r="D542" s="49"/>
     </row>
     <row r="543">
       <c r="A543" s="14"/>
-      <c r="D543" s="50"/>
+      <c r="D543" s="49"/>
     </row>
     <row r="544">
       <c r="A544" s="14"/>
-      <c r="D544" s="50"/>
+      <c r="D544" s="49"/>
     </row>
     <row r="545">
       <c r="A545" s="14"/>
-      <c r="D545" s="50"/>
+      <c r="D545" s="49"/>
     </row>
     <row r="546">
       <c r="A546" s="14"/>
-      <c r="D546" s="50"/>
+      <c r="D546" s="49"/>
     </row>
     <row r="547">
       <c r="A547" s="14"/>
-      <c r="D547" s="50"/>
+      <c r="D547" s="49"/>
     </row>
     <row r="548">
       <c r="A548" s="14"/>
-      <c r="D548" s="50"/>
+      <c r="D548" s="49"/>
     </row>
     <row r="549">
       <c r="A549" s="14"/>
-      <c r="D549" s="50"/>
+      <c r="D549" s="49"/>
     </row>
     <row r="550">
       <c r="A550" s="14"/>
-      <c r="D550" s="50"/>
+      <c r="D550" s="49"/>
     </row>
     <row r="551">
       <c r="A551" s="14"/>
-      <c r="D551" s="50"/>
+      <c r="D551" s="49"/>
     </row>
     <row r="552">
       <c r="A552" s="14"/>
-      <c r="D552" s="50"/>
+      <c r="D552" s="49"/>
     </row>
     <row r="553">
       <c r="A553" s="14"/>
-      <c r="D553" s="50"/>
+      <c r="D553" s="49"/>
     </row>
     <row r="554">
       <c r="A554" s="14"/>
-      <c r="D554" s="50"/>
+      <c r="D554" s="49"/>
     </row>
     <row r="555">
       <c r="A555" s="14"/>
-      <c r="D555" s="50"/>
+      <c r="D555" s="49"/>
     </row>
     <row r="556">
       <c r="A556" s="14"/>
-      <c r="D556" s="50"/>
+      <c r="D556" s="49"/>
     </row>
     <row r="557">
       <c r="A557" s="14"/>
-      <c r="D557" s="50"/>
+      <c r="D557" s="49"/>
     </row>
     <row r="558">
       <c r="A558" s="14"/>
-      <c r="D558" s="50"/>
+      <c r="D558" s="49"/>
     </row>
     <row r="559">
       <c r="A559" s="14"/>
-      <c r="D559" s="50"/>
+      <c r="D559" s="49"/>
     </row>
     <row r="560">
       <c r="A560" s="14"/>
-      <c r="D560" s="50"/>
+      <c r="D560" s="49"/>
     </row>
     <row r="561">
       <c r="A561" s="14"/>
-      <c r="D561" s="50"/>
+      <c r="D561" s="49"/>
     </row>
     <row r="562">
       <c r="A562" s="14"/>
-      <c r="D562" s="50"/>
+      <c r="D562" s="49"/>
     </row>
     <row r="563">
       <c r="A563" s="14"/>
-      <c r="D563" s="50"/>
+      <c r="D563" s="49"/>
     </row>
     <row r="564">
       <c r="A564" s="14"/>
-      <c r="D564" s="50"/>
+      <c r="D564" s="49"/>
     </row>
     <row r="565">
       <c r="A565" s="14"/>
-      <c r="D565" s="50"/>
+      <c r="D565" s="49"/>
     </row>
     <row r="566">
       <c r="A566" s="14"/>
-      <c r="D566" s="50"/>
+      <c r="D566" s="49"/>
     </row>
     <row r="567">
       <c r="A567" s="14"/>
-      <c r="D567" s="50"/>
+      <c r="D567" s="49"/>
     </row>
     <row r="568">
       <c r="A568" s="14"/>
-      <c r="D568" s="50"/>
+      <c r="D568" s="49"/>
     </row>
     <row r="569">
       <c r="A569" s="14"/>
-      <c r="D569" s="50"/>
+      <c r="D569" s="49"/>
     </row>
     <row r="570">
       <c r="A570" s="14"/>
-      <c r="D570" s="50"/>
+      <c r="D570" s="49"/>
     </row>
     <row r="571">
       <c r="A571" s="14"/>
-      <c r="D571" s="50"/>
+      <c r="D571" s="49"/>
     </row>
     <row r="572">
       <c r="A572" s="14"/>
-      <c r="D572" s="50"/>
+      <c r="D572" s="49"/>
     </row>
     <row r="573">
       <c r="A573" s="14"/>
-      <c r="D573" s="50"/>
+      <c r="D573" s="49"/>
     </row>
     <row r="574">
       <c r="A574" s="14"/>
-      <c r="D574" s="50"/>
+      <c r="D574" s="49"/>
     </row>
     <row r="575">
       <c r="A575" s="14"/>
-      <c r="D575" s="50"/>
+      <c r="D575" s="49"/>
     </row>
     <row r="576">
       <c r="A576" s="14"/>
-      <c r="D576" s="50"/>
+      <c r="D576" s="49"/>
     </row>
     <row r="577">
       <c r="A577" s="14"/>
-      <c r="D577" s="50"/>
+      <c r="D577" s="49"/>
     </row>
     <row r="578">
       <c r="A578" s="14"/>
-      <c r="D578" s="50"/>
+      <c r="D578" s="49"/>
     </row>
     <row r="579">
       <c r="A579" s="14"/>
-      <c r="D579" s="50"/>
+      <c r="D579" s="49"/>
     </row>
     <row r="580">
       <c r="A580" s="14"/>
-      <c r="D580" s="50"/>
+      <c r="D580" s="49"/>
     </row>
     <row r="581">
       <c r="A581" s="14"/>
-      <c r="D581" s="50"/>
+      <c r="D581" s="49"/>
     </row>
     <row r="582">
       <c r="A582" s="14"/>
-      <c r="D582" s="50"/>
+      <c r="D582" s="49"/>
     </row>
     <row r="583">
       <c r="A583" s="14"/>
-      <c r="D583" s="50"/>
+      <c r="D583" s="49"/>
     </row>
     <row r="584">
       <c r="A584" s="14"/>
-      <c r="D584" s="50"/>
+      <c r="D584" s="49"/>
     </row>
     <row r="585">
       <c r="A585" s="14"/>
-      <c r="D585" s="50"/>
+      <c r="D585" s="49"/>
     </row>
     <row r="586">
       <c r="A586" s="14"/>
-      <c r="D586" s="50"/>
+      <c r="D586" s="49"/>
     </row>
     <row r="587">
       <c r="A587" s="14"/>
-      <c r="D587" s="50"/>
+      <c r="D587" s="49"/>
     </row>
     <row r="588">
       <c r="A588" s="14"/>
-      <c r="D588" s="50"/>
+      <c r="D588" s="49"/>
     </row>
     <row r="589">
       <c r="A589" s="14"/>
-      <c r="D589" s="50"/>
+      <c r="D589" s="49"/>
     </row>
     <row r="590">
       <c r="A590" s="14"/>
-      <c r="D590" s="50"/>
+      <c r="D590" s="49"/>
     </row>
     <row r="591">
       <c r="A591" s="14"/>
-      <c r="D591" s="50"/>
+      <c r="D591" s="49"/>
     </row>
     <row r="592">
       <c r="A592" s="14"/>
-      <c r="D592" s="50"/>
+      <c r="D592" s="49"/>
     </row>
     <row r="593">
       <c r="A593" s="14"/>
-      <c r="D593" s="50"/>
+      <c r="D593" s="49"/>
     </row>
     <row r="594">
       <c r="A594" s="14"/>
-      <c r="D594" s="50"/>
+      <c r="D594" s="49"/>
     </row>
     <row r="595">
       <c r="A595" s="14"/>
-      <c r="D595" s="50"/>
+      <c r="D595" s="49"/>
     </row>
     <row r="596">
       <c r="A596" s="14"/>
-      <c r="D596" s="50"/>
+      <c r="D596" s="49"/>
     </row>
     <row r="597">
       <c r="A597" s="14"/>
-      <c r="D597" s="50"/>
+      <c r="D597" s="49"/>
     </row>
     <row r="598">
       <c r="A598" s="14"/>
-      <c r="D598" s="50"/>
+      <c r="D598" s="49"/>
     </row>
     <row r="599">
       <c r="A599" s="14"/>
-      <c r="D599" s="50"/>
+      <c r="D599" s="49"/>
     </row>
     <row r="600">
       <c r="A600" s="14"/>
-      <c r="D600" s="50"/>
+      <c r="D600" s="49"/>
     </row>
     <row r="601">
       <c r="A601" s="14"/>
-      <c r="D601" s="50"/>
+      <c r="D601" s="49"/>
     </row>
     <row r="602">
       <c r="A602" s="14"/>
-      <c r="D602" s="50"/>
+      <c r="D602" s="49"/>
     </row>
     <row r="603">
       <c r="A603" s="14"/>
-      <c r="D603" s="50"/>
+      <c r="D603" s="49"/>
     </row>
     <row r="604">
       <c r="A604" s="14"/>
-      <c r="D604" s="50"/>
+      <c r="D604" s="49"/>
     </row>
     <row r="605">
       <c r="A605" s="14"/>
-      <c r="D605" s="50"/>
+      <c r="D605" s="49"/>
     </row>
     <row r="606">
       <c r="A606" s="14"/>
-      <c r="D606" s="50"/>
+      <c r="D606" s="49"/>
     </row>
     <row r="607">
       <c r="A607" s="14"/>
-      <c r="D607" s="50"/>
+      <c r="D607" s="49"/>
     </row>
     <row r="608">
       <c r="A608" s="14"/>
-      <c r="D608" s="50"/>
+      <c r="D608" s="49"/>
     </row>
     <row r="609">
       <c r="A609" s="14"/>
-      <c r="D609" s="50"/>
+      <c r="D609" s="49"/>
     </row>
     <row r="610">
       <c r="A610" s="14"/>
-      <c r="D610" s="50"/>
+      <c r="D610" s="49"/>
     </row>
     <row r="611">
       <c r="A611" s="14"/>
-      <c r="D611" s="50"/>
+      <c r="D611" s="49"/>
     </row>
     <row r="612">
       <c r="A612" s="14"/>
-      <c r="D612" s="50"/>
+      <c r="D612" s="49"/>
     </row>
     <row r="613">
       <c r="A613" s="14"/>
-      <c r="D613" s="50"/>
+      <c r="D613" s="49"/>
     </row>
     <row r="614">
       <c r="A614" s="14"/>
-      <c r="D614" s="50"/>
+      <c r="D614" s="49"/>
     </row>
     <row r="615">
       <c r="A615" s="14"/>
-      <c r="D615" s="50"/>
+      <c r="D615" s="49"/>
     </row>
     <row r="616">
       <c r="A616" s="14"/>
-      <c r="D616" s="50"/>
+      <c r="D616" s="49"/>
     </row>
     <row r="617">
       <c r="A617" s="14"/>
-      <c r="D617" s="50"/>
+      <c r="D617" s="49"/>
     </row>
     <row r="618">
       <c r="A618" s="14"/>
-      <c r="D618" s="50"/>
+      <c r="D618" s="49"/>
     </row>
     <row r="619">
       <c r="A619" s="14"/>
-      <c r="D619" s="50"/>
+      <c r="D619" s="49"/>
     </row>
     <row r="620">
       <c r="A620" s="14"/>
-      <c r="D620" s="50"/>
+      <c r="D620" s="49"/>
     </row>
     <row r="621">
       <c r="A621" s="14"/>
-      <c r="D621" s="50"/>
+      <c r="D621" s="49"/>
     </row>
     <row r="622">
       <c r="A622" s="14"/>
-      <c r="D622" s="50"/>
+      <c r="D622" s="49"/>
     </row>
     <row r="623">
       <c r="A623" s="14"/>
-      <c r="D623" s="50"/>
+      <c r="D623" s="49"/>
     </row>
     <row r="624">
       <c r="A624" s="14"/>
-      <c r="D624" s="50"/>
+      <c r="D624" s="49"/>
     </row>
     <row r="625">
       <c r="A625" s="14"/>
-      <c r="D625" s="50"/>
+      <c r="D625" s="49"/>
     </row>
     <row r="626">
       <c r="A626" s="14"/>
-      <c r="D626" s="50"/>
+      <c r="D626" s="49"/>
     </row>
     <row r="627">
       <c r="A627" s="14"/>
-      <c r="D627" s="50"/>
+      <c r="D627" s="49"/>
     </row>
     <row r="628">
       <c r="A628" s="14"/>
-      <c r="D628" s="50"/>
+      <c r="D628" s="49"/>
     </row>
     <row r="629">
       <c r="A629" s="14"/>
-      <c r="D629" s="50"/>
+      <c r="D629" s="49"/>
     </row>
     <row r="630">
       <c r="A630" s="14"/>
-      <c r="D630" s="50"/>
+      <c r="D630" s="49"/>
     </row>
     <row r="631">
       <c r="A631" s="14"/>
-      <c r="D631" s="50"/>
+      <c r="D631" s="49"/>
     </row>
     <row r="632">
       <c r="A632" s="14"/>
-      <c r="D632" s="50"/>
+      <c r="D632" s="49"/>
     </row>
     <row r="633">
       <c r="A633" s="14"/>
-      <c r="D633" s="50"/>
+      <c r="D633" s="49"/>
     </row>
     <row r="634">
       <c r="A634" s="14"/>
-      <c r="D634" s="50"/>
+      <c r="D634" s="49"/>
     </row>
     <row r="635">
       <c r="A635" s="14"/>
-      <c r="D635" s="50"/>
+      <c r="D635" s="49"/>
     </row>
     <row r="636">
       <c r="A636" s="14"/>
-      <c r="D636" s="50"/>
+      <c r="D636" s="49"/>
     </row>
     <row r="637">
       <c r="A637" s="14"/>
-      <c r="D637" s="50"/>
+      <c r="D637" s="49"/>
     </row>
     <row r="638">
       <c r="A638" s="14"/>
-      <c r="D638" s="50"/>
+      <c r="D638" s="49"/>
     </row>
     <row r="639">
       <c r="A639" s="14"/>
-      <c r="D639" s="50"/>
+      <c r="D639" s="49"/>
     </row>
     <row r="640">
       <c r="A640" s="14"/>
-      <c r="D640" s="50"/>
+      <c r="D640" s="49"/>
     </row>
     <row r="641">
       <c r="A641" s="14"/>
-      <c r="D641" s="50"/>
+      <c r="D641" s="49"/>
     </row>
     <row r="642">
       <c r="A642" s="14"/>
-      <c r="D642" s="50"/>
+      <c r="D642" s="49"/>
     </row>
     <row r="643">
       <c r="A643" s="14"/>
-      <c r="D643" s="50"/>
+      <c r="D643" s="49"/>
     </row>
     <row r="644">
       <c r="A644" s="14"/>
-      <c r="D644" s="50"/>
+      <c r="D644" s="49"/>
     </row>
     <row r="645">
       <c r="A645" s="14"/>
-      <c r="D645" s="50"/>
+      <c r="D645" s="49"/>
     </row>
     <row r="646">
       <c r="A646" s="14"/>
-      <c r="D646" s="50"/>
+      <c r="D646" s="49"/>
     </row>
     <row r="647">
       <c r="A647" s="14"/>
-      <c r="D647" s="50"/>
+      <c r="D647" s="49"/>
     </row>
     <row r="648">
       <c r="A648" s="14"/>
-      <c r="D648" s="50"/>
+      <c r="D648" s="49"/>
     </row>
     <row r="649">
       <c r="A649" s="14"/>
-      <c r="D649" s="50"/>
+      <c r="D649" s="49"/>
     </row>
     <row r="650">
       <c r="A650" s="14"/>
-      <c r="D650" s="50"/>
+      <c r="D650" s="49"/>
     </row>
     <row r="651">
       <c r="A651" s="14"/>
-      <c r="D651" s="50"/>
+      <c r="D651" s="49"/>
     </row>
     <row r="652">
       <c r="A652" s="14"/>
-      <c r="D652" s="50"/>
+      <c r="D652" s="49"/>
     </row>
     <row r="653">
       <c r="A653" s="14"/>
-      <c r="D653" s="50"/>
+      <c r="D653" s="49"/>
     </row>
     <row r="654">
       <c r="A654" s="14"/>
-      <c r="D654" s="50"/>
+      <c r="D654" s="49"/>
     </row>
     <row r="655">
       <c r="A655" s="14"/>
-      <c r="D655" s="50"/>
+      <c r="D655" s="49"/>
     </row>
     <row r="656">
       <c r="A656" s="14"/>
-      <c r="D656" s="50"/>
+      <c r="D656" s="49"/>
     </row>
     <row r="657">
       <c r="A657" s="14"/>
-      <c r="D657" s="50"/>
+      <c r="D657" s="49"/>
     </row>
     <row r="658">
       <c r="A658" s="14"/>
-      <c r="D658" s="50"/>
+      <c r="D658" s="49"/>
     </row>
     <row r="659">
       <c r="A659" s="14"/>
-      <c r="D659" s="50"/>
+      <c r="D659" s="49"/>
     </row>
     <row r="660">
       <c r="A660" s="14"/>
-      <c r="D660" s="50"/>
+      <c r="D660" s="49"/>
     </row>
     <row r="661">
       <c r="A661" s="14"/>
-      <c r="D661" s="50"/>
+      <c r="D661" s="49"/>
     </row>
     <row r="662">
       <c r="A662" s="14"/>
-      <c r="D662" s="50"/>
+      <c r="D662" s="49"/>
     </row>
     <row r="663">
       <c r="A663" s="14"/>
-      <c r="D663" s="50"/>
+      <c r="D663" s="49"/>
     </row>
     <row r="664">
       <c r="A664" s="14"/>
-      <c r="D664" s="50"/>
+      <c r="D664" s="49"/>
     </row>
     <row r="665">
       <c r="A665" s="14"/>
-      <c r="D665" s="50"/>
+      <c r="D665" s="49"/>
     </row>
     <row r="666">
       <c r="A666" s="14"/>
-      <c r="D666" s="50"/>
+      <c r="D666" s="49"/>
     </row>
     <row r="667">
       <c r="A667" s="14"/>
-      <c r="D667" s="50"/>
+      <c r="D667" s="49"/>
     </row>
     <row r="668">
       <c r="A668" s="14"/>
-      <c r="D668" s="50"/>
+      <c r="D668" s="49"/>
     </row>
     <row r="669">
       <c r="A669" s="14"/>
-      <c r="D669" s="50"/>
+      <c r="D669" s="49"/>
     </row>
     <row r="670">
       <c r="A670" s="14"/>
-      <c r="D670" s="50"/>
+      <c r="D670" s="49"/>
     </row>
     <row r="671">
       <c r="A671" s="14"/>
-      <c r="D671" s="50"/>
+      <c r="D671" s="49"/>
     </row>
     <row r="672">
       <c r="A672" s="14"/>
-      <c r="D672" s="50"/>
+      <c r="D672" s="49"/>
     </row>
     <row r="673">
       <c r="A673" s="14"/>
-      <c r="D673" s="50"/>
+      <c r="D673" s="49"/>
     </row>
     <row r="674">
       <c r="A674" s="14"/>
-      <c r="D674" s="50"/>
+      <c r="D674" s="49"/>
     </row>
     <row r="675">
       <c r="A675" s="14"/>
-      <c r="D675" s="50"/>
+      <c r="D675" s="49"/>
     </row>
     <row r="676">
       <c r="A676" s="14"/>
-      <c r="D676" s="50"/>
+      <c r="D676" s="49"/>
     </row>
     <row r="677">
       <c r="A677" s="14"/>
-      <c r="D677" s="50"/>
+      <c r="D677" s="49"/>
     </row>
     <row r="678">
       <c r="A678" s="14"/>
-      <c r="D678" s="50"/>
+      <c r="D678" s="49"/>
     </row>
     <row r="679">
       <c r="A679" s="14"/>
-      <c r="D679" s="50"/>
+      <c r="D679" s="49"/>
     </row>
     <row r="680">
       <c r="A680" s="14"/>
-      <c r="D680" s="50"/>
+      <c r="D680" s="49"/>
     </row>
     <row r="681">
       <c r="A681" s="14"/>
-      <c r="D681" s="50"/>
+      <c r="D681" s="49"/>
     </row>
     <row r="682">
       <c r="A682" s="14"/>
-      <c r="D682" s="50"/>
+      <c r="D682" s="49"/>
     </row>
     <row r="683">
       <c r="A683" s="14"/>
-      <c r="D683" s="50"/>
+      <c r="D683" s="49"/>
     </row>
     <row r="684">
       <c r="A684" s="14"/>
-      <c r="D684" s="50"/>
+      <c r="D684" s="49"/>
     </row>
     <row r="685">
       <c r="A685" s="14"/>
-      <c r="D685" s="50"/>
+      <c r="D685" s="49"/>
     </row>
     <row r="686">
       <c r="A686" s="14"/>
-      <c r="D686" s="50"/>
+      <c r="D686" s="49"/>
     </row>
     <row r="687">
       <c r="A687" s="14"/>
-      <c r="D687" s="50"/>
+      <c r="D687" s="49"/>
     </row>
     <row r="688">
       <c r="A688" s="14"/>
-      <c r="D688" s="50"/>
+      <c r="D688" s="49"/>
     </row>
     <row r="689">
       <c r="A689" s="14"/>
-      <c r="D689" s="50"/>
+      <c r="D689" s="49"/>
     </row>
     <row r="690">
       <c r="A690" s="14"/>
-      <c r="D690" s="50"/>
+      <c r="D690" s="49"/>
     </row>
     <row r="691">
       <c r="A691" s="14"/>
-      <c r="D691" s="50"/>
+      <c r="D691" s="49"/>
     </row>
     <row r="692">
       <c r="A692" s="14"/>
-      <c r="D692" s="50"/>
+      <c r="D692" s="49"/>
     </row>
     <row r="693">
       <c r="A693" s="14"/>
-      <c r="D693" s="50"/>
+      <c r="D693" s="49"/>
     </row>
     <row r="694">
       <c r="A694" s="14"/>
-      <c r="D694" s="50"/>
+      <c r="D694" s="49"/>
     </row>
     <row r="695">
       <c r="A695" s="14"/>
-      <c r="D695" s="50"/>
+      <c r="D695" s="49"/>
     </row>
     <row r="696">
       <c r="A696" s="14"/>
-      <c r="D696" s="50"/>
+      <c r="D696" s="49"/>
     </row>
     <row r="697">
       <c r="A697" s="14"/>
-      <c r="D697" s="50"/>
+      <c r="D697" s="49"/>
     </row>
     <row r="698">
       <c r="A698" s="14"/>
-      <c r="D698" s="50"/>
+      <c r="D698" s="49"/>
     </row>
     <row r="699">
       <c r="A699" s="14"/>
-      <c r="D699" s="50"/>
+      <c r="D699" s="49"/>
     </row>
     <row r="700">
       <c r="A700" s="14"/>
-      <c r="D700" s="50"/>
+      <c r="D700" s="49"/>
     </row>
     <row r="701">
       <c r="A701" s="14"/>
-      <c r="D701" s="50"/>
+      <c r="D701" s="49"/>
     </row>
     <row r="702">
       <c r="A702" s="14"/>
-      <c r="D702" s="50"/>
+      <c r="D702" s="49"/>
     </row>
     <row r="703">
       <c r="A703" s="14"/>
-      <c r="D703" s="50"/>
+      <c r="D703" s="49"/>
     </row>
     <row r="704">
       <c r="A704" s="14"/>
-      <c r="D704" s="50"/>
+      <c r="D704" s="49"/>
     </row>
     <row r="705">
       <c r="A705" s="14"/>
-      <c r="D705" s="50"/>
+      <c r="D705" s="49"/>
     </row>
     <row r="706">
       <c r="A706" s="14"/>
-      <c r="D706" s="50"/>
+      <c r="D706" s="49"/>
     </row>
     <row r="707">
       <c r="A707" s="14"/>
-      <c r="D707" s="50"/>
+      <c r="D707" s="49"/>
     </row>
     <row r="708">
       <c r="A708" s="14"/>
-      <c r="D708" s="50"/>
+      <c r="D708" s="49"/>
     </row>
     <row r="709">
       <c r="A709" s="14"/>
-      <c r="D709" s="50"/>
+      <c r="D709" s="49"/>
     </row>
     <row r="710">
       <c r="A710" s="14"/>
-      <c r="D710" s="50"/>
+      <c r="D710" s="49"/>
     </row>
     <row r="711">
       <c r="A711" s="14"/>
-      <c r="D711" s="50"/>
+      <c r="D711" s="49"/>
     </row>
     <row r="712">
       <c r="A712" s="14"/>
-      <c r="D712" s="50"/>
+      <c r="D712" s="49"/>
     </row>
     <row r="713">
       <c r="A713" s="14"/>
-      <c r="D713" s="50"/>
+      <c r="D713" s="49"/>
     </row>
     <row r="714">
       <c r="A714" s="14"/>
-      <c r="D714" s="50"/>
+      <c r="D714" s="49"/>
     </row>
     <row r="715">
       <c r="A715" s="14"/>
-      <c r="D715" s="50"/>
+      <c r="D715" s="49"/>
     </row>
     <row r="716">
       <c r="A716" s="14"/>
-      <c r="D716" s="50"/>
+      <c r="D716" s="49"/>
     </row>
     <row r="717">
       <c r="A717" s="14"/>
-      <c r="D717" s="50"/>
+      <c r="D717" s="49"/>
     </row>
     <row r="718">
       <c r="A718" s="14"/>
-      <c r="D718" s="50"/>
+      <c r="D718" s="49"/>
     </row>
     <row r="719">
       <c r="A719" s="14"/>
-      <c r="D719" s="50"/>
+      <c r="D719" s="49"/>
     </row>
     <row r="720">
       <c r="A720" s="14"/>
-      <c r="D720" s="50"/>
+      <c r="D720" s="49"/>
     </row>
     <row r="721">
       <c r="A721" s="14"/>
-      <c r="D721" s="50"/>
+      <c r="D721" s="49"/>
     </row>
     <row r="722">
       <c r="A722" s="14"/>
-      <c r="D722" s="50"/>
+      <c r="D722" s="49"/>
     </row>
     <row r="723">
       <c r="A723" s="14"/>
-      <c r="D723" s="50"/>
+      <c r="D723" s="49"/>
     </row>
     <row r="724">
       <c r="A724" s="14"/>
-      <c r="D724" s="50"/>
+      <c r="D724" s="49"/>
     </row>
     <row r="725">
       <c r="A725" s="14"/>
-      <c r="D725" s="50"/>
+      <c r="D725" s="49"/>
     </row>
     <row r="726">
       <c r="A726" s="14"/>
-      <c r="D726" s="50"/>
+      <c r="D726" s="49"/>
     </row>
     <row r="727">
       <c r="A727" s="14"/>
-      <c r="D727" s="50"/>
+      <c r="D727" s="49"/>
     </row>
     <row r="728">
       <c r="A728" s="14"/>
-      <c r="D728" s="50"/>
+      <c r="D728" s="49"/>
     </row>
     <row r="729">
       <c r="A729" s="14"/>
-      <c r="D729" s="50"/>
+      <c r="D729" s="49"/>
     </row>
     <row r="730">
       <c r="A730" s="14"/>
-      <c r="D730" s="50"/>
+      <c r="D730" s="49"/>
     </row>
     <row r="731">
       <c r="A731" s="14"/>
-      <c r="D731" s="50"/>
+      <c r="D731" s="49"/>
     </row>
     <row r="732">
       <c r="A732" s="14"/>
-      <c r="D732" s="50"/>
+      <c r="D732" s="49"/>
     </row>
     <row r="733">
       <c r="A733" s="14"/>
-      <c r="D733" s="50"/>
+      <c r="D733" s="49"/>
     </row>
     <row r="734">
       <c r="A734" s="14"/>
-      <c r="D734" s="50"/>
+      <c r="D734" s="49"/>
     </row>
     <row r="735">
       <c r="A735" s="14"/>
-      <c r="D735" s="50"/>
+      <c r="D735" s="49"/>
     </row>
     <row r="736">
       <c r="A736" s="14"/>
-      <c r="D736" s="50"/>
+      <c r="D736" s="49"/>
     </row>
     <row r="737">
       <c r="A737" s="14"/>
-      <c r="D737" s="50"/>
+      <c r="D737" s="49"/>
     </row>
     <row r="738">
       <c r="A738" s="14"/>
-      <c r="D738" s="50"/>
+      <c r="D738" s="49"/>
     </row>
     <row r="739">
       <c r="A739" s="14"/>
-      <c r="D739" s="50"/>
+      <c r="D739" s="49"/>
     </row>
     <row r="740">
       <c r="A740" s="14"/>
-      <c r="D740" s="50"/>
+      <c r="D740" s="49"/>
     </row>
     <row r="741">
       <c r="A741" s="14"/>
-      <c r="D741" s="50"/>
+      <c r="D741" s="49"/>
     </row>
     <row r="742">
       <c r="A742" s="14"/>
-      <c r="D742" s="50"/>
+      <c r="D742" s="49"/>
     </row>
     <row r="743">
       <c r="A743" s="14"/>
-      <c r="D743" s="50"/>
+      <c r="D743" s="49"/>
     </row>
     <row r="744">
       <c r="A744" s="14"/>
-      <c r="D744" s="50"/>
+      <c r="D744" s="49"/>
     </row>
     <row r="745">
       <c r="A745" s="14"/>
-      <c r="D745" s="50"/>
+      <c r="D745" s="49"/>
     </row>
     <row r="746">
       <c r="A746" s="14"/>
-      <c r="D746" s="50"/>
+      <c r="D746" s="49"/>
     </row>
     <row r="747">
       <c r="A747" s="14"/>
-      <c r="D747" s="50"/>
+      <c r="D747" s="49"/>
     </row>
     <row r="748">
       <c r="A748" s="14"/>
-      <c r="D748" s="50"/>
+      <c r="D748" s="49"/>
     </row>
     <row r="749">
       <c r="A749" s="14"/>
-      <c r="D749" s="50"/>
+      <c r="D749" s="49"/>
     </row>
     <row r="750">
       <c r="A750" s="14"/>
-      <c r="D750" s="50"/>
+      <c r="D750" s="49"/>
     </row>
     <row r="751">
       <c r="A751" s="14"/>
-      <c r="D751" s="50"/>
+      <c r="D751" s="49"/>
     </row>
     <row r="752">
       <c r="A752" s="14"/>
-      <c r="D752" s="50"/>
+      <c r="D752" s="49"/>
     </row>
     <row r="753">
       <c r="A753" s="14"/>
-      <c r="D753" s="50"/>
+      <c r="D753" s="49"/>
     </row>
     <row r="754">
       <c r="A754" s="14"/>
-      <c r="D754" s="50"/>
+      <c r="D754" s="49"/>
     </row>
     <row r="755">
       <c r="A755" s="14"/>
-      <c r="D755" s="50"/>
+      <c r="D755" s="49"/>
     </row>
     <row r="756">
       <c r="A756" s="14"/>
-      <c r="D756" s="50"/>
+      <c r="D756" s="49"/>
     </row>
     <row r="757">
       <c r="A757" s="14"/>
-      <c r="D757" s="50"/>
+      <c r="D757" s="49"/>
     </row>
     <row r="758">
       <c r="A758" s="14"/>
-      <c r="D758" s="50"/>
+      <c r="D758" s="49"/>
     </row>
     <row r="759">
       <c r="A759" s="14"/>
-      <c r="D759" s="50"/>
+      <c r="D759" s="49"/>
     </row>
     <row r="760">
       <c r="A760" s="14"/>
-      <c r="D760" s="50"/>
+      <c r="D760" s="49"/>
     </row>
     <row r="761">
       <c r="A761" s="14"/>
-      <c r="D761" s="50"/>
+      <c r="D761" s="49"/>
     </row>
     <row r="762">
       <c r="A762" s="14"/>
-      <c r="D762" s="50"/>
+      <c r="D762" s="49"/>
     </row>
     <row r="763">
       <c r="A763" s="14"/>
-      <c r="D763" s="50"/>
+      <c r="D763" s="49"/>
     </row>
     <row r="764">
       <c r="A764" s="14"/>
-      <c r="D764" s="50"/>
+      <c r="D764" s="49"/>
     </row>
     <row r="765">
       <c r="A765" s="14"/>
-      <c r="D765" s="50"/>
+      <c r="D765" s="49"/>
     </row>
     <row r="766">
       <c r="A766" s="14"/>
-      <c r="D766" s="50"/>
+      <c r="D766" s="49"/>
     </row>
     <row r="767">
       <c r="A767" s="14"/>
-      <c r="D767" s="50"/>
+      <c r="D767" s="49"/>
     </row>
     <row r="768">
       <c r="A768" s="14"/>
-      <c r="D768" s="50"/>
+      <c r="D768" s="49"/>
     </row>
     <row r="769">
       <c r="A769" s="14"/>
-      <c r="D769" s="50"/>
+      <c r="D769" s="49"/>
     </row>
     <row r="770">
       <c r="A770" s="14"/>
-      <c r="D770" s="50"/>
+      <c r="D770" s="49"/>
     </row>
     <row r="771">
       <c r="A771" s="14"/>
-      <c r="D771" s="50"/>
+      <c r="D771" s="49"/>
     </row>
     <row r="772">
       <c r="A772" s="14"/>
-      <c r="D772" s="50"/>
+      <c r="D772" s="49"/>
     </row>
     <row r="773">
       <c r="A773" s="14"/>
-      <c r="D773" s="50"/>
+      <c r="D773" s="49"/>
     </row>
     <row r="774">
       <c r="A774" s="14"/>
-      <c r="D774" s="50"/>
+      <c r="D774" s="49"/>
     </row>
     <row r="775">
       <c r="A775" s="14"/>
-      <c r="D775" s="50"/>
+      <c r="D775" s="49"/>
     </row>
     <row r="776">
       <c r="A776" s="14"/>
-      <c r="D776" s="50"/>
+      <c r="D776" s="49"/>
     </row>
     <row r="777">
       <c r="A777" s="14"/>
-      <c r="D777" s="50"/>
+      <c r="D777" s="49"/>
     </row>
     <row r="778">
       <c r="A778" s="14"/>
-      <c r="D778" s="50"/>
+      <c r="D778" s="49"/>
     </row>
     <row r="779">
       <c r="A779" s="14"/>
-      <c r="D779" s="50"/>
+      <c r="D779" s="49"/>
     </row>
     <row r="780">
       <c r="A780" s="14"/>
-      <c r="D780" s="50"/>
+      <c r="D780" s="49"/>
     </row>
     <row r="781">
       <c r="A781" s="14"/>
-      <c r="D781" s="50"/>
+      <c r="D781" s="49"/>
     </row>
     <row r="782">
       <c r="A782" s="14"/>
-      <c r="D782" s="50"/>
+      <c r="D782" s="49"/>
     </row>
     <row r="783">
       <c r="A783" s="14"/>
-      <c r="D783" s="50"/>
+      <c r="D783" s="49"/>
     </row>
     <row r="784">
       <c r="A784" s="14"/>
-      <c r="D784" s="50"/>
+      <c r="D784" s="49"/>
     </row>
     <row r="785">
       <c r="A785" s="14"/>
-      <c r="D785" s="50"/>
+      <c r="D785" s="49"/>
     </row>
     <row r="786">
       <c r="A786" s="14"/>
-      <c r="D786" s="50"/>
+      <c r="D786" s="49"/>
     </row>
     <row r="787">
       <c r="A787" s="14"/>
-      <c r="D787" s="50"/>
+      <c r="D787" s="49"/>
     </row>
     <row r="788">
       <c r="A788" s="14"/>
-      <c r="D788" s="50"/>
+      <c r="D788" s="49"/>
     </row>
     <row r="789">
       <c r="A789" s="14"/>
-      <c r="D789" s="50"/>
+      <c r="D789" s="49"/>
     </row>
     <row r="790">
       <c r="A790" s="14"/>
-      <c r="D790" s="50"/>
+      <c r="D790" s="49"/>
     </row>
     <row r="791">
       <c r="A791" s="14"/>
-      <c r="D791" s="50"/>
+      <c r="D791" s="49"/>
     </row>
     <row r="792">
       <c r="A792" s="14"/>
-      <c r="D792" s="50"/>
+      <c r="D792" s="49"/>
     </row>
     <row r="793">
       <c r="A793" s="14"/>
-      <c r="D793" s="50"/>
+      <c r="D793" s="49"/>
     </row>
     <row r="794">
       <c r="A794" s="14"/>
-      <c r="D794" s="50"/>
+      <c r="D794" s="49"/>
     </row>
     <row r="795">
       <c r="A795" s="14"/>
-      <c r="D795" s="50"/>
+      <c r="D795" s="49"/>
     </row>
     <row r="796">
       <c r="A796" s="14"/>
-      <c r="D796" s="50"/>
+      <c r="D796" s="49"/>
     </row>
     <row r="797">
       <c r="A797" s="14"/>
-      <c r="D797" s="50"/>
+      <c r="D797" s="49"/>
     </row>
     <row r="798">
       <c r="A798" s="14"/>
-      <c r="D798" s="50"/>
+      <c r="D798" s="49"/>
     </row>
     <row r="799">
       <c r="A799" s="14"/>
-      <c r="D799" s="50"/>
+      <c r="D799" s="49"/>
     </row>
     <row r="800">
       <c r="A800" s="14"/>
-      <c r="D800" s="50"/>
+      <c r="D800" s="49"/>
     </row>
     <row r="801">
       <c r="A801" s="14"/>
-      <c r="D801" s="50"/>
+      <c r="D801" s="49"/>
     </row>
     <row r="802">
       <c r="A802" s="14"/>
-      <c r="D802" s="50"/>
+      <c r="D802" s="49"/>
     </row>
     <row r="803">
       <c r="A803" s="14"/>
-      <c r="D803" s="50"/>
+      <c r="D803" s="49"/>
     </row>
     <row r="804">
       <c r="A804" s="14"/>
-      <c r="D804" s="50"/>
+      <c r="D804" s="49"/>
     </row>
     <row r="805">
       <c r="A805" s="14"/>
-      <c r="D805" s="50"/>
+      <c r="D805" s="49"/>
     </row>
     <row r="806">
       <c r="A806" s="14"/>
-      <c r="D806" s="50"/>
+      <c r="D806" s="49"/>
     </row>
     <row r="807">
       <c r="A807" s="14"/>
-      <c r="D807" s="50"/>
+      <c r="D807" s="49"/>
     </row>
     <row r="808">
       <c r="A808" s="14"/>
-      <c r="D808" s="50"/>
+      <c r="D808" s="49"/>
     </row>
     <row r="809">
       <c r="A809" s="14"/>
-      <c r="D809" s="50"/>
+      <c r="D809" s="49"/>
     </row>
     <row r="810">
       <c r="A810" s="14"/>
-      <c r="D810" s="50"/>
+      <c r="D810" s="49"/>
     </row>
     <row r="811">
       <c r="A811" s="14"/>
-      <c r="D811" s="50"/>
+      <c r="D811" s="49"/>
     </row>
     <row r="812">
       <c r="A812" s="14"/>
-      <c r="D812" s="50"/>
+      <c r="D812" s="49"/>
     </row>
     <row r="813">
       <c r="A813" s="14"/>
-      <c r="D813" s="50"/>
+      <c r="D813" s="49"/>
     </row>
     <row r="814">
       <c r="A814" s="14"/>
-      <c r="D814" s="50"/>
+      <c r="D814" s="49"/>
     </row>
     <row r="815">
       <c r="A815" s="14"/>
-      <c r="D815" s="50"/>
+      <c r="D815" s="49"/>
     </row>
     <row r="816">
       <c r="A816" s="14"/>
-      <c r="D816" s="50"/>
+      <c r="D816" s="49"/>
     </row>
     <row r="817">
       <c r="A817" s="14"/>
-      <c r="D817" s="50"/>
+      <c r="D817" s="49"/>
     </row>
     <row r="818">
       <c r="A818" s="14"/>
-      <c r="D818" s="50"/>
+      <c r="D818" s="49"/>
     </row>
     <row r="819">
       <c r="A819" s="14"/>
-      <c r="D819" s="50"/>
+      <c r="D819" s="49"/>
     </row>
     <row r="820">
       <c r="A820" s="14"/>
-      <c r="D820" s="50"/>
+      <c r="D820" s="49"/>
     </row>
     <row r="821">
       <c r="A821" s="14"/>
-      <c r="D821" s="50"/>
+      <c r="D821" s="49"/>
     </row>
     <row r="822">
       <c r="A822" s="14"/>
-      <c r="D822" s="50"/>
+      <c r="D822" s="49"/>
     </row>
     <row r="823">
       <c r="A823" s="14"/>
-      <c r="D823" s="50"/>
+      <c r="D823" s="49"/>
     </row>
     <row r="824">
       <c r="A824" s="14"/>
-      <c r="D824" s="50"/>
+      <c r="D824" s="49"/>
     </row>
     <row r="825">
       <c r="A825" s="14"/>
-      <c r="D825" s="50"/>
+      <c r="D825" s="49"/>
     </row>
     <row r="826">
       <c r="A826" s="14"/>
-      <c r="D826" s="50"/>
+      <c r="D826" s="49"/>
     </row>
     <row r="827">
       <c r="A827" s="14"/>
-      <c r="D827" s="50"/>
+      <c r="D827" s="49"/>
     </row>
     <row r="828">
       <c r="A828" s="14"/>
-      <c r="D828" s="50"/>
+      <c r="D828" s="49"/>
     </row>
     <row r="829">
       <c r="A829" s="14"/>
-      <c r="D829" s="50"/>
+      <c r="D829" s="49"/>
     </row>
     <row r="830">
       <c r="A830" s="14"/>
-      <c r="D830" s="50"/>
+      <c r="D830" s="49"/>
     </row>
     <row r="831">
       <c r="A831" s="14"/>
-      <c r="D831" s="50"/>
+      <c r="D831" s="49"/>
     </row>
     <row r="832">
       <c r="A832" s="14"/>
-      <c r="D832" s="50"/>
+      <c r="D832" s="49"/>
     </row>
     <row r="833">
       <c r="A833" s="14"/>
-      <c r="D833" s="50"/>
+      <c r="D833" s="49"/>
     </row>
     <row r="834">
       <c r="A834" s="14"/>
-      <c r="D834" s="50"/>
+      <c r="D834" s="49"/>
     </row>
     <row r="835">
       <c r="A835" s="14"/>
-      <c r="D835" s="50"/>
+      <c r="D835" s="49"/>
     </row>
     <row r="836">
       <c r="A836" s="14"/>
-      <c r="D836" s="50"/>
+      <c r="D836" s="49"/>
     </row>
     <row r="837">
       <c r="A837" s="14"/>
-      <c r="D837" s="50"/>
+      <c r="D837" s="49"/>
     </row>
     <row r="838">
       <c r="A838" s="14"/>
-      <c r="D838" s="50"/>
+      <c r="D838" s="49"/>
     </row>
     <row r="839">
       <c r="A839" s="14"/>
-      <c r="D839" s="50"/>
+      <c r="D839" s="49"/>
     </row>
     <row r="840">
       <c r="A840" s="14"/>
-      <c r="D840" s="50"/>
+      <c r="D840" s="49"/>
     </row>
     <row r="841">
       <c r="A841" s="14"/>
-      <c r="D841" s="50"/>
+      <c r="D841" s="49"/>
     </row>
     <row r="842">
       <c r="A842" s="14"/>
-      <c r="D842" s="50"/>
+      <c r="D842" s="49"/>
     </row>
     <row r="843">
       <c r="A843" s="14"/>
-      <c r="D843" s="50"/>
+      <c r="D843" s="49"/>
     </row>
     <row r="844">
       <c r="A844" s="14"/>
-      <c r="D844" s="50"/>
+      <c r="D844" s="49"/>
     </row>
     <row r="845">
       <c r="A845" s="14"/>
-      <c r="D845" s="50"/>
+      <c r="D845" s="49"/>
     </row>
     <row r="846">
       <c r="A846" s="14"/>
-      <c r="D846" s="50"/>
+      <c r="D846" s="49"/>
     </row>
     <row r="847">
       <c r="A847" s="14"/>
-      <c r="D847" s="50"/>
+      <c r="D847" s="49"/>
     </row>
     <row r="848">
       <c r="A848" s="14"/>
-      <c r="D848" s="50"/>
+      <c r="D848" s="49"/>
     </row>
     <row r="849">
       <c r="A849" s="14"/>
-      <c r="D849" s="50"/>
+      <c r="D849" s="49"/>
     </row>
     <row r="850">
       <c r="A850" s="14"/>
-      <c r="D850" s="50"/>
+      <c r="D850" s="49"/>
     </row>
     <row r="851">
       <c r="A851" s="14"/>
-      <c r="D851" s="50"/>
+      <c r="D851" s="49"/>
     </row>
     <row r="852">
       <c r="A852" s="14"/>
-      <c r="D852" s="50"/>
+      <c r="D852" s="49"/>
     </row>
     <row r="853">
       <c r="A853" s="14"/>
-      <c r="D853" s="50"/>
+      <c r="D853" s="49"/>
     </row>
     <row r="854">
       <c r="A854" s="14"/>
-      <c r="D854" s="50"/>
+      <c r="D854" s="49"/>
     </row>
     <row r="855">
       <c r="A855" s="14"/>
-      <c r="D855" s="50"/>
+      <c r="D855" s="49"/>
     </row>
     <row r="856">
       <c r="A856" s="14"/>
-      <c r="D856" s="50"/>
+      <c r="D856" s="49"/>
     </row>
     <row r="857">
       <c r="A857" s="14"/>
-      <c r="D857" s="50"/>
+      <c r="D857" s="49"/>
     </row>
     <row r="858">
       <c r="A858" s="14"/>
-      <c r="D858" s="50"/>
+      <c r="D858" s="49"/>
     </row>
     <row r="859">
       <c r="A859" s="14"/>
-      <c r="D859" s="50"/>
+      <c r="D859" s="49"/>
     </row>
     <row r="860">
       <c r="A860" s="14"/>
-      <c r="D860" s="50"/>
+      <c r="D860" s="49"/>
     </row>
     <row r="861">
       <c r="A861" s="14"/>
-      <c r="D861" s="50"/>
+      <c r="D861" s="49"/>
     </row>
     <row r="862">
       <c r="A862" s="14"/>
-      <c r="D862" s="50"/>
+      <c r="D862" s="49"/>
     </row>
     <row r="863">
       <c r="A863" s="14"/>
-      <c r="D863" s="50"/>
+      <c r="D863" s="49"/>
     </row>
     <row r="864">
       <c r="A864" s="14"/>
-      <c r="D864" s="50"/>
+      <c r="D864" s="49"/>
     </row>
     <row r="865">
       <c r="A865" s="14"/>
-      <c r="D865" s="50"/>
+      <c r="D865" s="49"/>
     </row>
     <row r="866">
       <c r="A866" s="14"/>
-      <c r="D866" s="50"/>
+      <c r="D866" s="49"/>
     </row>
     <row r="867">
       <c r="A867" s="14"/>
-      <c r="D867" s="50"/>
+      <c r="D867" s="49"/>
     </row>
     <row r="868">
       <c r="A868" s="14"/>
-      <c r="D868" s="50"/>
+      <c r="D868" s="49"/>
     </row>
     <row r="869">
       <c r="A869" s="14"/>
-      <c r="D869" s="50"/>
+      <c r="D869" s="49"/>
     </row>
     <row r="870">
       <c r="A870" s="14"/>
-      <c r="D870" s="50"/>
+      <c r="D870" s="49"/>
     </row>
     <row r="871">
       <c r="A871" s="14"/>
-      <c r="D871" s="50"/>
+      <c r="D871" s="49"/>
     </row>
     <row r="872">
       <c r="A872" s="14"/>
-      <c r="D872" s="50"/>
+      <c r="D872" s="49"/>
     </row>
     <row r="873">
       <c r="A873" s="14"/>
-      <c r="D873" s="50"/>
+      <c r="D873" s="49"/>
     </row>
     <row r="874">
       <c r="A874" s="14"/>
-      <c r="D874" s="50"/>
+      <c r="D874" s="49"/>
     </row>
     <row r="875">
       <c r="A875" s="14"/>
-      <c r="D875" s="50"/>
+      <c r="D875" s="49"/>
     </row>
     <row r="876">
       <c r="A876" s="14"/>
-      <c r="D876" s="50"/>
+      <c r="D876" s="49"/>
     </row>
     <row r="877">
       <c r="A877" s="14"/>
-      <c r="D877" s="50"/>
+      <c r="D877" s="49"/>
     </row>
     <row r="878">
       <c r="A878" s="14"/>
-      <c r="D878" s="50"/>
+      <c r="D878" s="49"/>
     </row>
     <row r="879">
       <c r="A879" s="14"/>
-      <c r="D879" s="50"/>
+      <c r="D879" s="49"/>
     </row>
     <row r="880">
       <c r="A880" s="14"/>
-      <c r="D880" s="50"/>
+      <c r="D880" s="49"/>
     </row>
     <row r="881">
       <c r="A881" s="14"/>
-      <c r="D881" s="50"/>
+      <c r="D881" s="49"/>
     </row>
     <row r="882">
       <c r="A882" s="14"/>
-      <c r="D882" s="50"/>
+      <c r="D882" s="49"/>
     </row>
     <row r="883">
       <c r="A883" s="14"/>
-      <c r="D883" s="50"/>
+      <c r="D883" s="49"/>
     </row>
     <row r="884">
       <c r="A884" s="14"/>
-      <c r="D884" s="50"/>
+      <c r="D884" s="49"/>
     </row>
     <row r="885">
       <c r="A885" s="14"/>
-      <c r="D885" s="50"/>
+      <c r="D885" s="49"/>
     </row>
     <row r="886">
       <c r="A886" s="14"/>
-      <c r="D886" s="50"/>
+      <c r="D886" s="49"/>
     </row>
     <row r="887">
       <c r="A887" s="14"/>
-      <c r="D887" s="50"/>
+      <c r="D887" s="49"/>
     </row>
     <row r="888">
       <c r="A888" s="14"/>
-      <c r="D888" s="50"/>
+      <c r="D888" s="49"/>
     </row>
     <row r="889">
       <c r="A889" s="14"/>
-      <c r="D889" s="50"/>
+      <c r="D889" s="49"/>
     </row>
     <row r="890">
       <c r="A890" s="14"/>
-      <c r="D890" s="50"/>
+      <c r="D890" s="49"/>
     </row>
     <row r="891">
       <c r="A891" s="14"/>
-      <c r="D891" s="50"/>
+      <c r="D891" s="49"/>
     </row>
     <row r="892">
       <c r="A892" s="14"/>
-      <c r="D892" s="50"/>
+      <c r="D892" s="49"/>
     </row>
     <row r="893">
       <c r="A893" s="14"/>
-      <c r="D893" s="50"/>
+      <c r="D893" s="49"/>
     </row>
     <row r="894">
       <c r="A894" s="14"/>
-      <c r="D894" s="50"/>
+      <c r="D894" s="49"/>
     </row>
     <row r="895">
       <c r="A895" s="14"/>
-      <c r="D895" s="50"/>
+      <c r="D895" s="49"/>
     </row>
     <row r="896">
       <c r="A896" s="14"/>
-      <c r="D896" s="50"/>
+      <c r="D896" s="49"/>
     </row>
     <row r="897">
       <c r="A897" s="14"/>
-      <c r="D897" s="50"/>
+      <c r="D897" s="49"/>
     </row>
     <row r="898">
       <c r="A898" s="14"/>
-      <c r="D898" s="50"/>
+      <c r="D898" s="49"/>
     </row>
     <row r="899">
       <c r="A899" s="14"/>
-      <c r="D899" s="50"/>
+      <c r="D899" s="49"/>
     </row>
     <row r="900">
       <c r="A900" s="14"/>
-      <c r="D900" s="50"/>
+      <c r="D900" s="49"/>
     </row>
     <row r="901">
       <c r="A901" s="14"/>
-      <c r="D901" s="50"/>
+      <c r="D901" s="49"/>
     </row>
     <row r="902">
       <c r="A902" s="14"/>
-      <c r="D902" s="50"/>
+      <c r="D902" s="49"/>
     </row>
     <row r="903">
       <c r="A903" s="14"/>
-      <c r="D903" s="50"/>
+      <c r="D903" s="49"/>
     </row>
     <row r="904">
       <c r="A904" s="14"/>
-      <c r="D904" s="50"/>
+      <c r="D904" s="49"/>
     </row>
     <row r="905">
       <c r="A905" s="14"/>
-      <c r="D905" s="50"/>
+      <c r="D905" s="49"/>
     </row>
     <row r="906">
       <c r="A906" s="14"/>
-      <c r="D906" s="50"/>
+      <c r="D906" s="49"/>
     </row>
     <row r="907">
       <c r="A907" s="14"/>
-      <c r="D907" s="50"/>
+      <c r="D907" s="49"/>
     </row>
     <row r="908">
       <c r="A908" s="14"/>
-      <c r="D908" s="50"/>
+      <c r="D908" s="49"/>
     </row>
     <row r="909">
       <c r="A909" s="14"/>
-      <c r="D909" s="50"/>
+      <c r="D909" s="49"/>
     </row>
     <row r="910">
       <c r="A910" s="14"/>
-      <c r="D910" s="50"/>
+      <c r="D910" s="49"/>
     </row>
     <row r="911">
       <c r="A911" s="14"/>
-      <c r="D911" s="50"/>
+      <c r="D911" s="49"/>
     </row>
     <row r="912">
       <c r="A912" s="14"/>
-      <c r="D912" s="50"/>
+      <c r="D912" s="49"/>
     </row>
     <row r="913">
       <c r="A913" s="14"/>
-      <c r="D913" s="50"/>
+      <c r="D913" s="49"/>
     </row>
     <row r="914">
       <c r="A914" s="14"/>
-      <c r="D914" s="50"/>
+      <c r="D914" s="49"/>
     </row>
     <row r="915">
       <c r="A915" s="14"/>
-      <c r="D915" s="50"/>
+      <c r="D915" s="49"/>
     </row>
     <row r="916">
       <c r="A916" s="14"/>
-      <c r="D916" s="50"/>
+      <c r="D916" s="49"/>
     </row>
     <row r="917">
       <c r="A917" s="14"/>
-      <c r="D917" s="50"/>
+      <c r="D917" s="49"/>
     </row>
     <row r="918">
       <c r="A918" s="14"/>
-      <c r="D918" s="50"/>
+      <c r="D918" s="49"/>
     </row>
     <row r="919">
       <c r="A919" s="14"/>
-      <c r="D919" s="50"/>
+      <c r="D919" s="49"/>
     </row>
     <row r="920">
       <c r="A920" s="14"/>
-      <c r="D920" s="50"/>
+      <c r="D920" s="49"/>
     </row>
     <row r="921">
       <c r="A921" s="14"/>
-      <c r="D921" s="50"/>
+      <c r="D921" s="49"/>
     </row>
     <row r="922">
       <c r="A922" s="14"/>
-      <c r="D922" s="50"/>
+      <c r="D922" s="49"/>
     </row>
     <row r="923">
       <c r="A923" s="14"/>
-      <c r="D923" s="50"/>
+      <c r="D923" s="49"/>
     </row>
     <row r="924">
       <c r="A924" s="14"/>
-      <c r="D924" s="50"/>
+      <c r="D924" s="49"/>
     </row>
     <row r="925">
       <c r="A925" s="14"/>
-      <c r="D925" s="50"/>
+      <c r="D925" s="49"/>
     </row>
     <row r="926">
       <c r="A926" s="14"/>
-      <c r="D926" s="50"/>
+      <c r="D926" s="49"/>
     </row>
     <row r="927">
       <c r="A927" s="14"/>
-      <c r="D927" s="50"/>
+      <c r="D927" s="49"/>
     </row>
     <row r="928">
       <c r="A928" s="14"/>
-      <c r="D928" s="50"/>
+      <c r="D928" s="49"/>
     </row>
     <row r="929">
       <c r="A929" s="14"/>
-      <c r="D929" s="50"/>
+      <c r="D929" s="49"/>
     </row>
     <row r="930">
       <c r="A930" s="14"/>
-      <c r="D930" s="50"/>
+      <c r="D930" s="49"/>
     </row>
     <row r="931">
       <c r="A931" s="14"/>
-      <c r="D931" s="50"/>
+      <c r="D931" s="49"/>
     </row>
     <row r="932">
       <c r="A932" s="14"/>
-      <c r="D932" s="50"/>
+      <c r="D932" s="49"/>
     </row>
     <row r="933">
       <c r="A933" s="14"/>
-      <c r="D933" s="50"/>
+      <c r="D933" s="49"/>
     </row>
     <row r="934">
       <c r="A934" s="14"/>
-      <c r="D934" s="50"/>
+      <c r="D934" s="49"/>
     </row>
     <row r="935">
       <c r="A935" s="14"/>
-      <c r="D935" s="50"/>
+      <c r="D935" s="49"/>
     </row>
     <row r="936">
       <c r="A936" s="14"/>
-      <c r="D936" s="50"/>
+      <c r="D936" s="49"/>
     </row>
     <row r="937">
       <c r="A937" s="14"/>
-      <c r="D937" s="50"/>
+      <c r="D937" s="49"/>
     </row>
     <row r="938">
       <c r="A938" s="14"/>
-      <c r="D938" s="50"/>
+      <c r="D938" s="49"/>
     </row>
     <row r="939">
       <c r="A939" s="14"/>
-      <c r="D939" s="50"/>
+      <c r="D939" s="49"/>
     </row>
     <row r="940">
       <c r="A940" s="14"/>
-      <c r="D940" s="50"/>
+      <c r="D940" s="49"/>
     </row>
     <row r="941">
       <c r="A941" s="14"/>
-      <c r="D941" s="50"/>
+      <c r="D941" s="49"/>
     </row>
     <row r="942">
       <c r="A942" s="14"/>
-      <c r="D942" s="50"/>
+      <c r="D942" s="49"/>
     </row>
     <row r="943">
       <c r="A943" s="14"/>
-      <c r="D943" s="50"/>
+      <c r="D943" s="49"/>
     </row>
     <row r="944">
       <c r="A944" s="14"/>
-      <c r="D944" s="50"/>
+      <c r="D944" s="49"/>
     </row>
     <row r="945">
       <c r="A945" s="14"/>
-      <c r="D945" s="50"/>
+      <c r="D945" s="49"/>
     </row>
     <row r="946">
       <c r="A946" s="14"/>
-      <c r="D946" s="50"/>
+      <c r="D946" s="49"/>
     </row>
     <row r="947">
       <c r="A947" s="14"/>
-      <c r="D947" s="50"/>
+      <c r="D947" s="49"/>
     </row>
     <row r="948">
       <c r="A948" s="14"/>
-      <c r="D948" s="50"/>
+      <c r="D948" s="49"/>
     </row>
     <row r="949">
       <c r="A949" s="14"/>
-      <c r="D949" s="50"/>
+      <c r="D949" s="49"/>
     </row>
     <row r="950">
       <c r="A950" s="14"/>
-      <c r="D950" s="50"/>
+      <c r="D950" s="49"/>
     </row>
     <row r="951">
       <c r="A951" s="14"/>
-      <c r="D951" s="50"/>
+      <c r="D951" s="49"/>
     </row>
     <row r="952">
       <c r="A952" s="14"/>
-      <c r="D952" s="50"/>
+      <c r="D952" s="49"/>
     </row>
     <row r="953">
       <c r="A953" s="14"/>
-      <c r="D953" s="50"/>
+      <c r="D953" s="49"/>
     </row>
     <row r="954">
       <c r="A954" s="14"/>
-      <c r="D954" s="50"/>
+      <c r="D954" s="49"/>
     </row>
     <row r="955">
       <c r="A955" s="14"/>
-      <c r="D955" s="50"/>
+      <c r="D955" s="49"/>
     </row>
     <row r="956">
       <c r="A956" s="14"/>
-      <c r="D956" s="50"/>
+      <c r="D956" s="49"/>
     </row>
     <row r="957">
       <c r="A957" s="14"/>
-      <c r="D957" s="50"/>
+      <c r="D957" s="49"/>
     </row>
     <row r="958">
       <c r="A958" s="14"/>
-      <c r="D958" s="50"/>
+      <c r="D958" s="49"/>
     </row>
     <row r="959">
       <c r="A959" s="14"/>
-      <c r="D959" s="50"/>
+      <c r="D959" s="49"/>
     </row>
     <row r="960">
       <c r="A960" s="14"/>
-      <c r="D960" s="50"/>
+      <c r="D960" s="49"/>
     </row>
     <row r="961">
       <c r="A961" s="14"/>
-      <c r="D961" s="50"/>
+      <c r="D961" s="49"/>
     </row>
     <row r="962">
       <c r="A962" s="14"/>
-      <c r="D962" s="50"/>
+      <c r="D962" s="49"/>
     </row>
     <row r="963">
       <c r="A963" s="14"/>
-      <c r="D963" s="50"/>
+      <c r="D963" s="49"/>
     </row>
     <row r="964">
       <c r="A964" s="14"/>
-      <c r="D964" s="50"/>
+      <c r="D964" s="49"/>
     </row>
     <row r="965">
       <c r="A965" s="14"/>
-      <c r="D965" s="50"/>
+      <c r="D965" s="49"/>
     </row>
     <row r="966">
       <c r="A966" s="14"/>
-      <c r="D966" s="50"/>
+      <c r="D966" s="49"/>
     </row>
     <row r="967">
       <c r="A967" s="14"/>
-      <c r="D967" s="50"/>
+      <c r="D967" s="49"/>
     </row>
     <row r="968">
       <c r="A968" s="14"/>
-      <c r="D968" s="50"/>
+      <c r="D968" s="49"/>
     </row>
     <row r="969">
       <c r="A969" s="14"/>
-      <c r="D969" s="50"/>
+      <c r="D969" s="49"/>
     </row>
     <row r="970">
       <c r="A970" s="14"/>
-      <c r="D970" s="50"/>
+      <c r="D970" s="49"/>
     </row>
     <row r="971">
       <c r="A971" s="14"/>
-      <c r="D971" s="50"/>
+      <c r="D971" s="49"/>
     </row>
     <row r="972">
       <c r="A972" s="14"/>
-      <c r="D972" s="50"/>
+      <c r="D972" s="49"/>
     </row>
     <row r="973">
       <c r="A973" s="14"/>
-      <c r="D973" s="50"/>
+      <c r="D973" s="49"/>
     </row>
     <row r="974">
       <c r="A974" s="14"/>
-      <c r="D974" s="50"/>
+      <c r="D974" s="49"/>
     </row>
     <row r="975">
       <c r="A975" s="14"/>
-      <c r="D975" s="50"/>
+      <c r="D975" s="49"/>
     </row>
     <row r="976">
       <c r="A976" s="14"/>
-      <c r="D976" s="50"/>
+      <c r="D976" s="49"/>
     </row>
     <row r="977">
       <c r="A977" s="14"/>
-      <c r="D977" s="50"/>
+      <c r="D977" s="49"/>
     </row>
     <row r="978">
       <c r="A978" s="14"/>
-      <c r="D978" s="50"/>
+      <c r="D978" s="49"/>
     </row>
     <row r="979">
       <c r="A979" s="14"/>
-      <c r="D979" s="50"/>
+      <c r="D979" s="49"/>
     </row>
     <row r="980">
       <c r="A980" s="14"/>
-      <c r="D980" s="50"/>
+      <c r="D980" s="49"/>
     </row>
     <row r="981">
       <c r="A981" s="14"/>
-      <c r="D981" s="50"/>
+      <c r="D981" s="49"/>
     </row>
     <row r="982">
       <c r="A982" s="14"/>
-      <c r="D982" s="50"/>
+      <c r="D982" s="49"/>
     </row>
     <row r="983">
       <c r="A983" s="14"/>
-      <c r="D983" s="50"/>
+      <c r="D983" s="49"/>
     </row>
     <row r="984">
       <c r="A984" s="14"/>
-      <c r="D984" s="50"/>
+      <c r="D984" s="49"/>
     </row>
     <row r="985">
       <c r="A985" s="14"/>
-      <c r="D985" s="50"/>
+      <c r="D985" s="49"/>
     </row>
     <row r="986">
       <c r="A986" s="14"/>
-      <c r="D986" s="50"/>
+      <c r="D986" s="49"/>
     </row>
     <row r="987">
       <c r="A987" s="14"/>
-      <c r="D987" s="50"/>
+      <c r="D987" s="49"/>
     </row>
     <row r="988">
       <c r="A988" s="14"/>
-      <c r="D988" s="50"/>
+      <c r="D988" s="49"/>
     </row>
     <row r="989">
       <c r="A989" s="14"/>
-      <c r="D989" s="50"/>
+      <c r="D989" s="49"/>
     </row>
     <row r="990">
       <c r="A990" s="14"/>
-      <c r="D990" s="50"/>
+      <c r="D990" s="49"/>
     </row>
     <row r="991">
       <c r="A991" s="14"/>
-      <c r="D991" s="50"/>
+      <c r="D991" s="49"/>
     </row>
     <row r="992">
       <c r="A992" s="14"/>
-      <c r="D992" s="50"/>
+      <c r="D992" s="49"/>
     </row>
     <row r="993">
       <c r="A993" s="14"/>
-      <c r="D993" s="50"/>
+      <c r="D993" s="49"/>
     </row>
     <row r="994">
       <c r="A994" s="14"/>
-      <c r="D994" s="50"/>
+      <c r="D994" s="49"/>
     </row>
     <row r="995">
       <c r="A995" s="14"/>
-      <c r="D995" s="50"/>
+      <c r="D995" s="49"/>
     </row>
     <row r="996">
       <c r="A996" s="14"/>
-      <c r="D996" s="50"/>
+      <c r="D996" s="49"/>
     </row>
     <row r="997">
-      <c r="D997" s="50"/>
+      <c r="D997" s="49"/>
     </row>
     <row r="998">
-      <c r="D998" s="50"/>
+      <c r="D998" s="49"/>
     </row>
     <row r="999">
-      <c r="D999" s="50"/>
+      <c r="D999" s="49"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="50"/>
+      <c r="D1000" s="49"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -1198,12 +1198,14 @@
       <c r="W6" s="12">
         <v>36.0</v>
       </c>
-      <c r="X6" s="14"/>
+      <c r="X6" s="13">
+        <v>34.0</v>
+      </c>
       <c r="Y6" s="15"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>546</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7">
@@ -1387,12 +1389,14 @@
       <c r="W9" s="12">
         <v>33.0</v>
       </c>
-      <c r="X9" s="14"/>
+      <c r="X9" s="13">
+        <v>33.0</v>
+      </c>
       <c r="Y9" s="15"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="14">
         <f t="shared" si="1"/>
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10">
@@ -1450,12 +1454,14 @@
       <c r="W10" s="12">
         <v>32.0</v>
       </c>
-      <c r="X10" s="14"/>
+      <c r="X10" s="13">
+        <v>35.0</v>
+      </c>
       <c r="Y10" s="15"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11">
@@ -1493,12 +1499,14 @@
       <c r="W11" s="12">
         <v>36.0</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="13">
+        <v>37.0</v>
+      </c>
       <c r="Y11" s="15"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>171</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
@@ -1556,12 +1564,14 @@
       <c r="W12" s="12">
         <v>38.0</v>
       </c>
-      <c r="X12" s="14"/>
+      <c r="X12" s="13">
+        <v>35.0</v>
+      </c>
       <c r="Y12" s="15"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13">
@@ -1674,12 +1684,14 @@
       <c r="W14" s="12">
         <v>31.0</v>
       </c>
-      <c r="X14" s="14"/>
+      <c r="X14" s="13">
+        <v>35.0</v>
+      </c>
       <c r="Y14" s="15"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>414</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15">
@@ -1723,12 +1735,14 @@
       <c r="W15" s="12">
         <v>31.0</v>
       </c>
-      <c r="X15" s="14"/>
+      <c r="X15" s="13">
+        <v>33.0</v>
+      </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16">
@@ -1784,12 +1798,14 @@
       <c r="W16" s="12">
         <v>24.0</v>
       </c>
-      <c r="X16" s="14"/>
+      <c r="X16" s="13">
+        <v>29.0</v>
+      </c>
       <c r="Y16" s="15"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17">
@@ -1855,12 +1871,14 @@
       <c r="W17" s="12">
         <v>33.0</v>
       </c>
-      <c r="X17" s="14"/>
+      <c r="X17" s="13">
+        <v>26.0</v>
+      </c>
       <c r="Y17" s="15"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>621</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18">
@@ -1924,12 +1942,14 @@
       <c r="W18" s="12">
         <v>32.0</v>
       </c>
-      <c r="X18" s="14"/>
+      <c r="X18" s="13">
+        <v>22.0</v>
+      </c>
       <c r="Y18" s="15"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>567</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19">
@@ -1979,12 +1999,14 @@
         <v>34.0</v>
       </c>
       <c r="W19" s="15"/>
-      <c r="X19" s="14"/>
+      <c r="X19" s="13">
+        <v>35.0</v>
+      </c>
       <c r="Y19" s="15"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20">
@@ -2160,12 +2182,14 @@
       <c r="W22" s="12">
         <v>37.0</v>
       </c>
-      <c r="X22" s="14"/>
+      <c r="X22" s="13">
+        <v>37.0</v>
+      </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>513</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -2261,7 +2285,9 @@
       <c r="W24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="X24" s="21"/>
+      <c r="X24" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="22"/>
@@ -2333,7 +2359,9 @@
       <c r="W25" s="24">
         <v>38.0</v>
       </c>
-      <c r="X25" s="24"/>
+      <c r="X25" s="24">
+        <v>37.0</v>
+      </c>
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
       <c r="AA25" s="14"/>
@@ -8009,7 +8037,9 @@
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="C23" s="43" t="s">
         <v>111</v>
       </c>
@@ -13367,11 +13397,11 @@
       </c>
       <c r="B23" s="48" t="str">
         <f>'SUNDAY SINGLES'!X24</f>
-        <v/>
-      </c>
-      <c r="C23" s="48" t="str">
+        <v>ANDY THOMPSON</v>
+      </c>
+      <c r="C23" s="48">
         <f>'SUNDAY SINGLES'!X25</f>
-        <v/>
+        <v>37</v>
       </c>
       <c r="D23" s="49" t="str">
         <f>'THURSDAY SINGLES'!X20</f>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -2670,11 +2670,13 @@
       <c r="X6" s="13">
         <v>36.0</v>
       </c>
-      <c r="Y6" s="15"/>
+      <c r="Y6" s="12">
+        <v>37.0</v>
+      </c>
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>596</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7">
@@ -2735,11 +2737,13 @@
         <v>39.0</v>
       </c>
       <c r="X7" s="14"/>
-      <c r="Y7" s="15"/>
+      <c r="Y7" s="12">
+        <v>32.0</v>
+      </c>
       <c r="Z7" s="16"/>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8">
@@ -2804,11 +2808,13 @@
       <c r="X8" s="13">
         <v>37.0</v>
       </c>
-      <c r="Y8" s="15"/>
+      <c r="Y8" s="12">
+        <v>35.0</v>
+      </c>
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9">
@@ -2934,11 +2940,13 @@
       <c r="X10" s="13">
         <v>31.0</v>
       </c>
-      <c r="Y10" s="15"/>
+      <c r="Y10" s="12">
+        <v>30.0</v>
+      </c>
       <c r="Z10" s="16"/>
       <c r="AA10" s="14">
         <f t="shared" si="1"/>
-        <v>536</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11">
@@ -2987,11 +2995,13 @@
       <c r="X11" s="13">
         <v>28.0</v>
       </c>
-      <c r="Y11" s="15"/>
+      <c r="Y11" s="12">
+        <v>28.0</v>
+      </c>
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12">
@@ -3056,11 +3066,13 @@
       <c r="X12" s="13">
         <v>28.0</v>
       </c>
-      <c r="Y12" s="15"/>
+      <c r="Y12" s="12">
+        <v>38.0</v>
+      </c>
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>570</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13">
@@ -3115,11 +3127,13 @@
         <v>34.0</v>
       </c>
       <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
+      <c r="Y13" s="12">
+        <v>36.0</v>
+      </c>
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>433</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14">
@@ -3174,11 +3188,13 @@
       <c r="X14" s="13">
         <v>39.0</v>
       </c>
-      <c r="Y14" s="15"/>
+      <c r="Y14" s="12">
+        <v>35.0</v>
+      </c>
       <c r="Z14" s="16"/>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>412</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15">
@@ -3241,11 +3257,13 @@
         <v>30.0</v>
       </c>
       <c r="X15" s="14"/>
-      <c r="Y15" s="15"/>
+      <c r="Y15" s="12">
+        <v>29.0</v>
+      </c>
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16">
@@ -3302,11 +3320,13 @@
       <c r="X16" s="13">
         <v>30.0</v>
       </c>
-      <c r="Y16" s="15"/>
+      <c r="Y16" s="12">
+        <v>36.0</v>
+      </c>
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17">
@@ -3418,11 +3438,13 @@
       <c r="X18" s="12">
         <v>30.0</v>
       </c>
-      <c r="Y18" s="15"/>
+      <c r="Y18" s="12">
+        <v>33.0</v>
+      </c>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>371</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -3521,7 +3543,9 @@
       <c r="X20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="21"/>
+      <c r="Y20" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="Z20" s="21"/>
       <c r="AA20" s="28"/>
     </row>
@@ -3595,7 +3619,9 @@
       <c r="X21" s="24">
         <v>39.0</v>
       </c>
-      <c r="Y21" s="24"/>
+      <c r="Y21" s="24">
+        <v>38.0</v>
+      </c>
       <c r="Z21" s="24"/>
     </row>
   </sheetData>
@@ -3700,10 +3726,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="32">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" s="33">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -3714,7 +3740,7 @@
         <v>20.0</v>
       </c>
       <c r="C9" s="33">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
@@ -3722,10 +3748,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="32">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C10" s="33">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -3736,7 +3762,7 @@
         <v>10.0</v>
       </c>
       <c r="C11" s="33">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -3744,7 +3770,7 @@
         <v>61</v>
       </c>
       <c r="B12" s="32">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C12" s="33">
         <v>15.0</v>
@@ -3777,10 +3803,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="32">
+        <v>30.0</v>
+      </c>
+      <c r="C15" s="33">
         <v>29.0</v>
-      </c>
-      <c r="C15" s="33">
-        <v>28.0</v>
       </c>
     </row>
     <row r="16">
@@ -3835,7 +3861,7 @@
         <v>20.0</v>
       </c>
       <c r="C20" s="33">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
@@ -3846,7 +3872,7 @@
         <v>15.0</v>
       </c>
       <c r="C21" s="33">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="22">
@@ -3876,7 +3902,7 @@
         <v>101</v>
       </c>
       <c r="B24" s="35">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C24" s="36">
         <v>28.0</v>
@@ -8049,7 +8075,9 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="43" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="13">
@@ -13426,11 +13454,11 @@
       </c>
       <c r="D24" s="49" t="str">
         <f>'THURSDAY SINGLES'!Y20</f>
-        <v/>
-      </c>
-      <c r="E24" s="48" t="str">
+        <v>DAVE BARNETT</v>
+      </c>
+      <c r="E24" s="48">
         <f>'THURSDAY SINGLES'!Y21</f>
-        <v/>
+        <v>38</v>
       </c>
     </row>
     <row r="25">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -663,9 +663,6 @@
     </xf>
     <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1201,11 +1198,13 @@
       <c r="X6" s="13">
         <v>34.0</v>
       </c>
-      <c r="Y6" s="15"/>
+      <c r="Y6" s="12">
+        <v>36.0</v>
+      </c>
       <c r="Z6" s="16"/>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>580</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7">
@@ -1333,11 +1332,13 @@
         <v>34.0</v>
       </c>
       <c r="X8" s="14"/>
-      <c r="Y8" s="15"/>
+      <c r="Y8" s="12">
+        <v>34.0</v>
+      </c>
       <c r="Z8" s="16"/>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>591</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9">
@@ -1502,11 +1503,13 @@
       <c r="X11" s="13">
         <v>37.0</v>
       </c>
-      <c r="Y11" s="15"/>
+      <c r="Y11" s="12">
+        <v>32.0</v>
+      </c>
       <c r="Z11" s="16"/>
       <c r="AA11" s="14">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -1567,11 +1570,13 @@
       <c r="X12" s="13">
         <v>35.0</v>
       </c>
-      <c r="Y12" s="15"/>
+      <c r="Y12" s="12">
+        <v>33.0</v>
+      </c>
       <c r="Z12" s="16"/>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>493</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13">
@@ -1626,11 +1631,13 @@
         <v>29.0</v>
       </c>
       <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
+      <c r="Y13" s="12">
+        <v>30.0</v>
+      </c>
       <c r="Z13" s="16"/>
       <c r="AA13" s="14">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14">
@@ -1738,11 +1745,13 @@
       <c r="X15" s="13">
         <v>33.0</v>
       </c>
-      <c r="Y15" s="15"/>
+      <c r="Y15" s="12">
+        <v>37.0</v>
+      </c>
       <c r="Z15" s="16"/>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16">
@@ -1801,11 +1810,13 @@
       <c r="X16" s="13">
         <v>29.0</v>
       </c>
-      <c r="Y16" s="15"/>
+      <c r="Y16" s="12">
+        <v>26.0</v>
+      </c>
       <c r="Z16" s="16"/>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>444</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17">
@@ -1874,11 +1885,13 @@
       <c r="X17" s="13">
         <v>26.0</v>
       </c>
-      <c r="Y17" s="15"/>
+      <c r="Y17" s="12">
+        <v>34.0</v>
+      </c>
       <c r="Z17" s="16"/>
       <c r="AA17" s="14">
         <f t="shared" si="1"/>
-        <v>647</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18">
@@ -1945,11 +1958,13 @@
       <c r="X18" s="13">
         <v>22.0</v>
       </c>
-      <c r="Y18" s="15"/>
+      <c r="Y18" s="12">
+        <v>21.0</v>
+      </c>
       <c r="Z18" s="16"/>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19">
@@ -2002,11 +2017,13 @@
       <c r="X19" s="13">
         <v>35.0</v>
       </c>
-      <c r="Y19" s="15"/>
+      <c r="Y19" s="12">
+        <v>34.0</v>
+      </c>
       <c r="Z19" s="16"/>
       <c r="AA19" s="14">
         <f t="shared" si="1"/>
-        <v>376</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20">
@@ -2065,11 +2082,13 @@
         <v>38.0</v>
       </c>
       <c r="X20" s="14"/>
-      <c r="Y20" s="15"/>
+      <c r="Y20" s="12">
+        <v>28.0</v>
+      </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>519</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21">
@@ -2185,11 +2204,13 @@
       <c r="X22" s="13">
         <v>37.0</v>
       </c>
-      <c r="Y22" s="15"/>
+      <c r="Y22" s="12">
+        <v>32.0</v>
+      </c>
       <c r="Z22" s="16"/>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
@@ -2288,7 +2309,9 @@
       <c r="X24" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Y24" s="21"/>
+      <c r="Y24" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="22"/>
     </row>
@@ -2362,7 +2385,9 @@
       <c r="X25" s="24">
         <v>37.0</v>
       </c>
-      <c r="Y25" s="24"/>
+      <c r="Y25" s="24">
+        <v>37.0</v>
+      </c>
       <c r="Z25" s="24"/>
       <c r="AA25" s="14"/>
     </row>
@@ -8074,7 +8099,9 @@
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" s="43" t="s">
         <v>101</v>
       </c>
@@ -8083,8 +8110,8 @@
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
@@ -12971,7 +12998,7 @@
       <c r="C1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>115</v>
       </c>
       <c r="E1" s="23" t="s">
@@ -12982,19 +13009,19 @@
       <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="47" t="str">
         <f>'SUNDAY SINGLES'!C24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <f>'SUNDAY SINGLES'!C25</f>
         <v>35</v>
       </c>
-      <c r="D2" s="49" t="str">
+      <c r="D2" s="48" t="str">
         <f>'THURSDAY SINGLES'!C20</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <f>'THURSDAY SINGLES'!C21</f>
         <v>40</v>
       </c>
@@ -13003,19 +13030,19 @@
       <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="47" t="str">
         <f>'SUNDAY SINGLES'!D24</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <f>'SUNDAY SINGLES'!D25</f>
         <v>43</v>
       </c>
-      <c r="D3" s="49" t="str">
+      <c r="D3" s="48" t="str">
         <f>'THURSDAY SINGLES'!D20</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <f>'THURSDAY SINGLES'!D21</f>
         <v>36</v>
       </c>
@@ -13024,19 +13051,19 @@
       <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="48" t="str">
+      <c r="B4" s="47" t="str">
         <f>'SUNDAY SINGLES'!E24</f>
         <v>CHRIS DUFFY</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <f>'SUNDAY SINGLES'!E25</f>
         <v>37</v>
       </c>
-      <c r="D4" s="49" t="str">
+      <c r="D4" s="48" t="str">
         <f>'THURSDAY SINGLES'!E20</f>
         <v>MARTIN BROCK</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <f>'THURSDAY SINGLES'!E21</f>
         <v>37</v>
       </c>
@@ -13045,19 +13072,19 @@
       <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="47" t="str">
         <f>'SUNDAY SINGLES'!F24</f>
         <v>MAL JONES</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <f>'SUNDAY SINGLES'!F25</f>
         <v>37</v>
       </c>
-      <c r="D5" s="49" t="str">
+      <c r="D5" s="48" t="str">
         <f>'THURSDAY SINGLES'!F20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <f>'THURSDAY SINGLES'!F21</f>
         <v>38</v>
       </c>
@@ -13066,19 +13093,19 @@
       <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="47" t="str">
         <f>'SUNDAY SINGLES'!G24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <f>'SUNDAY SINGLES'!G25</f>
         <v>42</v>
       </c>
-      <c r="D6" s="49" t="str">
+      <c r="D6" s="48" t="str">
         <f>'THURSDAY SINGLES'!G20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <f>'THURSDAY SINGLES'!G21</f>
         <v>38</v>
       </c>
@@ -13087,19 +13114,19 @@
       <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="48" t="str">
+      <c r="B7" s="47" t="str">
         <f>'SUNDAY SINGLES'!H24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <f>'SUNDAY SINGLES'!H25</f>
         <v>35</v>
       </c>
-      <c r="D7" s="49" t="str">
+      <c r="D7" s="48" t="str">
         <f>'THURSDAY SINGLES'!H20</f>
         <v>BAZ MASON</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <f>'THURSDAY SINGLES'!H21</f>
         <v>37</v>
       </c>
@@ -13108,19 +13135,19 @@
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="48" t="str">
+      <c r="B8" s="47" t="str">
         <f>'SUNDAY SINGLES'!I24</f>
         <v>SCOTT LEONARDE</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <f>'SUNDAY SINGLES'!I25</f>
         <v>34</v>
       </c>
-      <c r="D8" s="49" t="str">
+      <c r="D8" s="48" t="str">
         <f>'THURSDAY SINGLES'!I20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <f>'THURSDAY SINGLES'!I$21</f>
         <v>42</v>
       </c>
@@ -13129,19 +13156,19 @@
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="48" t="str">
+      <c r="B9" s="47" t="str">
         <f>'SUNDAY SINGLES'!J24</f>
         <v>FRED HOLINGWORTH</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <f>'SUNDAY SINGLES'!J25</f>
         <v>35</v>
       </c>
-      <c r="D9" s="49" t="str">
+      <c r="D9" s="48" t="str">
         <f>'THURSDAY SINGLES'!J20</f>
         <v>JOHN KING</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="47">
         <f>'THURSDAY SINGLES'!J$21</f>
         <v>32</v>
       </c>
@@ -13150,19 +13177,19 @@
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="48" t="str">
+      <c r="B10" s="47" t="str">
         <f>'SUNDAY SINGLES'!K24</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <f>'SUNDAY SINGLES'!K25</f>
         <v>39</v>
       </c>
-      <c r="D10" s="49" t="str">
+      <c r="D10" s="48" t="str">
         <f>'THURSDAY SINGLES'!K20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <f>'THURSDAY SINGLES'!K$21</f>
         <v>30</v>
       </c>
@@ -13171,19 +13198,19 @@
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="48" t="str">
+      <c r="B11" s="47" t="str">
         <f>'SUNDAY SINGLES'!L24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <f>'SUNDAY SINGLES'!L25</f>
         <v>39</v>
       </c>
-      <c r="D11" s="49" t="str">
+      <c r="D11" s="48" t="str">
         <f>'THURSDAY SINGLES'!L20</f>
         <v>MAL JONES</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <f>'THURSDAY SINGLES'!L$21</f>
         <v>34</v>
       </c>
@@ -13192,19 +13219,19 @@
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="48" t="str">
+      <c r="B12" s="47" t="str">
         <f>'SUNDAY SINGLES'!M24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <f>'SUNDAY SINGLES'!M25</f>
         <v>41</v>
       </c>
-      <c r="D12" s="49" t="str">
+      <c r="D12" s="48" t="str">
         <f>'THURSDAY SINGLES'!M20</f>
         <v>LES DOBBINS</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="47">
         <f>'THURSDAY SINGLES'!M21</f>
         <v>35</v>
       </c>
@@ -13213,19 +13240,19 @@
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="48" t="str">
+      <c r="B13" s="47" t="str">
         <f>'SUNDAY SINGLES'!N24</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <f>'SUNDAY SINGLES'!N25</f>
         <v>39</v>
       </c>
-      <c r="D13" s="49" t="str">
+      <c r="D13" s="48" t="str">
         <f>'THURSDAY SINGLES'!N20</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="47">
         <f>'THURSDAY SINGLES'!N$21</f>
         <v>41</v>
       </c>
@@ -13234,19 +13261,19 @@
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="48" t="str">
+      <c r="B14" s="47" t="str">
         <f>'SUNDAY SINGLES'!O24</f>
         <v>FRED HOLLINGWORTH</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="47">
         <f>'SUNDAY SINGLES'!O25</f>
         <v>41</v>
       </c>
-      <c r="D14" s="49" t="str">
+      <c r="D14" s="48" t="str">
         <f>'THURSDAY SINGLES'!O20</f>
         <v>BAZ MASON</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="47">
         <f>'THURSDAY SINGLES'!O21</f>
         <v>42</v>
       </c>
@@ -13255,19 +13282,19 @@
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="48" t="str">
+      <c r="B15" s="47" t="str">
         <f>'SUNDAY SINGLES'!P24</f>
         <v>STEVE FELLOWS</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="47">
         <f>'SUNDAY SINGLES'!P25</f>
         <v>39</v>
       </c>
-      <c r="D15" s="49" t="str">
+      <c r="D15" s="48" t="str">
         <f>'THURSDAY SINGLES'!P20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="47">
         <f>'THURSDAY SINGLES'!P21</f>
         <v>40</v>
       </c>
@@ -13276,19 +13303,19 @@
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="48" t="str">
+      <c r="B16" s="47" t="str">
         <f>'SUNDAY SINGLES'!Q24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="47">
         <f>'SUNDAY SINGLES'!Q25</f>
         <v>37</v>
       </c>
-      <c r="D16" s="49" t="str">
+      <c r="D16" s="48" t="str">
         <f>'THURSDAY SINGLES'!Q20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="47">
         <f>'THURSDAY SINGLES'!Q21</f>
         <v>39</v>
       </c>
@@ -13297,19 +13324,19 @@
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="48" t="str">
+      <c r="B17" s="47" t="str">
         <f>'SUNDAY SINGLES'!R24</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="47">
         <f>'SUNDAY SINGLES'!R25</f>
         <v>39</v>
       </c>
-      <c r="D17" s="49" t="str">
+      <c r="D17" s="48" t="str">
         <f>'THURSDAY SINGLES'!R20</f>
         <v>MARTIN BROCK</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <f>'THURSDAY SINGLES'!R21</f>
         <v>39</v>
       </c>
@@ -13318,19 +13345,19 @@
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="48" t="str">
+      <c r="B18" s="47" t="str">
         <f>'SUNDAY SINGLES'!S24</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <f>'SUNDAY SINGLES'!S25</f>
         <v>39</v>
       </c>
-      <c r="D18" s="49" t="str">
+      <c r="D18" s="48" t="str">
         <f>'THURSDAY SINGLES'!S20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="47">
         <f>'THURSDAY SINGLES'!S21</f>
         <v>40</v>
       </c>
@@ -13339,19 +13366,19 @@
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="48" t="str">
+      <c r="B19" s="47" t="str">
         <f>'SUNDAY SINGLES'!T24</f>
         <v>HELEN RIGG</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <f>'SUNDAY SINGLES'!T25</f>
         <v>44</v>
       </c>
-      <c r="D19" s="49" t="str">
+      <c r="D19" s="48" t="str">
         <f>'THURSDAY SINGLES'!T20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="47">
         <f>'THURSDAY SINGLES'!T21</f>
         <v>38</v>
       </c>
@@ -13360,19 +13387,19 @@
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="48" t="str">
+      <c r="B20" s="47" t="str">
         <f>'SUNDAY SINGLES'!U24</f>
         <v>HELEN RIGG</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="47">
         <f>'SUNDAY SINGLES'!U25</f>
         <v>47</v>
       </c>
-      <c r="D20" s="49" t="str">
+      <c r="D20" s="48" t="str">
         <f>'THURSDAY SINGLES'!U20</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="47">
         <f>'THURSDAY SINGLES'!U21</f>
         <v>39</v>
       </c>
@@ -13381,19 +13408,19 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="48" t="str">
+      <c r="B21" s="47" t="str">
         <f>'SUNDAY SINGLES'!V24</f>
         <v>STEVE FELLOWS</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="47">
         <f>'SUNDAY SINGLES'!V25</f>
         <v>38</v>
       </c>
-      <c r="D21" s="49" t="str">
+      <c r="D21" s="48" t="str">
         <f>'THURSDAY SINGLES'!V20</f>
         <v>SIMON EDWARDS</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="47">
         <f>'THURSDAY SINGLES'!V21</f>
         <v>39</v>
       </c>
@@ -13402,19 +13429,19 @@
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="48" t="str">
+      <c r="B22" s="47" t="str">
         <f>'SUNDAY SINGLES'!W24</f>
         <v>FRED HOLLINGWORTH</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="47">
         <f>'SUNDAY SINGLES'!W25</f>
         <v>38</v>
       </c>
-      <c r="D22" s="49" t="str">
+      <c r="D22" s="48" t="str">
         <f>'THURSDAY SINGLES'!W20</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="47">
         <f>'THURSDAY SINGLES'!W21</f>
         <v>42</v>
       </c>
@@ -13423,19 +13450,19 @@
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="48" t="str">
+      <c r="B23" s="47" t="str">
         <f>'SUNDAY SINGLES'!X24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="47">
         <f>'SUNDAY SINGLES'!X25</f>
         <v>37</v>
       </c>
-      <c r="D23" s="49" t="str">
+      <c r="D23" s="48" t="str">
         <f>'THURSDAY SINGLES'!X20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="47">
         <f>'THURSDAY SINGLES'!X21</f>
         <v>39</v>
       </c>
@@ -13444,19 +13471,19 @@
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="48" t="str">
+      <c r="B24" s="47" t="str">
         <f>'SUNDAY SINGLES'!Y24</f>
-        <v/>
-      </c>
-      <c r="C24" s="48" t="str">
+        <v>ADY STEANE</v>
+      </c>
+      <c r="C24" s="47">
         <f>'SUNDAY SINGLES'!Y25</f>
-        <v/>
-      </c>
-      <c r="D24" s="49" t="str">
+        <v>37</v>
+      </c>
+      <c r="D24" s="48" t="str">
         <f>'THURSDAY SINGLES'!Y20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="47">
         <f>'THURSDAY SINGLES'!Y21</f>
         <v>38</v>
       </c>
@@ -13465,3918 +13492,3918 @@
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="48" t="str">
+      <c r="B25" s="47" t="str">
         <f>'SUNDAY SINGLES'!Z24</f>
         <v/>
       </c>
-      <c r="C25" s="48" t="str">
+      <c r="C25" s="47" t="str">
         <f>'SUNDAY SINGLES'!Z25</f>
         <v/>
       </c>
-      <c r="D25" s="49" t="str">
+      <c r="D25" s="48" t="str">
         <f>'THURSDAY SINGLES'!Z20</f>
         <v/>
       </c>
-      <c r="E25" s="48" t="str">
+      <c r="E25" s="47" t="str">
         <f>'THURSDAY SINGLES'!Z21</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27">
       <c r="A27" s="14"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28">
       <c r="A28" s="14"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29">
       <c r="A29" s="14"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="48"/>
     </row>
     <row r="30">
       <c r="A30" s="14"/>
-      <c r="D30" s="49"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31">
       <c r="A31" s="14"/>
-      <c r="D31" s="49"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32">
       <c r="A32" s="14"/>
-      <c r="D32" s="49"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33">
       <c r="A33" s="14"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34">
       <c r="A34" s="14"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35">
       <c r="A35" s="14"/>
-      <c r="D35" s="49"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36">
       <c r="A36" s="14"/>
-      <c r="D36" s="49"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37">
       <c r="A37" s="14"/>
-      <c r="D37" s="49"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38">
       <c r="A38" s="14"/>
-      <c r="D38" s="49"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39">
       <c r="A39" s="14"/>
-      <c r="D39" s="49"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40">
       <c r="A40" s="14"/>
-      <c r="D40" s="49"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41">
       <c r="A41" s="14"/>
-      <c r="D41" s="49"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42">
       <c r="A42" s="14"/>
-      <c r="D42" s="49"/>
+      <c r="D42" s="48"/>
     </row>
     <row r="43">
       <c r="A43" s="14"/>
-      <c r="D43" s="49"/>
+      <c r="D43" s="48"/>
     </row>
     <row r="44">
       <c r="A44" s="14"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="48"/>
     </row>
     <row r="45">
       <c r="A45" s="14"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="48"/>
     </row>
     <row r="46">
       <c r="A46" s="14"/>
-      <c r="D46" s="49"/>
+      <c r="D46" s="48"/>
     </row>
     <row r="47">
       <c r="A47" s="14"/>
-      <c r="D47" s="49"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48">
       <c r="A48" s="14"/>
-      <c r="D48" s="49"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49">
       <c r="A49" s="14"/>
-      <c r="D49" s="49"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50">
       <c r="A50" s="14"/>
-      <c r="D50" s="49"/>
+      <c r="D50" s="48"/>
     </row>
     <row r="51">
       <c r="A51" s="14"/>
-      <c r="D51" s="49"/>
+      <c r="D51" s="48"/>
     </row>
     <row r="52">
       <c r="A52" s="14"/>
-      <c r="D52" s="49"/>
+      <c r="D52" s="48"/>
     </row>
     <row r="53">
       <c r="A53" s="14"/>
-      <c r="D53" s="49"/>
+      <c r="D53" s="48"/>
     </row>
     <row r="54">
       <c r="A54" s="14"/>
-      <c r="D54" s="49"/>
+      <c r="D54" s="48"/>
     </row>
     <row r="55">
       <c r="A55" s="14"/>
-      <c r="D55" s="49"/>
+      <c r="D55" s="48"/>
     </row>
     <row r="56">
       <c r="A56" s="14"/>
-      <c r="D56" s="49"/>
+      <c r="D56" s="48"/>
     </row>
     <row r="57">
       <c r="A57" s="14"/>
-      <c r="D57" s="49"/>
+      <c r="D57" s="48"/>
     </row>
     <row r="58">
       <c r="A58" s="14"/>
-      <c r="D58" s="49"/>
+      <c r="D58" s="48"/>
     </row>
     <row r="59">
       <c r="A59" s="14"/>
-      <c r="D59" s="49"/>
+      <c r="D59" s="48"/>
     </row>
     <row r="60">
       <c r="A60" s="14"/>
-      <c r="D60" s="49"/>
+      <c r="D60" s="48"/>
     </row>
     <row r="61">
       <c r="A61" s="14"/>
-      <c r="D61" s="49"/>
+      <c r="D61" s="48"/>
     </row>
     <row r="62">
       <c r="A62" s="14"/>
-      <c r="D62" s="49"/>
+      <c r="D62" s="48"/>
     </row>
     <row r="63">
       <c r="A63" s="14"/>
-      <c r="D63" s="49"/>
+      <c r="D63" s="48"/>
     </row>
     <row r="64">
       <c r="A64" s="14"/>
-      <c r="D64" s="49"/>
+      <c r="D64" s="48"/>
     </row>
     <row r="65">
       <c r="A65" s="14"/>
-      <c r="D65" s="49"/>
+      <c r="D65" s="48"/>
     </row>
     <row r="66">
       <c r="A66" s="14"/>
-      <c r="D66" s="49"/>
+      <c r="D66" s="48"/>
     </row>
     <row r="67">
       <c r="A67" s="14"/>
-      <c r="D67" s="49"/>
+      <c r="D67" s="48"/>
     </row>
     <row r="68">
       <c r="A68" s="14"/>
-      <c r="D68" s="49"/>
+      <c r="D68" s="48"/>
     </row>
     <row r="69">
       <c r="A69" s="14"/>
-      <c r="D69" s="49"/>
+      <c r="D69" s="48"/>
     </row>
     <row r="70">
       <c r="A70" s="14"/>
-      <c r="D70" s="49"/>
+      <c r="D70" s="48"/>
     </row>
     <row r="71">
       <c r="A71" s="14"/>
-      <c r="D71" s="49"/>
+      <c r="D71" s="48"/>
     </row>
     <row r="72">
       <c r="A72" s="14"/>
-      <c r="D72" s="49"/>
+      <c r="D72" s="48"/>
     </row>
     <row r="73">
       <c r="A73" s="14"/>
-      <c r="D73" s="49"/>
+      <c r="D73" s="48"/>
     </row>
     <row r="74">
       <c r="A74" s="14"/>
-      <c r="D74" s="49"/>
+      <c r="D74" s="48"/>
     </row>
     <row r="75">
       <c r="A75" s="14"/>
-      <c r="D75" s="49"/>
+      <c r="D75" s="48"/>
     </row>
     <row r="76">
       <c r="A76" s="14"/>
-      <c r="D76" s="49"/>
+      <c r="D76" s="48"/>
     </row>
     <row r="77">
       <c r="A77" s="14"/>
-      <c r="D77" s="49"/>
+      <c r="D77" s="48"/>
     </row>
     <row r="78">
       <c r="A78" s="14"/>
-      <c r="D78" s="49"/>
+      <c r="D78" s="48"/>
     </row>
     <row r="79">
       <c r="A79" s="14"/>
-      <c r="D79" s="49"/>
+      <c r="D79" s="48"/>
     </row>
     <row r="80">
       <c r="A80" s="14"/>
-      <c r="D80" s="49"/>
+      <c r="D80" s="48"/>
     </row>
     <row r="81">
       <c r="A81" s="14"/>
-      <c r="D81" s="49"/>
+      <c r="D81" s="48"/>
     </row>
     <row r="82">
       <c r="A82" s="14"/>
-      <c r="D82" s="49"/>
+      <c r="D82" s="48"/>
     </row>
     <row r="83">
       <c r="A83" s="14"/>
-      <c r="D83" s="49"/>
+      <c r="D83" s="48"/>
     </row>
     <row r="84">
       <c r="A84" s="14"/>
-      <c r="D84" s="49"/>
+      <c r="D84" s="48"/>
     </row>
     <row r="85">
       <c r="A85" s="14"/>
-      <c r="D85" s="49"/>
+      <c r="D85" s="48"/>
     </row>
     <row r="86">
       <c r="A86" s="14"/>
-      <c r="D86" s="49"/>
+      <c r="D86" s="48"/>
     </row>
     <row r="87">
       <c r="A87" s="14"/>
-      <c r="D87" s="49"/>
+      <c r="D87" s="48"/>
     </row>
     <row r="88">
       <c r="A88" s="14"/>
-      <c r="D88" s="49"/>
+      <c r="D88" s="48"/>
     </row>
     <row r="89">
       <c r="A89" s="14"/>
-      <c r="D89" s="49"/>
+      <c r="D89" s="48"/>
     </row>
     <row r="90">
       <c r="A90" s="14"/>
-      <c r="D90" s="49"/>
+      <c r="D90" s="48"/>
     </row>
     <row r="91">
       <c r="A91" s="14"/>
-      <c r="D91" s="49"/>
+      <c r="D91" s="48"/>
     </row>
     <row r="92">
       <c r="A92" s="14"/>
-      <c r="D92" s="49"/>
+      <c r="D92" s="48"/>
     </row>
     <row r="93">
       <c r="A93" s="14"/>
-      <c r="D93" s="49"/>
+      <c r="D93" s="48"/>
     </row>
     <row r="94">
       <c r="A94" s="14"/>
-      <c r="D94" s="49"/>
+      <c r="D94" s="48"/>
     </row>
     <row r="95">
       <c r="A95" s="14"/>
-      <c r="D95" s="49"/>
+      <c r="D95" s="48"/>
     </row>
     <row r="96">
       <c r="A96" s="14"/>
-      <c r="D96" s="49"/>
+      <c r="D96" s="48"/>
     </row>
     <row r="97">
       <c r="A97" s="14"/>
-      <c r="D97" s="49"/>
+      <c r="D97" s="48"/>
     </row>
     <row r="98">
       <c r="A98" s="14"/>
-      <c r="D98" s="49"/>
+      <c r="D98" s="48"/>
     </row>
     <row r="99">
       <c r="A99" s="14"/>
-      <c r="D99" s="49"/>
+      <c r="D99" s="48"/>
     </row>
     <row r="100">
       <c r="A100" s="14"/>
-      <c r="D100" s="49"/>
+      <c r="D100" s="48"/>
     </row>
     <row r="101">
       <c r="A101" s="14"/>
-      <c r="D101" s="49"/>
+      <c r="D101" s="48"/>
     </row>
     <row r="102">
       <c r="A102" s="14"/>
-      <c r="D102" s="49"/>
+      <c r="D102" s="48"/>
     </row>
     <row r="103">
       <c r="A103" s="14"/>
-      <c r="D103" s="49"/>
+      <c r="D103" s="48"/>
     </row>
     <row r="104">
       <c r="A104" s="14"/>
-      <c r="D104" s="49"/>
+      <c r="D104" s="48"/>
     </row>
     <row r="105">
       <c r="A105" s="14"/>
-      <c r="D105" s="49"/>
+      <c r="D105" s="48"/>
     </row>
     <row r="106">
       <c r="A106" s="14"/>
-      <c r="D106" s="49"/>
+      <c r="D106" s="48"/>
     </row>
     <row r="107">
       <c r="A107" s="14"/>
-      <c r="D107" s="49"/>
+      <c r="D107" s="48"/>
     </row>
     <row r="108">
       <c r="A108" s="14"/>
-      <c r="D108" s="49"/>
+      <c r="D108" s="48"/>
     </row>
     <row r="109">
       <c r="A109" s="14"/>
-      <c r="D109" s="49"/>
+      <c r="D109" s="48"/>
     </row>
     <row r="110">
       <c r="A110" s="14"/>
-      <c r="D110" s="49"/>
+      <c r="D110" s="48"/>
     </row>
     <row r="111">
       <c r="A111" s="14"/>
-      <c r="D111" s="49"/>
+      <c r="D111" s="48"/>
     </row>
     <row r="112">
       <c r="A112" s="14"/>
-      <c r="D112" s="49"/>
+      <c r="D112" s="48"/>
     </row>
     <row r="113">
       <c r="A113" s="14"/>
-      <c r="D113" s="49"/>
+      <c r="D113" s="48"/>
     </row>
     <row r="114">
       <c r="A114" s="14"/>
-      <c r="D114" s="49"/>
+      <c r="D114" s="48"/>
     </row>
     <row r="115">
       <c r="A115" s="14"/>
-      <c r="D115" s="49"/>
+      <c r="D115" s="48"/>
     </row>
     <row r="116">
       <c r="A116" s="14"/>
-      <c r="D116" s="49"/>
+      <c r="D116" s="48"/>
     </row>
     <row r="117">
       <c r="A117" s="14"/>
-      <c r="D117" s="49"/>
+      <c r="D117" s="48"/>
     </row>
     <row r="118">
       <c r="A118" s="14"/>
-      <c r="D118" s="49"/>
+      <c r="D118" s="48"/>
     </row>
     <row r="119">
       <c r="A119" s="14"/>
-      <c r="D119" s="49"/>
+      <c r="D119" s="48"/>
     </row>
     <row r="120">
       <c r="A120" s="14"/>
-      <c r="D120" s="49"/>
+      <c r="D120" s="48"/>
     </row>
     <row r="121">
       <c r="A121" s="14"/>
-      <c r="D121" s="49"/>
+      <c r="D121" s="48"/>
     </row>
     <row r="122">
       <c r="A122" s="14"/>
-      <c r="D122" s="49"/>
+      <c r="D122" s="48"/>
     </row>
     <row r="123">
       <c r="A123" s="14"/>
-      <c r="D123" s="49"/>
+      <c r="D123" s="48"/>
     </row>
     <row r="124">
       <c r="A124" s="14"/>
-      <c r="D124" s="49"/>
+      <c r="D124" s="48"/>
     </row>
     <row r="125">
       <c r="A125" s="14"/>
-      <c r="D125" s="49"/>
+      <c r="D125" s="48"/>
     </row>
     <row r="126">
       <c r="A126" s="14"/>
-      <c r="D126" s="49"/>
+      <c r="D126" s="48"/>
     </row>
     <row r="127">
       <c r="A127" s="14"/>
-      <c r="D127" s="49"/>
+      <c r="D127" s="48"/>
     </row>
     <row r="128">
       <c r="A128" s="14"/>
-      <c r="D128" s="49"/>
+      <c r="D128" s="48"/>
     </row>
     <row r="129">
       <c r="A129" s="14"/>
-      <c r="D129" s="49"/>
+      <c r="D129" s="48"/>
     </row>
     <row r="130">
       <c r="A130" s="14"/>
-      <c r="D130" s="49"/>
+      <c r="D130" s="48"/>
     </row>
     <row r="131">
       <c r="A131" s="14"/>
-      <c r="D131" s="49"/>
+      <c r="D131" s="48"/>
     </row>
     <row r="132">
       <c r="A132" s="14"/>
-      <c r="D132" s="49"/>
+      <c r="D132" s="48"/>
     </row>
     <row r="133">
       <c r="A133" s="14"/>
-      <c r="D133" s="49"/>
+      <c r="D133" s="48"/>
     </row>
     <row r="134">
       <c r="A134" s="14"/>
-      <c r="D134" s="49"/>
+      <c r="D134" s="48"/>
     </row>
     <row r="135">
       <c r="A135" s="14"/>
-      <c r="D135" s="49"/>
+      <c r="D135" s="48"/>
     </row>
     <row r="136">
       <c r="A136" s="14"/>
-      <c r="D136" s="49"/>
+      <c r="D136" s="48"/>
     </row>
     <row r="137">
       <c r="A137" s="14"/>
-      <c r="D137" s="49"/>
+      <c r="D137" s="48"/>
     </row>
     <row r="138">
       <c r="A138" s="14"/>
-      <c r="D138" s="49"/>
+      <c r="D138" s="48"/>
     </row>
     <row r="139">
       <c r="A139" s="14"/>
-      <c r="D139" s="49"/>
+      <c r="D139" s="48"/>
     </row>
     <row r="140">
       <c r="A140" s="14"/>
-      <c r="D140" s="49"/>
+      <c r="D140" s="48"/>
     </row>
     <row r="141">
       <c r="A141" s="14"/>
-      <c r="D141" s="49"/>
+      <c r="D141" s="48"/>
     </row>
     <row r="142">
       <c r="A142" s="14"/>
-      <c r="D142" s="49"/>
+      <c r="D142" s="48"/>
     </row>
     <row r="143">
       <c r="A143" s="14"/>
-      <c r="D143" s="49"/>
+      <c r="D143" s="48"/>
     </row>
     <row r="144">
       <c r="A144" s="14"/>
-      <c r="D144" s="49"/>
+      <c r="D144" s="48"/>
     </row>
     <row r="145">
       <c r="A145" s="14"/>
-      <c r="D145" s="49"/>
+      <c r="D145" s="48"/>
     </row>
     <row r="146">
       <c r="A146" s="14"/>
-      <c r="D146" s="49"/>
+      <c r="D146" s="48"/>
     </row>
     <row r="147">
       <c r="A147" s="14"/>
-      <c r="D147" s="49"/>
+      <c r="D147" s="48"/>
     </row>
     <row r="148">
       <c r="A148" s="14"/>
-      <c r="D148" s="49"/>
+      <c r="D148" s="48"/>
     </row>
     <row r="149">
       <c r="A149" s="14"/>
-      <c r="D149" s="49"/>
+      <c r="D149" s="48"/>
     </row>
     <row r="150">
       <c r="A150" s="14"/>
-      <c r="D150" s="49"/>
+      <c r="D150" s="48"/>
     </row>
     <row r="151">
       <c r="A151" s="14"/>
-      <c r="D151" s="49"/>
+      <c r="D151" s="48"/>
     </row>
     <row r="152">
       <c r="A152" s="14"/>
-      <c r="D152" s="49"/>
+      <c r="D152" s="48"/>
     </row>
     <row r="153">
       <c r="A153" s="14"/>
-      <c r="D153" s="49"/>
+      <c r="D153" s="48"/>
     </row>
     <row r="154">
       <c r="A154" s="14"/>
-      <c r="D154" s="49"/>
+      <c r="D154" s="48"/>
     </row>
     <row r="155">
       <c r="A155" s="14"/>
-      <c r="D155" s="49"/>
+      <c r="D155" s="48"/>
     </row>
     <row r="156">
       <c r="A156" s="14"/>
-      <c r="D156" s="49"/>
+      <c r="D156" s="48"/>
     </row>
     <row r="157">
       <c r="A157" s="14"/>
-      <c r="D157" s="49"/>
+      <c r="D157" s="48"/>
     </row>
     <row r="158">
       <c r="A158" s="14"/>
-      <c r="D158" s="49"/>
+      <c r="D158" s="48"/>
     </row>
     <row r="159">
       <c r="A159" s="14"/>
-      <c r="D159" s="49"/>
+      <c r="D159" s="48"/>
     </row>
     <row r="160">
       <c r="A160" s="14"/>
-      <c r="D160" s="49"/>
+      <c r="D160" s="48"/>
     </row>
     <row r="161">
       <c r="A161" s="14"/>
-      <c r="D161" s="49"/>
+      <c r="D161" s="48"/>
     </row>
     <row r="162">
       <c r="A162" s="14"/>
-      <c r="D162" s="49"/>
+      <c r="D162" s="48"/>
     </row>
     <row r="163">
       <c r="A163" s="14"/>
-      <c r="D163" s="49"/>
+      <c r="D163" s="48"/>
     </row>
     <row r="164">
       <c r="A164" s="14"/>
-      <c r="D164" s="49"/>
+      <c r="D164" s="48"/>
     </row>
     <row r="165">
       <c r="A165" s="14"/>
-      <c r="D165" s="49"/>
+      <c r="D165" s="48"/>
     </row>
     <row r="166">
       <c r="A166" s="14"/>
-      <c r="D166" s="49"/>
+      <c r="D166" s="48"/>
     </row>
     <row r="167">
       <c r="A167" s="14"/>
-      <c r="D167" s="49"/>
+      <c r="D167" s="48"/>
     </row>
     <row r="168">
       <c r="A168" s="14"/>
-      <c r="D168" s="49"/>
+      <c r="D168" s="48"/>
     </row>
     <row r="169">
       <c r="A169" s="14"/>
-      <c r="D169" s="49"/>
+      <c r="D169" s="48"/>
     </row>
     <row r="170">
       <c r="A170" s="14"/>
-      <c r="D170" s="49"/>
+      <c r="D170" s="48"/>
     </row>
     <row r="171">
       <c r="A171" s="14"/>
-      <c r="D171" s="49"/>
+      <c r="D171" s="48"/>
     </row>
     <row r="172">
       <c r="A172" s="14"/>
-      <c r="D172" s="49"/>
+      <c r="D172" s="48"/>
     </row>
     <row r="173">
       <c r="A173" s="14"/>
-      <c r="D173" s="49"/>
+      <c r="D173" s="48"/>
     </row>
     <row r="174">
       <c r="A174" s="14"/>
-      <c r="D174" s="49"/>
+      <c r="D174" s="48"/>
     </row>
     <row r="175">
       <c r="A175" s="14"/>
-      <c r="D175" s="49"/>
+      <c r="D175" s="48"/>
     </row>
     <row r="176">
       <c r="A176" s="14"/>
-      <c r="D176" s="49"/>
+      <c r="D176" s="48"/>
     </row>
     <row r="177">
       <c r="A177" s="14"/>
-      <c r="D177" s="49"/>
+      <c r="D177" s="48"/>
     </row>
     <row r="178">
       <c r="A178" s="14"/>
-      <c r="D178" s="49"/>
+      <c r="D178" s="48"/>
     </row>
     <row r="179">
       <c r="A179" s="14"/>
-      <c r="D179" s="49"/>
+      <c r="D179" s="48"/>
     </row>
     <row r="180">
       <c r="A180" s="14"/>
-      <c r="D180" s="49"/>
+      <c r="D180" s="48"/>
     </row>
     <row r="181">
       <c r="A181" s="14"/>
-      <c r="D181" s="49"/>
+      <c r="D181" s="48"/>
     </row>
     <row r="182">
       <c r="A182" s="14"/>
-      <c r="D182" s="49"/>
+      <c r="D182" s="48"/>
     </row>
     <row r="183">
       <c r="A183" s="14"/>
-      <c r="D183" s="49"/>
+      <c r="D183" s="48"/>
     </row>
     <row r="184">
       <c r="A184" s="14"/>
-      <c r="D184" s="49"/>
+      <c r="D184" s="48"/>
     </row>
     <row r="185">
       <c r="A185" s="14"/>
-      <c r="D185" s="49"/>
+      <c r="D185" s="48"/>
     </row>
     <row r="186">
       <c r="A186" s="14"/>
-      <c r="D186" s="49"/>
+      <c r="D186" s="48"/>
     </row>
     <row r="187">
       <c r="A187" s="14"/>
-      <c r="D187" s="49"/>
+      <c r="D187" s="48"/>
     </row>
     <row r="188">
       <c r="A188" s="14"/>
-      <c r="D188" s="49"/>
+      <c r="D188" s="48"/>
     </row>
     <row r="189">
       <c r="A189" s="14"/>
-      <c r="D189" s="49"/>
+      <c r="D189" s="48"/>
     </row>
     <row r="190">
       <c r="A190" s="14"/>
-      <c r="D190" s="49"/>
+      <c r="D190" s="48"/>
     </row>
     <row r="191">
       <c r="A191" s="14"/>
-      <c r="D191" s="49"/>
+      <c r="D191" s="48"/>
     </row>
     <row r="192">
       <c r="A192" s="14"/>
-      <c r="D192" s="49"/>
+      <c r="D192" s="48"/>
     </row>
     <row r="193">
       <c r="A193" s="14"/>
-      <c r="D193" s="49"/>
+      <c r="D193" s="48"/>
     </row>
     <row r="194">
       <c r="A194" s="14"/>
-      <c r="D194" s="49"/>
+      <c r="D194" s="48"/>
     </row>
     <row r="195">
       <c r="A195" s="14"/>
-      <c r="D195" s="49"/>
+      <c r="D195" s="48"/>
     </row>
     <row r="196">
       <c r="A196" s="14"/>
-      <c r="D196" s="49"/>
+      <c r="D196" s="48"/>
     </row>
     <row r="197">
       <c r="A197" s="14"/>
-      <c r="D197" s="49"/>
+      <c r="D197" s="48"/>
     </row>
     <row r="198">
       <c r="A198" s="14"/>
-      <c r="D198" s="49"/>
+      <c r="D198" s="48"/>
     </row>
     <row r="199">
       <c r="A199" s="14"/>
-      <c r="D199" s="49"/>
+      <c r="D199" s="48"/>
     </row>
     <row r="200">
       <c r="A200" s="14"/>
-      <c r="D200" s="49"/>
+      <c r="D200" s="48"/>
     </row>
     <row r="201">
       <c r="A201" s="14"/>
-      <c r="D201" s="49"/>
+      <c r="D201" s="48"/>
     </row>
     <row r="202">
       <c r="A202" s="14"/>
-      <c r="D202" s="49"/>
+      <c r="D202" s="48"/>
     </row>
     <row r="203">
       <c r="A203" s="14"/>
-      <c r="D203" s="49"/>
+      <c r="D203" s="48"/>
     </row>
     <row r="204">
       <c r="A204" s="14"/>
-      <c r="D204" s="49"/>
+      <c r="D204" s="48"/>
     </row>
     <row r="205">
       <c r="A205" s="14"/>
-      <c r="D205" s="49"/>
+      <c r="D205" s="48"/>
     </row>
     <row r="206">
       <c r="A206" s="14"/>
-      <c r="D206" s="49"/>
+      <c r="D206" s="48"/>
     </row>
     <row r="207">
       <c r="A207" s="14"/>
-      <c r="D207" s="49"/>
+      <c r="D207" s="48"/>
     </row>
     <row r="208">
       <c r="A208" s="14"/>
-      <c r="D208" s="49"/>
+      <c r="D208" s="48"/>
     </row>
     <row r="209">
       <c r="A209" s="14"/>
-      <c r="D209" s="49"/>
+      <c r="D209" s="48"/>
     </row>
     <row r="210">
       <c r="A210" s="14"/>
-      <c r="D210" s="49"/>
+      <c r="D210" s="48"/>
     </row>
     <row r="211">
       <c r="A211" s="14"/>
-      <c r="D211" s="49"/>
+      <c r="D211" s="48"/>
     </row>
     <row r="212">
       <c r="A212" s="14"/>
-      <c r="D212" s="49"/>
+      <c r="D212" s="48"/>
     </row>
     <row r="213">
       <c r="A213" s="14"/>
-      <c r="D213" s="49"/>
+      <c r="D213" s="48"/>
     </row>
     <row r="214">
       <c r="A214" s="14"/>
-      <c r="D214" s="49"/>
+      <c r="D214" s="48"/>
     </row>
     <row r="215">
       <c r="A215" s="14"/>
-      <c r="D215" s="49"/>
+      <c r="D215" s="48"/>
     </row>
     <row r="216">
       <c r="A216" s="14"/>
-      <c r="D216" s="49"/>
+      <c r="D216" s="48"/>
     </row>
     <row r="217">
       <c r="A217" s="14"/>
-      <c r="D217" s="49"/>
+      <c r="D217" s="48"/>
     </row>
     <row r="218">
       <c r="A218" s="14"/>
-      <c r="D218" s="49"/>
+      <c r="D218" s="48"/>
     </row>
     <row r="219">
       <c r="A219" s="14"/>
-      <c r="D219" s="49"/>
+      <c r="D219" s="48"/>
     </row>
     <row r="220">
       <c r="A220" s="14"/>
-      <c r="D220" s="49"/>
+      <c r="D220" s="48"/>
     </row>
     <row r="221">
       <c r="A221" s="14"/>
-      <c r="D221" s="49"/>
+      <c r="D221" s="48"/>
     </row>
     <row r="222">
       <c r="A222" s="14"/>
-      <c r="D222" s="49"/>
+      <c r="D222" s="48"/>
     </row>
     <row r="223">
       <c r="A223" s="14"/>
-      <c r="D223" s="49"/>
+      <c r="D223" s="48"/>
     </row>
     <row r="224">
       <c r="A224" s="14"/>
-      <c r="D224" s="49"/>
+      <c r="D224" s="48"/>
     </row>
     <row r="225">
       <c r="A225" s="14"/>
-      <c r="D225" s="49"/>
+      <c r="D225" s="48"/>
     </row>
     <row r="226">
       <c r="A226" s="14"/>
-      <c r="D226" s="49"/>
+      <c r="D226" s="48"/>
     </row>
     <row r="227">
       <c r="A227" s="14"/>
-      <c r="D227" s="49"/>
+      <c r="D227" s="48"/>
     </row>
     <row r="228">
       <c r="A228" s="14"/>
-      <c r="D228" s="49"/>
+      <c r="D228" s="48"/>
     </row>
     <row r="229">
       <c r="A229" s="14"/>
-      <c r="D229" s="49"/>
+      <c r="D229" s="48"/>
     </row>
     <row r="230">
       <c r="A230" s="14"/>
-      <c r="D230" s="49"/>
+      <c r="D230" s="48"/>
     </row>
     <row r="231">
       <c r="A231" s="14"/>
-      <c r="D231" s="49"/>
+      <c r="D231" s="48"/>
     </row>
     <row r="232">
       <c r="A232" s="14"/>
-      <c r="D232" s="49"/>
+      <c r="D232" s="48"/>
     </row>
     <row r="233">
       <c r="A233" s="14"/>
-      <c r="D233" s="49"/>
+      <c r="D233" s="48"/>
     </row>
     <row r="234">
       <c r="A234" s="14"/>
-      <c r="D234" s="49"/>
+      <c r="D234" s="48"/>
     </row>
     <row r="235">
       <c r="A235" s="14"/>
-      <c r="D235" s="49"/>
+      <c r="D235" s="48"/>
     </row>
     <row r="236">
       <c r="A236" s="14"/>
-      <c r="D236" s="49"/>
+      <c r="D236" s="48"/>
     </row>
     <row r="237">
       <c r="A237" s="14"/>
-      <c r="D237" s="49"/>
+      <c r="D237" s="48"/>
     </row>
     <row r="238">
       <c r="A238" s="14"/>
-      <c r="D238" s="49"/>
+      <c r="D238" s="48"/>
     </row>
     <row r="239">
       <c r="A239" s="14"/>
-      <c r="D239" s="49"/>
+      <c r="D239" s="48"/>
     </row>
     <row r="240">
       <c r="A240" s="14"/>
-      <c r="D240" s="49"/>
+      <c r="D240" s="48"/>
     </row>
     <row r="241">
       <c r="A241" s="14"/>
-      <c r="D241" s="49"/>
+      <c r="D241" s="48"/>
     </row>
     <row r="242">
       <c r="A242" s="14"/>
-      <c r="D242" s="49"/>
+      <c r="D242" s="48"/>
     </row>
     <row r="243">
       <c r="A243" s="14"/>
-      <c r="D243" s="49"/>
+      <c r="D243" s="48"/>
     </row>
     <row r="244">
       <c r="A244" s="14"/>
-      <c r="D244" s="49"/>
+      <c r="D244" s="48"/>
     </row>
     <row r="245">
       <c r="A245" s="14"/>
-      <c r="D245" s="49"/>
+      <c r="D245" s="48"/>
     </row>
     <row r="246">
       <c r="A246" s="14"/>
-      <c r="D246" s="49"/>
+      <c r="D246" s="48"/>
     </row>
     <row r="247">
       <c r="A247" s="14"/>
-      <c r="D247" s="49"/>
+      <c r="D247" s="48"/>
     </row>
     <row r="248">
       <c r="A248" s="14"/>
-      <c r="D248" s="49"/>
+      <c r="D248" s="48"/>
     </row>
     <row r="249">
       <c r="A249" s="14"/>
-      <c r="D249" s="49"/>
+      <c r="D249" s="48"/>
     </row>
     <row r="250">
       <c r="A250" s="14"/>
-      <c r="D250" s="49"/>
+      <c r="D250" s="48"/>
     </row>
     <row r="251">
       <c r="A251" s="14"/>
-      <c r="D251" s="49"/>
+      <c r="D251" s="48"/>
     </row>
     <row r="252">
       <c r="A252" s="14"/>
-      <c r="D252" s="49"/>
+      <c r="D252" s="48"/>
     </row>
     <row r="253">
       <c r="A253" s="14"/>
-      <c r="D253" s="49"/>
+      <c r="D253" s="48"/>
     </row>
     <row r="254">
       <c r="A254" s="14"/>
-      <c r="D254" s="49"/>
+      <c r="D254" s="48"/>
     </row>
     <row r="255">
       <c r="A255" s="14"/>
-      <c r="D255" s="49"/>
+      <c r="D255" s="48"/>
     </row>
     <row r="256">
       <c r="A256" s="14"/>
-      <c r="D256" s="49"/>
+      <c r="D256" s="48"/>
     </row>
     <row r="257">
       <c r="A257" s="14"/>
-      <c r="D257" s="49"/>
+      <c r="D257" s="48"/>
     </row>
     <row r="258">
       <c r="A258" s="14"/>
-      <c r="D258" s="49"/>
+      <c r="D258" s="48"/>
     </row>
     <row r="259">
       <c r="A259" s="14"/>
-      <c r="D259" s="49"/>
+      <c r="D259" s="48"/>
     </row>
     <row r="260">
       <c r="A260" s="14"/>
-      <c r="D260" s="49"/>
+      <c r="D260" s="48"/>
     </row>
     <row r="261">
       <c r="A261" s="14"/>
-      <c r="D261" s="49"/>
+      <c r="D261" s="48"/>
     </row>
     <row r="262">
       <c r="A262" s="14"/>
-      <c r="D262" s="49"/>
+      <c r="D262" s="48"/>
     </row>
     <row r="263">
       <c r="A263" s="14"/>
-      <c r="D263" s="49"/>
+      <c r="D263" s="48"/>
     </row>
     <row r="264">
       <c r="A264" s="14"/>
-      <c r="D264" s="49"/>
+      <c r="D264" s="48"/>
     </row>
     <row r="265">
       <c r="A265" s="14"/>
-      <c r="D265" s="49"/>
+      <c r="D265" s="48"/>
     </row>
     <row r="266">
       <c r="A266" s="14"/>
-      <c r="D266" s="49"/>
+      <c r="D266" s="48"/>
     </row>
     <row r="267">
       <c r="A267" s="14"/>
-      <c r="D267" s="49"/>
+      <c r="D267" s="48"/>
     </row>
     <row r="268">
       <c r="A268" s="14"/>
-      <c r="D268" s="49"/>
+      <c r="D268" s="48"/>
     </row>
     <row r="269">
       <c r="A269" s="14"/>
-      <c r="D269" s="49"/>
+      <c r="D269" s="48"/>
     </row>
     <row r="270">
       <c r="A270" s="14"/>
-      <c r="D270" s="49"/>
+      <c r="D270" s="48"/>
     </row>
     <row r="271">
       <c r="A271" s="14"/>
-      <c r="D271" s="49"/>
+      <c r="D271" s="48"/>
     </row>
     <row r="272">
       <c r="A272" s="14"/>
-      <c r="D272" s="49"/>
+      <c r="D272" s="48"/>
     </row>
     <row r="273">
       <c r="A273" s="14"/>
-      <c r="D273" s="49"/>
+      <c r="D273" s="48"/>
     </row>
     <row r="274">
       <c r="A274" s="14"/>
-      <c r="D274" s="49"/>
+      <c r="D274" s="48"/>
     </row>
     <row r="275">
       <c r="A275" s="14"/>
-      <c r="D275" s="49"/>
+      <c r="D275" s="48"/>
     </row>
     <row r="276">
       <c r="A276" s="14"/>
-      <c r="D276" s="49"/>
+      <c r="D276" s="48"/>
     </row>
     <row r="277">
       <c r="A277" s="14"/>
-      <c r="D277" s="49"/>
+      <c r="D277" s="48"/>
     </row>
     <row r="278">
       <c r="A278" s="14"/>
-      <c r="D278" s="49"/>
+      <c r="D278" s="48"/>
     </row>
     <row r="279">
       <c r="A279" s="14"/>
-      <c r="D279" s="49"/>
+      <c r="D279" s="48"/>
     </row>
     <row r="280">
       <c r="A280" s="14"/>
-      <c r="D280" s="49"/>
+      <c r="D280" s="48"/>
     </row>
     <row r="281">
       <c r="A281" s="14"/>
-      <c r="D281" s="49"/>
+      <c r="D281" s="48"/>
     </row>
     <row r="282">
       <c r="A282" s="14"/>
-      <c r="D282" s="49"/>
+      <c r="D282" s="48"/>
     </row>
     <row r="283">
       <c r="A283" s="14"/>
-      <c r="D283" s="49"/>
+      <c r="D283" s="48"/>
     </row>
     <row r="284">
       <c r="A284" s="14"/>
-      <c r="D284" s="49"/>
+      <c r="D284" s="48"/>
     </row>
     <row r="285">
       <c r="A285" s="14"/>
-      <c r="D285" s="49"/>
+      <c r="D285" s="48"/>
     </row>
     <row r="286">
       <c r="A286" s="14"/>
-      <c r="D286" s="49"/>
+      <c r="D286" s="48"/>
     </row>
     <row r="287">
       <c r="A287" s="14"/>
-      <c r="D287" s="49"/>
+      <c r="D287" s="48"/>
     </row>
     <row r="288">
       <c r="A288" s="14"/>
-      <c r="D288" s="49"/>
+      <c r="D288" s="48"/>
     </row>
     <row r="289">
       <c r="A289" s="14"/>
-      <c r="D289" s="49"/>
+      <c r="D289" s="48"/>
     </row>
     <row r="290">
       <c r="A290" s="14"/>
-      <c r="D290" s="49"/>
+      <c r="D290" s="48"/>
     </row>
     <row r="291">
       <c r="A291" s="14"/>
-      <c r="D291" s="49"/>
+      <c r="D291" s="48"/>
     </row>
     <row r="292">
       <c r="A292" s="14"/>
-      <c r="D292" s="49"/>
+      <c r="D292" s="48"/>
     </row>
     <row r="293">
       <c r="A293" s="14"/>
-      <c r="D293" s="49"/>
+      <c r="D293" s="48"/>
     </row>
     <row r="294">
       <c r="A294" s="14"/>
-      <c r="D294" s="49"/>
+      <c r="D294" s="48"/>
     </row>
     <row r="295">
       <c r="A295" s="14"/>
-      <c r="D295" s="49"/>
+      <c r="D295" s="48"/>
     </row>
     <row r="296">
       <c r="A296" s="14"/>
-      <c r="D296" s="49"/>
+      <c r="D296" s="48"/>
     </row>
     <row r="297">
       <c r="A297" s="14"/>
-      <c r="D297" s="49"/>
+      <c r="D297" s="48"/>
     </row>
     <row r="298">
       <c r="A298" s="14"/>
-      <c r="D298" s="49"/>
+      <c r="D298" s="48"/>
     </row>
     <row r="299">
       <c r="A299" s="14"/>
-      <c r="D299" s="49"/>
+      <c r="D299" s="48"/>
     </row>
     <row r="300">
       <c r="A300" s="14"/>
-      <c r="D300" s="49"/>
+      <c r="D300" s="48"/>
     </row>
     <row r="301">
       <c r="A301" s="14"/>
-      <c r="D301" s="49"/>
+      <c r="D301" s="48"/>
     </row>
     <row r="302">
       <c r="A302" s="14"/>
-      <c r="D302" s="49"/>
+      <c r="D302" s="48"/>
     </row>
     <row r="303">
       <c r="A303" s="14"/>
-      <c r="D303" s="49"/>
+      <c r="D303" s="48"/>
     </row>
     <row r="304">
       <c r="A304" s="14"/>
-      <c r="D304" s="49"/>
+      <c r="D304" s="48"/>
     </row>
     <row r="305">
       <c r="A305" s="14"/>
-      <c r="D305" s="49"/>
+      <c r="D305" s="48"/>
     </row>
     <row r="306">
       <c r="A306" s="14"/>
-      <c r="D306" s="49"/>
+      <c r="D306" s="48"/>
     </row>
     <row r="307">
       <c r="A307" s="14"/>
-      <c r="D307" s="49"/>
+      <c r="D307" s="48"/>
     </row>
     <row r="308">
       <c r="A308" s="14"/>
-      <c r="D308" s="49"/>
+      <c r="D308" s="48"/>
     </row>
     <row r="309">
       <c r="A309" s="14"/>
-      <c r="D309" s="49"/>
+      <c r="D309" s="48"/>
     </row>
     <row r="310">
       <c r="A310" s="14"/>
-      <c r="D310" s="49"/>
+      <c r="D310" s="48"/>
     </row>
     <row r="311">
       <c r="A311" s="14"/>
-      <c r="D311" s="49"/>
+      <c r="D311" s="48"/>
     </row>
     <row r="312">
       <c r="A312" s="14"/>
-      <c r="D312" s="49"/>
+      <c r="D312" s="48"/>
     </row>
     <row r="313">
       <c r="A313" s="14"/>
-      <c r="D313" s="49"/>
+      <c r="D313" s="48"/>
     </row>
     <row r="314">
       <c r="A314" s="14"/>
-      <c r="D314" s="49"/>
+      <c r="D314" s="48"/>
     </row>
     <row r="315">
       <c r="A315" s="14"/>
-      <c r="D315" s="49"/>
+      <c r="D315" s="48"/>
     </row>
     <row r="316">
       <c r="A316" s="14"/>
-      <c r="D316" s="49"/>
+      <c r="D316" s="48"/>
     </row>
     <row r="317">
       <c r="A317" s="14"/>
-      <c r="D317" s="49"/>
+      <c r="D317" s="48"/>
     </row>
     <row r="318">
       <c r="A318" s="14"/>
-      <c r="D318" s="49"/>
+      <c r="D318" s="48"/>
     </row>
     <row r="319">
       <c r="A319" s="14"/>
-      <c r="D319" s="49"/>
+      <c r="D319" s="48"/>
     </row>
     <row r="320">
       <c r="A320" s="14"/>
-      <c r="D320" s="49"/>
+      <c r="D320" s="48"/>
     </row>
     <row r="321">
       <c r="A321" s="14"/>
-      <c r="D321" s="49"/>
+      <c r="D321" s="48"/>
     </row>
     <row r="322">
       <c r="A322" s="14"/>
-      <c r="D322" s="49"/>
+      <c r="D322" s="48"/>
     </row>
     <row r="323">
       <c r="A323" s="14"/>
-      <c r="D323" s="49"/>
+      <c r="D323" s="48"/>
     </row>
     <row r="324">
       <c r="A324" s="14"/>
-      <c r="D324" s="49"/>
+      <c r="D324" s="48"/>
     </row>
     <row r="325">
       <c r="A325" s="14"/>
-      <c r="D325" s="49"/>
+      <c r="D325" s="48"/>
     </row>
     <row r="326">
       <c r="A326" s="14"/>
-      <c r="D326" s="49"/>
+      <c r="D326" s="48"/>
     </row>
     <row r="327">
       <c r="A327" s="14"/>
-      <c r="D327" s="49"/>
+      <c r="D327" s="48"/>
     </row>
     <row r="328">
       <c r="A328" s="14"/>
-      <c r="D328" s="49"/>
+      <c r="D328" s="48"/>
     </row>
     <row r="329">
       <c r="A329" s="14"/>
-      <c r="D329" s="49"/>
+      <c r="D329" s="48"/>
     </row>
     <row r="330">
       <c r="A330" s="14"/>
-      <c r="D330" s="49"/>
+      <c r="D330" s="48"/>
     </row>
     <row r="331">
       <c r="A331" s="14"/>
-      <c r="D331" s="49"/>
+      <c r="D331" s="48"/>
     </row>
     <row r="332">
       <c r="A332" s="14"/>
-      <c r="D332" s="49"/>
+      <c r="D332" s="48"/>
     </row>
     <row r="333">
       <c r="A333" s="14"/>
-      <c r="D333" s="49"/>
+      <c r="D333" s="48"/>
     </row>
     <row r="334">
       <c r="A334" s="14"/>
-      <c r="D334" s="49"/>
+      <c r="D334" s="48"/>
     </row>
     <row r="335">
       <c r="A335" s="14"/>
-      <c r="D335" s="49"/>
+      <c r="D335" s="48"/>
     </row>
     <row r="336">
       <c r="A336" s="14"/>
-      <c r="D336" s="49"/>
+      <c r="D336" s="48"/>
     </row>
     <row r="337">
       <c r="A337" s="14"/>
-      <c r="D337" s="49"/>
+      <c r="D337" s="48"/>
     </row>
     <row r="338">
       <c r="A338" s="14"/>
-      <c r="D338" s="49"/>
+      <c r="D338" s="48"/>
     </row>
     <row r="339">
       <c r="A339" s="14"/>
-      <c r="D339" s="49"/>
+      <c r="D339" s="48"/>
     </row>
     <row r="340">
       <c r="A340" s="14"/>
-      <c r="D340" s="49"/>
+      <c r="D340" s="48"/>
     </row>
     <row r="341">
       <c r="A341" s="14"/>
-      <c r="D341" s="49"/>
+      <c r="D341" s="48"/>
     </row>
     <row r="342">
       <c r="A342" s="14"/>
-      <c r="D342" s="49"/>
+      <c r="D342" s="48"/>
     </row>
     <row r="343">
       <c r="A343" s="14"/>
-      <c r="D343" s="49"/>
+      <c r="D343" s="48"/>
     </row>
     <row r="344">
       <c r="A344" s="14"/>
-      <c r="D344" s="49"/>
+      <c r="D344" s="48"/>
     </row>
     <row r="345">
       <c r="A345" s="14"/>
-      <c r="D345" s="49"/>
+      <c r="D345" s="48"/>
     </row>
     <row r="346">
       <c r="A346" s="14"/>
-      <c r="D346" s="49"/>
+      <c r="D346" s="48"/>
     </row>
     <row r="347">
       <c r="A347" s="14"/>
-      <c r="D347" s="49"/>
+      <c r="D347" s="48"/>
     </row>
     <row r="348">
       <c r="A348" s="14"/>
-      <c r="D348" s="49"/>
+      <c r="D348" s="48"/>
     </row>
     <row r="349">
       <c r="A349" s="14"/>
-      <c r="D349" s="49"/>
+      <c r="D349" s="48"/>
     </row>
     <row r="350">
       <c r="A350" s="14"/>
-      <c r="D350" s="49"/>
+      <c r="D350" s="48"/>
     </row>
     <row r="351">
       <c r="A351" s="14"/>
-      <c r="D351" s="49"/>
+      <c r="D351" s="48"/>
     </row>
     <row r="352">
       <c r="A352" s="14"/>
-      <c r="D352" s="49"/>
+      <c r="D352" s="48"/>
     </row>
     <row r="353">
       <c r="A353" s="14"/>
-      <c r="D353" s="49"/>
+      <c r="D353" s="48"/>
     </row>
     <row r="354">
       <c r="A354" s="14"/>
-      <c r="D354" s="49"/>
+      <c r="D354" s="48"/>
     </row>
     <row r="355">
       <c r="A355" s="14"/>
-      <c r="D355" s="49"/>
+      <c r="D355" s="48"/>
     </row>
     <row r="356">
       <c r="A356" s="14"/>
-      <c r="D356" s="49"/>
+      <c r="D356" s="48"/>
     </row>
     <row r="357">
       <c r="A357" s="14"/>
-      <c r="D357" s="49"/>
+      <c r="D357" s="48"/>
     </row>
     <row r="358">
       <c r="A358" s="14"/>
-      <c r="D358" s="49"/>
+      <c r="D358" s="48"/>
     </row>
     <row r="359">
       <c r="A359" s="14"/>
-      <c r="D359" s="49"/>
+      <c r="D359" s="48"/>
     </row>
     <row r="360">
       <c r="A360" s="14"/>
-      <c r="D360" s="49"/>
+      <c r="D360" s="48"/>
     </row>
     <row r="361">
       <c r="A361" s="14"/>
-      <c r="D361" s="49"/>
+      <c r="D361" s="48"/>
     </row>
     <row r="362">
       <c r="A362" s="14"/>
-      <c r="D362" s="49"/>
+      <c r="D362" s="48"/>
     </row>
     <row r="363">
       <c r="A363" s="14"/>
-      <c r="D363" s="49"/>
+      <c r="D363" s="48"/>
     </row>
     <row r="364">
       <c r="A364" s="14"/>
-      <c r="D364" s="49"/>
+      <c r="D364" s="48"/>
     </row>
     <row r="365">
       <c r="A365" s="14"/>
-      <c r="D365" s="49"/>
+      <c r="D365" s="48"/>
     </row>
     <row r="366">
       <c r="A366" s="14"/>
-      <c r="D366" s="49"/>
+      <c r="D366" s="48"/>
     </row>
     <row r="367">
       <c r="A367" s="14"/>
-      <c r="D367" s="49"/>
+      <c r="D367" s="48"/>
     </row>
     <row r="368">
       <c r="A368" s="14"/>
-      <c r="D368" s="49"/>
+      <c r="D368" s="48"/>
     </row>
     <row r="369">
       <c r="A369" s="14"/>
-      <c r="D369" s="49"/>
+      <c r="D369" s="48"/>
     </row>
     <row r="370">
       <c r="A370" s="14"/>
-      <c r="D370" s="49"/>
+      <c r="D370" s="48"/>
     </row>
     <row r="371">
       <c r="A371" s="14"/>
-      <c r="D371" s="49"/>
+      <c r="D371" s="48"/>
     </row>
     <row r="372">
       <c r="A372" s="14"/>
-      <c r="D372" s="49"/>
+      <c r="D372" s="48"/>
     </row>
     <row r="373">
       <c r="A373" s="14"/>
-      <c r="D373" s="49"/>
+      <c r="D373" s="48"/>
     </row>
     <row r="374">
       <c r="A374" s="14"/>
-      <c r="D374" s="49"/>
+      <c r="D374" s="48"/>
     </row>
     <row r="375">
       <c r="A375" s="14"/>
-      <c r="D375" s="49"/>
+      <c r="D375" s="48"/>
     </row>
     <row r="376">
       <c r="A376" s="14"/>
-      <c r="D376" s="49"/>
+      <c r="D376" s="48"/>
     </row>
     <row r="377">
       <c r="A377" s="14"/>
-      <c r="D377" s="49"/>
+      <c r="D377" s="48"/>
     </row>
     <row r="378">
       <c r="A378" s="14"/>
-      <c r="D378" s="49"/>
+      <c r="D378" s="48"/>
     </row>
     <row r="379">
       <c r="A379" s="14"/>
-      <c r="D379" s="49"/>
+      <c r="D379" s="48"/>
     </row>
     <row r="380">
       <c r="A380" s="14"/>
-      <c r="D380" s="49"/>
+      <c r="D380" s="48"/>
     </row>
     <row r="381">
       <c r="A381" s="14"/>
-      <c r="D381" s="49"/>
+      <c r="D381" s="48"/>
     </row>
     <row r="382">
       <c r="A382" s="14"/>
-      <c r="D382" s="49"/>
+      <c r="D382" s="48"/>
     </row>
     <row r="383">
       <c r="A383" s="14"/>
-      <c r="D383" s="49"/>
+      <c r="D383" s="48"/>
     </row>
     <row r="384">
       <c r="A384" s="14"/>
-      <c r="D384" s="49"/>
+      <c r="D384" s="48"/>
     </row>
     <row r="385">
       <c r="A385" s="14"/>
-      <c r="D385" s="49"/>
+      <c r="D385" s="48"/>
     </row>
     <row r="386">
       <c r="A386" s="14"/>
-      <c r="D386" s="49"/>
+      <c r="D386" s="48"/>
     </row>
     <row r="387">
       <c r="A387" s="14"/>
-      <c r="D387" s="49"/>
+      <c r="D387" s="48"/>
     </row>
     <row r="388">
       <c r="A388" s="14"/>
-      <c r="D388" s="49"/>
+      <c r="D388" s="48"/>
     </row>
     <row r="389">
       <c r="A389" s="14"/>
-      <c r="D389" s="49"/>
+      <c r="D389" s="48"/>
     </row>
     <row r="390">
       <c r="A390" s="14"/>
-      <c r="D390" s="49"/>
+      <c r="D390" s="48"/>
     </row>
     <row r="391">
       <c r="A391" s="14"/>
-      <c r="D391" s="49"/>
+      <c r="D391" s="48"/>
     </row>
     <row r="392">
       <c r="A392" s="14"/>
-      <c r="D392" s="49"/>
+      <c r="D392" s="48"/>
     </row>
     <row r="393">
       <c r="A393" s="14"/>
-      <c r="D393" s="49"/>
+      <c r="D393" s="48"/>
     </row>
     <row r="394">
       <c r="A394" s="14"/>
-      <c r="D394" s="49"/>
+      <c r="D394" s="48"/>
     </row>
     <row r="395">
       <c r="A395" s="14"/>
-      <c r="D395" s="49"/>
+      <c r="D395" s="48"/>
     </row>
     <row r="396">
       <c r="A396" s="14"/>
-      <c r="D396" s="49"/>
+      <c r="D396" s="48"/>
     </row>
     <row r="397">
       <c r="A397" s="14"/>
-      <c r="D397" s="49"/>
+      <c r="D397" s="48"/>
     </row>
     <row r="398">
       <c r="A398" s="14"/>
-      <c r="D398" s="49"/>
+      <c r="D398" s="48"/>
     </row>
     <row r="399">
       <c r="A399" s="14"/>
-      <c r="D399" s="49"/>
+      <c r="D399" s="48"/>
     </row>
     <row r="400">
       <c r="A400" s="14"/>
-      <c r="D400" s="49"/>
+      <c r="D400" s="48"/>
     </row>
     <row r="401">
       <c r="A401" s="14"/>
-      <c r="D401" s="49"/>
+      <c r="D401" s="48"/>
     </row>
     <row r="402">
       <c r="A402" s="14"/>
-      <c r="D402" s="49"/>
+      <c r="D402" s="48"/>
     </row>
     <row r="403">
       <c r="A403" s="14"/>
-      <c r="D403" s="49"/>
+      <c r="D403" s="48"/>
     </row>
     <row r="404">
       <c r="A404" s="14"/>
-      <c r="D404" s="49"/>
+      <c r="D404" s="48"/>
     </row>
     <row r="405">
       <c r="A405" s="14"/>
-      <c r="D405" s="49"/>
+      <c r="D405" s="48"/>
     </row>
     <row r="406">
       <c r="A406" s="14"/>
-      <c r="D406" s="49"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407">
       <c r="A407" s="14"/>
-      <c r="D407" s="49"/>
+      <c r="D407" s="48"/>
     </row>
     <row r="408">
       <c r="A408" s="14"/>
-      <c r="D408" s="49"/>
+      <c r="D408" s="48"/>
     </row>
     <row r="409">
       <c r="A409" s="14"/>
-      <c r="D409" s="49"/>
+      <c r="D409" s="48"/>
     </row>
     <row r="410">
       <c r="A410" s="14"/>
-      <c r="D410" s="49"/>
+      <c r="D410" s="48"/>
     </row>
     <row r="411">
       <c r="A411" s="14"/>
-      <c r="D411" s="49"/>
+      <c r="D411" s="48"/>
     </row>
     <row r="412">
       <c r="A412" s="14"/>
-      <c r="D412" s="49"/>
+      <c r="D412" s="48"/>
     </row>
     <row r="413">
       <c r="A413" s="14"/>
-      <c r="D413" s="49"/>
+      <c r="D413" s="48"/>
     </row>
     <row r="414">
       <c r="A414" s="14"/>
-      <c r="D414" s="49"/>
+      <c r="D414" s="48"/>
     </row>
     <row r="415">
       <c r="A415" s="14"/>
-      <c r="D415" s="49"/>
+      <c r="D415" s="48"/>
     </row>
     <row r="416">
       <c r="A416" s="14"/>
-      <c r="D416" s="49"/>
+      <c r="D416" s="48"/>
     </row>
     <row r="417">
       <c r="A417" s="14"/>
-      <c r="D417" s="49"/>
+      <c r="D417" s="48"/>
     </row>
     <row r="418">
       <c r="A418" s="14"/>
-      <c r="D418" s="49"/>
+      <c r="D418" s="48"/>
     </row>
     <row r="419">
       <c r="A419" s="14"/>
-      <c r="D419" s="49"/>
+      <c r="D419" s="48"/>
     </row>
     <row r="420">
       <c r="A420" s="14"/>
-      <c r="D420" s="49"/>
+      <c r="D420" s="48"/>
     </row>
     <row r="421">
       <c r="A421" s="14"/>
-      <c r="D421" s="49"/>
+      <c r="D421" s="48"/>
     </row>
     <row r="422">
       <c r="A422" s="14"/>
-      <c r="D422" s="49"/>
+      <c r="D422" s="48"/>
     </row>
     <row r="423">
       <c r="A423" s="14"/>
-      <c r="D423" s="49"/>
+      <c r="D423" s="48"/>
     </row>
     <row r="424">
       <c r="A424" s="14"/>
-      <c r="D424" s="49"/>
+      <c r="D424" s="48"/>
     </row>
     <row r="425">
       <c r="A425" s="14"/>
-      <c r="D425" s="49"/>
+      <c r="D425" s="48"/>
     </row>
     <row r="426">
       <c r="A426" s="14"/>
-      <c r="D426" s="49"/>
+      <c r="D426" s="48"/>
     </row>
     <row r="427">
       <c r="A427" s="14"/>
-      <c r="D427" s="49"/>
+      <c r="D427" s="48"/>
     </row>
     <row r="428">
       <c r="A428" s="14"/>
-      <c r="D428" s="49"/>
+      <c r="D428" s="48"/>
     </row>
     <row r="429">
       <c r="A429" s="14"/>
-      <c r="D429" s="49"/>
+      <c r="D429" s="48"/>
     </row>
     <row r="430">
       <c r="A430" s="14"/>
-      <c r="D430" s="49"/>
+      <c r="D430" s="48"/>
     </row>
     <row r="431">
       <c r="A431" s="14"/>
-      <c r="D431" s="49"/>
+      <c r="D431" s="48"/>
     </row>
     <row r="432">
       <c r="A432" s="14"/>
-      <c r="D432" s="49"/>
+      <c r="D432" s="48"/>
     </row>
     <row r="433">
       <c r="A433" s="14"/>
-      <c r="D433" s="49"/>
+      <c r="D433" s="48"/>
     </row>
     <row r="434">
       <c r="A434" s="14"/>
-      <c r="D434" s="49"/>
+      <c r="D434" s="48"/>
     </row>
     <row r="435">
       <c r="A435" s="14"/>
-      <c r="D435" s="49"/>
+      <c r="D435" s="48"/>
     </row>
     <row r="436">
       <c r="A436" s="14"/>
-      <c r="D436" s="49"/>
+      <c r="D436" s="48"/>
     </row>
     <row r="437">
       <c r="A437" s="14"/>
-      <c r="D437" s="49"/>
+      <c r="D437" s="48"/>
     </row>
     <row r="438">
       <c r="A438" s="14"/>
-      <c r="D438" s="49"/>
+      <c r="D438" s="48"/>
     </row>
     <row r="439">
       <c r="A439" s="14"/>
-      <c r="D439" s="49"/>
+      <c r="D439" s="48"/>
     </row>
     <row r="440">
       <c r="A440" s="14"/>
-      <c r="D440" s="49"/>
+      <c r="D440" s="48"/>
     </row>
     <row r="441">
       <c r="A441" s="14"/>
-      <c r="D441" s="49"/>
+      <c r="D441" s="48"/>
     </row>
     <row r="442">
       <c r="A442" s="14"/>
-      <c r="D442" s="49"/>
+      <c r="D442" s="48"/>
     </row>
     <row r="443">
       <c r="A443" s="14"/>
-      <c r="D443" s="49"/>
+      <c r="D443" s="48"/>
     </row>
     <row r="444">
       <c r="A444" s="14"/>
-      <c r="D444" s="49"/>
+      <c r="D444" s="48"/>
     </row>
     <row r="445">
       <c r="A445" s="14"/>
-      <c r="D445" s="49"/>
+      <c r="D445" s="48"/>
     </row>
     <row r="446">
       <c r="A446" s="14"/>
-      <c r="D446" s="49"/>
+      <c r="D446" s="48"/>
     </row>
     <row r="447">
       <c r="A447" s="14"/>
-      <c r="D447" s="49"/>
+      <c r="D447" s="48"/>
     </row>
     <row r="448">
       <c r="A448" s="14"/>
-      <c r="D448" s="49"/>
+      <c r="D448" s="48"/>
     </row>
     <row r="449">
       <c r="A449" s="14"/>
-      <c r="D449" s="49"/>
+      <c r="D449" s="48"/>
     </row>
     <row r="450">
       <c r="A450" s="14"/>
-      <c r="D450" s="49"/>
+      <c r="D450" s="48"/>
     </row>
     <row r="451">
       <c r="A451" s="14"/>
-      <c r="D451" s="49"/>
+      <c r="D451" s="48"/>
     </row>
     <row r="452">
       <c r="A452" s="14"/>
-      <c r="D452" s="49"/>
+      <c r="D452" s="48"/>
     </row>
     <row r="453">
       <c r="A453" s="14"/>
-      <c r="D453" s="49"/>
+      <c r="D453" s="48"/>
     </row>
     <row r="454">
       <c r="A454" s="14"/>
-      <c r="D454" s="49"/>
+      <c r="D454" s="48"/>
     </row>
     <row r="455">
       <c r="A455" s="14"/>
-      <c r="D455" s="49"/>
+      <c r="D455" s="48"/>
     </row>
     <row r="456">
       <c r="A456" s="14"/>
-      <c r="D456" s="49"/>
+      <c r="D456" s="48"/>
     </row>
     <row r="457">
       <c r="A457" s="14"/>
-      <c r="D457" s="49"/>
+      <c r="D457" s="48"/>
     </row>
     <row r="458">
       <c r="A458" s="14"/>
-      <c r="D458" s="49"/>
+      <c r="D458" s="48"/>
     </row>
     <row r="459">
       <c r="A459" s="14"/>
-      <c r="D459" s="49"/>
+      <c r="D459" s="48"/>
     </row>
     <row r="460">
       <c r="A460" s="14"/>
-      <c r="D460" s="49"/>
+      <c r="D460" s="48"/>
     </row>
     <row r="461">
       <c r="A461" s="14"/>
-      <c r="D461" s="49"/>
+      <c r="D461" s="48"/>
     </row>
     <row r="462">
       <c r="A462" s="14"/>
-      <c r="D462" s="49"/>
+      <c r="D462" s="48"/>
     </row>
     <row r="463">
       <c r="A463" s="14"/>
-      <c r="D463" s="49"/>
+      <c r="D463" s="48"/>
     </row>
     <row r="464">
       <c r="A464" s="14"/>
-      <c r="D464" s="49"/>
+      <c r="D464" s="48"/>
     </row>
     <row r="465">
       <c r="A465" s="14"/>
-      <c r="D465" s="49"/>
+      <c r="D465" s="48"/>
     </row>
     <row r="466">
       <c r="A466" s="14"/>
-      <c r="D466" s="49"/>
+      <c r="D466" s="48"/>
     </row>
     <row r="467">
       <c r="A467" s="14"/>
-      <c r="D467" s="49"/>
+      <c r="D467" s="48"/>
     </row>
     <row r="468">
       <c r="A468" s="14"/>
-      <c r="D468" s="49"/>
+      <c r="D468" s="48"/>
     </row>
     <row r="469">
       <c r="A469" s="14"/>
-      <c r="D469" s="49"/>
+      <c r="D469" s="48"/>
     </row>
     <row r="470">
       <c r="A470" s="14"/>
-      <c r="D470" s="49"/>
+      <c r="D470" s="48"/>
     </row>
     <row r="471">
       <c r="A471" s="14"/>
-      <c r="D471" s="49"/>
+      <c r="D471" s="48"/>
     </row>
     <row r="472">
       <c r="A472" s="14"/>
-      <c r="D472" s="49"/>
+      <c r="D472" s="48"/>
     </row>
     <row r="473">
       <c r="A473" s="14"/>
-      <c r="D473" s="49"/>
+      <c r="D473" s="48"/>
     </row>
     <row r="474">
       <c r="A474" s="14"/>
-      <c r="D474" s="49"/>
+      <c r="D474" s="48"/>
     </row>
     <row r="475">
       <c r="A475" s="14"/>
-      <c r="D475" s="49"/>
+      <c r="D475" s="48"/>
     </row>
     <row r="476">
       <c r="A476" s="14"/>
-      <c r="D476" s="49"/>
+      <c r="D476" s="48"/>
     </row>
     <row r="477">
       <c r="A477" s="14"/>
-      <c r="D477" s="49"/>
+      <c r="D477" s="48"/>
     </row>
     <row r="478">
       <c r="A478" s="14"/>
-      <c r="D478" s="49"/>
+      <c r="D478" s="48"/>
     </row>
     <row r="479">
       <c r="A479" s="14"/>
-      <c r="D479" s="49"/>
+      <c r="D479" s="48"/>
     </row>
     <row r="480">
       <c r="A480" s="14"/>
-      <c r="D480" s="49"/>
+      <c r="D480" s="48"/>
     </row>
     <row r="481">
       <c r="A481" s="14"/>
-      <c r="D481" s="49"/>
+      <c r="D481" s="48"/>
     </row>
     <row r="482">
       <c r="A482" s="14"/>
-      <c r="D482" s="49"/>
+      <c r="D482" s="48"/>
     </row>
     <row r="483">
       <c r="A483" s="14"/>
-      <c r="D483" s="49"/>
+      <c r="D483" s="48"/>
     </row>
     <row r="484">
       <c r="A484" s="14"/>
-      <c r="D484" s="49"/>
+      <c r="D484" s="48"/>
     </row>
     <row r="485">
       <c r="A485" s="14"/>
-      <c r="D485" s="49"/>
+      <c r="D485" s="48"/>
     </row>
     <row r="486">
       <c r="A486" s="14"/>
-      <c r="D486" s="49"/>
+      <c r="D486" s="48"/>
     </row>
     <row r="487">
       <c r="A487" s="14"/>
-      <c r="D487" s="49"/>
+      <c r="D487" s="48"/>
     </row>
     <row r="488">
       <c r="A488" s="14"/>
-      <c r="D488" s="49"/>
+      <c r="D488" s="48"/>
     </row>
     <row r="489">
       <c r="A489" s="14"/>
-      <c r="D489" s="49"/>
+      <c r="D489" s="48"/>
     </row>
     <row r="490">
       <c r="A490" s="14"/>
-      <c r="D490" s="49"/>
+      <c r="D490" s="48"/>
     </row>
     <row r="491">
       <c r="A491" s="14"/>
-      <c r="D491" s="49"/>
+      <c r="D491" s="48"/>
     </row>
     <row r="492">
       <c r="A492" s="14"/>
-      <c r="D492" s="49"/>
+      <c r="D492" s="48"/>
     </row>
     <row r="493">
       <c r="A493" s="14"/>
-      <c r="D493" s="49"/>
+      <c r="D493" s="48"/>
     </row>
     <row r="494">
       <c r="A494" s="14"/>
-      <c r="D494" s="49"/>
+      <c r="D494" s="48"/>
     </row>
     <row r="495">
       <c r="A495" s="14"/>
-      <c r="D495" s="49"/>
+      <c r="D495" s="48"/>
     </row>
     <row r="496">
       <c r="A496" s="14"/>
-      <c r="D496" s="49"/>
+      <c r="D496" s="48"/>
     </row>
     <row r="497">
       <c r="A497" s="14"/>
-      <c r="D497" s="49"/>
+      <c r="D497" s="48"/>
     </row>
     <row r="498">
       <c r="A498" s="14"/>
-      <c r="D498" s="49"/>
+      <c r="D498" s="48"/>
     </row>
     <row r="499">
       <c r="A499" s="14"/>
-      <c r="D499" s="49"/>
+      <c r="D499" s="48"/>
     </row>
     <row r="500">
       <c r="A500" s="14"/>
-      <c r="D500" s="49"/>
+      <c r="D500" s="48"/>
     </row>
     <row r="501">
       <c r="A501" s="14"/>
-      <c r="D501" s="49"/>
+      <c r="D501" s="48"/>
     </row>
     <row r="502">
       <c r="A502" s="14"/>
-      <c r="D502" s="49"/>
+      <c r="D502" s="48"/>
     </row>
     <row r="503">
       <c r="A503" s="14"/>
-      <c r="D503" s="49"/>
+      <c r="D503" s="48"/>
     </row>
     <row r="504">
       <c r="A504" s="14"/>
-      <c r="D504" s="49"/>
+      <c r="D504" s="48"/>
     </row>
     <row r="505">
       <c r="A505" s="14"/>
-      <c r="D505" s="49"/>
+      <c r="D505" s="48"/>
     </row>
     <row r="506">
       <c r="A506" s="14"/>
-      <c r="D506" s="49"/>
+      <c r="D506" s="48"/>
     </row>
     <row r="507">
       <c r="A507" s="14"/>
-      <c r="D507" s="49"/>
+      <c r="D507" s="48"/>
     </row>
     <row r="508">
       <c r="A508" s="14"/>
-      <c r="D508" s="49"/>
+      <c r="D508" s="48"/>
     </row>
     <row r="509">
       <c r="A509" s="14"/>
-      <c r="D509" s="49"/>
+      <c r="D509" s="48"/>
     </row>
     <row r="510">
       <c r="A510" s="14"/>
-      <c r="D510" s="49"/>
+      <c r="D510" s="48"/>
     </row>
     <row r="511">
       <c r="A511" s="14"/>
-      <c r="D511" s="49"/>
+      <c r="D511" s="48"/>
     </row>
     <row r="512">
       <c r="A512" s="14"/>
-      <c r="D512" s="49"/>
+      <c r="D512" s="48"/>
     </row>
     <row r="513">
       <c r="A513" s="14"/>
-      <c r="D513" s="49"/>
+      <c r="D513" s="48"/>
     </row>
     <row r="514">
       <c r="A514" s="14"/>
-      <c r="D514" s="49"/>
+      <c r="D514" s="48"/>
     </row>
     <row r="515">
       <c r="A515" s="14"/>
-      <c r="D515" s="49"/>
+      <c r="D515" s="48"/>
     </row>
     <row r="516">
       <c r="A516" s="14"/>
-      <c r="D516" s="49"/>
+      <c r="D516" s="48"/>
     </row>
     <row r="517">
       <c r="A517" s="14"/>
-      <c r="D517" s="49"/>
+      <c r="D517" s="48"/>
     </row>
     <row r="518">
       <c r="A518" s="14"/>
-      <c r="D518" s="49"/>
+      <c r="D518" s="48"/>
     </row>
     <row r="519">
       <c r="A519" s="14"/>
-      <c r="D519" s="49"/>
+      <c r="D519" s="48"/>
     </row>
     <row r="520">
       <c r="A520" s="14"/>
-      <c r="D520" s="49"/>
+      <c r="D520" s="48"/>
     </row>
     <row r="521">
       <c r="A521" s="14"/>
-      <c r="D521" s="49"/>
+      <c r="D521" s="48"/>
     </row>
     <row r="522">
       <c r="A522" s="14"/>
-      <c r="D522" s="49"/>
+      <c r="D522" s="48"/>
     </row>
     <row r="523">
       <c r="A523" s="14"/>
-      <c r="D523" s="49"/>
+      <c r="D523" s="48"/>
     </row>
     <row r="524">
       <c r="A524" s="14"/>
-      <c r="D524" s="49"/>
+      <c r="D524" s="48"/>
     </row>
     <row r="525">
       <c r="A525" s="14"/>
-      <c r="D525" s="49"/>
+      <c r="D525" s="48"/>
     </row>
     <row r="526">
       <c r="A526" s="14"/>
-      <c r="D526" s="49"/>
+      <c r="D526" s="48"/>
     </row>
     <row r="527">
       <c r="A527" s="14"/>
-      <c r="D527" s="49"/>
+      <c r="D527" s="48"/>
     </row>
     <row r="528">
       <c r="A528" s="14"/>
-      <c r="D528" s="49"/>
+      <c r="D528" s="48"/>
     </row>
     <row r="529">
       <c r="A529" s="14"/>
-      <c r="D529" s="49"/>
+      <c r="D529" s="48"/>
     </row>
     <row r="530">
       <c r="A530" s="14"/>
-      <c r="D530" s="49"/>
+      <c r="D530" s="48"/>
     </row>
     <row r="531">
       <c r="A531" s="14"/>
-      <c r="D531" s="49"/>
+      <c r="D531" s="48"/>
     </row>
     <row r="532">
       <c r="A532" s="14"/>
-      <c r="D532" s="49"/>
+      <c r="D532" s="48"/>
     </row>
     <row r="533">
       <c r="A533" s="14"/>
-      <c r="D533" s="49"/>
+      <c r="D533" s="48"/>
     </row>
     <row r="534">
       <c r="A534" s="14"/>
-      <c r="D534" s="49"/>
+      <c r="D534" s="48"/>
     </row>
     <row r="535">
       <c r="A535" s="14"/>
-      <c r="D535" s="49"/>
+      <c r="D535" s="48"/>
     </row>
     <row r="536">
       <c r="A536" s="14"/>
-      <c r="D536" s="49"/>
+      <c r="D536" s="48"/>
     </row>
     <row r="537">
       <c r="A537" s="14"/>
-      <c r="D537" s="49"/>
+      <c r="D537" s="48"/>
     </row>
     <row r="538">
       <c r="A538" s="14"/>
-      <c r="D538" s="49"/>
+      <c r="D538" s="48"/>
     </row>
     <row r="539">
       <c r="A539" s="14"/>
-      <c r="D539" s="49"/>
+      <c r="D539" s="48"/>
     </row>
     <row r="540">
       <c r="A540" s="14"/>
-      <c r="D540" s="49"/>
+      <c r="D540" s="48"/>
     </row>
     <row r="541">
       <c r="A541" s="14"/>
-      <c r="D541" s="49"/>
+      <c r="D541" s="48"/>
     </row>
     <row r="542">
       <c r="A542" s="14"/>
-      <c r="D542" s="49"/>
+      <c r="D542" s="48"/>
     </row>
     <row r="543">
       <c r="A543" s="14"/>
-      <c r="D543" s="49"/>
+      <c r="D543" s="48"/>
     </row>
     <row r="544">
       <c r="A544" s="14"/>
-      <c r="D544" s="49"/>
+      <c r="D544" s="48"/>
     </row>
     <row r="545">
       <c r="A545" s="14"/>
-      <c r="D545" s="49"/>
+      <c r="D545" s="48"/>
     </row>
     <row r="546">
       <c r="A546" s="14"/>
-      <c r="D546" s="49"/>
+      <c r="D546" s="48"/>
     </row>
     <row r="547">
       <c r="A547" s="14"/>
-      <c r="D547" s="49"/>
+      <c r="D547" s="48"/>
     </row>
     <row r="548">
       <c r="A548" s="14"/>
-      <c r="D548" s="49"/>
+      <c r="D548" s="48"/>
     </row>
     <row r="549">
       <c r="A549" s="14"/>
-      <c r="D549" s="49"/>
+      <c r="D549" s="48"/>
     </row>
     <row r="550">
       <c r="A550" s="14"/>
-      <c r="D550" s="49"/>
+      <c r="D550" s="48"/>
     </row>
     <row r="551">
       <c r="A551" s="14"/>
-      <c r="D551" s="49"/>
+      <c r="D551" s="48"/>
     </row>
     <row r="552">
       <c r="A552" s="14"/>
-      <c r="D552" s="49"/>
+      <c r="D552" s="48"/>
     </row>
     <row r="553">
       <c r="A553" s="14"/>
-      <c r="D553" s="49"/>
+      <c r="D553" s="48"/>
     </row>
     <row r="554">
       <c r="A554" s="14"/>
-      <c r="D554" s="49"/>
+      <c r="D554" s="48"/>
     </row>
     <row r="555">
       <c r="A555" s="14"/>
-      <c r="D555" s="49"/>
+      <c r="D555" s="48"/>
     </row>
     <row r="556">
       <c r="A556" s="14"/>
-      <c r="D556" s="49"/>
+      <c r="D556" s="48"/>
     </row>
     <row r="557">
       <c r="A557" s="14"/>
-      <c r="D557" s="49"/>
+      <c r="D557" s="48"/>
     </row>
     <row r="558">
       <c r="A558" s="14"/>
-      <c r="D558" s="49"/>
+      <c r="D558" s="48"/>
     </row>
     <row r="559">
       <c r="A559" s="14"/>
-      <c r="D559" s="49"/>
+      <c r="D559" s="48"/>
     </row>
     <row r="560">
       <c r="A560" s="14"/>
-      <c r="D560" s="49"/>
+      <c r="D560" s="48"/>
     </row>
     <row r="561">
       <c r="A561" s="14"/>
-      <c r="D561" s="49"/>
+      <c r="D561" s="48"/>
     </row>
     <row r="562">
       <c r="A562" s="14"/>
-      <c r="D562" s="49"/>
+      <c r="D562" s="48"/>
     </row>
     <row r="563">
       <c r="A563" s="14"/>
-      <c r="D563" s="49"/>
+      <c r="D563" s="48"/>
     </row>
     <row r="564">
       <c r="A564" s="14"/>
-      <c r="D564" s="49"/>
+      <c r="D564" s="48"/>
     </row>
     <row r="565">
       <c r="A565" s="14"/>
-      <c r="D565" s="49"/>
+      <c r="D565" s="48"/>
     </row>
     <row r="566">
       <c r="A566" s="14"/>
-      <c r="D566" s="49"/>
+      <c r="D566" s="48"/>
     </row>
     <row r="567">
       <c r="A567" s="14"/>
-      <c r="D567" s="49"/>
+      <c r="D567" s="48"/>
     </row>
     <row r="568">
       <c r="A568" s="14"/>
-      <c r="D568" s="49"/>
+      <c r="D568" s="48"/>
     </row>
     <row r="569">
       <c r="A569" s="14"/>
-      <c r="D569" s="49"/>
+      <c r="D569" s="48"/>
     </row>
     <row r="570">
       <c r="A570" s="14"/>
-      <c r="D570" s="49"/>
+      <c r="D570" s="48"/>
     </row>
     <row r="571">
       <c r="A571" s="14"/>
-      <c r="D571" s="49"/>
+      <c r="D571" s="48"/>
     </row>
     <row r="572">
       <c r="A572" s="14"/>
-      <c r="D572" s="49"/>
+      <c r="D572" s="48"/>
     </row>
     <row r="573">
       <c r="A573" s="14"/>
-      <c r="D573" s="49"/>
+      <c r="D573" s="48"/>
     </row>
     <row r="574">
       <c r="A574" s="14"/>
-      <c r="D574" s="49"/>
+      <c r="D574" s="48"/>
     </row>
     <row r="575">
       <c r="A575" s="14"/>
-      <c r="D575" s="49"/>
+      <c r="D575" s="48"/>
     </row>
     <row r="576">
       <c r="A576" s="14"/>
-      <c r="D576" s="49"/>
+      <c r="D576" s="48"/>
     </row>
     <row r="577">
       <c r="A577" s="14"/>
-      <c r="D577" s="49"/>
+      <c r="D577" s="48"/>
     </row>
     <row r="578">
       <c r="A578" s="14"/>
-      <c r="D578" s="49"/>
+      <c r="D578" s="48"/>
     </row>
     <row r="579">
       <c r="A579" s="14"/>
-      <c r="D579" s="49"/>
+      <c r="D579" s="48"/>
     </row>
     <row r="580">
       <c r="A580" s="14"/>
-      <c r="D580" s="49"/>
+      <c r="D580" s="48"/>
     </row>
     <row r="581">
       <c r="A581" s="14"/>
-      <c r="D581" s="49"/>
+      <c r="D581" s="48"/>
     </row>
     <row r="582">
       <c r="A582" s="14"/>
-      <c r="D582" s="49"/>
+      <c r="D582" s="48"/>
     </row>
     <row r="583">
       <c r="A583" s="14"/>
-      <c r="D583" s="49"/>
+      <c r="D583" s="48"/>
     </row>
     <row r="584">
       <c r="A584" s="14"/>
-      <c r="D584" s="49"/>
+      <c r="D584" s="48"/>
     </row>
     <row r="585">
       <c r="A585" s="14"/>
-      <c r="D585" s="49"/>
+      <c r="D585" s="48"/>
     </row>
     <row r="586">
       <c r="A586" s="14"/>
-      <c r="D586" s="49"/>
+      <c r="D586" s="48"/>
     </row>
     <row r="587">
       <c r="A587" s="14"/>
-      <c r="D587" s="49"/>
+      <c r="D587" s="48"/>
     </row>
     <row r="588">
       <c r="A588" s="14"/>
-      <c r="D588" s="49"/>
+      <c r="D588" s="48"/>
     </row>
     <row r="589">
       <c r="A589" s="14"/>
-      <c r="D589" s="49"/>
+      <c r="D589" s="48"/>
     </row>
     <row r="590">
       <c r="A590" s="14"/>
-      <c r="D590" s="49"/>
+      <c r="D590" s="48"/>
     </row>
     <row r="591">
       <c r="A591" s="14"/>
-      <c r="D591" s="49"/>
+      <c r="D591" s="48"/>
     </row>
     <row r="592">
       <c r="A592" s="14"/>
-      <c r="D592" s="49"/>
+      <c r="D592" s="48"/>
     </row>
     <row r="593">
       <c r="A593" s="14"/>
-      <c r="D593" s="49"/>
+      <c r="D593" s="48"/>
     </row>
     <row r="594">
       <c r="A594" s="14"/>
-      <c r="D594" s="49"/>
+      <c r="D594" s="48"/>
     </row>
     <row r="595">
       <c r="A595" s="14"/>
-      <c r="D595" s="49"/>
+      <c r="D595" s="48"/>
     </row>
     <row r="596">
       <c r="A596" s="14"/>
-      <c r="D596" s="49"/>
+      <c r="D596" s="48"/>
     </row>
     <row r="597">
       <c r="A597" s="14"/>
-      <c r="D597" s="49"/>
+      <c r="D597" s="48"/>
     </row>
     <row r="598">
       <c r="A598" s="14"/>
-      <c r="D598" s="49"/>
+      <c r="D598" s="48"/>
     </row>
     <row r="599">
       <c r="A599" s="14"/>
-      <c r="D599" s="49"/>
+      <c r="D599" s="48"/>
     </row>
     <row r="600">
       <c r="A600" s="14"/>
-      <c r="D600" s="49"/>
+      <c r="D600" s="48"/>
     </row>
     <row r="601">
       <c r="A601" s="14"/>
-      <c r="D601" s="49"/>
+      <c r="D601" s="48"/>
     </row>
     <row r="602">
       <c r="A602" s="14"/>
-      <c r="D602" s="49"/>
+      <c r="D602" s="48"/>
     </row>
     <row r="603">
       <c r="A603" s="14"/>
-      <c r="D603" s="49"/>
+      <c r="D603" s="48"/>
     </row>
     <row r="604">
       <c r="A604" s="14"/>
-      <c r="D604" s="49"/>
+      <c r="D604" s="48"/>
     </row>
     <row r="605">
       <c r="A605" s="14"/>
-      <c r="D605" s="49"/>
+      <c r="D605" s="48"/>
     </row>
     <row r="606">
       <c r="A606" s="14"/>
-      <c r="D606" s="49"/>
+      <c r="D606" s="48"/>
     </row>
     <row r="607">
       <c r="A607" s="14"/>
-      <c r="D607" s="49"/>
+      <c r="D607" s="48"/>
     </row>
     <row r="608">
       <c r="A608" s="14"/>
-      <c r="D608" s="49"/>
+      <c r="D608" s="48"/>
     </row>
     <row r="609">
       <c r="A609" s="14"/>
-      <c r="D609" s="49"/>
+      <c r="D609" s="48"/>
     </row>
     <row r="610">
       <c r="A610" s="14"/>
-      <c r="D610" s="49"/>
+      <c r="D610" s="48"/>
     </row>
     <row r="611">
       <c r="A611" s="14"/>
-      <c r="D611" s="49"/>
+      <c r="D611" s="48"/>
     </row>
     <row r="612">
       <c r="A612" s="14"/>
-      <c r="D612" s="49"/>
+      <c r="D612" s="48"/>
     </row>
     <row r="613">
       <c r="A613" s="14"/>
-      <c r="D613" s="49"/>
+      <c r="D613" s="48"/>
     </row>
     <row r="614">
       <c r="A614" s="14"/>
-      <c r="D614" s="49"/>
+      <c r="D614" s="48"/>
     </row>
     <row r="615">
       <c r="A615" s="14"/>
-      <c r="D615" s="49"/>
+      <c r="D615" s="48"/>
     </row>
     <row r="616">
       <c r="A616" s="14"/>
-      <c r="D616" s="49"/>
+      <c r="D616" s="48"/>
     </row>
     <row r="617">
       <c r="A617" s="14"/>
-      <c r="D617" s="49"/>
+      <c r="D617" s="48"/>
     </row>
     <row r="618">
       <c r="A618" s="14"/>
-      <c r="D618" s="49"/>
+      <c r="D618" s="48"/>
     </row>
     <row r="619">
       <c r="A619" s="14"/>
-      <c r="D619" s="49"/>
+      <c r="D619" s="48"/>
     </row>
     <row r="620">
       <c r="A620" s="14"/>
-      <c r="D620" s="49"/>
+      <c r="D620" s="48"/>
     </row>
     <row r="621">
       <c r="A621" s="14"/>
-      <c r="D621" s="49"/>
+      <c r="D621" s="48"/>
     </row>
     <row r="622">
       <c r="A622" s="14"/>
-      <c r="D622" s="49"/>
+      <c r="D622" s="48"/>
     </row>
     <row r="623">
       <c r="A623" s="14"/>
-      <c r="D623" s="49"/>
+      <c r="D623" s="48"/>
     </row>
     <row r="624">
       <c r="A624" s="14"/>
-      <c r="D624" s="49"/>
+      <c r="D624" s="48"/>
     </row>
     <row r="625">
       <c r="A625" s="14"/>
-      <c r="D625" s="49"/>
+      <c r="D625" s="48"/>
     </row>
     <row r="626">
       <c r="A626" s="14"/>
-      <c r="D626" s="49"/>
+      <c r="D626" s="48"/>
     </row>
     <row r="627">
       <c r="A627" s="14"/>
-      <c r="D627" s="49"/>
+      <c r="D627" s="48"/>
     </row>
     <row r="628">
       <c r="A628" s="14"/>
-      <c r="D628" s="49"/>
+      <c r="D628" s="48"/>
     </row>
     <row r="629">
       <c r="A629" s="14"/>
-      <c r="D629" s="49"/>
+      <c r="D629" s="48"/>
     </row>
     <row r="630">
       <c r="A630" s="14"/>
-      <c r="D630" s="49"/>
+      <c r="D630" s="48"/>
     </row>
     <row r="631">
       <c r="A631" s="14"/>
-      <c r="D631" s="49"/>
+      <c r="D631" s="48"/>
     </row>
     <row r="632">
       <c r="A632" s="14"/>
-      <c r="D632" s="49"/>
+      <c r="D632" s="48"/>
     </row>
     <row r="633">
       <c r="A633" s="14"/>
-      <c r="D633" s="49"/>
+      <c r="D633" s="48"/>
     </row>
     <row r="634">
       <c r="A634" s="14"/>
-      <c r="D634" s="49"/>
+      <c r="D634" s="48"/>
     </row>
     <row r="635">
       <c r="A635" s="14"/>
-      <c r="D635" s="49"/>
+      <c r="D635" s="48"/>
     </row>
     <row r="636">
       <c r="A636" s="14"/>
-      <c r="D636" s="49"/>
+      <c r="D636" s="48"/>
     </row>
     <row r="637">
       <c r="A637" s="14"/>
-      <c r="D637" s="49"/>
+      <c r="D637" s="48"/>
     </row>
     <row r="638">
       <c r="A638" s="14"/>
-      <c r="D638" s="49"/>
+      <c r="D638" s="48"/>
     </row>
     <row r="639">
       <c r="A639" s="14"/>
-      <c r="D639" s="49"/>
+      <c r="D639" s="48"/>
     </row>
     <row r="640">
       <c r="A640" s="14"/>
-      <c r="D640" s="49"/>
+      <c r="D640" s="48"/>
     </row>
     <row r="641">
       <c r="A641" s="14"/>
-      <c r="D641" s="49"/>
+      <c r="D641" s="48"/>
     </row>
     <row r="642">
       <c r="A642" s="14"/>
-      <c r="D642" s="49"/>
+      <c r="D642" s="48"/>
     </row>
     <row r="643">
       <c r="A643" s="14"/>
-      <c r="D643" s="49"/>
+      <c r="D643" s="48"/>
     </row>
     <row r="644">
       <c r="A644" s="14"/>
-      <c r="D644" s="49"/>
+      <c r="D644" s="48"/>
     </row>
     <row r="645">
       <c r="A645" s="14"/>
-      <c r="D645" s="49"/>
+      <c r="D645" s="48"/>
     </row>
     <row r="646">
       <c r="A646" s="14"/>
-      <c r="D646" s="49"/>
+      <c r="D646" s="48"/>
     </row>
     <row r="647">
       <c r="A647" s="14"/>
-      <c r="D647" s="49"/>
+      <c r="D647" s="48"/>
     </row>
     <row r="648">
       <c r="A648" s="14"/>
-      <c r="D648" s="49"/>
+      <c r="D648" s="48"/>
     </row>
     <row r="649">
       <c r="A649" s="14"/>
-      <c r="D649" s="49"/>
+      <c r="D649" s="48"/>
     </row>
     <row r="650">
       <c r="A650" s="14"/>
-      <c r="D650" s="49"/>
+      <c r="D650" s="48"/>
     </row>
     <row r="651">
       <c r="A651" s="14"/>
-      <c r="D651" s="49"/>
+      <c r="D651" s="48"/>
     </row>
     <row r="652">
       <c r="A652" s="14"/>
-      <c r="D652" s="49"/>
+      <c r="D652" s="48"/>
     </row>
     <row r="653">
       <c r="A653" s="14"/>
-      <c r="D653" s="49"/>
+      <c r="D653" s="48"/>
     </row>
     <row r="654">
       <c r="A654" s="14"/>
-      <c r="D654" s="49"/>
+      <c r="D654" s="48"/>
     </row>
     <row r="655">
       <c r="A655" s="14"/>
-      <c r="D655" s="49"/>
+      <c r="D655" s="48"/>
     </row>
     <row r="656">
       <c r="A656" s="14"/>
-      <c r="D656" s="49"/>
+      <c r="D656" s="48"/>
     </row>
     <row r="657">
       <c r="A657" s="14"/>
-      <c r="D657" s="49"/>
+      <c r="D657" s="48"/>
     </row>
     <row r="658">
       <c r="A658" s="14"/>
-      <c r="D658" s="49"/>
+      <c r="D658" s="48"/>
     </row>
     <row r="659">
       <c r="A659" s="14"/>
-      <c r="D659" s="49"/>
+      <c r="D659" s="48"/>
     </row>
     <row r="660">
       <c r="A660" s="14"/>
-      <c r="D660" s="49"/>
+      <c r="D660" s="48"/>
     </row>
     <row r="661">
       <c r="A661" s="14"/>
-      <c r="D661" s="49"/>
+      <c r="D661" s="48"/>
     </row>
     <row r="662">
       <c r="A662" s="14"/>
-      <c r="D662" s="49"/>
+      <c r="D662" s="48"/>
     </row>
     <row r="663">
       <c r="A663" s="14"/>
-      <c r="D663" s="49"/>
+      <c r="D663" s="48"/>
     </row>
     <row r="664">
       <c r="A664" s="14"/>
-      <c r="D664" s="49"/>
+      <c r="D664" s="48"/>
     </row>
     <row r="665">
       <c r="A665" s="14"/>
-      <c r="D665" s="49"/>
+      <c r="D665" s="48"/>
     </row>
     <row r="666">
       <c r="A666" s="14"/>
-      <c r="D666" s="49"/>
+      <c r="D666" s="48"/>
     </row>
     <row r="667">
       <c r="A667" s="14"/>
-      <c r="D667" s="49"/>
+      <c r="D667" s="48"/>
     </row>
     <row r="668">
       <c r="A668" s="14"/>
-      <c r="D668" s="49"/>
+      <c r="D668" s="48"/>
     </row>
     <row r="669">
       <c r="A669" s="14"/>
-      <c r="D669" s="49"/>
+      <c r="D669" s="48"/>
     </row>
     <row r="670">
       <c r="A670" s="14"/>
-      <c r="D670" s="49"/>
+      <c r="D670" s="48"/>
     </row>
     <row r="671">
       <c r="A671" s="14"/>
-      <c r="D671" s="49"/>
+      <c r="D671" s="48"/>
     </row>
     <row r="672">
       <c r="A672" s="14"/>
-      <c r="D672" s="49"/>
+      <c r="D672" s="48"/>
     </row>
     <row r="673">
       <c r="A673" s="14"/>
-      <c r="D673" s="49"/>
+      <c r="D673" s="48"/>
     </row>
     <row r="674">
       <c r="A674" s="14"/>
-      <c r="D674" s="49"/>
+      <c r="D674" s="48"/>
     </row>
     <row r="675">
       <c r="A675" s="14"/>
-      <c r="D675" s="49"/>
+      <c r="D675" s="48"/>
     </row>
     <row r="676">
       <c r="A676" s="14"/>
-      <c r="D676" s="49"/>
+      <c r="D676" s="48"/>
     </row>
     <row r="677">
       <c r="A677" s="14"/>
-      <c r="D677" s="49"/>
+      <c r="D677" s="48"/>
     </row>
     <row r="678">
       <c r="A678" s="14"/>
-      <c r="D678" s="49"/>
+      <c r="D678" s="48"/>
     </row>
     <row r="679">
       <c r="A679" s="14"/>
-      <c r="D679" s="49"/>
+      <c r="D679" s="48"/>
     </row>
     <row r="680">
       <c r="A680" s="14"/>
-      <c r="D680" s="49"/>
+      <c r="D680" s="48"/>
     </row>
     <row r="681">
       <c r="A681" s="14"/>
-      <c r="D681" s="49"/>
+      <c r="D681" s="48"/>
     </row>
     <row r="682">
       <c r="A682" s="14"/>
-      <c r="D682" s="49"/>
+      <c r="D682" s="48"/>
     </row>
     <row r="683">
       <c r="A683" s="14"/>
-      <c r="D683" s="49"/>
+      <c r="D683" s="48"/>
     </row>
     <row r="684">
       <c r="A684" s="14"/>
-      <c r="D684" s="49"/>
+      <c r="D684" s="48"/>
     </row>
     <row r="685">
       <c r="A685" s="14"/>
-      <c r="D685" s="49"/>
+      <c r="D685" s="48"/>
     </row>
     <row r="686">
       <c r="A686" s="14"/>
-      <c r="D686" s="49"/>
+      <c r="D686" s="48"/>
     </row>
     <row r="687">
       <c r="A687" s="14"/>
-      <c r="D687" s="49"/>
+      <c r="D687" s="48"/>
     </row>
     <row r="688">
       <c r="A688" s="14"/>
-      <c r="D688" s="49"/>
+      <c r="D688" s="48"/>
     </row>
     <row r="689">
       <c r="A689" s="14"/>
-      <c r="D689" s="49"/>
+      <c r="D689" s="48"/>
     </row>
     <row r="690">
       <c r="A690" s="14"/>
-      <c r="D690" s="49"/>
+      <c r="D690" s="48"/>
     </row>
     <row r="691">
       <c r="A691" s="14"/>
-      <c r="D691" s="49"/>
+      <c r="D691" s="48"/>
     </row>
     <row r="692">
       <c r="A692" s="14"/>
-      <c r="D692" s="49"/>
+      <c r="D692" s="48"/>
     </row>
     <row r="693">
       <c r="A693" s="14"/>
-      <c r="D693" s="49"/>
+      <c r="D693" s="48"/>
     </row>
     <row r="694">
       <c r="A694" s="14"/>
-      <c r="D694" s="49"/>
+      <c r="D694" s="48"/>
     </row>
     <row r="695">
       <c r="A695" s="14"/>
-      <c r="D695" s="49"/>
+      <c r="D695" s="48"/>
     </row>
     <row r="696">
       <c r="A696" s="14"/>
-      <c r="D696" s="49"/>
+      <c r="D696" s="48"/>
     </row>
     <row r="697">
       <c r="A697" s="14"/>
-      <c r="D697" s="49"/>
+      <c r="D697" s="48"/>
     </row>
     <row r="698">
       <c r="A698" s="14"/>
-      <c r="D698" s="49"/>
+      <c r="D698" s="48"/>
     </row>
     <row r="699">
       <c r="A699" s="14"/>
-      <c r="D699" s="49"/>
+      <c r="D699" s="48"/>
     </row>
     <row r="700">
       <c r="A700" s="14"/>
-      <c r="D700" s="49"/>
+      <c r="D700" s="48"/>
     </row>
     <row r="701">
       <c r="A701" s="14"/>
-      <c r="D701" s="49"/>
+      <c r="D701" s="48"/>
     </row>
     <row r="702">
       <c r="A702" s="14"/>
-      <c r="D702" s="49"/>
+      <c r="D702" s="48"/>
     </row>
     <row r="703">
       <c r="A703" s="14"/>
-      <c r="D703" s="49"/>
+      <c r="D703" s="48"/>
     </row>
     <row r="704">
       <c r="A704" s="14"/>
-      <c r="D704" s="49"/>
+      <c r="D704" s="48"/>
     </row>
     <row r="705">
       <c r="A705" s="14"/>
-      <c r="D705" s="49"/>
+      <c r="D705" s="48"/>
     </row>
     <row r="706">
       <c r="A706" s="14"/>
-      <c r="D706" s="49"/>
+      <c r="D706" s="48"/>
     </row>
     <row r="707">
       <c r="A707" s="14"/>
-      <c r="D707" s="49"/>
+      <c r="D707" s="48"/>
     </row>
     <row r="708">
       <c r="A708" s="14"/>
-      <c r="D708" s="49"/>
+      <c r="D708" s="48"/>
     </row>
     <row r="709">
       <c r="A709" s="14"/>
-      <c r="D709" s="49"/>
+      <c r="D709" s="48"/>
     </row>
     <row r="710">
       <c r="A710" s="14"/>
-      <c r="D710" s="49"/>
+      <c r="D710" s="48"/>
     </row>
     <row r="711">
       <c r="A711" s="14"/>
-      <c r="D711" s="49"/>
+      <c r="D711" s="48"/>
     </row>
     <row r="712">
       <c r="A712" s="14"/>
-      <c r="D712" s="49"/>
+      <c r="D712" s="48"/>
     </row>
     <row r="713">
       <c r="A713" s="14"/>
-      <c r="D713" s="49"/>
+      <c r="D713" s="48"/>
     </row>
     <row r="714">
       <c r="A714" s="14"/>
-      <c r="D714" s="49"/>
+      <c r="D714" s="48"/>
     </row>
     <row r="715">
       <c r="A715" s="14"/>
-      <c r="D715" s="49"/>
+      <c r="D715" s="48"/>
     </row>
     <row r="716">
       <c r="A716" s="14"/>
-      <c r="D716" s="49"/>
+      <c r="D716" s="48"/>
     </row>
     <row r="717">
       <c r="A717" s="14"/>
-      <c r="D717" s="49"/>
+      <c r="D717" s="48"/>
     </row>
     <row r="718">
       <c r="A718" s="14"/>
-      <c r="D718" s="49"/>
+      <c r="D718" s="48"/>
     </row>
     <row r="719">
       <c r="A719" s="14"/>
-      <c r="D719" s="49"/>
+      <c r="D719" s="48"/>
     </row>
     <row r="720">
       <c r="A720" s="14"/>
-      <c r="D720" s="49"/>
+      <c r="D720" s="48"/>
     </row>
     <row r="721">
       <c r="A721" s="14"/>
-      <c r="D721" s="49"/>
+      <c r="D721" s="48"/>
     </row>
     <row r="722">
       <c r="A722" s="14"/>
-      <c r="D722" s="49"/>
+      <c r="D722" s="48"/>
     </row>
     <row r="723">
       <c r="A723" s="14"/>
-      <c r="D723" s="49"/>
+      <c r="D723" s="48"/>
     </row>
     <row r="724">
       <c r="A724" s="14"/>
-      <c r="D724" s="49"/>
+      <c r="D724" s="48"/>
     </row>
     <row r="725">
       <c r="A725" s="14"/>
-      <c r="D725" s="49"/>
+      <c r="D725" s="48"/>
     </row>
     <row r="726">
       <c r="A726" s="14"/>
-      <c r="D726" s="49"/>
+      <c r="D726" s="48"/>
     </row>
     <row r="727">
       <c r="A727" s="14"/>
-      <c r="D727" s="49"/>
+      <c r="D727" s="48"/>
     </row>
     <row r="728">
       <c r="A728" s="14"/>
-      <c r="D728" s="49"/>
+      <c r="D728" s="48"/>
     </row>
     <row r="729">
       <c r="A729" s="14"/>
-      <c r="D729" s="49"/>
+      <c r="D729" s="48"/>
     </row>
     <row r="730">
       <c r="A730" s="14"/>
-      <c r="D730" s="49"/>
+      <c r="D730" s="48"/>
     </row>
     <row r="731">
       <c r="A731" s="14"/>
-      <c r="D731" s="49"/>
+      <c r="D731" s="48"/>
     </row>
     <row r="732">
       <c r="A732" s="14"/>
-      <c r="D732" s="49"/>
+      <c r="D732" s="48"/>
     </row>
     <row r="733">
       <c r="A733" s="14"/>
-      <c r="D733" s="49"/>
+      <c r="D733" s="48"/>
     </row>
     <row r="734">
       <c r="A734" s="14"/>
-      <c r="D734" s="49"/>
+      <c r="D734" s="48"/>
     </row>
     <row r="735">
       <c r="A735" s="14"/>
-      <c r="D735" s="49"/>
+      <c r="D735" s="48"/>
     </row>
     <row r="736">
       <c r="A736" s="14"/>
-      <c r="D736" s="49"/>
+      <c r="D736" s="48"/>
     </row>
     <row r="737">
       <c r="A737" s="14"/>
-      <c r="D737" s="49"/>
+      <c r="D737" s="48"/>
     </row>
     <row r="738">
       <c r="A738" s="14"/>
-      <c r="D738" s="49"/>
+      <c r="D738" s="48"/>
     </row>
     <row r="739">
       <c r="A739" s="14"/>
-      <c r="D739" s="49"/>
+      <c r="D739" s="48"/>
     </row>
     <row r="740">
       <c r="A740" s="14"/>
-      <c r="D740" s="49"/>
+      <c r="D740" s="48"/>
     </row>
     <row r="741">
       <c r="A741" s="14"/>
-      <c r="D741" s="49"/>
+      <c r="D741" s="48"/>
     </row>
     <row r="742">
       <c r="A742" s="14"/>
-      <c r="D742" s="49"/>
+      <c r="D742" s="48"/>
     </row>
     <row r="743">
       <c r="A743" s="14"/>
-      <c r="D743" s="49"/>
+      <c r="D743" s="48"/>
     </row>
     <row r="744">
       <c r="A744" s="14"/>
-      <c r="D744" s="49"/>
+      <c r="D744" s="48"/>
     </row>
     <row r="745">
       <c r="A745" s="14"/>
-      <c r="D745" s="49"/>
+      <c r="D745" s="48"/>
     </row>
     <row r="746">
       <c r="A746" s="14"/>
-      <c r="D746" s="49"/>
+      <c r="D746" s="48"/>
     </row>
     <row r="747">
       <c r="A747" s="14"/>
-      <c r="D747" s="49"/>
+      <c r="D747" s="48"/>
     </row>
     <row r="748">
       <c r="A748" s="14"/>
-      <c r="D748" s="49"/>
+      <c r="D748" s="48"/>
     </row>
     <row r="749">
       <c r="A749" s="14"/>
-      <c r="D749" s="49"/>
+      <c r="D749" s="48"/>
     </row>
     <row r="750">
       <c r="A750" s="14"/>
-      <c r="D750" s="49"/>
+      <c r="D750" s="48"/>
     </row>
     <row r="751">
       <c r="A751" s="14"/>
-      <c r="D751" s="49"/>
+      <c r="D751" s="48"/>
     </row>
     <row r="752">
       <c r="A752" s="14"/>
-      <c r="D752" s="49"/>
+      <c r="D752" s="48"/>
     </row>
     <row r="753">
       <c r="A753" s="14"/>
-      <c r="D753" s="49"/>
+      <c r="D753" s="48"/>
     </row>
     <row r="754">
       <c r="A754" s="14"/>
-      <c r="D754" s="49"/>
+      <c r="D754" s="48"/>
     </row>
     <row r="755">
       <c r="A755" s="14"/>
-      <c r="D755" s="49"/>
+      <c r="D755" s="48"/>
     </row>
     <row r="756">
       <c r="A756" s="14"/>
-      <c r="D756" s="49"/>
+      <c r="D756" s="48"/>
     </row>
     <row r="757">
       <c r="A757" s="14"/>
-      <c r="D757" s="49"/>
+      <c r="D757" s="48"/>
     </row>
     <row r="758">
       <c r="A758" s="14"/>
-      <c r="D758" s="49"/>
+      <c r="D758" s="48"/>
     </row>
     <row r="759">
       <c r="A759" s="14"/>
-      <c r="D759" s="49"/>
+      <c r="D759" s="48"/>
     </row>
     <row r="760">
       <c r="A760" s="14"/>
-      <c r="D760" s="49"/>
+      <c r="D760" s="48"/>
     </row>
     <row r="761">
       <c r="A761" s="14"/>
-      <c r="D761" s="49"/>
+      <c r="D761" s="48"/>
     </row>
     <row r="762">
       <c r="A762" s="14"/>
-      <c r="D762" s="49"/>
+      <c r="D762" s="48"/>
     </row>
     <row r="763">
       <c r="A763" s="14"/>
-      <c r="D763" s="49"/>
+      <c r="D763" s="48"/>
     </row>
     <row r="764">
       <c r="A764" s="14"/>
-      <c r="D764" s="49"/>
+      <c r="D764" s="48"/>
     </row>
     <row r="765">
       <c r="A765" s="14"/>
-      <c r="D765" s="49"/>
+      <c r="D765" s="48"/>
     </row>
     <row r="766">
       <c r="A766" s="14"/>
-      <c r="D766" s="49"/>
+      <c r="D766" s="48"/>
     </row>
     <row r="767">
       <c r="A767" s="14"/>
-      <c r="D767" s="49"/>
+      <c r="D767" s="48"/>
     </row>
     <row r="768">
       <c r="A768" s="14"/>
-      <c r="D768" s="49"/>
+      <c r="D768" s="48"/>
     </row>
     <row r="769">
       <c r="A769" s="14"/>
-      <c r="D769" s="49"/>
+      <c r="D769" s="48"/>
     </row>
     <row r="770">
       <c r="A770" s="14"/>
-      <c r="D770" s="49"/>
+      <c r="D770" s="48"/>
     </row>
     <row r="771">
       <c r="A771" s="14"/>
-      <c r="D771" s="49"/>
+      <c r="D771" s="48"/>
     </row>
     <row r="772">
       <c r="A772" s="14"/>
-      <c r="D772" s="49"/>
+      <c r="D772" s="48"/>
     </row>
     <row r="773">
       <c r="A773" s="14"/>
-      <c r="D773" s="49"/>
+      <c r="D773" s="48"/>
     </row>
     <row r="774">
       <c r="A774" s="14"/>
-      <c r="D774" s="49"/>
+      <c r="D774" s="48"/>
     </row>
     <row r="775">
       <c r="A775" s="14"/>
-      <c r="D775" s="49"/>
+      <c r="D775" s="48"/>
     </row>
     <row r="776">
       <c r="A776" s="14"/>
-      <c r="D776" s="49"/>
+      <c r="D776" s="48"/>
     </row>
     <row r="777">
       <c r="A777" s="14"/>
-      <c r="D777" s="49"/>
+      <c r="D777" s="48"/>
     </row>
     <row r="778">
       <c r="A778" s="14"/>
-      <c r="D778" s="49"/>
+      <c r="D778" s="48"/>
     </row>
     <row r="779">
       <c r="A779" s="14"/>
-      <c r="D779" s="49"/>
+      <c r="D779" s="48"/>
     </row>
     <row r="780">
       <c r="A780" s="14"/>
-      <c r="D780" s="49"/>
+      <c r="D780" s="48"/>
     </row>
     <row r="781">
       <c r="A781" s="14"/>
-      <c r="D781" s="49"/>
+      <c r="D781" s="48"/>
     </row>
     <row r="782">
       <c r="A782" s="14"/>
-      <c r="D782" s="49"/>
+      <c r="D782" s="48"/>
     </row>
     <row r="783">
       <c r="A783" s="14"/>
-      <c r="D783" s="49"/>
+      <c r="D783" s="48"/>
     </row>
     <row r="784">
       <c r="A784" s="14"/>
-      <c r="D784" s="49"/>
+      <c r="D784" s="48"/>
     </row>
     <row r="785">
       <c r="A785" s="14"/>
-      <c r="D785" s="49"/>
+      <c r="D785" s="48"/>
     </row>
     <row r="786">
       <c r="A786" s="14"/>
-      <c r="D786" s="49"/>
+      <c r="D786" s="48"/>
     </row>
     <row r="787">
       <c r="A787" s="14"/>
-      <c r="D787" s="49"/>
+      <c r="D787" s="48"/>
     </row>
     <row r="788">
       <c r="A788" s="14"/>
-      <c r="D788" s="49"/>
+      <c r="D788" s="48"/>
     </row>
     <row r="789">
       <c r="A789" s="14"/>
-      <c r="D789" s="49"/>
+      <c r="D789" s="48"/>
     </row>
     <row r="790">
       <c r="A790" s="14"/>
-      <c r="D790" s="49"/>
+      <c r="D790" s="48"/>
     </row>
     <row r="791">
       <c r="A791" s="14"/>
-      <c r="D791" s="49"/>
+      <c r="D791" s="48"/>
     </row>
     <row r="792">
       <c r="A792" s="14"/>
-      <c r="D792" s="49"/>
+      <c r="D792" s="48"/>
     </row>
     <row r="793">
       <c r="A793" s="14"/>
-      <c r="D793" s="49"/>
+      <c r="D793" s="48"/>
     </row>
     <row r="794">
       <c r="A794" s="14"/>
-      <c r="D794" s="49"/>
+      <c r="D794" s="48"/>
     </row>
     <row r="795">
       <c r="A795" s="14"/>
-      <c r="D795" s="49"/>
+      <c r="D795" s="48"/>
     </row>
     <row r="796">
       <c r="A796" s="14"/>
-      <c r="D796" s="49"/>
+      <c r="D796" s="48"/>
     </row>
     <row r="797">
       <c r="A797" s="14"/>
-      <c r="D797" s="49"/>
+      <c r="D797" s="48"/>
     </row>
     <row r="798">
       <c r="A798" s="14"/>
-      <c r="D798" s="49"/>
+      <c r="D798" s="48"/>
     </row>
     <row r="799">
       <c r="A799" s="14"/>
-      <c r="D799" s="49"/>
+      <c r="D799" s="48"/>
     </row>
     <row r="800">
       <c r="A800" s="14"/>
-      <c r="D800" s="49"/>
+      <c r="D800" s="48"/>
     </row>
     <row r="801">
       <c r="A801" s="14"/>
-      <c r="D801" s="49"/>
+      <c r="D801" s="48"/>
     </row>
     <row r="802">
       <c r="A802" s="14"/>
-      <c r="D802" s="49"/>
+      <c r="D802" s="48"/>
     </row>
     <row r="803">
       <c r="A803" s="14"/>
-      <c r="D803" s="49"/>
+      <c r="D803" s="48"/>
     </row>
     <row r="804">
       <c r="A804" s="14"/>
-      <c r="D804" s="49"/>
+      <c r="D804" s="48"/>
     </row>
     <row r="805">
       <c r="A805" s="14"/>
-      <c r="D805" s="49"/>
+      <c r="D805" s="48"/>
     </row>
     <row r="806">
       <c r="A806" s="14"/>
-      <c r="D806" s="49"/>
+      <c r="D806" s="48"/>
     </row>
     <row r="807">
       <c r="A807" s="14"/>
-      <c r="D807" s="49"/>
+      <c r="D807" s="48"/>
     </row>
     <row r="808">
       <c r="A808" s="14"/>
-      <c r="D808" s="49"/>
+      <c r="D808" s="48"/>
     </row>
     <row r="809">
       <c r="A809" s="14"/>
-      <c r="D809" s="49"/>
+      <c r="D809" s="48"/>
     </row>
     <row r="810">
       <c r="A810" s="14"/>
-      <c r="D810" s="49"/>
+      <c r="D810" s="48"/>
     </row>
     <row r="811">
       <c r="A811" s="14"/>
-      <c r="D811" s="49"/>
+      <c r="D811" s="48"/>
     </row>
     <row r="812">
       <c r="A812" s="14"/>
-      <c r="D812" s="49"/>
+      <c r="D812" s="48"/>
     </row>
     <row r="813">
       <c r="A813" s="14"/>
-      <c r="D813" s="49"/>
+      <c r="D813" s="48"/>
     </row>
     <row r="814">
       <c r="A814" s="14"/>
-      <c r="D814" s="49"/>
+      <c r="D814" s="48"/>
     </row>
     <row r="815">
       <c r="A815" s="14"/>
-      <c r="D815" s="49"/>
+      <c r="D815" s="48"/>
     </row>
     <row r="816">
       <c r="A816" s="14"/>
-      <c r="D816" s="49"/>
+      <c r="D816" s="48"/>
     </row>
     <row r="817">
       <c r="A817" s="14"/>
-      <c r="D817" s="49"/>
+      <c r="D817" s="48"/>
     </row>
     <row r="818">
       <c r="A818" s="14"/>
-      <c r="D818" s="49"/>
+      <c r="D818" s="48"/>
     </row>
     <row r="819">
       <c r="A819" s="14"/>
-      <c r="D819" s="49"/>
+      <c r="D819" s="48"/>
     </row>
     <row r="820">
       <c r="A820" s="14"/>
-      <c r="D820" s="49"/>
+      <c r="D820" s="48"/>
     </row>
     <row r="821">
       <c r="A821" s="14"/>
-      <c r="D821" s="49"/>
+      <c r="D821" s="48"/>
     </row>
     <row r="822">
       <c r="A822" s="14"/>
-      <c r="D822" s="49"/>
+      <c r="D822" s="48"/>
     </row>
     <row r="823">
       <c r="A823" s="14"/>
-      <c r="D823" s="49"/>
+      <c r="D823" s="48"/>
     </row>
     <row r="824">
       <c r="A824" s="14"/>
-      <c r="D824" s="49"/>
+      <c r="D824" s="48"/>
     </row>
     <row r="825">
       <c r="A825" s="14"/>
-      <c r="D825" s="49"/>
+      <c r="D825" s="48"/>
     </row>
     <row r="826">
       <c r="A826" s="14"/>
-      <c r="D826" s="49"/>
+      <c r="D826" s="48"/>
     </row>
     <row r="827">
       <c r="A827" s="14"/>
-      <c r="D827" s="49"/>
+      <c r="D827" s="48"/>
     </row>
     <row r="828">
       <c r="A828" s="14"/>
-      <c r="D828" s="49"/>
+      <c r="D828" s="48"/>
     </row>
     <row r="829">
       <c r="A829" s="14"/>
-      <c r="D829" s="49"/>
+      <c r="D829" s="48"/>
     </row>
     <row r="830">
       <c r="A830" s="14"/>
-      <c r="D830" s="49"/>
+      <c r="D830" s="48"/>
     </row>
     <row r="831">
       <c r="A831" s="14"/>
-      <c r="D831" s="49"/>
+      <c r="D831" s="48"/>
     </row>
     <row r="832">
       <c r="A832" s="14"/>
-      <c r="D832" s="49"/>
+      <c r="D832" s="48"/>
     </row>
     <row r="833">
       <c r="A833" s="14"/>
-      <c r="D833" s="49"/>
+      <c r="D833" s="48"/>
     </row>
     <row r="834">
       <c r="A834" s="14"/>
-      <c r="D834" s="49"/>
+      <c r="D834" s="48"/>
     </row>
     <row r="835">
       <c r="A835" s="14"/>
-      <c r="D835" s="49"/>
+      <c r="D835" s="48"/>
     </row>
     <row r="836">
       <c r="A836" s="14"/>
-      <c r="D836" s="49"/>
+      <c r="D836" s="48"/>
     </row>
     <row r="837">
       <c r="A837" s="14"/>
-      <c r="D837" s="49"/>
+      <c r="D837" s="48"/>
     </row>
     <row r="838">
       <c r="A838" s="14"/>
-      <c r="D838" s="49"/>
+      <c r="D838" s="48"/>
     </row>
     <row r="839">
       <c r="A839" s="14"/>
-      <c r="D839" s="49"/>
+      <c r="D839" s="48"/>
     </row>
     <row r="840">
       <c r="A840" s="14"/>
-      <c r="D840" s="49"/>
+      <c r="D840" s="48"/>
     </row>
     <row r="841">
       <c r="A841" s="14"/>
-      <c r="D841" s="49"/>
+      <c r="D841" s="48"/>
     </row>
     <row r="842">
       <c r="A842" s="14"/>
-      <c r="D842" s="49"/>
+      <c r="D842" s="48"/>
     </row>
     <row r="843">
       <c r="A843" s="14"/>
-      <c r="D843" s="49"/>
+      <c r="D843" s="48"/>
     </row>
     <row r="844">
       <c r="A844" s="14"/>
-      <c r="D844" s="49"/>
+      <c r="D844" s="48"/>
     </row>
     <row r="845">
       <c r="A845" s="14"/>
-      <c r="D845" s="49"/>
+      <c r="D845" s="48"/>
     </row>
     <row r="846">
       <c r="A846" s="14"/>
-      <c r="D846" s="49"/>
+      <c r="D846" s="48"/>
     </row>
     <row r="847">
       <c r="A847" s="14"/>
-      <c r="D847" s="49"/>
+      <c r="D847" s="48"/>
     </row>
     <row r="848">
       <c r="A848" s="14"/>
-      <c r="D848" s="49"/>
+      <c r="D848" s="48"/>
     </row>
     <row r="849">
       <c r="A849" s="14"/>
-      <c r="D849" s="49"/>
+      <c r="D849" s="48"/>
     </row>
     <row r="850">
       <c r="A850" s="14"/>
-      <c r="D850" s="49"/>
+      <c r="D850" s="48"/>
     </row>
     <row r="851">
       <c r="A851" s="14"/>
-      <c r="D851" s="49"/>
+      <c r="D851" s="48"/>
     </row>
     <row r="852">
       <c r="A852" s="14"/>
-      <c r="D852" s="49"/>
+      <c r="D852" s="48"/>
     </row>
     <row r="853">
       <c r="A853" s="14"/>
-      <c r="D853" s="49"/>
+      <c r="D853" s="48"/>
     </row>
     <row r="854">
       <c r="A854" s="14"/>
-      <c r="D854" s="49"/>
+      <c r="D854" s="48"/>
     </row>
     <row r="855">
       <c r="A855" s="14"/>
-      <c r="D855" s="49"/>
+      <c r="D855" s="48"/>
     </row>
     <row r="856">
       <c r="A856" s="14"/>
-      <c r="D856" s="49"/>
+      <c r="D856" s="48"/>
     </row>
     <row r="857">
       <c r="A857" s="14"/>
-      <c r="D857" s="49"/>
+      <c r="D857" s="48"/>
     </row>
     <row r="858">
       <c r="A858" s="14"/>
-      <c r="D858" s="49"/>
+      <c r="D858" s="48"/>
     </row>
     <row r="859">
       <c r="A859" s="14"/>
-      <c r="D859" s="49"/>
+      <c r="D859" s="48"/>
     </row>
     <row r="860">
       <c r="A860" s="14"/>
-      <c r="D860" s="49"/>
+      <c r="D860" s="48"/>
     </row>
     <row r="861">
       <c r="A861" s="14"/>
-      <c r="D861" s="49"/>
+      <c r="D861" s="48"/>
     </row>
     <row r="862">
       <c r="A862" s="14"/>
-      <c r="D862" s="49"/>
+      <c r="D862" s="48"/>
     </row>
     <row r="863">
       <c r="A863" s="14"/>
-      <c r="D863" s="49"/>
+      <c r="D863" s="48"/>
     </row>
     <row r="864">
       <c r="A864" s="14"/>
-      <c r="D864" s="49"/>
+      <c r="D864" s="48"/>
     </row>
     <row r="865">
       <c r="A865" s="14"/>
-      <c r="D865" s="49"/>
+      <c r="D865" s="48"/>
     </row>
     <row r="866">
       <c r="A866" s="14"/>
-      <c r="D866" s="49"/>
+      <c r="D866" s="48"/>
     </row>
     <row r="867">
       <c r="A867" s="14"/>
-      <c r="D867" s="49"/>
+      <c r="D867" s="48"/>
     </row>
     <row r="868">
       <c r="A868" s="14"/>
-      <c r="D868" s="49"/>
+      <c r="D868" s="48"/>
     </row>
     <row r="869">
       <c r="A869" s="14"/>
-      <c r="D869" s="49"/>
+      <c r="D869" s="48"/>
     </row>
     <row r="870">
       <c r="A870" s="14"/>
-      <c r="D870" s="49"/>
+      <c r="D870" s="48"/>
     </row>
     <row r="871">
       <c r="A871" s="14"/>
-      <c r="D871" s="49"/>
+      <c r="D871" s="48"/>
     </row>
     <row r="872">
       <c r="A872" s="14"/>
-      <c r="D872" s="49"/>
+      <c r="D872" s="48"/>
     </row>
     <row r="873">
       <c r="A873" s="14"/>
-      <c r="D873" s="49"/>
+      <c r="D873" s="48"/>
     </row>
     <row r="874">
       <c r="A874" s="14"/>
-      <c r="D874" s="49"/>
+      <c r="D874" s="48"/>
     </row>
     <row r="875">
       <c r="A875" s="14"/>
-      <c r="D875" s="49"/>
+      <c r="D875" s="48"/>
     </row>
     <row r="876">
       <c r="A876" s="14"/>
-      <c r="D876" s="49"/>
+      <c r="D876" s="48"/>
     </row>
     <row r="877">
       <c r="A877" s="14"/>
-      <c r="D877" s="49"/>
+      <c r="D877" s="48"/>
     </row>
     <row r="878">
       <c r="A878" s="14"/>
-      <c r="D878" s="49"/>
+      <c r="D878" s="48"/>
     </row>
     <row r="879">
       <c r="A879" s="14"/>
-      <c r="D879" s="49"/>
+      <c r="D879" s="48"/>
     </row>
     <row r="880">
       <c r="A880" s="14"/>
-      <c r="D880" s="49"/>
+      <c r="D880" s="48"/>
     </row>
     <row r="881">
       <c r="A881" s="14"/>
-      <c r="D881" s="49"/>
+      <c r="D881" s="48"/>
     </row>
     <row r="882">
       <c r="A882" s="14"/>
-      <c r="D882" s="49"/>
+      <c r="D882" s="48"/>
     </row>
     <row r="883">
       <c r="A883" s="14"/>
-      <c r="D883" s="49"/>
+      <c r="D883" s="48"/>
     </row>
     <row r="884">
       <c r="A884" s="14"/>
-      <c r="D884" s="49"/>
+      <c r="D884" s="48"/>
     </row>
     <row r="885">
       <c r="A885" s="14"/>
-      <c r="D885" s="49"/>
+      <c r="D885" s="48"/>
     </row>
     <row r="886">
       <c r="A886" s="14"/>
-      <c r="D886" s="49"/>
+      <c r="D886" s="48"/>
     </row>
     <row r="887">
       <c r="A887" s="14"/>
-      <c r="D887" s="49"/>
+      <c r="D887" s="48"/>
     </row>
     <row r="888">
       <c r="A888" s="14"/>
-      <c r="D888" s="49"/>
+      <c r="D888" s="48"/>
     </row>
     <row r="889">
       <c r="A889" s="14"/>
-      <c r="D889" s="49"/>
+      <c r="D889" s="48"/>
     </row>
     <row r="890">
       <c r="A890" s="14"/>
-      <c r="D890" s="49"/>
+      <c r="D890" s="48"/>
     </row>
     <row r="891">
       <c r="A891" s="14"/>
-      <c r="D891" s="49"/>
+      <c r="D891" s="48"/>
     </row>
     <row r="892">
       <c r="A892" s="14"/>
-      <c r="D892" s="49"/>
+      <c r="D892" s="48"/>
     </row>
     <row r="893">
       <c r="A893" s="14"/>
-      <c r="D893" s="49"/>
+      <c r="D893" s="48"/>
     </row>
     <row r="894">
       <c r="A894" s="14"/>
-      <c r="D894" s="49"/>
+      <c r="D894" s="48"/>
     </row>
     <row r="895">
       <c r="A895" s="14"/>
-      <c r="D895" s="49"/>
+      <c r="D895" s="48"/>
     </row>
     <row r="896">
       <c r="A896" s="14"/>
-      <c r="D896" s="49"/>
+      <c r="D896" s="48"/>
     </row>
     <row r="897">
       <c r="A897" s="14"/>
-      <c r="D897" s="49"/>
+      <c r="D897" s="48"/>
     </row>
     <row r="898">
       <c r="A898" s="14"/>
-      <c r="D898" s="49"/>
+      <c r="D898" s="48"/>
     </row>
     <row r="899">
       <c r="A899" s="14"/>
-      <c r="D899" s="49"/>
+      <c r="D899" s="48"/>
     </row>
     <row r="900">
       <c r="A900" s="14"/>
-      <c r="D900" s="49"/>
+      <c r="D900" s="48"/>
     </row>
     <row r="901">
       <c r="A901" s="14"/>
-      <c r="D901" s="49"/>
+      <c r="D901" s="48"/>
     </row>
     <row r="902">
       <c r="A902" s="14"/>
-      <c r="D902" s="49"/>
+      <c r="D902" s="48"/>
     </row>
     <row r="903">
       <c r="A903" s="14"/>
-      <c r="D903" s="49"/>
+      <c r="D903" s="48"/>
     </row>
     <row r="904">
       <c r="A904" s="14"/>
-      <c r="D904" s="49"/>
+      <c r="D904" s="48"/>
     </row>
     <row r="905">
       <c r="A905" s="14"/>
-      <c r="D905" s="49"/>
+      <c r="D905" s="48"/>
     </row>
     <row r="906">
       <c r="A906" s="14"/>
-      <c r="D906" s="49"/>
+      <c r="D906" s="48"/>
     </row>
     <row r="907">
       <c r="A907" s="14"/>
-      <c r="D907" s="49"/>
+      <c r="D907" s="48"/>
     </row>
     <row r="908">
       <c r="A908" s="14"/>
-      <c r="D908" s="49"/>
+      <c r="D908" s="48"/>
     </row>
     <row r="909">
       <c r="A909" s="14"/>
-      <c r="D909" s="49"/>
+      <c r="D909" s="48"/>
     </row>
     <row r="910">
       <c r="A910" s="14"/>
-      <c r="D910" s="49"/>
+      <c r="D910" s="48"/>
     </row>
     <row r="911">
       <c r="A911" s="14"/>
-      <c r="D911" s="49"/>
+      <c r="D911" s="48"/>
     </row>
     <row r="912">
       <c r="A912" s="14"/>
-      <c r="D912" s="49"/>
+      <c r="D912" s="48"/>
     </row>
     <row r="913">
       <c r="A913" s="14"/>
-      <c r="D913" s="49"/>
+      <c r="D913" s="48"/>
     </row>
     <row r="914">
       <c r="A914" s="14"/>
-      <c r="D914" s="49"/>
+      <c r="D914" s="48"/>
     </row>
     <row r="915">
       <c r="A915" s="14"/>
-      <c r="D915" s="49"/>
+      <c r="D915" s="48"/>
     </row>
     <row r="916">
       <c r="A916" s="14"/>
-      <c r="D916" s="49"/>
+      <c r="D916" s="48"/>
     </row>
     <row r="917">
       <c r="A917" s="14"/>
-      <c r="D917" s="49"/>
+      <c r="D917" s="48"/>
     </row>
     <row r="918">
       <c r="A918" s="14"/>
-      <c r="D918" s="49"/>
+      <c r="D918" s="48"/>
     </row>
     <row r="919">
       <c r="A919" s="14"/>
-      <c r="D919" s="49"/>
+      <c r="D919" s="48"/>
     </row>
     <row r="920">
       <c r="A920" s="14"/>
-      <c r="D920" s="49"/>
+      <c r="D920" s="48"/>
     </row>
     <row r="921">
       <c r="A921" s="14"/>
-      <c r="D921" s="49"/>
+      <c r="D921" s="48"/>
     </row>
     <row r="922">
       <c r="A922" s="14"/>
-      <c r="D922" s="49"/>
+      <c r="D922" s="48"/>
     </row>
     <row r="923">
       <c r="A923" s="14"/>
-      <c r="D923" s="49"/>
+      <c r="D923" s="48"/>
     </row>
     <row r="924">
       <c r="A924" s="14"/>
-      <c r="D924" s="49"/>
+      <c r="D924" s="48"/>
     </row>
     <row r="925">
       <c r="A925" s="14"/>
-      <c r="D925" s="49"/>
+      <c r="D925" s="48"/>
     </row>
     <row r="926">
       <c r="A926" s="14"/>
-      <c r="D926" s="49"/>
+      <c r="D926" s="48"/>
     </row>
     <row r="927">
       <c r="A927" s="14"/>
-      <c r="D927" s="49"/>
+      <c r="D927" s="48"/>
     </row>
     <row r="928">
       <c r="A928" s="14"/>
-      <c r="D928" s="49"/>
+      <c r="D928" s="48"/>
     </row>
     <row r="929">
       <c r="A929" s="14"/>
-      <c r="D929" s="49"/>
+      <c r="D929" s="48"/>
     </row>
     <row r="930">
       <c r="A930" s="14"/>
-      <c r="D930" s="49"/>
+      <c r="D930" s="48"/>
     </row>
     <row r="931">
       <c r="A931" s="14"/>
-      <c r="D931" s="49"/>
+      <c r="D931" s="48"/>
     </row>
     <row r="932">
       <c r="A932" s="14"/>
-      <c r="D932" s="49"/>
+      <c r="D932" s="48"/>
     </row>
     <row r="933">
       <c r="A933" s="14"/>
-      <c r="D933" s="49"/>
+      <c r="D933" s="48"/>
     </row>
     <row r="934">
       <c r="A934" s="14"/>
-      <c r="D934" s="49"/>
+      <c r="D934" s="48"/>
     </row>
     <row r="935">
       <c r="A935" s="14"/>
-      <c r="D935" s="49"/>
+      <c r="D935" s="48"/>
     </row>
     <row r="936">
       <c r="A936" s="14"/>
-      <c r="D936" s="49"/>
+      <c r="D936" s="48"/>
     </row>
     <row r="937">
       <c r="A937" s="14"/>
-      <c r="D937" s="49"/>
+      <c r="D937" s="48"/>
     </row>
     <row r="938">
       <c r="A938" s="14"/>
-      <c r="D938" s="49"/>
+      <c r="D938" s="48"/>
     </row>
     <row r="939">
       <c r="A939" s="14"/>
-      <c r="D939" s="49"/>
+      <c r="D939" s="48"/>
     </row>
     <row r="940">
       <c r="A940" s="14"/>
-      <c r="D940" s="49"/>
+      <c r="D940" s="48"/>
     </row>
     <row r="941">
       <c r="A941" s="14"/>
-      <c r="D941" s="49"/>
+      <c r="D941" s="48"/>
     </row>
     <row r="942">
       <c r="A942" s="14"/>
-      <c r="D942" s="49"/>
+      <c r="D942" s="48"/>
     </row>
     <row r="943">
       <c r="A943" s="14"/>
-      <c r="D943" s="49"/>
+      <c r="D943" s="48"/>
     </row>
     <row r="944">
       <c r="A944" s="14"/>
-      <c r="D944" s="49"/>
+      <c r="D944" s="48"/>
     </row>
     <row r="945">
       <c r="A945" s="14"/>
-      <c r="D945" s="49"/>
+      <c r="D945" s="48"/>
     </row>
     <row r="946">
       <c r="A946" s="14"/>
-      <c r="D946" s="49"/>
+      <c r="D946" s="48"/>
     </row>
     <row r="947">
       <c r="A947" s="14"/>
-      <c r="D947" s="49"/>
+      <c r="D947" s="48"/>
     </row>
     <row r="948">
       <c r="A948" s="14"/>
-      <c r="D948" s="49"/>
+      <c r="D948" s="48"/>
     </row>
     <row r="949">
       <c r="A949" s="14"/>
-      <c r="D949" s="49"/>
+      <c r="D949" s="48"/>
     </row>
     <row r="950">
       <c r="A950" s="14"/>
-      <c r="D950" s="49"/>
+      <c r="D950" s="48"/>
     </row>
     <row r="951">
       <c r="A951" s="14"/>
-      <c r="D951" s="49"/>
+      <c r="D951" s="48"/>
     </row>
     <row r="952">
       <c r="A952" s="14"/>
-      <c r="D952" s="49"/>
+      <c r="D952" s="48"/>
     </row>
     <row r="953">
       <c r="A953" s="14"/>
-      <c r="D953" s="49"/>
+      <c r="D953" s="48"/>
     </row>
     <row r="954">
       <c r="A954" s="14"/>
-      <c r="D954" s="49"/>
+      <c r="D954" s="48"/>
     </row>
     <row r="955">
       <c r="A955" s="14"/>
-      <c r="D955" s="49"/>
+      <c r="D955" s="48"/>
     </row>
     <row r="956">
       <c r="A956" s="14"/>
-      <c r="D956" s="49"/>
+      <c r="D956" s="48"/>
     </row>
     <row r="957">
       <c r="A957" s="14"/>
-      <c r="D957" s="49"/>
+      <c r="D957" s="48"/>
     </row>
     <row r="958">
       <c r="A958" s="14"/>
-      <c r="D958" s="49"/>
+      <c r="D958" s="48"/>
     </row>
     <row r="959">
       <c r="A959" s="14"/>
-      <c r="D959" s="49"/>
+      <c r="D959" s="48"/>
     </row>
     <row r="960">
       <c r="A960" s="14"/>
-      <c r="D960" s="49"/>
+      <c r="D960" s="48"/>
     </row>
     <row r="961">
       <c r="A961" s="14"/>
-      <c r="D961" s="49"/>
+      <c r="D961" s="48"/>
     </row>
     <row r="962">
       <c r="A962" s="14"/>
-      <c r="D962" s="49"/>
+      <c r="D962" s="48"/>
     </row>
     <row r="963">
       <c r="A963" s="14"/>
-      <c r="D963" s="49"/>
+      <c r="D963" s="48"/>
     </row>
     <row r="964">
       <c r="A964" s="14"/>
-      <c r="D964" s="49"/>
+      <c r="D964" s="48"/>
     </row>
     <row r="965">
       <c r="A965" s="14"/>
-      <c r="D965" s="49"/>
+      <c r="D965" s="48"/>
     </row>
     <row r="966">
       <c r="A966" s="14"/>
-      <c r="D966" s="49"/>
+      <c r="D966" s="48"/>
     </row>
     <row r="967">
       <c r="A967" s="14"/>
-      <c r="D967" s="49"/>
+      <c r="D967" s="48"/>
     </row>
     <row r="968">
       <c r="A968" s="14"/>
-      <c r="D968" s="49"/>
+      <c r="D968" s="48"/>
     </row>
     <row r="969">
       <c r="A969" s="14"/>
-      <c r="D969" s="49"/>
+      <c r="D969" s="48"/>
     </row>
     <row r="970">
       <c r="A970" s="14"/>
-      <c r="D970" s="49"/>
+      <c r="D970" s="48"/>
     </row>
     <row r="971">
       <c r="A971" s="14"/>
-      <c r="D971" s="49"/>
+      <c r="D971" s="48"/>
     </row>
     <row r="972">
       <c r="A972" s="14"/>
-      <c r="D972" s="49"/>
+      <c r="D972" s="48"/>
     </row>
     <row r="973">
       <c r="A973" s="14"/>
-      <c r="D973" s="49"/>
+      <c r="D973" s="48"/>
     </row>
     <row r="974">
       <c r="A974" s="14"/>
-      <c r="D974" s="49"/>
+      <c r="D974" s="48"/>
     </row>
     <row r="975">
       <c r="A975" s="14"/>
-      <c r="D975" s="49"/>
+      <c r="D975" s="48"/>
     </row>
     <row r="976">
       <c r="A976" s="14"/>
-      <c r="D976" s="49"/>
+      <c r="D976" s="48"/>
     </row>
     <row r="977">
       <c r="A977" s="14"/>
-      <c r="D977" s="49"/>
+      <c r="D977" s="48"/>
     </row>
     <row r="978">
       <c r="A978" s="14"/>
-      <c r="D978" s="49"/>
+      <c r="D978" s="48"/>
     </row>
     <row r="979">
       <c r="A979" s="14"/>
-      <c r="D979" s="49"/>
+      <c r="D979" s="48"/>
     </row>
     <row r="980">
       <c r="A980" s="14"/>
-      <c r="D980" s="49"/>
+      <c r="D980" s="48"/>
     </row>
     <row r="981">
       <c r="A981" s="14"/>
-      <c r="D981" s="49"/>
+      <c r="D981" s="48"/>
     </row>
     <row r="982">
       <c r="A982" s="14"/>
-      <c r="D982" s="49"/>
+      <c r="D982" s="48"/>
     </row>
     <row r="983">
       <c r="A983" s="14"/>
-      <c r="D983" s="49"/>
+      <c r="D983" s="48"/>
     </row>
     <row r="984">
       <c r="A984" s="14"/>
-      <c r="D984" s="49"/>
+      <c r="D984" s="48"/>
     </row>
     <row r="985">
       <c r="A985" s="14"/>
-      <c r="D985" s="49"/>
+      <c r="D985" s="48"/>
     </row>
     <row r="986">
       <c r="A986" s="14"/>
-      <c r="D986" s="49"/>
+      <c r="D986" s="48"/>
     </row>
     <row r="987">
       <c r="A987" s="14"/>
-      <c r="D987" s="49"/>
+      <c r="D987" s="48"/>
     </row>
     <row r="988">
       <c r="A988" s="14"/>
-      <c r="D988" s="49"/>
+      <c r="D988" s="48"/>
     </row>
     <row r="989">
       <c r="A989" s="14"/>
-      <c r="D989" s="49"/>
+      <c r="D989" s="48"/>
     </row>
     <row r="990">
       <c r="A990" s="14"/>
-      <c r="D990" s="49"/>
+      <c r="D990" s="48"/>
     </row>
     <row r="991">
       <c r="A991" s="14"/>
-      <c r="D991" s="49"/>
+      <c r="D991" s="48"/>
     </row>
     <row r="992">
       <c r="A992" s="14"/>
-      <c r="D992" s="49"/>
+      <c r="D992" s="48"/>
     </row>
     <row r="993">
       <c r="A993" s="14"/>
-      <c r="D993" s="49"/>
+      <c r="D993" s="48"/>
     </row>
     <row r="994">
       <c r="A994" s="14"/>
-      <c r="D994" s="49"/>
+      <c r="D994" s="48"/>
     </row>
     <row r="995">
       <c r="A995" s="14"/>
-      <c r="D995" s="49"/>
+      <c r="D995" s="48"/>
     </row>
     <row r="996">
       <c r="A996" s="14"/>
-      <c r="D996" s="49"/>
+      <c r="D996" s="48"/>
     </row>
     <row r="997">
-      <c r="D997" s="49"/>
+      <c r="D997" s="48"/>
     </row>
     <row r="998">
-      <c r="D998" s="49"/>
+      <c r="D998" s="48"/>
     </row>
     <row r="999">
-      <c r="D999" s="49"/>
+      <c r="D999" s="48"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="49"/>
+      <c r="D1000" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="117">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -611,6 +611,9 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -665,9 +668,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2698,10 +2698,12 @@
       <c r="Y6" s="12">
         <v>37.0</v>
       </c>
-      <c r="Z6" s="16"/>
+      <c r="Z6" s="25">
+        <v>30.0</v>
+      </c>
       <c r="AA6" s="14">
         <f t="shared" si="1"/>
-        <v>633</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7">
@@ -2765,10 +2767,12 @@
       <c r="Y7" s="12">
         <v>32.0</v>
       </c>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="25">
+        <v>28.0</v>
+      </c>
       <c r="AA7" s="14">
         <f t="shared" si="1"/>
-        <v>569</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8">
@@ -3094,10 +3098,12 @@
       <c r="Y12" s="12">
         <v>38.0</v>
       </c>
-      <c r="Z12" s="16"/>
+      <c r="Z12" s="25">
+        <v>32.0</v>
+      </c>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>608</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13">
@@ -3216,10 +3222,12 @@
       <c r="Y14" s="12">
         <v>35.0</v>
       </c>
-      <c r="Z14" s="16"/>
+      <c r="Z14" s="25">
+        <v>31.0</v>
+      </c>
       <c r="AA14" s="14">
         <f t="shared" si="1"/>
-        <v>447</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15">
@@ -3285,10 +3293,12 @@
       <c r="Y15" s="12">
         <v>29.0</v>
       </c>
-      <c r="Z15" s="16"/>
+      <c r="Z15" s="25">
+        <v>29.0</v>
+      </c>
       <c r="AA15" s="14">
         <f t="shared" si="1"/>
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16">
@@ -3348,14 +3358,16 @@
       <c r="Y16" s="12">
         <v>36.0</v>
       </c>
-      <c r="Z16" s="16"/>
+      <c r="Z16" s="25">
+        <v>27.0</v>
+      </c>
       <c r="AA16" s="14">
         <f t="shared" si="1"/>
-        <v>449</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="16"/>
@@ -3402,7 +3414,7 @@
         <v>38.0</v>
       </c>
       <c r="V17" s="14"/>
-      <c r="W17" s="26"/>
+      <c r="W17" s="27"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="16"/>
@@ -3412,7 +3424,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="12">
@@ -3466,10 +3478,12 @@
       <c r="Y18" s="12">
         <v>33.0</v>
       </c>
-      <c r="Z18" s="15"/>
+      <c r="Z18" s="12">
+        <v>32.0</v>
+      </c>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>404</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
@@ -3571,8 +3585,10 @@
       <c r="Y20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="28"/>
+      <c r="Z20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA20" s="29"/>
     </row>
     <row r="21">
       <c r="B21" s="23" t="s">
@@ -3647,7 +3663,9 @@
       <c r="Y21" s="24">
         <v>38.0</v>
       </c>
-      <c r="Z21" s="24"/>
+      <c r="Z21" s="24">
+        <v>35.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3670,13 +3688,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3684,10 +3702,10 @@
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="33">
         <v>14.0</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="34">
         <v>13.0</v>
       </c>
     </row>
@@ -3695,10 +3713,10 @@
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="33">
         <v>7.0</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="34">
         <v>6.0</v>
       </c>
     </row>
@@ -3706,10 +3724,10 @@
       <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="33">
         <v>23.0</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="34">
         <v>21.0</v>
       </c>
     </row>
@@ -3717,10 +3735,10 @@
       <c r="A5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="33">
         <v>13.0</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="34">
         <v>12.0</v>
       </c>
     </row>
@@ -3728,10 +3746,10 @@
       <c r="A6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="33">
         <v>-1.0</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="34">
         <v>-2.0</v>
       </c>
     </row>
@@ -3739,10 +3757,10 @@
       <c r="A7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="33">
         <v>11.0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="34">
         <v>11.0</v>
       </c>
     </row>
@@ -3750,10 +3768,10 @@
       <c r="A8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="33">
         <v>8.0</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="34">
         <v>7.0</v>
       </c>
     </row>
@@ -3761,10 +3779,10 @@
       <c r="A9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="33">
         <v>20.0</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="34">
         <v>19.0</v>
       </c>
     </row>
@@ -3772,10 +3790,10 @@
       <c r="A10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="33">
         <v>6.0</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="34">
         <v>5.0</v>
       </c>
     </row>
@@ -3783,10 +3801,10 @@
       <c r="A11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="33">
         <v>10.0</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="34">
         <v>8.0</v>
       </c>
     </row>
@@ -3794,10 +3812,10 @@
       <c r="A12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="33">
         <v>17.0</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="34">
         <v>15.0</v>
       </c>
     </row>
@@ -3805,10 +3823,10 @@
       <c r="A13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="33">
         <v>22.0</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="34">
         <v>21.0</v>
       </c>
     </row>
@@ -3816,10 +3834,10 @@
       <c r="A14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="33">
         <v>11.0</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="34">
         <v>10.0</v>
       </c>
     </row>
@@ -3827,10 +3845,10 @@
       <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="33">
         <v>30.0</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="34">
         <v>29.0</v>
       </c>
     </row>
@@ -3838,10 +3856,10 @@
       <c r="A16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="33">
         <v>14.0</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="34">
         <v>12.0</v>
       </c>
     </row>
@@ -3849,10 +3867,10 @@
       <c r="A17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="33">
         <v>7.0</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="34">
         <v>6.0</v>
       </c>
     </row>
@@ -3860,10 +3878,10 @@
       <c r="A18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="33">
         <v>8.0</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="34">
         <v>7.0</v>
       </c>
     </row>
@@ -3871,21 +3889,21 @@
       <c r="A19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="33">
         <v>8.0</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="34">
         <v>7.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="33">
         <v>20.0</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="34">
         <v>19.0</v>
       </c>
     </row>
@@ -3893,10 +3911,10 @@
       <c r="A21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="33">
         <v>15.0</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="34">
         <v>13.0</v>
       </c>
     </row>
@@ -3904,10 +3922,10 @@
       <c r="A22" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="33">
         <v>15.0</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="34">
         <v>13.0</v>
       </c>
     </row>
@@ -3915,10 +3933,10 @@
       <c r="A23" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="33">
         <v>29.0</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="34">
         <v>28.0</v>
       </c>
     </row>
@@ -3926,10 +3944,10 @@
       <c r="A24" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="36">
         <v>29.0</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="37">
         <v>28.0</v>
       </c>
     </row>
@@ -7845,21 +7863,21 @@
       <c r="A1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="39">
+      <c r="A2" s="40">
         <v>1.0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7867,10 +7885,10 @@
       <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7878,10 +7896,10 @@
       <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7889,10 +7907,10 @@
       <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7900,10 +7918,10 @@
       <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="44" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7911,10 +7929,10 @@
       <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>53</v>
       </c>
     </row>
@@ -7922,10 +7940,10 @@
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7933,10 +7951,10 @@
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7944,10 +7962,10 @@
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="44" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="14"/>
@@ -7956,10 +7974,10 @@
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7967,10 +7985,10 @@
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="44" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7978,10 +7996,10 @@
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7989,10 +8007,10 @@
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8000,10 +8018,10 @@
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8011,10 +8029,10 @@
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8022,10 +8040,10 @@
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="44" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8033,10 +8051,10 @@
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="44" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8044,10 +8062,10 @@
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8055,10 +8073,10 @@
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="44" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8066,10 +8084,10 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8077,10 +8095,10 @@
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="44" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8088,10 +8106,10 @@
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8099,10 +8117,10 @@
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="44" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8110,8 +8128,10 @@
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="44" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
@@ -13502,11 +13522,11 @@
       </c>
       <c r="D25" s="48" t="str">
         <f>'THURSDAY SINGLES'!Z20</f>
-        <v/>
-      </c>
-      <c r="E25" s="47" t="str">
+        <v>ADY STEANE</v>
+      </c>
+      <c r="E25" s="47">
         <f>'THURSDAY SINGLES'!Z21</f>
-        <v/>
+        <v>35</v>
       </c>
     </row>
     <row r="26">

--- a/data/SUMMER GOLF 2025.xlsx
+++ b/data/SUMMER GOLF 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="117">
   <si>
     <t>SUMMER GOLF - SUNDAY SINGLES</t>
   </si>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -592,6 +592,9 @@
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -609,9 +612,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -666,9 +666,6 @@
     </xf>
     <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1335,10 +1332,12 @@
       <c r="Y8" s="12">
         <v>34.0</v>
       </c>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="18">
+        <v>26.0</v>
+      </c>
       <c r="AA8" s="14">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9">
@@ -1573,10 +1572,12 @@
       <c r="Y12" s="12">
         <v>33.0</v>
       </c>
-      <c r="Z12" s="16"/>
+      <c r="Z12" s="18">
+        <v>28.0</v>
+      </c>
       <c r="AA12" s="14">
         <f t="shared" si="1"/>
-        <v>526</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13">
@@ -1961,10 +1962,12 @@
       <c r="Y18" s="12">
         <v>21.0</v>
       </c>
-      <c r="Z18" s="16"/>
+      <c r="Z18" s="18">
+        <v>26.0</v>
+      </c>
       <c r="AA18" s="14">
         <f t="shared" si="1"/>
-        <v>610</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19">
@@ -2085,10 +2088,12 @@
       <c r="Y20" s="12">
         <v>28.0</v>
       </c>
-      <c r="Z20" s="16"/>
+      <c r="Z20" s="18">
+        <v>29.0</v>
+      </c>
       <c r="AA20" s="14">
         <f t="shared" si="1"/>
-        <v>547</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21">
@@ -2138,14 +2143,16 @@
       <c r="W21" s="15"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="15"/>
-      <c r="Z21" s="16"/>
+      <c r="Z21" s="18">
+        <v>43.0</v>
+      </c>
       <c r="AA21" s="14">
         <f t="shared" si="1"/>
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="12">
@@ -2207,188 +2214,194 @@
       <c r="Y22" s="12">
         <v>32.0</v>
       </c>
-      <c r="Z22" s="16"/>
+      <c r="Z22" s="18">
+        <v>30.0</v>
+      </c>
       <c r="AA22" s="14">
         <f t="shared" si="1"/>
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" ht="9.0" customHeight="1">
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
     </row>
     <row r="24" ht="84.75" customHeight="1">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Q24" s="21" t="s">
+      <c r="Q24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="21" t="s">
+      <c r="R24" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="21" t="s">
+      <c r="S24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="T24" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="U24" s="21" t="s">
+      <c r="U24" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="V24" s="21" t="s">
+      <c r="V24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="W24" s="21" t="s">
+      <c r="W24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="X24" s="21" t="s">
+      <c r="X24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="Y24" s="21" t="s">
+      <c r="Y24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="22"/>
+      <c r="Z24" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA24" s="23"/>
     </row>
     <row r="25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="25">
         <v>35.0</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="25">
         <v>43.0</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="25">
         <v>37.0</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="25">
         <v>37.0</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="25">
         <v>42.0</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="25">
         <v>35.0</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="25">
         <v>34.0</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="25">
         <v>35.0</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="25">
         <v>39.0</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="25">
         <v>39.0</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="25">
         <v>41.0</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="25">
         <v>39.0</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="25">
         <v>41.0</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25" s="25">
         <v>39.0</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="25">
         <v>37.0</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="25">
         <v>39.0</v>
       </c>
-      <c r="S25" s="24">
+      <c r="S25" s="25">
         <v>39.0</v>
       </c>
-      <c r="T25" s="24">
+      <c r="T25" s="25">
         <v>44.0</v>
       </c>
-      <c r="U25" s="24">
+      <c r="U25" s="25">
         <v>47.0</v>
       </c>
-      <c r="V25" s="24">
+      <c r="V25" s="25">
         <v>38.0</v>
       </c>
-      <c r="W25" s="24">
+      <c r="W25" s="25">
         <v>38.0</v>
       </c>
-      <c r="X25" s="24">
+      <c r="X25" s="25">
         <v>37.0</v>
       </c>
-      <c r="Y25" s="24">
+      <c r="Y25" s="25">
         <v>37.0</v>
       </c>
-      <c r="Z25" s="24"/>
+      <c r="Z25" s="25">
+        <v>43.0</v>
+      </c>
       <c r="AA25" s="14"/>
     </row>
   </sheetData>
@@ -2698,7 +2711,7 @@
       <c r="Y6" s="12">
         <v>37.0</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="Z6" s="18">
         <v>30.0</v>
       </c>
       <c r="AA6" s="14">
@@ -2767,7 +2780,7 @@
       <c r="Y7" s="12">
         <v>32.0</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="Z7" s="18">
         <v>28.0</v>
       </c>
       <c r="AA7" s="14">
@@ -3098,7 +3111,7 @@
       <c r="Y12" s="12">
         <v>38.0</v>
       </c>
-      <c r="Z12" s="25">
+      <c r="Z12" s="18">
         <v>32.0</v>
       </c>
       <c r="AA12" s="14">
@@ -3222,7 +3235,7 @@
       <c r="Y14" s="12">
         <v>35.0</v>
       </c>
-      <c r="Z14" s="25">
+      <c r="Z14" s="18">
         <v>31.0</v>
       </c>
       <c r="AA14" s="14">
@@ -3293,7 +3306,7 @@
       <c r="Y15" s="12">
         <v>29.0</v>
       </c>
-      <c r="Z15" s="25">
+      <c r="Z15" s="18">
         <v>29.0</v>
       </c>
       <c r="AA15" s="14">
@@ -3358,7 +3371,7 @@
       <c r="Y16" s="12">
         <v>36.0</v>
       </c>
-      <c r="Z16" s="25">
+      <c r="Z16" s="18">
         <v>27.0</v>
       </c>
       <c r="AA16" s="14">
@@ -3487,183 +3500,183 @@
       </c>
     </row>
     <row r="19" ht="9.0" customHeight="1">
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" ht="72.0" customHeight="1">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="R20" s="21" t="s">
+      <c r="R20" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="S20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="21" t="s">
+      <c r="T20" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="U20" s="21" t="s">
+      <c r="U20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="21" t="s">
+      <c r="V20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="W20" s="21" t="s">
+      <c r="W20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="X20" s="21" t="s">
+      <c r="X20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="21" t="s">
+      <c r="Y20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Z20" s="21" t="s">
+      <c r="Z20" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AA20" s="29"/>
     </row>
     <row r="21">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="25">
         <v>40.0</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="25">
         <v>36.0</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="25">
         <v>37.0</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="25">
         <v>38.0</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="25">
         <v>38.0</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="25">
         <v>37.0</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="25">
         <v>42.0</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="25">
         <v>32.0</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="25">
         <v>30.0</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="25">
         <v>34.0</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="25">
         <v>35.0</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="25">
         <v>41.0</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="25">
         <v>42.0</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="25">
         <v>40.0</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="25">
         <v>39.0</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="25">
         <v>39.0</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="25">
         <v>40.0</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="25">
         <v>38.0</v>
       </c>
-      <c r="U21" s="24">
+      <c r="U21" s="25">
         <v>39.0</v>
       </c>
-      <c r="V21" s="24">
+      <c r="V21" s="25">
         <v>39.0</v>
       </c>
-      <c r="W21" s="24">
+      <c r="W21" s="25">
         <v>42.0</v>
       </c>
-      <c r="X21" s="24">
+      <c r="X21" s="25">
         <v>39.0</v>
       </c>
-      <c r="Y21" s="24">
+      <c r="Y21" s="25">
         <v>38.0</v>
       </c>
-      <c r="Z21" s="24">
+      <c r="Z21" s="25">
         <v>35.0</v>
       </c>
     </row>
@@ -3791,10 +3804,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="34">
         <v>6.0</v>
-      </c>
-      <c r="C10" s="34">
-        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -3879,10 +3892,10 @@
         <v>67</v>
       </c>
       <c r="B18" s="33">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" s="34">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -3941,7 +3954,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="36">
@@ -8128,7 +8141,9 @@
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="43" t="s">
+        <v>111</v>
+      </c>
       <c r="C25" s="44" t="s">
         <v>111</v>
       </c>
@@ -13012,16 +13027,16 @@
       <c r="A1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>116</v>
       </c>
     </row>
@@ -13029,19 +13044,19 @@
       <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="47" t="str">
+      <c r="B2" s="46" t="str">
         <f>'SUNDAY SINGLES'!C24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="46">
         <f>'SUNDAY SINGLES'!C25</f>
         <v>35</v>
       </c>
-      <c r="D2" s="48" t="str">
+      <c r="D2" s="47" t="str">
         <f>'THURSDAY SINGLES'!C20</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <f>'THURSDAY SINGLES'!C21</f>
         <v>40</v>
       </c>
@@ -13050,19 +13065,19 @@
       <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="46" t="str">
         <f>'SUNDAY SINGLES'!D24</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <f>'SUNDAY SINGLES'!D25</f>
         <v>43</v>
       </c>
-      <c r="D3" s="48" t="str">
+      <c r="D3" s="47" t="str">
         <f>'THURSDAY SINGLES'!D20</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <f>'THURSDAY SINGLES'!D21</f>
         <v>36</v>
       </c>
@@ -13071,19 +13086,19 @@
       <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="47" t="str">
+      <c r="B4" s="46" t="str">
         <f>'SUNDAY SINGLES'!E24</f>
         <v>CHRIS DUFFY</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="46">
         <f>'SUNDAY SINGLES'!E25</f>
         <v>37</v>
       </c>
-      <c r="D4" s="48" t="str">
+      <c r="D4" s="47" t="str">
         <f>'THURSDAY SINGLES'!E20</f>
         <v>MARTIN BROCK</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <f>'THURSDAY SINGLES'!E21</f>
         <v>37</v>
       </c>
@@ -13092,19 +13107,19 @@
       <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="47" t="str">
+      <c r="B5" s="46" t="str">
         <f>'SUNDAY SINGLES'!F24</f>
         <v>MAL JONES</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="46">
         <f>'SUNDAY SINGLES'!F25</f>
         <v>37</v>
       </c>
-      <c r="D5" s="48" t="str">
+      <c r="D5" s="47" t="str">
         <f>'THURSDAY SINGLES'!F20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <f>'THURSDAY SINGLES'!F21</f>
         <v>38</v>
       </c>
@@ -13113,19 +13128,19 @@
       <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="47" t="str">
+      <c r="B6" s="46" t="str">
         <f>'SUNDAY SINGLES'!G24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="46">
         <f>'SUNDAY SINGLES'!G25</f>
         <v>42</v>
       </c>
-      <c r="D6" s="48" t="str">
+      <c r="D6" s="47" t="str">
         <f>'THURSDAY SINGLES'!G20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <f>'THURSDAY SINGLES'!G21</f>
         <v>38</v>
       </c>
@@ -13134,19 +13149,19 @@
       <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="47" t="str">
+      <c r="B7" s="46" t="str">
         <f>'SUNDAY SINGLES'!H24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <f>'SUNDAY SINGLES'!H25</f>
         <v>35</v>
       </c>
-      <c r="D7" s="48" t="str">
+      <c r="D7" s="47" t="str">
         <f>'THURSDAY SINGLES'!H20</f>
         <v>BAZ MASON</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <f>'THURSDAY SINGLES'!H21</f>
         <v>37</v>
       </c>
@@ -13155,19 +13170,19 @@
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="47" t="str">
+      <c r="B8" s="46" t="str">
         <f>'SUNDAY SINGLES'!I24</f>
         <v>SCOTT LEONARDE</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="46">
         <f>'SUNDAY SINGLES'!I25</f>
         <v>34</v>
       </c>
-      <c r="D8" s="48" t="str">
+      <c r="D8" s="47" t="str">
         <f>'THURSDAY SINGLES'!I20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="46">
         <f>'THURSDAY SINGLES'!I$21</f>
         <v>42</v>
       </c>
@@ -13176,19 +13191,19 @@
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="47" t="str">
+      <c r="B9" s="46" t="str">
         <f>'SUNDAY SINGLES'!J24</f>
         <v>FRED HOLINGWORTH</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <f>'SUNDAY SINGLES'!J25</f>
         <v>35</v>
       </c>
-      <c r="D9" s="48" t="str">
+      <c r="D9" s="47" t="str">
         <f>'THURSDAY SINGLES'!J20</f>
         <v>JOHN KING</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <f>'THURSDAY SINGLES'!J$21</f>
         <v>32</v>
       </c>
@@ -13197,19 +13212,19 @@
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="47" t="str">
+      <c r="B10" s="46" t="str">
         <f>'SUNDAY SINGLES'!K24</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <f>'SUNDAY SINGLES'!K25</f>
         <v>39</v>
       </c>
-      <c r="D10" s="48" t="str">
+      <c r="D10" s="47" t="str">
         <f>'THURSDAY SINGLES'!K20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <f>'THURSDAY SINGLES'!K$21</f>
         <v>30</v>
       </c>
@@ -13218,19 +13233,19 @@
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="47" t="str">
+      <c r="B11" s="46" t="str">
         <f>'SUNDAY SINGLES'!L24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <f>'SUNDAY SINGLES'!L25</f>
         <v>39</v>
       </c>
-      <c r="D11" s="48" t="str">
+      <c r="D11" s="47" t="str">
         <f>'THURSDAY SINGLES'!L20</f>
         <v>MAL JONES</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <f>'THURSDAY SINGLES'!L$21</f>
         <v>34</v>
       </c>
@@ -13239,19 +13254,19 @@
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="46" t="str">
         <f>'SUNDAY SINGLES'!M24</f>
         <v>JOHN ANTCLIFFE</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="46">
         <f>'SUNDAY SINGLES'!M25</f>
         <v>41</v>
       </c>
-      <c r="D12" s="48" t="str">
+      <c r="D12" s="47" t="str">
         <f>'THURSDAY SINGLES'!M20</f>
         <v>LES DOBBINS</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="46">
         <f>'THURSDAY SINGLES'!M21</f>
         <v>35</v>
       </c>
@@ -13260,19 +13275,19 @@
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="47" t="str">
+      <c r="B13" s="46" t="str">
         <f>'SUNDAY SINGLES'!N24</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="46">
         <f>'SUNDAY SINGLES'!N25</f>
         <v>39</v>
       </c>
-      <c r="D13" s="48" t="str">
+      <c r="D13" s="47" t="str">
         <f>'THURSDAY SINGLES'!N20</f>
         <v>TONY SLATER</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <f>'THURSDAY SINGLES'!N$21</f>
         <v>41</v>
       </c>
@@ -13281,19 +13296,19 @@
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="47" t="str">
+      <c r="B14" s="46" t="str">
         <f>'SUNDAY SINGLES'!O24</f>
         <v>FRED HOLLINGWORTH</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <f>'SUNDAY SINGLES'!O25</f>
         <v>41</v>
       </c>
-      <c r="D14" s="48" t="str">
+      <c r="D14" s="47" t="str">
         <f>'THURSDAY SINGLES'!O20</f>
         <v>BAZ MASON</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <f>'THURSDAY SINGLES'!O21</f>
         <v>42</v>
       </c>
@@ -13302,19 +13317,19 @@
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="47" t="str">
+      <c r="B15" s="46" t="str">
         <f>'SUNDAY SINGLES'!P24</f>
         <v>STEVE FELLOWS</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="46">
         <f>'SUNDAY SINGLES'!P25</f>
         <v>39</v>
       </c>
-      <c r="D15" s="48" t="str">
+      <c r="D15" s="47" t="str">
         <f>'THURSDAY SINGLES'!P20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <f>'THURSDAY SINGLES'!P21</f>
         <v>40</v>
       </c>
@@ -13323,19 +13338,19 @@
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="47" t="str">
+      <c r="B16" s="46" t="str">
         <f>'SUNDAY SINGLES'!Q24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="46">
         <f>'SUNDAY SINGLES'!Q25</f>
         <v>37</v>
       </c>
-      <c r="D16" s="48" t="str">
+      <c r="D16" s="47" t="str">
         <f>'THURSDAY SINGLES'!Q20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="46">
         <f>'THURSDAY SINGLES'!Q21</f>
         <v>39</v>
       </c>
@@ -13344,19 +13359,19 @@
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="47" t="str">
+      <c r="B17" s="46" t="str">
         <f>'SUNDAY SINGLES'!R24</f>
         <v>TONI SHIRLEY</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="46">
         <f>'SUNDAY SINGLES'!R25</f>
         <v>39</v>
       </c>
-      <c r="D17" s="48" t="str">
+      <c r="D17" s="47" t="str">
         <f>'THURSDAY SINGLES'!R20</f>
         <v>MARTIN BROCK</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="46">
         <f>'THURSDAY SINGLES'!R21</f>
         <v>39</v>
       </c>
@@ -13365,19 +13380,19 @@
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="47" t="str">
+      <c r="B18" s="46" t="str">
         <f>'SUNDAY SINGLES'!S24</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="46">
         <f>'SUNDAY SINGLES'!S25</f>
         <v>39</v>
       </c>
-      <c r="D18" s="48" t="str">
+      <c r="D18" s="47" t="str">
         <f>'THURSDAY SINGLES'!S20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <f>'THURSDAY SINGLES'!S21</f>
         <v>40</v>
       </c>
@@ -13386,19 +13401,19 @@
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="47" t="str">
+      <c r="B19" s="46" t="str">
         <f>'SUNDAY SINGLES'!T24</f>
         <v>HELEN RIGG</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="46">
         <f>'SUNDAY SINGLES'!T25</f>
         <v>44</v>
       </c>
-      <c r="D19" s="48" t="str">
+      <c r="D19" s="47" t="str">
         <f>'THURSDAY SINGLES'!T20</f>
         <v>KEN PEEL</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <f>'THURSDAY SINGLES'!T21</f>
         <v>38</v>
       </c>
@@ -13407,19 +13422,19 @@
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="47" t="str">
+      <c r="B20" s="46" t="str">
         <f>'SUNDAY SINGLES'!U24</f>
         <v>HELEN RIGG</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <f>'SUNDAY SINGLES'!U25</f>
         <v>47</v>
       </c>
-      <c r="D20" s="48" t="str">
+      <c r="D20" s="47" t="str">
         <f>'THURSDAY SINGLES'!U20</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <f>'THURSDAY SINGLES'!U21</f>
         <v>39</v>
       </c>
@@ -13428,19 +13443,19 @@
       <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="46" t="str">
         <f>'SUNDAY SINGLES'!V24</f>
         <v>STEVE FELLOWS</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="46">
         <f>'SUNDAY SINGLES'!V25</f>
         <v>38</v>
       </c>
-      <c r="D21" s="48" t="str">
+      <c r="D21" s="47" t="str">
         <f>'THURSDAY SINGLES'!V20</f>
         <v>SIMON EDWARDS</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <f>'THURSDAY SINGLES'!V21</f>
         <v>39</v>
       </c>
@@ -13449,19 +13464,19 @@
       <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="47" t="str">
+      <c r="B22" s="46" t="str">
         <f>'SUNDAY SINGLES'!W24</f>
         <v>FRED HOLLINGWORTH</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <f>'SUNDAY SINGLES'!W25</f>
         <v>38</v>
       </c>
-      <c r="D22" s="48" t="str">
+      <c r="D22" s="47" t="str">
         <f>'THURSDAY SINGLES'!W20</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="46">
         <f>'THURSDAY SINGLES'!W21</f>
         <v>42</v>
       </c>
@@ -13470,19 +13485,19 @@
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="47" t="str">
+      <c r="B23" s="46" t="str">
         <f>'SUNDAY SINGLES'!X24</f>
         <v>ANDY THOMPSON</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="46">
         <f>'SUNDAY SINGLES'!X25</f>
         <v>37</v>
       </c>
-      <c r="D23" s="48" t="str">
+      <c r="D23" s="47" t="str">
         <f>'THURSDAY SINGLES'!X20</f>
         <v>ALBIE GILLESPIE</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="46">
         <f>'THURSDAY SINGLES'!X21</f>
         <v>39</v>
       </c>
@@ -13491,19 +13506,19 @@
       <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="47" t="str">
+      <c r="B24" s="46" t="str">
         <f>'SUNDAY SINGLES'!Y24</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="46">
         <f>'SUNDAY SINGLES'!Y25</f>
         <v>37</v>
       </c>
-      <c r="D24" s="48" t="str">
+      <c r="D24" s="47" t="str">
         <f>'THURSDAY SINGLES'!Y20</f>
         <v>DAVE BARNETT</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="46">
         <f>'THURSDAY SINGLES'!Y21</f>
         <v>38</v>
       </c>
@@ -13512,3918 +13527,3918 @@
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="47" t="str">
+      <c r="B25" s="46" t="str">
         <f>'SUNDAY SINGLES'!Z24</f>
-        <v/>
-      </c>
-      <c r="C25" s="47" t="str">
+        <v>SCOTT LEONARDE</v>
+      </c>
+      <c r="C25" s="46">
         <f>'SUNDAY SINGLES'!Z25</f>
-        <v/>
-      </c>
-      <c r="D25" s="48" t="str">
+        <v>43</v>
+      </c>
+      <c r="D25" s="47" t="str">
         <f>'THURSDAY SINGLES'!Z20</f>
         <v>ADY STEANE</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="46">
         <f>'THURSDAY SINGLES'!Z21</f>
         <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27">
       <c r="A27" s="14"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="47"/>
     </row>
     <row r="28">
       <c r="A28" s="14"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29">
       <c r="A29" s="14"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30">
       <c r="A30" s="14"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31">
       <c r="A31" s="14"/>
-      <c r="D31" s="48"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32">
       <c r="A32" s="14"/>
-      <c r="D32" s="48"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33">
       <c r="A33" s="14"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34">
       <c r="A34" s="14"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35">
       <c r="A35" s="14"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36">
       <c r="A36" s="14"/>
-      <c r="D36" s="48"/>
+      <c r="D36" s="47"/>
     </row>
     <row r="37">
       <c r="A37" s="14"/>
-      <c r="D37" s="48"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38">
       <c r="A38" s="14"/>
-      <c r="D38" s="48"/>
+      <c r="D38" s="47"/>
     </row>
     <row r="39">
       <c r="A39" s="14"/>
-      <c r="D39" s="48"/>
+      <c r="D39" s="47"/>
     </row>
     <row r="40">
       <c r="A40" s="14"/>
-      <c r="D40" s="48"/>
+      <c r="D40" s="47"/>
     </row>
     <row r="41">
       <c r="A41" s="14"/>
-      <c r="D41" s="48"/>
+      <c r="D41" s="47"/>
     </row>
     <row r="42">
       <c r="A42" s="14"/>
-      <c r="D42" s="48"/>
+      <c r="D42" s="47"/>
     </row>
     <row r="43">
       <c r="A43" s="14"/>
-      <c r="D43" s="48"/>
+      <c r="D43" s="47"/>
     </row>
     <row r="44">
       <c r="A44" s="14"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="47"/>
     </row>
     <row r="45">
       <c r="A45" s="14"/>
-      <c r="D45" s="48"/>
+      <c r="D45" s="47"/>
     </row>
     <row r="46">
       <c r="A46" s="14"/>
-      <c r="D46" s="48"/>
+      <c r="D46" s="47"/>
     </row>
     <row r="47">
       <c r="A47" s="14"/>
-      <c r="D47" s="48"/>
+      <c r="D47" s="47"/>
     </row>
     <row r="48">
       <c r="A48" s="14"/>
-      <c r="D48" s="48"/>
+      <c r="D48" s="47"/>
     </row>
     <row r="49">
       <c r="A49" s="14"/>
-      <c r="D49" s="48"/>
+      <c r="D49" s="47"/>
     </row>
     <row r="50">
       <c r="A50" s="14"/>
-      <c r="D50" s="48"/>
+      <c r="D50" s="47"/>
     </row>
     <row r="51">
       <c r="A51" s="14"/>
-      <c r="D51" s="48"/>
+      <c r="D51" s="47"/>
     </row>
     <row r="52">
       <c r="A52" s="14"/>
-      <c r="D52" s="48"/>
+      <c r="D52" s="47"/>
     </row>
     <row r="53">
       <c r="A53" s="14"/>
-      <c r="D53" s="48"/>
+      <c r="D53" s="47"/>
     </row>
     <row r="54">
       <c r="A54" s="14"/>
-      <c r="D54" s="48"/>
+      <c r="D54" s="47"/>
     </row>
     <row r="55">
       <c r="A55" s="14"/>
-      <c r="D55" s="48"/>
+      <c r="D55" s="47"/>
     </row>
     <row r="56">
       <c r="A56" s="14"/>
-      <c r="D56" s="48"/>
+      <c r="D56" s="47"/>
     </row>
     <row r="57">
       <c r="A57" s="14"/>
-      <c r="D57" s="48"/>
+      <c r="D57" s="47"/>
     </row>
     <row r="58">
       <c r="A58" s="14"/>
-      <c r="D58" s="48"/>
+      <c r="D58" s="47"/>
     </row>
     <row r="59">
       <c r="A59" s="14"/>
-      <c r="D59" s="48"/>
+      <c r="D59" s="47"/>
     </row>
     <row r="60">
       <c r="A60" s="14"/>
-      <c r="D60" s="48"/>
+      <c r="D60" s="47"/>
     </row>
     <row r="61">
       <c r="A61" s="14"/>
-      <c r="D61" s="48"/>
+      <c r="D61" s="47"/>
     </row>
     <row r="62">
       <c r="A62" s="14"/>
-      <c r="D62" s="48"/>
+      <c r="D62" s="47"/>
     </row>
     <row r="63">
       <c r="A63" s="14"/>
-      <c r="D63" s="48"/>
+      <c r="D63" s="47"/>
     </row>
     <row r="64">
       <c r="A64" s="14"/>
-      <c r="D64" s="48"/>
+      <c r="D64" s="47"/>
     </row>
     <row r="65">
       <c r="A65" s="14"/>
-      <c r="D65" s="48"/>
+      <c r="D65" s="47"/>
     </row>
     <row r="66">
       <c r="A66" s="14"/>
-      <c r="D66" s="48"/>
+      <c r="D66" s="47"/>
     </row>
     <row r="67">
       <c r="A67" s="14"/>
-      <c r="D67" s="48"/>
+      <c r="D67" s="47"/>
     </row>
     <row r="68">
       <c r="A68" s="14"/>
-      <c r="D68" s="48"/>
+      <c r="D68" s="47"/>
     </row>
     <row r="69">
       <c r="A69" s="14"/>
-      <c r="D69" s="48"/>
+      <c r="D69" s="47"/>
     </row>
     <row r="70">
       <c r="A70" s="14"/>
-      <c r="D70" s="48"/>
+      <c r="D70" s="47"/>
     </row>
     <row r="71">
       <c r="A71" s="14"/>
-      <c r="D71" s="48"/>
+      <c r="D71" s="47"/>
     </row>
     <row r="72">
       <c r="A72" s="14"/>
-      <c r="D72" s="48"/>
+      <c r="D72" s="47"/>
     </row>
     <row r="73">
       <c r="A73" s="14"/>
-      <c r="D73" s="48"/>
+      <c r="D73" s="47"/>
     </row>
     <row r="74">
       <c r="A74" s="14"/>
-      <c r="D74" s="48"/>
+      <c r="D74" s="47"/>
     </row>
     <row r="75">
       <c r="A75" s="14"/>
-      <c r="D75" s="48"/>
+      <c r="D75" s="47"/>
     </row>
     <row r="76">
       <c r="A76" s="14"/>
-      <c r="D76" s="48"/>
+      <c r="D76" s="47"/>
     </row>
     <row r="77">
       <c r="A77" s="14"/>
-      <c r="D77" s="48"/>
+      <c r="D77" s="47"/>
     </row>
     <row r="78">
       <c r="A78" s="14"/>
-      <c r="D78" s="48"/>
+      <c r="D78" s="47"/>
     </row>
     <row r="79">
       <c r="A79" s="14"/>
-      <c r="D79" s="48"/>
+      <c r="D79" s="47"/>
     </row>
     <row r="80">
       <c r="A80" s="14"/>
-      <c r="D80" s="48"/>
+      <c r="D80" s="47"/>
     </row>
     <row r="81">
       <c r="A81" s="14"/>
-      <c r="D81" s="48"/>
+      <c r="D81" s="47"/>
     </row>
     <row r="82">
       <c r="A82" s="14"/>
-      <c r="D82" s="48"/>
+      <c r="D82" s="47"/>
     </row>
     <row r="83">
       <c r="A83" s="14"/>
-      <c r="D83" s="48"/>
+      <c r="D83" s="47"/>
     </row>
     <row r="84">
       <c r="A84" s="14"/>
-      <c r="D84" s="48"/>
+      <c r="D84" s="47"/>
     </row>
     <row r="85">
       <c r="A85" s="14"/>
-      <c r="D85" s="48"/>
+      <c r="D85" s="47"/>
     </row>
     <row r="86">
       <c r="A86" s="14"/>
-      <c r="D86" s="48"/>
+      <c r="D86" s="47"/>
     </row>
     <row r="87">
       <c r="A87" s="14"/>
-      <c r="D87" s="48"/>
+      <c r="D87" s="47"/>
     </row>
     <row r="88">
       <c r="A88" s="14"/>
-      <c r="D88" s="48"/>
+      <c r="D88" s="47"/>
     </row>
     <row r="89">
       <c r="A89" s="14"/>
-      <c r="D89" s="48"/>
+      <c r="D89" s="47"/>
     </row>
     <row r="90">
       <c r="A90" s="14"/>
-      <c r="D90" s="48"/>
+      <c r="D90" s="47"/>
     </row>
     <row r="91">
       <c r="A91" s="14"/>
-      <c r="D91" s="48"/>
+      <c r="D91" s="47"/>
     </row>
     <row r="92">
       <c r="A92" s="14"/>
-      <c r="D92" s="48"/>
+      <c r="D92" s="47"/>
     </row>
     <row r="93">
       <c r="A93" s="14"/>
-      <c r="D93" s="48"/>
+      <c r="D93" s="47"/>
     </row>
     <row r="94">
       <c r="A94" s="14"/>
-      <c r="D94" s="48"/>
+      <c r="D94" s="47"/>
     </row>
     <row r="95">
       <c r="A95" s="14"/>
-      <c r="D95" s="48"/>
+      <c r="D95" s="47"/>
     </row>
     <row r="96">
       <c r="A96" s="14"/>
-      <c r="D96" s="48"/>
+      <c r="D96" s="47"/>
     </row>
     <row r="97">
       <c r="A97" s="14"/>
-      <c r="D97" s="48"/>
+      <c r="D97" s="47"/>
     </row>
     <row r="98">
       <c r="A98" s="14"/>
-      <c r="D98" s="48"/>
+      <c r="D98" s="47"/>
     </row>
     <row r="99">
       <c r="A99" s="14"/>
-      <c r="D99" s="48"/>
+      <c r="D99" s="47"/>
     </row>
     <row r="100">
       <c r="A100" s="14"/>
-      <c r="D100" s="48"/>
+      <c r="D100" s="47"/>
     </row>
     <row r="101">
       <c r="A101" s="14"/>
-      <c r="D101" s="48"/>
+      <c r="D101" s="47"/>
     </row>
     <row r="102">
       <c r="A102" s="14"/>
-      <c r="D102" s="48"/>
+      <c r="D102" s="47"/>
     </row>
     <row r="103">
       <c r="A103" s="14"/>
-      <c r="D103" s="48"/>
+      <c r="D103" s="47"/>
     </row>
     <row r="104">
       <c r="A104" s="14"/>
-      <c r="D104" s="48"/>
+      <c r="D104" s="47"/>
     </row>
     <row r="105">
       <c r="A105" s="14"/>
-      <c r="D105" s="48"/>
+      <c r="D105" s="47"/>
     </row>
     <row r="106">
       <c r="A106" s="14"/>
-      <c r="D106" s="48"/>
+      <c r="D106" s="47"/>
     </row>
     <row r="107">
       <c r="A107" s="14"/>
-      <c r="D107" s="48"/>
+      <c r="D107" s="47"/>
     </row>
     <row r="108">
       <c r="A108" s="14"/>
-      <c r="D108" s="48"/>
+      <c r="D108" s="47"/>
     </row>
     <row r="109">
       <c r="A109" s="14"/>
-      <c r="D109" s="48"/>
+      <c r="D109" s="47"/>
     </row>
     <row r="110">
       <c r="A110" s="14"/>
-      <c r="D110" s="48"/>
+      <c r="D110" s="47"/>
     </row>
     <row r="111">
       <c r="A111" s="14"/>
-      <c r="D111" s="48"/>
+      <c r="D111" s="47"/>
     </row>
     <row r="112">
       <c r="A112" s="14"/>
-      <c r="D112" s="48"/>
+      <c r="D112" s="47"/>
     </row>
     <row r="113">
       <c r="A113" s="14"/>
-      <c r="D113" s="48"/>
+      <c r="D113" s="47"/>
     </row>
     <row r="114">
       <c r="A114" s="14"/>
-      <c r="D114" s="48"/>
+      <c r="D114" s="47"/>
     </row>
     <row r="115">
       <c r="A115" s="14"/>
-      <c r="D115" s="48"/>
+      <c r="D115" s="47"/>
     </row>
     <row r="116">
       <c r="A116" s="14"/>
-      <c r="D116" s="48"/>
+      <c r="D116" s="47"/>
     </row>
     <row r="117">
       <c r="A117" s="14"/>
-      <c r="D117" s="48"/>
+      <c r="D117" s="47"/>
     </row>
     <row r="118">
       <c r="A118" s="14"/>
-      <c r="D118" s="48"/>
+      <c r="D118" s="47"/>
     </row>
     <row r="119">
       <c r="A119" s="14"/>
-      <c r="D119" s="48"/>
+      <c r="D119" s="47"/>
     </row>
     <row r="120">
       <c r="A120" s="14"/>
-      <c r="D120" s="48"/>
+      <c r="D120" s="47"/>
     </row>
     <row r="121">
       <c r="A121" s="14"/>
-      <c r="D121" s="48"/>
+      <c r="D121" s="47"/>
     </row>
     <row r="122">
       <c r="A122" s="14"/>
-      <c r="D122" s="48"/>
+      <c r="D122" s="47"/>
     </row>
     <row r="123">
       <c r="A123" s="14"/>
-      <c r="D123" s="48"/>
+      <c r="D123" s="47"/>
     </row>
     <row r="124">
       <c r="A124" s="14"/>
-      <c r="D124" s="48"/>
+      <c r="D124" s="47"/>
     </row>
     <row r="125">
       <c r="A125" s="14"/>
-      <c r="D125" s="48"/>
+      <c r="D125" s="47"/>
     </row>
     <row r="126">
       <c r="A126" s="14"/>
-      <c r="D126" s="48"/>
+      <c r="D126" s="47"/>
     </row>
     <row r="127">
       <c r="A127" s="14"/>
-      <c r="D127" s="48"/>
+      <c r="D127" s="47"/>
     </row>
     <row r="128">
       <c r="A128" s="14"/>
-      <c r="D128" s="48"/>
+      <c r="D128" s="47"/>
     </row>
     <row r="129">
       <c r="A129" s="14"/>
-      <c r="D129" s="48"/>
+      <c r="D129" s="47"/>
     </row>
     <row r="130">
       <c r="A130" s="14"/>
-      <c r="D130" s="48"/>
+      <c r="D130" s="47"/>
     </row>
     <row r="131">
       <c r="A131" s="14"/>
-      <c r="D131" s="48"/>
+      <c r="D131" s="47"/>
     </row>
     <row r="132">
       <c r="A132" s="14"/>
-      <c r="D132" s="48"/>
+      <c r="D132" s="47"/>
     </row>
     <row r="133">
       <c r="A133" s="14"/>
-      <c r="D133" s="48"/>
+      <c r="D133" s="47"/>
     </row>
     <row r="134">
       <c r="A134" s="14"/>
-      <c r="D134" s="48"/>
+      <c r="D134" s="47"/>
     </row>
     <row r="135">
       <c r="A135" s="14"/>
-      <c r="D135" s="48"/>
+      <c r="D135" s="47"/>
     </row>
     <row r="136">
       <c r="A136" s="14"/>
-      <c r="D136" s="48"/>
+      <c r="D136" s="47"/>
     </row>
     <row r="137">
       <c r="A137" s="14"/>
-      <c r="D137" s="48"/>
+      <c r="D137" s="47"/>
     </row>
     <row r="138">
       <c r="A138" s="14"/>
-      <c r="D138" s="48"/>
+      <c r="D138" s="47"/>
     </row>
     <row r="139">
       <c r="A139" s="14"/>
-      <c r="D139" s="48"/>
+      <c r="D139" s="47"/>
     </row>
     <row r="140">
       <c r="A140" s="14"/>
-      <c r="D140" s="48"/>
+      <c r="D140" s="47"/>
     </row>
     <row r="141">
       <c r="A141" s="14"/>
-      <c r="D141" s="48"/>
+      <c r="D141" s="47"/>
     </row>
     <row r="142">
       <c r="A142" s="14"/>
-      <c r="D142" s="48"/>
+      <c r="D142" s="47"/>
     </row>
     <row r="143">
       <c r="A143" s="14"/>
-      <c r="D143" s="48"/>
+      <c r="D143" s="47"/>
     </row>
     <row r="144">
       <c r="A144" s="14"/>
-      <c r="D144" s="48"/>
+      <c r="D144" s="47"/>
     </row>
     <row r="145">
       <c r="A145" s="14"/>
-      <c r="D145" s="48"/>
+      <c r="D145" s="47"/>
     </row>
     <row r="146">
       <c r="A146" s="14"/>
-      <c r="D146" s="48"/>
+      <c r="D146" s="47"/>
     </row>
     <row r="147">
       <c r="A147" s="14"/>
-      <c r="D147" s="48"/>
+      <c r="D147" s="47"/>
     </row>
     <row r="148">
       <c r="A148" s="14"/>
-      <c r="D148" s="48"/>
+      <c r="D148" s="47"/>
     </row>
     <row r="149">
       <c r="A149" s="14"/>
-      <c r="D149" s="48"/>
+      <c r="D149" s="47"/>
     </row>
     <row r="150">
       <c r="A150" s="14"/>
-      <c r="D150" s="48"/>
+      <c r="D150" s="47"/>
     </row>
     <row r="151">
       <c r="A151" s="14"/>
-      <c r="D151" s="48"/>
+      <c r="D151" s="47"/>
     </row>
     <row r="152">
       <c r="A152" s="14"/>
-      <c r="D152" s="48"/>
+      <c r="D152" s="47"/>
     </row>
     <row r="153">
       <c r="A153" s="14"/>
-      <c r="D153" s="48"/>
+      <c r="D153" s="47"/>
     </row>
     <row r="154">
       <c r="A154" s="14"/>
-      <c r="D154" s="48"/>
+      <c r="D154" s="47"/>
     </row>
     <row r="155">
       <c r="A155" s="14"/>
-      <c r="D155" s="48"/>
+      <c r="D155" s="47"/>
     </row>
     <row r="156">
       <c r="A156" s="14"/>
-      <c r="D156" s="48"/>
+      <c r="D156" s="47"/>
     </row>
     <row r="157">
       <c r="A157" s="14"/>
-      <c r="D157" s="48"/>
+      <c r="D157" s="47"/>
     </row>
     <row r="158">
       <c r="A158" s="14"/>
-      <c r="D158" s="48"/>
+      <c r="D158" s="47"/>
     </row>
     <row r="159">
       <c r="A159" s="14"/>
-      <c r="D159" s="48"/>
+      <c r="D159" s="47"/>
     </row>
     <row r="160">
       <c r="A160" s="14"/>
-      <c r="D160" s="48"/>
+      <c r="D160" s="47"/>
     </row>
     <row r="161">
       <c r="A161" s="14"/>
-      <c r="D161" s="48"/>
+      <c r="D161" s="47"/>
     </row>
     <row r="162">
       <c r="A162" s="14"/>
-      <c r="D162" s="48"/>
+      <c r="D162" s="47"/>
     </row>
     <row r="163">
       <c r="A163" s="14"/>
-      <c r="D163" s="48"/>
+      <c r="D163" s="47"/>
     </row>
     <row r="164">
       <c r="A164" s="14"/>
-      <c r="D164" s="48"/>
+      <c r="D164" s="47"/>
     </row>
     <row r="165">
       <c r="A165" s="14"/>
-      <c r="D165" s="48"/>
+      <c r="D165" s="47"/>
     </row>
     <row r="166">
       <c r="A166" s="14"/>
-      <c r="D166" s="48"/>
+      <c r="D166" s="47"/>
     </row>
     <row r="167">
       <c r="A167" s="14"/>
-      <c r="D167" s="48"/>
+      <c r="D167" s="47"/>
     </row>
     <row r="168">
       <c r="A168" s="14"/>
-      <c r="D168" s="48"/>
+      <c r="D168" s="47"/>
     </row>
     <row r="169">
       <c r="A169" s="14"/>
-      <c r="D169" s="48"/>
+      <c r="D169" s="47"/>
     </row>
     <row r="170">
       <c r="A170" s="14"/>
-      <c r="D170" s="48"/>
+      <c r="D170" s="47"/>
     </row>
     <row r="171">
       <c r="A171" s="14"/>
-      <c r="D171" s="48"/>
+      <c r="D171" s="47"/>
     </row>
     <row r="172">
       <c r="A172" s="14"/>
-      <c r="D172" s="48"/>
+      <c r="D172" s="47"/>
     </row>
     <row r="173">
       <c r="A173" s="14"/>
-      <c r="D173" s="48"/>
+      <c r="D173" s="47"/>
     </row>
     <row r="174">
       <c r="A174" s="14"/>
-      <c r="D174" s="48"/>
+      <c r="D174" s="47"/>
     </row>
     <row r="175">
       <c r="A175" s="14"/>
-      <c r="D175" s="48"/>
+      <c r="D175" s="47"/>
     </row>
     <row r="176">
       <c r="A176" s="14"/>
-      <c r="D176" s="48"/>
+      <c r="D176" s="47"/>
     </row>
     <row r="177">
       <c r="A177" s="14"/>
-      <c r="D177" s="48"/>
+      <c r="D177" s="47"/>
     </row>
     <row r="178">
       <c r="A178" s="14"/>
-      <c r="D178" s="48"/>
+      <c r="D178" s="47"/>
     </row>
     <row r="179">
       <c r="A179" s="14"/>
-      <c r="D179" s="48"/>
+      <c r="D179" s="47"/>
     </row>
     <row r="180">
       <c r="A180" s="14"/>
-      <c r="D180" s="48"/>
+      <c r="D180" s="47"/>
     </row>
     <row r="181">
       <c r="A181" s="14"/>
-      <c r="D181" s="48"/>
+      <c r="D181" s="47"/>
     </row>
     <row r="182">
       <c r="A182" s="14"/>
-      <c r="D182" s="48"/>
+      <c r="D182" s="47"/>
     </row>
     <row r="183">
       <c r="A183" s="14"/>
-      <c r="D183" s="48"/>
+      <c r="D183" s="47"/>
     </row>
     <row r="184">
       <c r="A184" s="14"/>
-      <c r="D184" s="48"/>
+      <c r="D184" s="47"/>
     </row>
     <row r="185">
       <c r="A185" s="14"/>
-      <c r="D185" s="48"/>
+      <c r="D185" s="47"/>
     </row>
     <row r="186">
       <c r="A186" s="14"/>
-      <c r="D186" s="48"/>
+      <c r="D186" s="47"/>
     </row>
     <row r="187">
       <c r="A187" s="14"/>
-      <c r="D187" s="48"/>
+      <c r="D187" s="47"/>
     </row>
     <row r="188">
       <c r="A188" s="14"/>
-      <c r="D188" s="48"/>
+      <c r="D188" s="47"/>
     </row>
     <row r="189">
       <c r="A189" s="14"/>
-      <c r="D189" s="48"/>
+      <c r="D189" s="47"/>
     </row>
     <row r="190">
       <c r="A190" s="14"/>
-      <c r="D190" s="48"/>
+      <c r="D190" s="47"/>
     </row>
     <row r="191">
       <c r="A191" s="14"/>
-      <c r="D191" s="48"/>
+      <c r="D191" s="47"/>
     </row>
     <row r="192">
       <c r="A192" s="14"/>
-      <c r="D192" s="48"/>
+      <c r="D192" s="47"/>
     </row>
     <row r="193">
       <c r="A193" s="14"/>
-      <c r="D193" s="48"/>
+      <c r="D193" s="47"/>
     </row>
     <row r="194">
       <c r="A194" s="14"/>
-      <c r="D194" s="48"/>
+      <c r="D194" s="47"/>
     </row>
     <row r="195">
       <c r="A195" s="14"/>
-      <c r="D195" s="48"/>
+      <c r="D195" s="47"/>
     </row>
     <row r="196">
       <c r="A196" s="14"/>
-      <c r="D196" s="48"/>
+      <c r="D196" s="47"/>
     </row>
     <row r="197">
       <c r="A197" s="14"/>
-      <c r="D197" s="48"/>
+      <c r="D197" s="47"/>
     </row>
     <row r="198">
       <c r="A198" s="14"/>
-      <c r="D198" s="48"/>
+      <c r="D198" s="47"/>
     </row>
     <row r="199">
       <c r="A199" s="14"/>
-      <c r="D199" s="48"/>
+      <c r="D199" s="47"/>
     </row>
     <row r="200">
       <c r="A200" s="14"/>
-      <c r="D200" s="48"/>
+      <c r="D200" s="47"/>
     </row>
     <row r="201">
       <c r="A201" s="14"/>
-      <c r="D201" s="48"/>
+      <c r="D201" s="47"/>
     </row>
     <row r="202">
       <c r="A202" s="14"/>
-      <c r="D202" s="48"/>
+      <c r="D202" s="47"/>
     </row>
     <row r="203">
       <c r="A203" s="14"/>
-      <c r="D203" s="48"/>
+      <c r="D203" s="47"/>
     </row>
     <row r="204">
       <c r="A204" s="14"/>
-      <c r="D204" s="48"/>
+      <c r="D204" s="47"/>
     </row>
     <row r="205">
       <c r="A205" s="14"/>
-      <c r="D205" s="48"/>
+      <c r="D205" s="47"/>
     </row>
     <row r="206">
       <c r="A206" s="14"/>
-      <c r="D206" s="48"/>
+      <c r="D206" s="47"/>
     </row>
     <row r="207">
       <c r="A207" s="14"/>
-      <c r="D207" s="48"/>
+      <c r="D207" s="47"/>
     </row>
     <row r="208">
       <c r="A208" s="14"/>
-      <c r="D208" s="48"/>
+      <c r="D208" s="47"/>
     </row>
     <row r="209">
       <c r="A209" s="14"/>
-      <c r="D209" s="48"/>
+      <c r="D209" s="47"/>
     </row>
     <row r="210">
       <c r="A210" s="14"/>
-      <c r="D210" s="48"/>
+      <c r="D210" s="47"/>
     </row>
     <row r="211">
       <c r="A211" s="14"/>
-      <c r="D211" s="48"/>
+      <c r="D211" s="47"/>
     </row>
     <row r="212">
       <c r="A212" s="14"/>
-      <c r="D212" s="48"/>
+      <c r="D212" s="47"/>
     </row>
     <row r="213">
       <c r="A213" s="14"/>
-      <c r="D213" s="48"/>
+      <c r="D213" s="47"/>
     </row>
     <row r="214">
       <c r="A214" s="14"/>
-      <c r="D214" s="48"/>
+      <c r="D214" s="47"/>
     </row>
     <row r="215">
       <c r="A215" s="14"/>
-      <c r="D215" s="48"/>
+      <c r="D215" s="47"/>
     </row>
     <row r="216">
       <c r="A216" s="14"/>
-      <c r="D216" s="48"/>
+      <c r="D216" s="47"/>
     </row>
     <row r="217">
       <c r="A217" s="14"/>
-      <c r="D217" s="48"/>
+      <c r="D217" s="47"/>
     </row>
     <row r="218">
       <c r="A218" s="14"/>
-      <c r="D218" s="48"/>
+      <c r="D218" s="47"/>
     </row>
     <row r="219">
       <c r="A219" s="14"/>
-      <c r="D219" s="48"/>
+      <c r="D219" s="47"/>
     </row>
     <row r="220">
       <c r="A220" s="14"/>
-      <c r="D220" s="48"/>
+      <c r="D220" s="47"/>
     </row>
     <row r="221">
       <c r="A221" s="14"/>
-      <c r="D221" s="48"/>
+      <c r="D221" s="47"/>
     </row>
     <row r="222">
       <c r="A222" s="14"/>
-      <c r="D222" s="48"/>
+      <c r="D222" s="47"/>
     </row>
     <row r="223">
       <c r="A223" s="14"/>
-      <c r="D223" s="48"/>
+      <c r="D223" s="47"/>
     </row>
     <row r="224">
       <c r="A224" s="14"/>
-      <c r="D224" s="48"/>
+      <c r="D224" s="47"/>
     </row>
     <row r="225">
       <c r="A225" s="14"/>
-      <c r="D225" s="48"/>
+      <c r="D225" s="47"/>
     </row>
     <row r="226">
       <c r="A226" s="14"/>
-      <c r="D226" s="48"/>
+      <c r="D226" s="47"/>
     </row>
     <row r="227">
       <c r="A227" s="14"/>
-      <c r="D227" s="48"/>
+      <c r="D227" s="47"/>
     </row>
     <row r="228">
       <c r="A228" s="14"/>
-      <c r="D228" s="48"/>
+      <c r="D228" s="47"/>
     </row>
     <row r="229">
       <c r="A229" s="14"/>
-      <c r="D229" s="48"/>
+      <c r="D229" s="47"/>
     </row>
     <row r="230">
       <c r="A230" s="14"/>
-      <c r="D230" s="48"/>
+      <c r="D230" s="47"/>
     </row>
     <row r="231">
       <c r="A231" s="14"/>
-      <c r="D231" s="48"/>
+      <c r="D231" s="47"/>
     </row>
     <row r="232">
       <c r="A232" s="14"/>
-      <c r="D232" s="48"/>
+      <c r="D232" s="47"/>
     </row>
     <row r="233">
       <c r="A233" s="14"/>
-      <c r="D233" s="48"/>
+      <c r="D233" s="47"/>
     </row>
     <row r="234">
       <c r="A234" s="14"/>
-      <c r="D234" s="48"/>
+      <c r="D234" s="47"/>
     </row>
     <row r="235">
       <c r="A235" s="14"/>
-      <c r="D235" s="48"/>
+      <c r="D235" s="47"/>
     </row>
     <row r="236">
       <c r="A236" s="14"/>
-      <c r="D236" s="48"/>
+      <c r="D236" s="47"/>
     </row>
     <row r="237">
       <c r="A237" s="14"/>
-      <c r="D237" s="48"/>
+      <c r="D237" s="47"/>
     </row>
     <row r="238">
       <c r="A238" s="14"/>
-      <c r="D238" s="48"/>
+      <c r="D238" s="47"/>
     </row>
     <row r="239">
       <c r="A239" s="14"/>
-      <c r="D239" s="48"/>
+      <c r="D239" s="47"/>
     </row>
     <row r="240">
       <c r="A240" s="14"/>
-      <c r="D240" s="48"/>
+      <c r="D240" s="47"/>
     </row>
     <row r="241">
       <c r="A241" s="14"/>
-      <c r="D241" s="48"/>
+      <c r="D241" s="47"/>
     </row>
     <row r="242">
       <c r="A242" s="14"/>
-      <c r="D242" s="48"/>
+      <c r="D242" s="47"/>
     </row>
     <row r="243">
       <c r="A243" s="14"/>
-      <c r="D243" s="48"/>
+      <c r="D243" s="47"/>
     </row>
     <row r="244">
       <c r="A244" s="14"/>
-      <c r="D244" s="48"/>
+      <c r="D244" s="47"/>
     </row>
     <row r="245">
       <c r="A245" s="14"/>
-      <c r="D245" s="48"/>
+      <c r="D245" s="47"/>
     </row>
     <row r="246">
       <c r="A246" s="14"/>
-      <c r="D246" s="48"/>
+      <c r="D246" s="47"/>
     </row>
     <row r="247">
       <c r="A247" s="14"/>
-      <c r="D247" s="48"/>
+      <c r="D247" s="47"/>
     </row>
     <row r="248">
       <c r="A248" s="14"/>
-      <c r="D248" s="48"/>
+      <c r="D248" s="47"/>
     </row>
     <row r="249">
       <c r="A249" s="14"/>
-      <c r="D249" s="48"/>
+      <c r="D249" s="47"/>
     </row>
     <row r="250">
       <c r="A250" s="14"/>
-      <c r="D250" s="48"/>
+      <c r="D250" s="47"/>
     </row>
     <row r="251">
       <c r="A251" s="14"/>
-      <c r="D251" s="48"/>
+      <c r="D251" s="47"/>
     </row>
     <row r="252">
       <c r="A252" s="14"/>
-      <c r="D252" s="48"/>
+      <c r="D252" s="47"/>
     </row>
     <row r="253">
       <c r="A253" s="14"/>
-      <c r="D253" s="48"/>
+      <c r="D253" s="47"/>
     </row>
     <row r="254">
       <c r="A254" s="14"/>
-      <c r="D254" s="48"/>
+      <c r="D254" s="47"/>
     </row>
     <row r="255">
       <c r="A255" s="14"/>
-      <c r="D255" s="48"/>
+      <c r="D255" s="47"/>
     </row>
     <row r="256">
       <c r="A256" s="14"/>
-      <c r="D256" s="48"/>
+      <c r="D256" s="47"/>
     </row>
     <row r="257">
       <c r="A257" s="14"/>
-      <c r="D257" s="48"/>
+      <c r="D257" s="47"/>
     </row>
     <row r="258">
       <c r="A258" s="14"/>
-      <c r="D258" s="48"/>
+      <c r="D258" s="47"/>
     </row>
     <row r="259">
       <c r="A259" s="14"/>
-      <c r="D259" s="48"/>
+      <c r="D259" s="47"/>
     </row>
     <row r="260">
       <c r="A260" s="14"/>
-      <c r="D260" s="48"/>
+      <c r="D260" s="47"/>
     </row>
     <row r="261">
       <c r="A261" s="14"/>
-      <c r="D261" s="48"/>
+      <c r="D261" s="47"/>
     </row>
     <row r="262">
       <c r="A262" s="14"/>
-      <c r="D262" s="48"/>
+      <c r="D262" s="47"/>
     </row>
     <row r="263">
       <c r="A263" s="14"/>
-      <c r="D263" s="48"/>
+      <c r="D263" s="47"/>
     </row>
     <row r="264">
       <c r="A264" s="14"/>
-      <c r="D264" s="48"/>
+      <c r="D264" s="47"/>
     </row>
     <row r="265">
       <c r="A265" s="14"/>
-      <c r="D265" s="48"/>
+      <c r="D265" s="47"/>
     </row>
     <row r="266">
       <c r="A266" s="14"/>
-      <c r="D266" s="48"/>
+      <c r="D266" s="47"/>
     </row>
     <row r="267">
       <c r="A267" s="14"/>
-      <c r="D267" s="48"/>
+      <c r="D267" s="47"/>
     </row>
     <row r="268">
       <c r="A268" s="14"/>
-      <c r="D268" s="48"/>
+      <c r="D268" s="47"/>
     </row>
     <row r="269">
       <c r="A269" s="14"/>
-      <c r="D269" s="48"/>
+      <c r="D269" s="47"/>
     </row>
     <row r="270">
       <c r="A270" s="14"/>
-      <c r="D270" s="48"/>
+      <c r="D270" s="47"/>
     </row>
     <row r="271">
       <c r="A271" s="14"/>
-      <c r="D271" s="48"/>
+      <c r="D271" s="47"/>
     </row>
     <row r="272">
       <c r="A272" s="14"/>
-      <c r="D272" s="48"/>
+      <c r="D272" s="47"/>
     </row>
     <row r="273">
       <c r="A273" s="14"/>
-      <c r="D273" s="48"/>
+      <c r="D273" s="47"/>
     </row>
     <row r="274">
       <c r="A274" s="14"/>
-      <c r="D274" s="48"/>
+      <c r="D274" s="47"/>
     </row>
     <row r="275">
       <c r="A275" s="14"/>
-      <c r="D275" s="48"/>
+      <c r="D275" s="47"/>
     </row>
     <row r="276">
       <c r="A276" s="14"/>
-      <c r="D276" s="48"/>
+      <c r="D276" s="47"/>
     </row>
     <row r="277">
       <c r="A277" s="14"/>
-      <c r="D277" s="48"/>
+      <c r="D277" s="47"/>
     </row>
     <row r="278">
       <c r="A278" s="14"/>
-      <c r="D278" s="48"/>
+      <c r="D278" s="47"/>
     </row>
     <row r="279">
       <c r="A279" s="14"/>
-      <c r="D279" s="48"/>
+      <c r="D279" s="47"/>
     </row>
     <row r="280">
       <c r="A280" s="14"/>
-      <c r="D280" s="48"/>
+      <c r="D280" s="47"/>
     </row>
     <row r="281">
       <c r="A281" s="14"/>
-      <c r="D281" s="48"/>
+      <c r="D281" s="47"/>
     </row>
     <row r="282">
       <c r="A282" s="14"/>
-      <c r="D282" s="48"/>
+      <c r="D282" s="47"/>
     </row>
     <row r="283">
       <c r="A283" s="14"/>
-      <c r="D283" s="48"/>
+      <c r="D283" s="47"/>
     </row>
     <row r="284">
       <c r="A284" s="14"/>
-      <c r="D284" s="48"/>
+      <c r="D284" s="47"/>
     </row>
     <row r="285">
       <c r="A285" s="14"/>
-      <c r="D285" s="48"/>
+      <c r="D285" s="47"/>
     </row>
     <row r="286">
       <c r="A286" s="14"/>
-      <c r="D286" s="48"/>
+      <c r="D286" s="47"/>
     </row>
     <row r="287">
       <c r="A287" s="14"/>
-      <c r="D287" s="48"/>
+      <c r="D287" s="47"/>
     </row>
     <row r="288">
       <c r="A288" s="14"/>
-      <c r="D288" s="48"/>
+      <c r="D288" s="47"/>
     </row>
     <row r="289">
       <c r="A289" s="14"/>
-      <c r="D289" s="48"/>
+      <c r="D289" s="47"/>
     </row>
     <row r="290">
       <c r="A290" s="14"/>
-      <c r="D290" s="48"/>
+      <c r="D290" s="47"/>
     </row>
     <row r="291">
       <c r="A291" s="14"/>
-      <c r="D291" s="48"/>
+      <c r="D291" s="47"/>
     </row>
     <row r="292">
       <c r="A292" s="14"/>
-      <c r="D292" s="48"/>
+      <c r="D292" s="47"/>
     </row>
     <row r="293">
       <c r="A293" s="14"/>
-      <c r="D293" s="48"/>
+      <c r="D293" s="47"/>
     </row>
     <row r="294">
       <c r="A294" s="14"/>
-      <c r="D294" s="48"/>
+      <c r="D294" s="47"/>
     </row>
     <row r="295">
       <c r="A295" s="14"/>
-      <c r="D295" s="48"/>
+      <c r="D295" s="47"/>
     </row>
     <row r="296">
       <c r="A296" s="14"/>
-      <c r="D296" s="48"/>
+      <c r="D296" s="47"/>
     </row>
     <row r="297">
       <c r="A297" s="14"/>
-      <c r="D297" s="48"/>
+      <c r="D297" s="47"/>
     </row>
     <row r="298">
       <c r="A298" s="14"/>
-      <c r="D298" s="48"/>
+      <c r="D298" s="47"/>
     </row>
     <row r="299">
       <c r="A299" s="14"/>
-      <c r="D299" s="48"/>
+      <c r="D299" s="47"/>
     </row>
     <row r="300">
       <c r="A300" s="14"/>
-      <c r="D300" s="48"/>
+      <c r="D300" s="47"/>
     </row>
     <row r="301">
       <c r="A301" s="14"/>
-      <c r="D301" s="48"/>
+      <c r="D301" s="47"/>
     </row>
     <row r="302">
       <c r="A302" s="14"/>
-      <c r="D302" s="48"/>
+      <c r="D302" s="47"/>
     </row>
     <row r="303">
       <c r="A303" s="14"/>
-      <c r="D303" s="48"/>
+      <c r="D303" s="47"/>
     </row>
     <row r="304">
       <c r="A304" s="14"/>
-      <c r="D304" s="48"/>
+      <c r="D304" s="47"/>
     </row>
     <row r="305">
       <c r="A305" s="14"/>
-      <c r="D305" s="48"/>
+      <c r="D305" s="47"/>
     </row>
     <row r="306">
       <c r="A306" s="14"/>
-      <c r="D306" s="48"/>
+      <c r="D306" s="47"/>
     </row>
     <row r="307">
       <c r="A307" s="14"/>
-      <c r="D307" s="48"/>
+      <c r="D307" s="47"/>
     </row>
     <row r="308">
       <c r="A308" s="14"/>
-      <c r="D308" s="48"/>
+      <c r="D308" s="47"/>
     </row>
     <row r="309">
       <c r="A309" s="14"/>
-      <c r="D309" s="48"/>
+      <c r="D309" s="47"/>
     </row>
     <row r="310">
       <c r="A310" s="14"/>
-      <c r="D310" s="48"/>
+      <c r="D310" s="47"/>
     </row>
     <row r="311">
       <c r="A311" s="14"/>
-      <c r="D311" s="48"/>
+      <c r="D311" s="47"/>
     </row>
     <row r="312">
       <c r="A312" s="14"/>
-      <c r="D312" s="48"/>
+      <c r="D312" s="47"/>
     </row>
     <row r="313">
       <c r="A313" s="14"/>
-      <c r="D313" s="48"/>
+      <c r="D313" s="47"/>
     </row>
     <row r="314">
       <c r="A314" s="14"/>
-      <c r="D314" s="48"/>
+      <c r="D314" s="47"/>
     </row>
     <row r="315">
       <c r="A315" s="14"/>
-      <c r="D315" s="48"/>
+      <c r="D315" s="47"/>
     </row>
     <row r="316">
       <c r="A316" s="14"/>
-      <c r="D316" s="48"/>
+      <c r="D316" s="47"/>
     </row>
     <row r="317">
       <c r="A317" s="14"/>
-      <c r="D317" s="48"/>
+      <c r="D317" s="47"/>
     </row>
     <row r="318">
       <c r="A318" s="14"/>
-      <c r="D318" s="48"/>
+      <c r="D318" s="47"/>
     </row>
     <row r="319">
       <c r="A319" s="14"/>
-      <c r="D319" s="48"/>
+      <c r="D319" s="47"/>
     </row>
     <row r="320">
       <c r="A320" s="14"/>
-      <c r="D320" s="48"/>
+      <c r="D320" s="47"/>
     </row>
     <row r="321">
       <c r="A321" s="14"/>
-      <c r="D321" s="48"/>
+      <c r="D321" s="47"/>
     </row>
     <row r="322">
       <c r="A322" s="14"/>
-      <c r="D322" s="48"/>
+      <c r="D322" s="47"/>
     </row>
     <row r="323">
       <c r="A323" s="14"/>
-      <c r="D323" s="48"/>
+      <c r="D323" s="47"/>
     </row>
     <row r="324">
       <c r="A324" s="14"/>
-      <c r="D324" s="48"/>
+      <c r="D324" s="47"/>
     </row>
     <row r="325">
       <c r="A325" s="14"/>
-      <c r="D325" s="48"/>
+      <c r="D325" s="47"/>
     </row>
     <row r="326">
       <c r="A326" s="14"/>
-      <c r="D326" s="48"/>
+      <c r="D326" s="47"/>
     </row>
     <row r="327">
       <c r="A327" s="14"/>
-      <c r="D327" s="48"/>
+      <c r="D327" s="47"/>
     </row>
     <row r="328">
       <c r="A328" s="14"/>
-      <c r="D328" s="48"/>
+      <c r="D328" s="47"/>
     </row>
     <row r="329">
       <c r="A329" s="14"/>
-      <c r="D329" s="48"/>
+      <c r="D329" s="47"/>
     </row>
     <row r="330">
       <c r="A330" s="14"/>
-      <c r="D330" s="48"/>
+      <c r="D330" s="47"/>
     </row>
     <row r="331">
       <c r="A331" s="14"/>
-      <c r="D331" s="48"/>
+      <c r="D331" s="47"/>
     </row>
     <row r="332">
       <c r="A332" s="14"/>
-      <c r="D332" s="48"/>
+      <c r="D332" s="47"/>
     </row>
     <row r="333">
       <c r="A333" s="14"/>
-      <c r="D333" s="48"/>
+      <c r="D333" s="47"/>
     </row>
     <row r="334">
       <c r="A334" s="14"/>
-      <c r="D334" s="48"/>
+      <c r="D334" s="47"/>
     </row>
     <row r="335">
       <c r="A335" s="14"/>
-      <c r="D335" s="48"/>
+      <c r="D335" s="47"/>
     </row>
     <row r="336">
       <c r="A336" s="14"/>
-      <c r="D336" s="48"/>
+      <c r="D336" s="47"/>
     </row>
     <row r="337">
       <c r="A337" s="14"/>
-      <c r="D337" s="48"/>
+      <c r="D337" s="47"/>
     </row>
     <row r="338">
       <c r="A338" s="14"/>
-      <c r="D338" s="48"/>
+      <c r="D338" s="47"/>
     </row>
     <row r="339">
       <c r="A339" s="14"/>
-      <c r="D339" s="48"/>
+      <c r="D339" s="47"/>
     </row>
     <row r="340">
       <c r="A340" s="14"/>
-      <c r="D340" s="48"/>
+      <c r="D340" s="47"/>
     </row>
     <row r="341">
       <c r="A341" s="14"/>
-      <c r="D341" s="48"/>
+      <c r="D341" s="47"/>
     </row>
     <row r="342">
       <c r="A342" s="14"/>
-      <c r="D342" s="48"/>
+      <c r="D342" s="47"/>
     </row>
     <row r="343">
       <c r="A343" s="14"/>
-      <c r="D343" s="48"/>
+      <c r="D343" s="47"/>
     </row>
     <row r="344">
       <c r="A344" s="14"/>
-      <c r="D344" s="48"/>
+      <c r="D344" s="47"/>
     </row>
     <row r="345">
       <c r="A345" s="14"/>
-      <c r="D345" s="48"/>
+      <c r="D345" s="47"/>
     </row>
     <row r="346">
       <c r="A346" s="14"/>
-      <c r="D346" s="48"/>
+      <c r="D346" s="47"/>
     </row>
     <row r="347">
       <c r="A347" s="14"/>
-      <c r="D347" s="48"/>
+      <c r="D347" s="47"/>
     </row>
     <row r="348">
       <c r="A348" s="14"/>
-      <c r="D348" s="48"/>
+      <c r="D348" s="47"/>
     </row>
     <row r="349">
       <c r="A349" s="14"/>
-      <c r="D349" s="48"/>
+      <c r="D349" s="47"/>
     </row>
     <row r="350">
       <c r="A350" s="14"/>
-      <c r="D350" s="48"/>
+      <c r="D350" s="47"/>
     </row>
     <row r="351">
       <c r="A351" s="14"/>
-      <c r="D351" s="48"/>
+      <c r="D351" s="47"/>
     </row>
     <row r="352">
       <c r="A352" s="14"/>
-      <c r="D352" s="48"/>
+      <c r="D352" s="47"/>
     </row>
     <row r="353">
       <c r="A353" s="14"/>
-      <c r="D353" s="48"/>
+      <c r="D353" s="47"/>
     </row>
     <row r="354">
       <c r="A354" s="14"/>
-      <c r="D354" s="48"/>
+      <c r="D354" s="47"/>
     </row>
     <row r="355">
       <c r="A355" s="14"/>
-      <c r="D355" s="48"/>
+      <c r="D355" s="47"/>
     </row>
     <row r="356">
       <c r="A356" s="14"/>
-      <c r="D356" s="48"/>
+      <c r="D356" s="47"/>
     </row>
     <row r="357">
       <c r="A357" s="14"/>
-      <c r="D357" s="48"/>
+      <c r="D357" s="47"/>
     </row>
     <row r="358">
       <c r="A358" s="14"/>
-      <c r="D358" s="48"/>
+      <c r="D358" s="47"/>
     </row>
     <row r="359">
       <c r="A359" s="14"/>
-      <c r="D359" s="48"/>
+      <c r="D359" s="47"/>
     </row>
     <row r="360">
       <c r="A360" s="14"/>
-      <c r="D360" s="48"/>
+      <c r="D360" s="47"/>
     </row>
     <row r="361">
       <c r="A361" s="14"/>
-      <c r="D361" s="48"/>
+      <c r="D361" s="47"/>
     </row>
     <row r="362">
       <c r="A362" s="14"/>
-      <c r="D362" s="48"/>
+      <c r="D362" s="47"/>
     </row>
     <row r="363">
       <c r="A363" s="14"/>
-      <c r="D363" s="48"/>
+      <c r="D363" s="47"/>
     </row>
     <row r="364">
       <c r="A364" s="14"/>
-      <c r="D364" s="48"/>
+      <c r="D364" s="47"/>
     </row>
     <row r="365">
       <c r="A365" s="14"/>
-      <c r="D365" s="48"/>
+      <c r="D365" s="47"/>
     </row>
     <row r="366">
       <c r="A366" s="14"/>
-      <c r="D366" s="48"/>
+      <c r="D366" s="47"/>
     </row>
     <row r="367">
       <c r="A367" s="14"/>
-      <c r="D367" s="48"/>
+      <c r="D367" s="47"/>
     </row>
     <row r="368">
       <c r="A368" s="14"/>
-      <c r="D368" s="48"/>
+      <c r="D368" s="47"/>
     </row>
     <row r="369">
       <c r="A369" s="14"/>
-      <c r="D369" s="48"/>
+      <c r="D369" s="47"/>
     </row>
     <row r="370">
       <c r="A370" s="14"/>
-      <c r="D370" s="48"/>
+      <c r="D370" s="47"/>
     </row>
     <row r="371">
       <c r="A371" s="14"/>
-      <c r="D371" s="48"/>
+      <c r="D371" s="47"/>
     </row>
     <row r="372">
       <c r="A372" s="14"/>
-      <c r="D372" s="48"/>
+      <c r="D372" s="47"/>
     </row>
     <row r="373">
       <c r="A373" s="14"/>
-      <c r="D373" s="48"/>
+      <c r="D373" s="47"/>
     </row>
     <row r="374">
       <c r="A374" s="14"/>
-      <c r="D374" s="48"/>
+      <c r="D374" s="47"/>
     </row>
     <row r="375">
       <c r="A375" s="14"/>
-      <c r="D375" s="48"/>
+      <c r="D375" s="47"/>
     </row>
     <row r="376">
       <c r="A376" s="14"/>
-      <c r="D376" s="48"/>
+      <c r="D376" s="47"/>
     </row>
     <row r="377">
       <c r="A377" s="14"/>
-      <c r="D377" s="48"/>
+      <c r="D377" s="47"/>
     </row>
     <row r="378">
       <c r="A378" s="14"/>
-      <c r="D378" s="48"/>
+      <c r="D378" s="47"/>
     </row>
     <row r="379">
       <c r="A379" s="14"/>
-      <c r="D379" s="48"/>
+      <c r="D379" s="47"/>
     </row>
     <row r="380">
       <c r="A380" s="14"/>
-      <c r="D380" s="48"/>
+      <c r="D380" s="47"/>
     </row>
     <row r="381">
       <c r="A381" s="14"/>
-      <c r="D381" s="48"/>
+      <c r="D381" s="47"/>
     </row>
     <row r="382">
       <c r="A382" s="14"/>
-      <c r="D382" s="48"/>
+      <c r="D382" s="47"/>
     </row>
     <row r="383">
       <c r="A383" s="14"/>
-      <c r="D383" s="48"/>
+      <c r="D383" s="47"/>
     </row>
     <row r="384">
       <c r="A384" s="14"/>
-      <c r="D384" s="48"/>
+      <c r="D384" s="47"/>
     </row>
     <row r="385">
       <c r="A385" s="14"/>
-      <c r="D385" s="48"/>
+      <c r="D385" s="47"/>
     </row>
     <row r="386">
       <c r="A386" s="14"/>
-      <c r="D386" s="48"/>
+      <c r="D386" s="47"/>
     </row>
     <row r="387">
       <c r="A387" s="14"/>
-      <c r="D387" s="48"/>
+      <c r="D387" s="47"/>
     </row>
     <row r="388">
       <c r="A388" s="14"/>
-      <c r="D388" s="48"/>
+      <c r="D388" s="47"/>
     </row>
     <row r="389">
       <c r="A389" s="14"/>
-      <c r="D389" s="48"/>
+      <c r="D389" s="47"/>
     </row>
     <row r="390">
       <c r="A390" s="14"/>
-      <c r="D390" s="48"/>
+      <c r="D390" s="47"/>
     </row>
     <row r="391">
       <c r="A391" s="14"/>
-      <c r="D391" s="48"/>
+      <c r="D391" s="47"/>
     </row>
     <row r="392">
       <c r="A392" s="14"/>
-      <c r="D392" s="48"/>
+      <c r="D392" s="47"/>
     </row>
     <row r="393">
       <c r="A393" s="14"/>
-      <c r="D393" s="48"/>
+      <c r="D393" s="47"/>
     </row>
     <row r="394">
       <c r="A394" s="14"/>
-      <c r="D394" s="48"/>
+      <c r="D394" s="47"/>
     </row>
     <row r="395">
       <c r="A395" s="14"/>
-      <c r="D395" s="48"/>
+      <c r="D395" s="47"/>
     </row>
     <row r="396">
       <c r="A396" s="14"/>
-      <c r="D396" s="48"/>
+      <c r="D396" s="47"/>
     </row>
     <row r="397">
       <c r="A397" s="14"/>
-      <c r="D397" s="48"/>
+      <c r="D397" s="47"/>
     </row>
     <row r="398">
       <c r="A398" s="14"/>
-      <c r="D398" s="48"/>
+      <c r="D398" s="47"/>
     </row>
     <row r="399">
       <c r="A399" s="14"/>
-      <c r="D399" s="48"/>
+      <c r="D399" s="47"/>
     </row>
     <row r="400">
       <c r="A400" s="14"/>
-      <c r="D400" s="48"/>
+      <c r="D400" s="47"/>
     </row>
     <row r="401">
       <c r="A401" s="14"/>
-      <c r="D401" s="48"/>
+      <c r="D401" s="47"/>
     </row>
     <row r="402">
       <c r="A402" s="14"/>
-      <c r="D402" s="48"/>
+      <c r="D402" s="47"/>
     </row>
     <row r="403">
       <c r="A403" s="14"/>
-      <c r="D403" s="48"/>
+      <c r="D403" s="47"/>
     </row>
     <row r="404">
       <c r="A404" s="14"/>
-      <c r="D404" s="48"/>
+      <c r="D404" s="47"/>
     </row>
     <row r="405">
       <c r="A405" s="14"/>
-      <c r="D405" s="48"/>
+      <c r="D405" s="47"/>
     </row>
     <row r="406">
       <c r="A406" s="14"/>
-      <c r="D406" s="48"/>
+      <c r="D406" s="47"/>
     </row>
     <row r="407">
       <c r="A407" s="14"/>
-      <c r="D407" s="48"/>
+      <c r="D407" s="47"/>
     </row>
     <row r="408">
       <c r="A408" s="14"/>
-      <c r="D408" s="48"/>
+      <c r="D408" s="47"/>
     </row>
     <row r="409">
       <c r="A409" s="14"/>
-      <c r="D409" s="48"/>
+      <c r="D409" s="47"/>
     </row>
     <row r="410">
       <c r="A410" s="14"/>
-      <c r="D410" s="48"/>
+      <c r="D410" s="47"/>
     </row>
     <row r="411">
       <c r="A411" s="14"/>
-      <c r="D411" s="48"/>
+      <c r="D411" s="47"/>
     </row>
     <row r="412">
       <c r="A412" s="14"/>
-      <c r="D412" s="48"/>
+      <c r="D412" s="47"/>
     </row>
     <row r="413">
       <c r="A413" s="14"/>
-      <c r="D413" s="48"/>
+      <c r="D413" s="47"/>
     </row>
     <row r="414">
       <c r="A414" s="14"/>
-      <c r="D414" s="48"/>
+      <c r="D414" s="47"/>
     </row>
     <row r="415">
       <c r="A415" s="14"/>
-      <c r="D415" s="48"/>
+      <c r="D415" s="47"/>
     </row>
     <row r="416">
       <c r="A416" s="14"/>
-      <c r="D416" s="48"/>
+      <c r="D416" s="47"/>
     </row>
     <row r="417">
       <c r="A417" s="14"/>
-      <c r="D417" s="48"/>
+      <c r="D417" s="47"/>
     </row>
     <row r="418">
       <c r="A418" s="14"/>
-      <c r="D418" s="48"/>
+      <c r="D418" s="47"/>
     </row>
     <row r="419">
       <c r="A419" s="14"/>
-      <c r="D419" s="48"/>
+      <c r="D419" s="47"/>
     </row>
     <row r="420">
       <c r="A420" s="14"/>
-      <c r="D420" s="48"/>
+      <c r="D420" s="47"/>
     </row>
     <row r="421">
       <c r="A421" s="14"/>
-      <c r="D421" s="48"/>
+      <c r="D421" s="47"/>
     </row>
     <row r="422">
       <c r="A422" s="14"/>
-      <c r="D422" s="48"/>
+      <c r="D422" s="47"/>
     </row>
     <row r="423">
       <c r="A423" s="14"/>
-      <c r="D423" s="48"/>
+      <c r="D423" s="47"/>
     </row>
     <row r="424">
       <c r="A424" s="14"/>
-      <c r="D424" s="48"/>
+      <c r="D424" s="47"/>
     </row>
     <row r="425">
       <c r="A425" s="14"/>
-      <c r="D425" s="48"/>
+      <c r="D425" s="47"/>
     </row>
     <row r="426">
       <c r="A426" s="14"/>
-      <c r="D426" s="48"/>
+      <c r="D426" s="47"/>
     </row>
     <row r="427">
       <c r="A427" s="14"/>
-      <c r="D427" s="48"/>
+      <c r="D427" s="47"/>
     </row>
     <row r="428">
       <c r="A428" s="14"/>
-      <c r="D428" s="48"/>
+      <c r="D428" s="47"/>
     </row>
     <row r="429">
       <c r="A429" s="14"/>
-      <c r="D429" s="48"/>
+      <c r="D429" s="47"/>
     </row>
     <row r="430">
       <c r="A430" s="14"/>
-      <c r="D430" s="48"/>
+      <c r="D430" s="47"/>
     </row>
     <row r="431">
       <c r="A431" s="14"/>
-      <c r="D431" s="48"/>
+      <c r="D431" s="47"/>
     </row>
     <row r="432">
       <c r="A432" s="14"/>
-      <c r="D432" s="48"/>
+      <c r="D432" s="47"/>
     </row>
     <row r="433">
       <c r="A433" s="14"/>
-      <c r="D433" s="48"/>
+      <c r="D433" s="47"/>
     </row>
     <row r="434">
       <c r="A434" s="14"/>
-      <c r="D434" s="48"/>
+      <c r="D434" s="47"/>
     </row>
     <row r="435">
       <c r="A435" s="14"/>
-      <c r="D435" s="48"/>
+      <c r="D435" s="47"/>
     </row>
     <row r="436">
       <c r="A436" s="14"/>
-      <c r="D436" s="48"/>
+      <c r="D436" s="47"/>
     </row>
     <row r="437">
       <c r="A437" s="14"/>
-      <c r="D437" s="48"/>
+      <c r="D437" s="47"/>
     </row>
     <row r="438">
       <c r="A438" s="14"/>
-      <c r="D438" s="48"/>
+      <c r="D438" s="47"/>
     </row>
     <row r="439">
       <c r="A439" s="14"/>
-      <c r="D439" s="48"/>
+      <c r="D439" s="47"/>
     </row>
     <row r="440">
       <c r="A440" s="14"/>
-      <c r="D440" s="48"/>
+      <c r="D440" s="47"/>
     </row>
     <row r="441">
       <c r="A441" s="14"/>
-      <c r="D441" s="48"/>
+      <c r="D441" s="47"/>
     </row>
     <row r="442">
       <c r="A442" s="14"/>
-      <c r="D442" s="48"/>
+      <c r="D442" s="47"/>
     </row>
     <row r="443">
       <c r="A443" s="14"/>
-      <c r="D443" s="48"/>
+      <c r="D443" s="47"/>
     </row>
     <row r="444">
       <c r="A444" s="14"/>
-      <c r="D444" s="48"/>
+      <c r="D444" s="47"/>
     </row>
     <row r="445">
       <c r="A445" s="14"/>
-      <c r="D445" s="48"/>
+      <c r="D445" s="47"/>
     </row>
     <row r="446">
       <c r="A446" s="14"/>
-      <c r="D446" s="48"/>
+      <c r="D446" s="47"/>
     </row>
     <row r="447">
       <c r="A447" s="14"/>
-      <c r="D447" s="48"/>
+      <c r="D447" s="47"/>
     </row>
     <row r="448">
       <c r="A448" s="14"/>
-      <c r="D448" s="48"/>
+      <c r="D448" s="47"/>
     </row>
     <row r="449">
       <c r="A449" s="14"/>
-      <c r="D449" s="48"/>
+      <c r="D449" s="47"/>
     </row>
     <row r="450">
       <c r="A450" s="14"/>
-      <c r="D450" s="48"/>
+      <c r="D450" s="47"/>
     </row>
     <row r="451">
       <c r="A451" s="14"/>
-      <c r="D451" s="48"/>
+      <c r="D451" s="47"/>
     </row>
     <row r="452">
       <c r="A452" s="14"/>
-      <c r="D452" s="48"/>
+      <c r="D452" s="47"/>
     </row>
     <row r="453">
       <c r="A453" s="14"/>
-      <c r="D453" s="48"/>
+      <c r="D453" s="47"/>
     </row>
     <row r="454">
       <c r="A454" s="14"/>
-      <c r="D454" s="48"/>
+      <c r="D454" s="47"/>
     </row>
     <row r="455">
       <c r="A455" s="14"/>
-      <c r="D455" s="48"/>
+      <c r="D455" s="47"/>
     </row>
     <row r="456">
       <c r="A456" s="14"/>
-      <c r="D456" s="48"/>
+      <c r="D456" s="47"/>
     </row>
     <row r="457">
       <c r="A457" s="14"/>
-      <c r="D457" s="48"/>
+      <c r="D457" s="47"/>
     </row>
     <row r="458">
       <c r="A458" s="14"/>
-      <c r="D458" s="48"/>
+      <c r="D458" s="47"/>
     </row>
     <row r="459">
       <c r="A459" s="14"/>
-      <c r="D459" s="48"/>
+      <c r="D459" s="47"/>
     </row>
     <row r="460">
       <c r="A460" s="14"/>
-      <c r="D460" s="48"/>
+      <c r="D460" s="47"/>
     </row>
     <row r="461">
       <c r="A461" s="14"/>
-      <c r="D461" s="48"/>
+      <c r="D461" s="47"/>
     </row>
     <row r="462">
       <c r="A462" s="14"/>
-      <c r="D462" s="48"/>
+      <c r="D462" s="47"/>
     </row>
     <row r="463">
       <c r="A463" s="14"/>
-      <c r="D463" s="48"/>
+      <c r="D463" s="47"/>
     </row>
     <row r="464">
       <c r="A464" s="14"/>
-      <c r="D464" s="48"/>
+      <c r="D464" s="47"/>
     </row>
     <row r="465">
       <c r="A465" s="14"/>
-      <c r="D465" s="48"/>
+      <c r="D465" s="47"/>
     </row>
     <row r="466">
       <c r="A466" s="14"/>
-      <c r="D466" s="48"/>
+      <c r="D466" s="47"/>
     </row>
     <row r="467">
       <c r="A467" s="14"/>
-      <c r="D467" s="48"/>
+      <c r="D467" s="47"/>
     </row>
     <row r="468">
       <c r="A468" s="14"/>
-      <c r="D468" s="48"/>
+      <c r="D468" s="47"/>
     </row>
     <row r="469">
       <c r="A469" s="14"/>
-      <c r="D469" s="48"/>
+      <c r="D469" s="47"/>
     </row>
     <row r="470">
       <c r="A470" s="14"/>
-      <c r="D470" s="48"/>
+      <c r="D470" s="47"/>
     </row>
     <row r="471">
       <c r="A471" s="14"/>
-      <c r="D471" s="48"/>
+      <c r="D471" s="47"/>
     </row>
     <row r="472">
       <c r="A472" s="14"/>
-      <c r="D472" s="48"/>
+      <c r="D472" s="47"/>
     </row>
     <row r="473">
       <c r="A473" s="14"/>
-      <c r="D473" s="48"/>
+      <c r="D473" s="47"/>
     </row>
     <row r="474">
       <c r="A474" s="14"/>
-      <c r="D474" s="48"/>
+      <c r="D474" s="47"/>
     </row>
     <row r="475">
       <c r="A475" s="14"/>
-      <c r="D475" s="48"/>
+      <c r="D475" s="47"/>
     </row>
     <row r="476">
       <c r="A476" s="14"/>
-      <c r="D476" s="48"/>
+      <c r="D476" s="47"/>
     </row>
     <row r="477">
       <c r="A477" s="14"/>
-      <c r="D477" s="48"/>
+      <c r="D477" s="47"/>
     </row>
     <row r="478">
       <c r="A478" s="14"/>
-      <c r="D478" s="48"/>
+      <c r="D478" s="47"/>
     </row>
     <row r="479">
       <c r="A479" s="14"/>
-      <c r="D479" s="48"/>
+      <c r="D479" s="47"/>
     </row>
     <row r="480">
       <c r="A480" s="14"/>
-      <c r="D480" s="48"/>
+      <c r="D480" s="47"/>
     </row>
     <row r="481">
       <c r="A481" s="14"/>
-      <c r="D481" s="48"/>
+      <c r="D481" s="47"/>
     </row>
     <row r="482">
       <c r="A482" s="14"/>
-      <c r="D482" s="48"/>
+      <c r="D482" s="47"/>
     </row>
     <row r="483">
       <c r="A483" s="14"/>
-      <c r="D483" s="48"/>
+      <c r="D483" s="47"/>
     </row>
     <row r="484">
       <c r="A484" s="14"/>
-      <c r="D484" s="48"/>
+      <c r="D484" s="47"/>
     </row>
     <row r="485">
       <c r="A485" s="14"/>
-      <c r="D485" s="48"/>
+      <c r="D485" s="47"/>
     </row>
     <row r="486">
       <c r="A486" s="14"/>
-      <c r="D486" s="48"/>
+      <c r="D486" s="47"/>
     </row>
     <row r="487">
       <c r="A487" s="14"/>
-      <c r="D487" s="48"/>
+      <c r="D487" s="47"/>
     </row>
     <row r="488">
       <c r="A488" s="14"/>
-      <c r="D488" s="48"/>
+      <c r="D488" s="47"/>
     </row>
     <row r="489">
       <c r="A489" s="14"/>
-      <c r="D489" s="48"/>
+      <c r="D489" s="47"/>
     </row>
     <row r="490">
       <c r="A490" s="14"/>
-      <c r="D490" s="48"/>
+      <c r="D490" s="47"/>
     </row>
     <row r="491">
       <c r="A491" s="14"/>
-      <c r="D491" s="48"/>
+      <c r="D491" s="47"/>
     </row>
     <row r="492">
       <c r="A492" s="14"/>
-      <c r="D492" s="48"/>
+      <c r="D492" s="47"/>
     </row>
     <row r="493">
       <c r="A493" s="14"/>
-      <c r="D493" s="48"/>
+      <c r="D493" s="47"/>
     </row>
     <row r="494">
       <c r="A494" s="14"/>
-      <c r="D494" s="48"/>
+      <c r="D494" s="47"/>
     </row>
     <row r="495">
       <c r="A495" s="14"/>
-      <c r="D495" s="48"/>
+      <c r="D495" s="47"/>
     </row>
     <row r="496">
       <c r="A496" s="14"/>
-      <c r="D496" s="48"/>
+      <c r="D496" s="47"/>
     </row>
     <row r="497">
       <c r="A497" s="14"/>
-      <c r="D497" s="48"/>
+      <c r="D497" s="47"/>
     </row>
     <row r="498">
       <c r="A498" s="14"/>
-      <c r="D498" s="48"/>
+      <c r="D498" s="47"/>
     </row>
     <row r="499">
       <c r="A499" s="14"/>
-      <c r="D499" s="48"/>
+      <c r="D499" s="47"/>
     </row>
     <row r="500">
       <c r="A500" s="14"/>
-      <c r="D500" s="48"/>
+      <c r="D500" s="47"/>
     </row>
     <row r="501">
       <c r="A501" s="14"/>
-      <c r="D501" s="48"/>
+      <c r="D501" s="47"/>
     </row>
     <row r="502">
       <c r="A502" s="14"/>
-      <c r="D502" s="48"/>
+      <c r="D502" s="47"/>
     </row>
     <row r="503">
       <c r="A503" s="14"/>
-      <c r="D503" s="48"/>
+      <c r="D503" s="47"/>
     </row>
     <row r="504">
       <c r="A504" s="14"/>
-      <c r="D504" s="48"/>
+      <c r="D504" s="47"/>
     </row>
     <row r="505">
       <c r="A505" s="14"/>
-      <c r="D505" s="48"/>
+      <c r="D505" s="47"/>
     </row>
     <row r="506">
       <c r="A506" s="14"/>
-      <c r="D506" s="48"/>
+      <c r="D506" s="47"/>
     </row>
     <row r="507">
       <c r="A507" s="14"/>
-      <c r="D507" s="48"/>
+      <c r="D507" s="47"/>
     </row>
     <row r="508">
       <c r="A508" s="14"/>
-      <c r="D508" s="48"/>
+      <c r="D508" s="47"/>
     </row>
     <row r="509">
       <c r="A509" s="14"/>
-      <c r="D509" s="48"/>
+      <c r="D509" s="47"/>
     </row>
     <row r="510">
       <c r="A510" s="14"/>
-      <c r="D510" s="48"/>
+      <c r="D510" s="47"/>
     </row>
     <row r="511">
       <c r="A511" s="14"/>
-      <c r="D511" s="48"/>
+      <c r="D511" s="47"/>
     </row>
     <row r="512">
       <c r="A512" s="14"/>
-      <c r="D512" s="48"/>
+      <c r="D512" s="47"/>
     </row>
     <row r="513">
       <c r="A513" s="14"/>
-      <c r="D513" s="48"/>
+      <c r="D513" s="47"/>
     </row>
     <row r="514">
       <c r="A514" s="14"/>
-      <c r="D514" s="48"/>
+      <c r="D514" s="47"/>
     </row>
     <row r="515">
       <c r="A515" s="14"/>
-      <c r="D515" s="48"/>
+      <c r="D515" s="47"/>
     </row>
     <row r="516">
       <c r="A516" s="14"/>
-      <c r="D516" s="48"/>
+      <c r="D516" s="47"/>
     </row>
     <row r="517">
       <c r="A517" s="14"/>
-      <c r="D517" s="48"/>
+      <c r="D517" s="47"/>
     </row>
     <row r="518">
       <c r="A518" s="14"/>
-      <c r="D518" s="48"/>
+      <c r="D518" s="47"/>
     </row>
     <row r="519">
       <c r="A519" s="14"/>
-      <c r="D519" s="48"/>
+      <c r="D519" s="47"/>
     </row>
     <row r="520">
       <c r="A520" s="14"/>
-      <c r="D520" s="48"/>
+      <c r="D520" s="47"/>
     </row>
     <row r="521">
       <c r="A521" s="14"/>
-      <c r="D521" s="48"/>
+      <c r="D521" s="47"/>
     </row>
     <row r="522">
       <c r="A522" s="14"/>
-      <c r="D522" s="48"/>
+      <c r="D522" s="47"/>
     </row>
     <row r="523">
       <c r="A523" s="14"/>
-      <c r="D523" s="48"/>
+      <c r="D523" s="47"/>
     </row>
     <row r="524">
       <c r="A524" s="14"/>
-      <c r="D524" s="48"/>
+      <c r="D524" s="47"/>
     </row>
     <row r="525">
       <c r="A525" s="14"/>
-      <c r="D525" s="48"/>
+      <c r="D525" s="47"/>
     </row>
     <row r="526">
       <c r="A526" s="14"/>
-      <c r="D526" s="48"/>
+      <c r="D526" s="47"/>
     </row>
     <row r="527">
       <c r="A527" s="14"/>
-      <c r="D527" s="48"/>
+      <c r="D527" s="47"/>
     </row>
     <row r="528">
       <c r="A528" s="14"/>
-      <c r="D528" s="48"/>
+      <c r="D528" s="47"/>
     </row>
     <row r="529">
       <c r="A529" s="14"/>
-      <c r="D529" s="48"/>
+      <c r="D529" s="47"/>
     </row>
     <row r="530">
       <c r="A530" s="14"/>
-      <c r="D530" s="48"/>
+      <c r="D530" s="47"/>
     </row>
     <row r="531">
       <c r="A531" s="14"/>
-      <c r="D531" s="48"/>
+      <c r="D531" s="47"/>
     </row>
     <row r="532">
       <c r="A532" s="14"/>
-      <c r="D532" s="48"/>
+      <c r="D532" s="47"/>
     </row>
     <row r="533">
       <c r="A533" s="14"/>
-      <c r="D533" s="48"/>
+      <c r="D533" s="47"/>
     </row>
     <row r="534">
       <c r="A534" s="14"/>
-      <c r="D534" s="48"/>
+      <c r="D534" s="47"/>
     </row>
     <row r="535">
       <c r="A535" s="14"/>
-      <c r="D535" s="48"/>
+      <c r="D535" s="47"/>
     </row>
     <row r="536">
       <c r="A536" s="14"/>
-      <c r="D536" s="48"/>
+      <c r="D536" s="47"/>
     </row>
     <row r="537">
       <c r="A537" s="14"/>
-      <c r="D537" s="48"/>
+      <c r="D537" s="47"/>
     </row>
     <row r="538">
       <c r="A538" s="14"/>
-      <c r="D538" s="48"/>
+      <c r="D538" s="47"/>
     </row>
     <row r="539">
       <c r="A539" s="14"/>
-      <c r="D539" s="48"/>
+      <c r="D539" s="47"/>
     </row>
     <row r="540">
       <c r="A540" s="14"/>
-      <c r="D540" s="48"/>
+      <c r="D540" s="47"/>
     </row>
     <row r="541">
       <c r="A541" s="14"/>
-      <c r="D541" s="48"/>
+      <c r="D541" s="47"/>
     </row>
     <row r="542">
       <c r="A542" s="14"/>
-      <c r="D542" s="48"/>
+      <c r="D542" s="47"/>
     </row>
     <row r="543">
       <c r="A543" s="14"/>
-      <c r="D543" s="48"/>
+      <c r="D543" s="47"/>
     </row>
     <row r="544">
       <c r="A544" s="14"/>
-      <c r="D544" s="48"/>
+      <c r="D544" s="47"/>
     </row>
     <row r="545">
       <c r="A545" s="14"/>
-      <c r="D545" s="48"/>
+      <c r="D545" s="47"/>
     </row>
     <row r="546">
       <c r="A546" s="14"/>
-      <c r="D546" s="48"/>
+      <c r="D546" s="47"/>
     </row>
     <row r="547">
       <c r="A547" s="14"/>
-      <c r="D547" s="48"/>
+      <c r="D547" s="47"/>
     </row>
     <row r="548">
       <c r="A548" s="14"/>
-      <c r="D548" s="48"/>
+      <c r="D548" s="47"/>
     </row>
     <row r="549">
       <c r="A549" s="14"/>
-      <c r="D549" s="48"/>
+      <c r="D549" s="47"/>
     </row>
     <row r="550">
       <c r="A550" s="14"/>
-      <c r="D550" s="48"/>
+      <c r="D550" s="47"/>
     </row>
     <row r="551">
       <c r="A551" s="14"/>
-      <c r="D551" s="48"/>
+      <c r="D551" s="47"/>
     </row>
     <row r="552">
       <c r="A552" s="14"/>
-      <c r="D552" s="48"/>
+      <c r="D552" s="47"/>
     </row>
     <row r="553">
       <c r="A553" s="14"/>
-      <c r="D553" s="48"/>
+      <c r="D553" s="47"/>
     </row>
     <row r="554">
       <c r="A554" s="14"/>
-      <c r="D554" s="48"/>
+      <c r="D554" s="47"/>
     </row>
     <row r="555">
       <c r="A555" s="14"/>
-      <c r="D555" s="48"/>
+      <c r="D555" s="47"/>
     </row>
     <row r="556">
       <c r="A556" s="14"/>
-      <c r="D556" s="48"/>
+      <c r="D556" s="47"/>
     </row>
     <row r="557">
       <c r="A557" s="14"/>
-      <c r="D557" s="48"/>
+      <c r="D557" s="47"/>
     </row>
     <row r="558">
       <c r="A558" s="14"/>
-      <c r="D558" s="48"/>
+      <c r="D558" s="47"/>
     </row>
     <row r="559">
       <c r="A559" s="14"/>
-      <c r="D559" s="48"/>
+      <c r="D559" s="47"/>
     </row>
     <row r="560">
       <c r="A560" s="14"/>
-      <c r="D560" s="48"/>
+      <c r="D560" s="47"/>
     </row>
     <row r="561">
       <c r="A561" s="14"/>
-      <c r="D561" s="48"/>
+      <c r="D561" s="47"/>
     </row>
     <row r="562">
       <c r="A562" s="14"/>
-      <c r="D562" s="48"/>
+      <c r="D562" s="47"/>
     </row>
     <row r="563">
       <c r="A563" s="14"/>
-      <c r="D563" s="48"/>
+      <c r="D563" s="47"/>
     </row>
     <row r="564">
       <c r="A564" s="14"/>
-      <c r="D564" s="48"/>
+      <c r="D564" s="47"/>
     </row>
     <row r="565">
       <c r="A565" s="14"/>
-      <c r="D565" s="48"/>
+      <c r="D565" s="47"/>
     </row>
     <row r="566">
       <c r="A566" s="14"/>
-      <c r="D566" s="48"/>
+      <c r="D566" s="47"/>
     </row>
     <row r="567">
       <c r="A567" s="14"/>
-      <c r="D567" s="48"/>
+      <c r="D567" s="47"/>
     </row>
     <row r="568">
       <c r="A568" s="14"/>
-      <c r="D568" s="48"/>
+      <c r="D568" s="47"/>
     </row>
     <row r="569">
       <c r="A569" s="14"/>
-      <c r="D569" s="48"/>
+      <c r="D569" s="47"/>
     </row>
     <row r="570">
       <c r="A570" s="14"/>
-      <c r="D570" s="48"/>
+      <c r="D570" s="47"/>
     </row>
     <row r="571">
       <c r="A571" s="14"/>
-      <c r="D571" s="48"/>
+      <c r="D571" s="47"/>
     </row>
     <row r="572">
       <c r="A572" s="14"/>
-      <c r="D572" s="48"/>
+      <c r="D572" s="47"/>
     </row>
     <row r="573">
       <c r="A573" s="14"/>
-      <c r="D573" s="48"/>
+      <c r="D573" s="47"/>
     </row>
     <row r="574">
       <c r="A574" s="14"/>
-      <c r="D574" s="48"/>
+      <c r="D574" s="47"/>
     </row>
     <row r="575">
       <c r="A575" s="14"/>
-      <c r="D575" s="48"/>
+      <c r="D575" s="47"/>
     </row>
     <row r="576">
       <c r="A576" s="14"/>
-      <c r="D576" s="48"/>
+      <c r="D576" s="47"/>
     </row>
     <row r="577">
       <c r="A577" s="14"/>
-      <c r="D577" s="48"/>
+      <c r="D577" s="47"/>
     </row>
     <row r="578">
       <c r="A578" s="14"/>
-      <c r="D578" s="48"/>
+      <c r="D578" s="47"/>
     </row>
     <row r="579">
       <c r="A579" s="14"/>
-      <c r="D579" s="48"/>
+      <c r="D579" s="47"/>
     </row>
     <row r="580">
       <c r="A580" s="14"/>
-      <c r="D580" s="48"/>
+      <c r="D580" s="47"/>
     </row>
     <row r="581">
       <c r="A581" s="14"/>
-      <c r="D581" s="48"/>
+      <c r="D581" s="47"/>
     </row>
     <row r="582">
       <c r="A582" s="14"/>
-      <c r="D582" s="48"/>
+      <c r="D582" s="47"/>
     </row>
     <row r="583">
       <c r="A583" s="14"/>
-      <c r="D583" s="48"/>
+      <c r="D583" s="47"/>
     </row>
     <row r="584">
       <c r="A584" s="14"/>
-      <c r="D584" s="48"/>
+      <c r="D584" s="47"/>
     </row>
     <row r="585">
       <c r="A585" s="14"/>
-      <c r="D585" s="48"/>
+      <c r="D585" s="47"/>
     </row>
     <row r="586">
       <c r="A586" s="14"/>
-      <c r="D586" s="48"/>
+      <c r="D586" s="47"/>
     </row>
     <row r="587">
       <c r="A587" s="14"/>
-      <c r="D587" s="48"/>
+      <c r="D587" s="47"/>
     </row>
     <row r="588">
       <c r="A588" s="14"/>
-      <c r="D588" s="48"/>
+      <c r="D588" s="47"/>
     </row>
     <row r="589">
       <c r="A589" s="14"/>
-      <c r="D589" s="48"/>
+      <c r="D589" s="47"/>
     </row>
     <row r="590">
       <c r="A590" s="14"/>
-      <c r="D590" s="48"/>
+      <c r="D590" s="47"/>
     </row>
     <row r="591">
       <c r="A591" s="14"/>
-      <c r="D591" s="48"/>
+      <c r="D591" s="47"/>
     </row>
     <row r="592">
       <c r="A592" s="14"/>
-      <c r="D592" s="48"/>
+      <c r="D592" s="47"/>
     </row>
     <row r="593">
       <c r="A593" s="14"/>
-      <c r="D593" s="48"/>
+      <c r="D593" s="47"/>
     </row>
     <row r="594">
       <c r="A594" s="14"/>
-      <c r="D594" s="48"/>
+      <c r="D594" s="47"/>
     </row>
     <row r="595">
       <c r="A595" s="14"/>
-      <c r="D595" s="48"/>
+      <c r="D595" s="47"/>
     </row>
     <row r="596">
       <c r="A596" s="14"/>
-      <c r="D596" s="48"/>
+      <c r="D596" s="47"/>
     </row>
     <row r="597">
       <c r="A597" s="14"/>
-      <c r="D597" s="48"/>
+      <c r="D597" s="47"/>
     </row>
     <row r="598">
       <c r="A598" s="14"/>
-      <c r="D598" s="48"/>
+      <c r="D598" s="47"/>
     </row>
     <row r="599">
       <c r="A599" s="14"/>
-      <c r="D599" s="48"/>
+      <c r="D599" s="47"/>
     </row>
     <row r="600">
       <c r="A600" s="14"/>
-      <c r="D600" s="48"/>
+      <c r="D600" s="47"/>
     </row>
     <row r="601">
       <c r="A601" s="14"/>
-      <c r="D601" s="48"/>
+      <c r="D601" s="47"/>
     </row>
     <row r="602">
       <c r="A602" s="14"/>
-      <c r="D602" s="48"/>
+      <c r="D602" s="47"/>
     </row>
     <row r="603">
       <c r="A603" s="14"/>
-      <c r="D603" s="48"/>
+      <c r="D603" s="47"/>
     </row>
     <row r="604">
       <c r="A604" s="14"/>
-      <c r="D604" s="48"/>
+      <c r="D604" s="47"/>
     </row>
     <row r="605">
       <c r="A605" s="14"/>
-      <c r="D605" s="48"/>
+      <c r="D605" s="47"/>
     </row>
     <row r="606">
       <c r="A606" s="14"/>
-      <c r="D606" s="48"/>
+      <c r="D606" s="47"/>
     </row>
     <row r="607">
       <c r="A607" s="14"/>
-      <c r="D607" s="48"/>
+      <c r="D607" s="47"/>
     </row>
     <row r="608">
       <c r="A608" s="14"/>
-      <c r="D608" s="48"/>
+      <c r="D608" s="47"/>
     </row>
     <row r="609">
       <c r="A609" s="14"/>
-      <c r="D609" s="48"/>
+      <c r="D609" s="47"/>
     </row>
     <row r="610">
       <c r="A610" s="14"/>
-      <c r="D610" s="48"/>
+      <c r="D610" s="47"/>
     </row>
     <row r="611">
       <c r="A611" s="14"/>
-      <c r="D611" s="48"/>
+      <c r="D611" s="47"/>
     </row>
     <row r="612">
       <c r="A612" s="14"/>
-      <c r="D612" s="48"/>
+      <c r="D612" s="47"/>
     </row>
     <row r="613">
       <c r="A613" s="14"/>
-      <c r="D613" s="48"/>
+      <c r="D613" s="47"/>
     </row>
     <row r="614">
       <c r="A614" s="14"/>
-      <c r="D614" s="48"/>
+      <c r="D614" s="47"/>
     </row>
     <row r="615">
       <c r="A615" s="14"/>
-      <c r="D615" s="48"/>
+      <c r="D615" s="47"/>
     </row>
     <row r="616">
       <c r="A616" s="14"/>
-      <c r="D616" s="48"/>
+      <c r="D616" s="47"/>
     </row>
     <row r="617">
       <c r="A617" s="14"/>
-      <c r="D617" s="48"/>
+      <c r="D617" s="47"/>
     </row>
     <row r="618">
       <c r="A618" s="14"/>
-      <c r="D618" s="48"/>
+      <c r="D618" s="47"/>
     </row>
     <row r="619">
       <c r="A619" s="14"/>
-      <c r="D619" s="48"/>
+      <c r="D619" s="47"/>
     </row>
     <row r="620">
       <c r="A620" s="14"/>
-      <c r="D620" s="48"/>
+      <c r="D620" s="47"/>
     </row>
     <row r="621">
       <c r="A621" s="14"/>
-      <c r="D621" s="48"/>
+      <c r="D621" s="47"/>
     </row>
     <row r="622">
       <c r="A622" s="14"/>
-      <c r="D622" s="48"/>
+      <c r="D622" s="47"/>
     </row>
     <row r="623">
       <c r="A623" s="14"/>
-      <c r="D623" s="48"/>
+      <c r="D623" s="47"/>
     </row>
     <row r="624">
       <c r="A624" s="14"/>
-      <c r="D624" s="48"/>
+      <c r="D624" s="47"/>
     </row>
     <row r="625">
       <c r="A625" s="14"/>
-      <c r="D625" s="48"/>
+      <c r="D625" s="47"/>
     </row>
     <row r="626">
       <c r="A626" s="14"/>
-      <c r="D626" s="48"/>
+      <c r="D626" s="47"/>
     </row>
     <row r="627">
       <c r="A627" s="14"/>
-      <c r="D627" s="48"/>
+      <c r="D627" s="47"/>
     </row>
     <row r="628">
       <c r="A628" s="14"/>
-      <c r="D628" s="48"/>
+      <c r="D628" s="47"/>
     </row>
     <row r="629">
       <c r="A629" s="14"/>
-      <c r="D629" s="48"/>
+      <c r="D629" s="47"/>
     </row>
     <row r="630">
       <c r="A630" s="14"/>
-      <c r="D630" s="48"/>
+      <c r="D630" s="47"/>
     </row>
     <row r="631">
       <c r="A631" s="14"/>
-      <c r="D631" s="48"/>
+      <c r="D631" s="47"/>
     </row>
     <row r="632">
       <c r="A632" s="14"/>
-      <c r="D632" s="48"/>
+      <c r="D632" s="47"/>
     </row>
     <row r="633">
       <c r="A633" s="14"/>
-      <c r="D633" s="48"/>
+      <c r="D633" s="47"/>
     </row>
     <row r="634">
       <c r="A634" s="14"/>
-      <c r="D634" s="48"/>
+      <c r="D634" s="47"/>
     </row>
     <row r="635">
       <c r="A635" s="14"/>
-      <c r="D635" s="48"/>
+      <c r="D635" s="47"/>
     </row>
     <row r="636">
       <c r="A636" s="14"/>
-      <c r="D636" s="48"/>
+      <c r="D636" s="47"/>
     </row>
     <row r="637">
       <c r="A637" s="14"/>
-      <c r="D637" s="48"/>
+      <c r="D637" s="47"/>
     </row>
     <row r="638">
       <c r="A638" s="14"/>
-      <c r="D638" s="48"/>
+      <c r="D638" s="47"/>
     </row>
     <row r="639">
       <c r="A639" s="14"/>
-      <c r="D639" s="48"/>
+      <c r="D639" s="47"/>
     </row>
     <row r="640">
       <c r="A640" s="14"/>
-      <c r="D640" s="48"/>
+      <c r="D640" s="47"/>
     </row>
     <row r="641">
       <c r="A641" s="14"/>
-      <c r="D641" s="48"/>
+      <c r="D641" s="47"/>
     </row>
     <row r="642">
       <c r="A642" s="14"/>
-      <c r="D642" s="48"/>
+      <c r="D642" s="47"/>
     </row>
     <row r="643">
       <c r="A643" s="14"/>
-      <c r="D643" s="48"/>
+      <c r="D643" s="47"/>
     </row>
     <row r="644">
       <c r="A644" s="14"/>
-      <c r="D644" s="48"/>
+      <c r="D644" s="47"/>
     </row>
     <row r="645">
       <c r="A645" s="14"/>
-      <c r="D645" s="48"/>
+      <c r="D645" s="47"/>
     </row>
     <row r="646">
       <c r="A646" s="14"/>
-      <c r="D646" s="48"/>
+      <c r="D646" s="47"/>
     </row>
     <row r="647">
       <c r="A647" s="14"/>
-      <c r="D647" s="48"/>
+      <c r="D647" s="47"/>
     </row>
     <row r="648">
       <c r="A648" s="14"/>
-      <c r="D648" s="48"/>
+      <c r="D648" s="47"/>
     </row>
     <row r="649">
       <c r="A649" s="14"/>
-      <c r="D649" s="48"/>
+      <c r="D649" s="47"/>
     </row>
     <row r="650">
       <c r="A650" s="14"/>
-      <c r="D650" s="48"/>
+      <c r="D650" s="47"/>
     </row>
     <row r="651">
       <c r="A651" s="14"/>
-      <c r="D651" s="48"/>
+      <c r="D651" s="47"/>
     </row>
     <row r="652">
       <c r="A652" s="14"/>
-      <c r="D652" s="48"/>
+      <c r="D652" s="47"/>
     </row>
     <row r="653">
       <c r="A653" s="14"/>
-      <c r="D653" s="48"/>
+      <c r="D653" s="47"/>
     </row>
     <row r="654">
       <c r="A654" s="14"/>
-      <c r="D654" s="48"/>
+      <c r="D654" s="47"/>
     </row>
     <row r="655">
       <c r="A655" s="14"/>
-      <c r="D655" s="48"/>
+      <c r="D655" s="47"/>
     </row>
     <row r="656">
       <c r="A656" s="14"/>
-      <c r="D656" s="48"/>
+      <c r="D656" s="47"/>
     </row>
     <row r="657">
       <c r="A657" s="14"/>
-      <c r="D657" s="48"/>
+      <c r="D657" s="47"/>
     </row>
     <row r="658">
       <c r="A658" s="14"/>
-      <c r="D658" s="48"/>
+      <c r="D658" s="47"/>
     </row>
     <row r="659">
       <c r="A659" s="14"/>
-      <c r="D659" s="48"/>
+      <c r="D659" s="47"/>
     </row>
     <row r="660">
       <c r="A660" s="14"/>
-      <c r="D660" s="48"/>
+      <c r="D660" s="47"/>
     </row>
     <row r="661">
       <c r="A661" s="14"/>
-      <c r="D661" s="48"/>
+      <c r="D661" s="47"/>
     </row>
     <row r="662">
       <c r="A662" s="14"/>
-      <c r="D662" s="48"/>
+      <c r="D662" s="47"/>
     </row>
     <row r="663">
       <c r="A663" s="14"/>
-      <c r="D663" s="48"/>
+      <c r="D663" s="47"/>
     </row>
     <row r="664">
       <c r="A664" s="14"/>
-      <c r="D664" s="48"/>
+      <c r="D664" s="47"/>
     </row>
     <row r="665">
       <c r="A665" s="14"/>
-      <c r="D665" s="48"/>
+      <c r="D665" s="47"/>
     </row>
     <row r="666">
       <c r="A666" s="14"/>
-      <c r="D666" s="48"/>
+      <c r="D666" s="47"/>
     </row>
     <row r="667">
       <c r="A667" s="14"/>
-      <c r="D667" s="48"/>
+      <c r="D667" s="47"/>
     </row>
     <row r="668">
       <c r="A668" s="14"/>
-      <c r="D668" s="48"/>
+      <c r="D668" s="47"/>
     </row>
     <row r="669">
       <c r="A669" s="14"/>
-      <c r="D669" s="48"/>
+      <c r="D669" s="47"/>
     </row>
     <row r="670">
       <c r="A670" s="14"/>
-      <c r="D670" s="48"/>
+      <c r="D670" s="47"/>
     </row>
     <row r="671">
       <c r="A671" s="14"/>
-      <c r="D671" s="48"/>
+      <c r="D671" s="47"/>
     </row>
     <row r="672">
       <c r="A672" s="14"/>
-      <c r="D672" s="48"/>
+      <c r="D672" s="47"/>
     </row>
     <row r="673">
       <c r="A673" s="14"/>
-      <c r="D673" s="48"/>
+      <c r="D673" s="47"/>
     </row>
     <row r="674">
       <c r="A674" s="14"/>
-      <c r="D674" s="48"/>
+      <c r="D674" s="47"/>
     </row>
     <row r="675">
       <c r="A675" s="14"/>
-      <c r="D675" s="48"/>
+      <c r="D675" s="47"/>
     </row>
     <row r="676">
       <c r="A676" s="14"/>
-      <c r="D676" s="48"/>
+      <c r="D676" s="47"/>
     </row>
     <row r="677">
       <c r="A677" s="14"/>
-      <c r="D677" s="48"/>
+      <c r="D677" s="47"/>
     </row>
     <row r="678">
       <c r="A678" s="14"/>
-      <c r="D678" s="48"/>
+      <c r="D678" s="47"/>
     </row>
     <row r="679">
       <c r="A679" s="14"/>
-      <c r="D679" s="48"/>
+      <c r="D679" s="47"/>
     </row>
     <row r="680">
       <c r="A680" s="14"/>
-      <c r="D680" s="48"/>
+      <c r="D680" s="47"/>
     </row>
     <row r="681">
       <c r="A681" s="14"/>
-      <c r="D681" s="48"/>
+      <c r="D681" s="47"/>
     </row>
     <row r="682">
       <c r="A682" s="14"/>
-      <c r="D682" s="48"/>
+      <c r="D682" s="47"/>
     </row>
     <row r="683">
       <c r="A683" s="14"/>
-      <c r="D683" s="48"/>
+      <c r="D683" s="47"/>
     </row>
     <row r="684">
       <c r="A684" s="14"/>
-      <c r="D684" s="48"/>
+      <c r="D684" s="47"/>
     </row>
     <row r="685">
       <c r="A685" s="14"/>
-      <c r="D685" s="48"/>
+      <c r="D685" s="47"/>
     </row>
     <row r="686">
       <c r="A686" s="14"/>
-      <c r="D686" s="48"/>
+      <c r="D686" s="47"/>
     </row>
     <row r="687">
       <c r="A687" s="14"/>
-      <c r="D687" s="48"/>
+      <c r="D687" s="47"/>
     </row>
     <row r="688">
       <c r="A688" s="14"/>
-      <c r="D688" s="48"/>
+      <c r="D688" s="47"/>
     </row>
     <row r="689">
       <c r="A689" s="14"/>
-      <c r="D689" s="48"/>
+      <c r="D689" s="47"/>
     </row>
     <row r="690">
       <c r="A690" s="14"/>
-      <c r="D690" s="48"/>
+      <c r="D690" s="47"/>
     </row>
     <row r="691">
       <c r="A691" s="14"/>
-      <c r="D691" s="48"/>
+      <c r="D691" s="47"/>
     </row>
     <row r="692">
       <c r="A692" s="14"/>
-      <c r="D692" s="48"/>
+      <c r="D692" s="47"/>
     </row>
     <row r="693">
       <c r="A693" s="14"/>
-      <c r="D693" s="48"/>
+      <c r="D693" s="47"/>
     </row>
     <row r="694">
       <c r="A694" s="14"/>
-      <c r="D694" s="48"/>
+      <c r="D694" s="47"/>
     </row>
     <row r="695">
       <c r="A695" s="14"/>
-      <c r="D695" s="48"/>
+      <c r="D695" s="47"/>
     </row>
     <row r="696">
       <c r="A696" s="14"/>
-      <c r="D696" s="48"/>
+      <c r="D696" s="47"/>
     </row>
     <row r="697">
       <c r="A697" s="14"/>
-      <c r="D697" s="48"/>
+      <c r="D697" s="47"/>
     </row>
     <row r="698">
       <c r="A698" s="14"/>
-      <c r="D698" s="48"/>
+      <c r="D698" s="47"/>
     </row>
     <row r="699">
       <c r="A699" s="14"/>
-      <c r="D699" s="48"/>
+      <c r="D699" s="47"/>
     </row>
     <row r="700">
       <c r="A700" s="14"/>
-      <c r="D700" s="48"/>
+      <c r="D700" s="47"/>
     </row>
     <row r="701">
       <c r="A701" s="14"/>
-      <c r="D701" s="48"/>
+      <c r="D701" s="47"/>
     </row>
     <row r="702">
       <c r="A702" s="14"/>
-      <c r="D702" s="48"/>
+      <c r="D702" s="47"/>
     </row>
     <row r="703">
       <c r="A703" s="14"/>
-      <c r="D703" s="48"/>
+      <c r="D703" s="47"/>
     </row>
     <row r="704">
       <c r="A704" s="14"/>
-      <c r="D704" s="48"/>
+      <c r="D704" s="47"/>
     </row>
     <row r="705">
       <c r="A705" s="14"/>
-      <c r="D705" s="48"/>
+      <c r="D705" s="47"/>
     </row>
     <row r="706">
       <c r="A706" s="14"/>
-      <c r="D706" s="48"/>
+      <c r="D706" s="47"/>
     </row>
     <row r="707">
       <c r="A707" s="14"/>
-      <c r="D707" s="48"/>
+      <c r="D707" s="47"/>
     </row>
     <row r="708">
       <c r="A708" s="14"/>
-      <c r="D708" s="48"/>
+      <c r="D708" s="47"/>
     </row>
     <row r="709">
       <c r="A709" s="14"/>
-      <c r="D709" s="48"/>
+      <c r="D709" s="47"/>
     </row>
     <row r="710">
       <c r="A710" s="14"/>
-      <c r="D710" s="48"/>
+      <c r="D710" s="47"/>
     </row>
     <row r="711">
       <c r="A711" s="14"/>
-      <c r="D711" s="48"/>
+      <c r="D711" s="47"/>
     </row>
     <row r="712">
       <c r="A712" s="14"/>
-      <c r="D712" s="48"/>
+      <c r="D712" s="47"/>
     </row>
     <row r="713">
       <c r="A713" s="14"/>
-      <c r="D713" s="48"/>
+      <c r="D713" s="47"/>
     </row>
     <row r="714">
       <c r="A714" s="14"/>
-      <c r="D714" s="48"/>
+      <c r="D714" s="47"/>
     </row>
     <row r="715">
       <c r="A715" s="14"/>
-      <c r="D715" s="48"/>
+      <c r="D715" s="47"/>
     </row>
     <row r="716">
       <c r="A716" s="14"/>
-      <c r="D716" s="48"/>
+      <c r="D716" s="47"/>
     </row>
     <row r="717">
       <c r="A717" s="14"/>
-      <c r="D717" s="48"/>
+      <c r="D717" s="47"/>
     </row>
     <row r="718">
       <c r="A718" s="14"/>
-      <c r="D718" s="48"/>
+      <c r="D718" s="47"/>
     </row>
     <row r="719">
       <c r="A719" s="14"/>
-      <c r="D719" s="48"/>
+      <c r="D719" s="47"/>
     </row>
     <row r="720">
       <c r="A720" s="14"/>
-      <c r="D720" s="48"/>
+      <c r="D720" s="47"/>
     </row>
     <row r="721">
       <c r="A721" s="14"/>
-      <c r="D721" s="48"/>
+      <c r="D721" s="47"/>
     </row>
     <row r="722">
       <c r="A722" s="14"/>
-      <c r="D722" s="48"/>
+      <c r="D722" s="47"/>
     </row>
     <row r="723">
       <c r="A723" s="14"/>
-      <c r="D723" s="48"/>
+      <c r="D723" s="47"/>
     </row>
     <row r="724">
       <c r="A724" s="14"/>
-      <c r="D724" s="48"/>
+      <c r="D724" s="47"/>
     </row>
     <row r="725">
       <c r="A725" s="14"/>
-      <c r="D725" s="48"/>
+      <c r="D725" s="47"/>
     </row>
     <row r="726">
       <c r="A726" s="14"/>
-      <c r="D726" s="48"/>
+      <c r="D726" s="47"/>
     </row>
     <row r="727">
       <c r="A727" s="14"/>
-      <c r="D727" s="48"/>
+      <c r="D727" s="47"/>
     </row>
     <row r="728">
       <c r="A728" s="14"/>
-      <c r="D728" s="48"/>
+      <c r="D728" s="47"/>
     </row>
     <row r="729">
       <c r="A729" s="14"/>
-      <c r="D729" s="48"/>
+      <c r="D729" s="47"/>
     </row>
     <row r="730">
       <c r="A730" s="14"/>
-      <c r="D730" s="48"/>
+      <c r="D730" s="47"/>
     </row>
     <row r="731">
       <c r="A731" s="14"/>
-      <c r="D731" s="48"/>
+      <c r="D731" s="47"/>
     </row>
     <row r="732">
       <c r="A732" s="14"/>
-      <c r="D732" s="48"/>
+      <c r="D732" s="47"/>
     </row>
     <row r="733">
       <c r="A733" s="14"/>
-      <c r="D733" s="48"/>
+      <c r="D733" s="47"/>
     </row>
     <row r="734">
       <c r="A734" s="14"/>
-      <c r="D734" s="48"/>
+      <c r="D734" s="47"/>
     </row>
     <row r="735">
       <c r="A735" s="14"/>
-      <c r="D735" s="48"/>
+      <c r="D735" s="47"/>
     </row>
     <row r="736">
       <c r="A736" s="14"/>
-      <c r="D736" s="48"/>
+      <c r="D736" s="47"/>
     </row>
     <row r="737">
       <c r="A737" s="14"/>
-      <c r="D737" s="48"/>
+      <c r="D737" s="47"/>
     </row>
     <row r="738">
       <c r="A738" s="14"/>
-      <c r="D738" s="48"/>
+      <c r="D738" s="47"/>
     </row>
     <row r="739">
       <c r="A739" s="14"/>
-      <c r="D739" s="48"/>
+      <c r="D739" s="47"/>
     </row>
     <row r="740">
       <c r="A740" s="14"/>
-      <c r="D740" s="48"/>
+      <c r="D740" s="47"/>
     </row>
     <row r="741">
       <c r="A741" s="14"/>
-      <c r="D741" s="48"/>
+      <c r="D741" s="47"/>
     </row>
     <row r="742">
       <c r="A742" s="14"/>
-      <c r="D742" s="48"/>
+      <c r="D742" s="47"/>
     </row>
     <row r="743">
       <c r="A743" s="14"/>
-      <c r="D743" s="48"/>
+      <c r="D743" s="47"/>
     </row>
     <row r="744">
       <c r="A744" s="14"/>
-      <c r="D744" s="48"/>
+      <c r="D744" s="47"/>
     </row>
     <row r="745">
       <c r="A745" s="14"/>
-      <c r="D745" s="48"/>
+      <c r="D745" s="47"/>
     </row>
     <row r="746">
       <c r="A746" s="14"/>
-      <c r="D746" s="48"/>
+      <c r="D746" s="47"/>
     </row>
     <row r="747">
       <c r="A747" s="14"/>
-      <c r="D747" s="48"/>
+      <c r="D747" s="47"/>
     </row>
     <row r="748">
       <c r="A748" s="14"/>
-      <c r="D748" s="48"/>
+      <c r="D748" s="47"/>
     </row>
     <row r="749">
       <c r="A749" s="14"/>
-      <c r="D749" s="48"/>
+      <c r="D749" s="47"/>
     </row>
     <row r="750">
       <c r="A750" s="14"/>
-      <c r="D750" s="48"/>
+      <c r="D750" s="47"/>
     </row>
     <row r="751">
       <c r="A751" s="14"/>
-      <c r="D751" s="48"/>
+      <c r="D751" s="47"/>
     </row>
     <row r="752">
       <c r="A752" s="14"/>
-      <c r="D752" s="48"/>
+      <c r="D752" s="47"/>
     </row>
     <row r="753">
       <c r="A753" s="14"/>
-      <c r="D753" s="48"/>
+      <c r="D753" s="47"/>
     </row>
     <row r="754">
       <c r="A754" s="14"/>
-      <c r="D754" s="48"/>
+      <c r="D754" s="47"/>
     </row>
     <row r="755">
       <c r="A755" s="14"/>
-      <c r="D755" s="48"/>
+      <c r="D755" s="47"/>
     </row>
     <row r="756">
       <c r="A756" s="14"/>
-      <c r="D756" s="48"/>
+      <c r="D756" s="47"/>
     </row>
     <row r="757">
       <c r="A757" s="14"/>
-      <c r="D757" s="48"/>
+      <c r="D757" s="47"/>
     </row>
     <row r="758">
       <c r="A758" s="14"/>
-      <c r="D758" s="48"/>
+      <c r="D758" s="47"/>
     </row>
     <row r="759">
       <c r="A759" s="14"/>
-      <c r="D759" s="48"/>
+      <c r="D759" s="47"/>
     </row>
     <row r="760">
       <c r="A760" s="14"/>
-      <c r="D760" s="48"/>
+      <c r="D760" s="47"/>
     </row>
     <row r="761">
       <c r="A761" s="14"/>
-      <c r="D761" s="48"/>
+      <c r="D761" s="47"/>
     </row>
     <row r="762">
       <c r="A762" s="14"/>
-      <c r="D762" s="48"/>
+      <c r="D762" s="47"/>
     </row>
     <row r="763">
       <c r="A763" s="14"/>
-      <c r="D763" s="48"/>
+      <c r="D763" s="47"/>
     </row>
     <row r="764">
       <c r="A764" s="14"/>
-      <c r="D764" s="48"/>
+      <c r="D764" s="47"/>
     </row>
     <row r="765">
       <c r="A765" s="14"/>
-      <c r="D765" s="48"/>
+      <c r="D765" s="47"/>
     </row>
     <row r="766">
       <c r="A766" s="14"/>
-      <c r="D766" s="48"/>
+      <c r="D766" s="47"/>
     </row>
     <row r="767">
       <c r="A767" s="14"/>
-      <c r="D767" s="48"/>
+      <c r="D767" s="47"/>
     </row>
     <row r="768">
       <c r="A768" s="14"/>
-      <c r="D768" s="48"/>
+      <c r="D768" s="47"/>
     </row>
     <row r="769">
       <c r="A769" s="14"/>
-      <c r="D769" s="48"/>
+      <c r="D769" s="47"/>
     </row>
     <row r="770">
       <c r="A770" s="14"/>
-      <c r="D770" s="48"/>
+      <c r="D770" s="47"/>
     </row>
     <row r="771">
       <c r="A771" s="14"/>
-      <c r="D771" s="48"/>
+      <c r="D771" s="47"/>
     </row>
     <row r="772">
       <c r="A772" s="14"/>
-      <c r="D772" s="48"/>
+      <c r="D772" s="47"/>
     </row>
     <row r="773">
       <c r="A773" s="14"/>
-      <c r="D773" s="48"/>
+      <c r="D773" s="47"/>
     </row>
     <row r="774">
       <c r="A774" s="14"/>
-      <c r="D774" s="48"/>
+      <c r="D774" s="47"/>
     </row>
     <row r="775">
       <c r="A775" s="14"/>
-      <c r="D775" s="48"/>
+      <c r="D775" s="47"/>
     </row>
     <row r="776">
       <c r="A776" s="14"/>
-      <c r="D776" s="48"/>
+      <c r="D776" s="47"/>
     </row>
     <row r="777">
       <c r="A777" s="14"/>
-      <c r="D777" s="48"/>
+      <c r="D777" s="47"/>
     </row>
     <row r="778">
       <c r="A778" s="14"/>
-      <c r="D778" s="48"/>
+      <c r="D778" s="47"/>
     </row>
     <row r="779">
       <c r="A779" s="14"/>
-      <c r="D779" s="48"/>
+      <c r="D779" s="47"/>
     </row>
     <row r="780">
       <c r="A780" s="14"/>
-      <c r="D780" s="48"/>
+      <c r="D780" s="47"/>
     </row>
     <row r="781">
       <c r="A781" s="14"/>
-      <c r="D781" s="48"/>
+      <c r="D781" s="47"/>
     </row>
     <row r="782">
       <c r="A782" s="14"/>
-      <c r="D782" s="48"/>
+      <c r="D782" s="47"/>
     </row>
     <row r="783">
       <c r="A783" s="14"/>
-      <c r="D783" s="48"/>
+      <c r="D783" s="47"/>
     </row>
     <row r="784">
       <c r="A784" s="14"/>
-      <c r="D784" s="48"/>
+      <c r="D784" s="47"/>
     </row>
     <row r="785">
       <c r="A785" s="14"/>
-      <c r="D785" s="48"/>
+      <c r="D785" s="47"/>
     </row>
     <row r="786">
       <c r="A786" s="14"/>
-      <c r="D786" s="48"/>
+      <c r="D786" s="47"/>
     </row>
     <row r="787">
       <c r="A787" s="14"/>
-      <c r="D787" s="48"/>
+      <c r="D787" s="47"/>
     </row>
     <row r="788">
       <c r="A788" s="14"/>
-      <c r="D788" s="48"/>
+      <c r="D788" s="47"/>
     </row>
     <row r="789">
       <c r="A789" s="14"/>
-      <c r="D789" s="48"/>
+      <c r="D789" s="47"/>
     </row>
     <row r="790">
       <c r="A790" s="14"/>
-      <c r="D790" s="48"/>
+      <c r="D790" s="47"/>
     </row>
     <row r="791">
       <c r="A791" s="14"/>
-      <c r="D791" s="48"/>
+      <c r="D791" s="47"/>
     </row>
     <row r="792">
       <c r="A792" s="14"/>
-      <c r="D792" s="48"/>
+      <c r="D792" s="47"/>
     </row>
     <row r="793">
       <c r="A793" s="14"/>
-      <c r="D793" s="48"/>
+      <c r="D793" s="47"/>
     </row>
     <row r="794">
       <c r="A794" s="14"/>
-      <c r="D794" s="48"/>
+      <c r="D794" s="47"/>
     </row>
     <row r="795">
       <c r="A795" s="14"/>
-      <c r="D795" s="48"/>
+      <c r="D795" s="47"/>
     </row>
     <row r="796">
       <c r="A796" s="14"/>
-      <c r="D796" s="48"/>
+      <c r="D796" s="47"/>
     </row>
     <row r="797">
       <c r="A797" s="14"/>
-      <c r="D797" s="48"/>
+      <c r="D797" s="47"/>
     </row>
     <row r="798">
       <c r="A798" s="14"/>
-      <c r="D798" s="48"/>
+      <c r="D798" s="47"/>
     </row>
     <row r="799">
       <c r="A799" s="14"/>
-      <c r="D799" s="48"/>
+      <c r="D799" s="47"/>
     </row>
     <row r="800">
       <c r="A800" s="14"/>
-      <c r="D800" s="48"/>
+      <c r="D800" s="47"/>
     </row>
     <row r="801">
       <c r="A801" s="14"/>
-      <c r="D801" s="48"/>
+      <c r="D801" s="47"/>
     </row>
     <row r="802">
       <c r="A802" s="14"/>
-      <c r="D802" s="48"/>
+      <c r="D802" s="47"/>
     </row>
     <row r="803">
       <c r="A803" s="14"/>
-      <c r="D803" s="48"/>
+      <c r="D803" s="47"/>
     </row>
     <row r="804">
       <c r="A804" s="14"/>
-      <c r="D804" s="48"/>
+      <c r="D804" s="47"/>
     </row>
     <row r="805">
       <c r="A805" s="14"/>
-      <c r="D805" s="48"/>
+      <c r="D805" s="47"/>
     </row>
     <row r="806">
       <c r="A806" s="14"/>
-      <c r="D806" s="48"/>
+      <c r="D806" s="47"/>
     </row>
     <row r="807">
       <c r="A807" s="14"/>
-      <c r="D807" s="48"/>
+      <c r="D807" s="47"/>
     </row>
     <row r="808">
       <c r="A808" s="14"/>
-      <c r="D808" s="48"/>
+      <c r="D808" s="47"/>
     </row>
     <row r="809">
       <c r="A809" s="14"/>
-      <c r="D809" s="48"/>
+      <c r="D809" s="47"/>
     </row>
     <row r="810">
       <c r="A810" s="14"/>
-      <c r="D810" s="48"/>
+      <c r="D810" s="47"/>
     </row>
     <row r="811">
       <c r="A811" s="14"/>
-      <c r="D811" s="48"/>
+      <c r="D811" s="47"/>
     </row>
     <row r="812">
       <c r="A812" s="14"/>
-      <c r="D812" s="48"/>
+      <c r="D812" s="47"/>
     </row>
     <row r="813">
       <c r="A813" s="14"/>
-      <c r="D813" s="48"/>
+      <c r="D813" s="47"/>
     </row>
     <row r="814">
       <c r="A814" s="14"/>
-      <c r="D814" s="48"/>
+      <c r="D814" s="47"/>
     </row>
     <row r="815">
       <c r="A815" s="14"/>
-      <c r="D815" s="48"/>
+      <c r="D815" s="47"/>
     </row>
     <row r="816">
       <c r="A816" s="14"/>
-      <c r="D816" s="48"/>
+      <c r="D816" s="47"/>
     </row>
     <row r="817">
       <c r="A817" s="14"/>
-      <c r="D817" s="48"/>
+      <c r="D817" s="47"/>
     </row>
     <row r="818">
       <c r="A818" s="14"/>
-      <c r="D818" s="48"/>
+      <c r="D818" s="47"/>
     </row>
     <row r="819">
       <c r="A819" s="14"/>
-      <c r="D819" s="48"/>
+      <c r="D819" s="47"/>
     </row>
     <row r="820">
       <c r="A820" s="14"/>
-      <c r="D820" s="48"/>
+      <c r="D820" s="47"/>
     </row>
     <row r="821">
       <c r="A821" s="14"/>
-      <c r="D821" s="48"/>
+      <c r="D821" s="47"/>
     </row>
     <row r="822">
       <c r="A822" s="14"/>
-      <c r="D822" s="48"/>
+      <c r="D822" s="47"/>
     </row>
     <row r="823">
       <c r="A823" s="14"/>
-      <c r="D823" s="48"/>
+      <c r="D823" s="47"/>
     </row>
     <row r="824">
       <c r="A824" s="14"/>
-      <c r="D824" s="48"/>
+      <c r="D824" s="47"/>
     </row>
     <row r="825">
       <c r="A825" s="14"/>
-      <c r="D825" s="48"/>
+      <c r="D825" s="47"/>
     </row>
     <row r="826">
       <c r="A826" s="14"/>
-      <c r="D826" s="48"/>
+      <c r="D826" s="47"/>
     </row>
     <row r="827">
       <c r="A827" s="14"/>
-      <c r="D827" s="48"/>
+      <c r="D827" s="47"/>
     </row>
     <row r="828">
       <c r="A828" s="14"/>
-      <c r="D828" s="48"/>
+      <c r="D828" s="47"/>
     </row>
     <row r="829">
       <c r="A829" s="14"/>
-      <c r="D829" s="48"/>
+      <c r="D829" s="47"/>
     </row>
     <row r="830">
       <c r="A830" s="14"/>
-      <c r="D830" s="48"/>
+      <c r="D830" s="47"/>
     </row>
     <row r="831">
       <c r="A831" s="14"/>
-      <c r="D831" s="48"/>
+      <c r="D831" s="47"/>
     </row>
     <row r="832">
       <c r="A832" s="14"/>
-      <c r="D832" s="48"/>
+      <c r="D832" s="47"/>
     </row>
     <row r="833">
       <c r="A833" s="14"/>
-      <c r="D833" s="48"/>
+      <c r="D833" s="47"/>
     </row>
     <row r="834">
       <c r="A834" s="14"/>
-      <c r="D834" s="48"/>
+      <c r="D834" s="47"/>
     </row>
     <row r="835">
       <c r="A835" s="14"/>
-      <c r="D835" s="48"/>
+      <c r="D835" s="47"/>
     </row>
     <row r="836">
       <c r="A836" s="14"/>
-      <c r="D836" s="48"/>
+      <c r="D836" s="47"/>
     </row>
     <row r="837">
       <c r="A837" s="14"/>
-      <c r="D837" s="48"/>
+      <c r="D837" s="47"/>
     </row>
     <row r="838">
       <c r="A838" s="14"/>
-      <c r="D838" s="48"/>
+      <c r="D838" s="47"/>
     </row>
     <row r="839">
       <c r="A839" s="14"/>
-      <c r="D839" s="48"/>
+      <c r="D839" s="47"/>
     </row>
     <row r="840">
       <c r="A840" s="14"/>
-      <c r="D840" s="48"/>
+      <c r="D840" s="47"/>
     </row>
     <row r="841">
       <c r="A841" s="14"/>
-      <c r="D841" s="48"/>
+      <c r="D841" s="47"/>
     </row>
     <row r="842">
       <c r="A842" s="14"/>
-      <c r="D842" s="48"/>
+      <c r="D842" s="47"/>
     </row>
     <row r="843">
       <c r="A843" s="14"/>
-      <c r="D843" s="48"/>
+      <c r="D843" s="47"/>
     </row>
     <row r="844">
       <c r="A844" s="14"/>
-      <c r="D844" s="48"/>
+      <c r="D844" s="47"/>
     </row>
     <row r="845">
       <c r="A845" s="14"/>
-      <c r="D845" s="48"/>
+      <c r="D845" s="47"/>
     </row>
     <row r="846">
       <c r="A846" s="14"/>
-      <c r="D846" s="48"/>
+      <c r="D846" s="47"/>
     </row>
     <row r="847">
       <c r="A847" s="14"/>
-      <c r="D847" s="48"/>
+      <c r="D847" s="47"/>
     </row>
     <row r="848">
       <c r="A848" s="14"/>
-      <c r="D848" s="48"/>
+      <c r="D848" s="47"/>
     </row>
     <row r="849">
       <c r="A849" s="14"/>
-      <c r="D849" s="48"/>
+      <c r="D849" s="47"/>
     </row>
     <row r="850">
       <c r="A850" s="14"/>
-      <c r="D850" s="48"/>
+      <c r="D850" s="47"/>
     </row>
     <row r="851">
       <c r="A851" s="14"/>
-      <c r="D851" s="48"/>
+      <c r="D851" s="47"/>
     </row>
     <row r="852">
       <c r="A852" s="14"/>
-      <c r="D852" s="48"/>
+      <c r="D852" s="47"/>
     </row>
     <row r="853">
       <c r="A853" s="14"/>
-      <c r="D853" s="48"/>
+      <c r="D853" s="47"/>
     </row>
     <row r="854">
       <c r="A854" s="14"/>
-      <c r="D854" s="48"/>
+      <c r="D854" s="47"/>
     </row>
     <row r="855">
       <c r="A855" s="14"/>
-      <c r="D855" s="48"/>
+      <c r="D855" s="47"/>
     </row>
     <row r="856">
       <c r="A856" s="14"/>
-      <c r="D856" s="48"/>
+      <c r="D856" s="47"/>
     </row>
     <row r="857">
       <c r="A857" s="14"/>
-      <c r="D857" s="48"/>
+      <c r="D857" s="47"/>
     </row>
     <row r="858">
       <c r="A858" s="14"/>
-      <c r="D858" s="48"/>
+      <c r="D858" s="47"/>
     </row>
     <row r="859">
       <c r="A859" s="14"/>
-      <c r="D859" s="48"/>
+      <c r="D859" s="47"/>
     </row>
     <row r="860">
       <c r="A860" s="14"/>
-      <c r="D860" s="48"/>
+      <c r="D860" s="47"/>
     </row>
     <row r="861">
       <c r="A861" s="14"/>
-      <c r="D861" s="48"/>
+      <c r="D861" s="47"/>
     </row>
     <row r="862">
       <c r="A862" s="14"/>
-      <c r="D862" s="48"/>
+      <c r="D862" s="47"/>
     </row>
     <row r="863">
       <c r="A863" s="14"/>
-      <c r="D863" s="48"/>
+      <c r="D863" s="47"/>
     </row>
     <row r="864">
       <c r="A864" s="14"/>
-      <c r="D864" s="48"/>
+      <c r="D864" s="47"/>
     </row>
     <row r="865">
       <c r="A865" s="14"/>
-      <c r="D865" s="48"/>
+      <c r="D865" s="47"/>
     </row>
     <row r="866">
       <c r="A866" s="14"/>
-      <c r="D866" s="48"/>
+      <c r="D866" s="47"/>
     </row>
     <row r="867">
       <c r="A867" s="14"/>
-      <c r="D867" s="48"/>
+      <c r="D867" s="47"/>
     </row>
     <row r="868">
       <c r="A868" s="14"/>
-      <c r="D868" s="48"/>
+      <c r="D868" s="47"/>
     </row>
     <row r="869">
       <c r="A869" s="14"/>
-      <c r="D869" s="48"/>
+      <c r="D869" s="47"/>
     </row>
     <row r="870">
       <c r="A870" s="14"/>
-      <c r="D870" s="48"/>
+      <c r="D870" s="47"/>
     </row>
     <row r="871">
       <c r="A871" s="14"/>
-      <c r="D871" s="48"/>
+      <c r="D871" s="47"/>
     </row>
     <row r="872">
       <c r="A872" s="14"/>
-      <c r="D872" s="48"/>
+      <c r="D872" s="47"/>
     </row>
     <row r="873">
       <c r="A873" s="14"/>
-      <c r="D873" s="48"/>
+      <c r="D873" s="47"/>
     </row>
     <row r="874">
       <c r="A874" s="14"/>
-      <c r="D874" s="48"/>
+      <c r="D874" s="47"/>
     </row>
     <row r="875">
       <c r="A875" s="14"/>
-      <c r="D875" s="48"/>
+      <c r="D875" s="47"/>
     </row>
     <row r="876">
       <c r="A876" s="14"/>
-      <c r="D876" s="48"/>
+      <c r="D876" s="47"/>
     </row>
     <row r="877">
       <c r="A877" s="14"/>
-      <c r="D877" s="48"/>
+      <c r="D877" s="47"/>
     </row>
     <row r="878">
       <c r="A878" s="14"/>
-      <c r="D878" s="48"/>
+      <c r="D878" s="47"/>
     </row>
     <row r="879">
       <c r="A879" s="14"/>
-      <c r="D879" s="48"/>
+      <c r="D879" s="47"/>
     </row>
     <row r="880">
       <c r="A880" s="14"/>
-      <c r="D880" s="48"/>
+      <c r="D880" s="47"/>
     </row>
     <row r="881">
       <c r="A881" s="14"/>
-      <c r="D881" s="48"/>
+      <c r="D881" s="47"/>
     </row>
     <row r="882">
       <c r="A882" s="14"/>
-      <c r="D882" s="48"/>
+      <c r="D882" s="47"/>
     </row>
     <row r="883">
       <c r="A883" s="14"/>
-      <c r="D883" s="48"/>
+      <c r="D883" s="47"/>
     </row>
     <row r="884">
       <c r="A884" s="14"/>
-      <c r="D884" s="48"/>
+      <c r="D884" s="47"/>
     </row>
     <row r="885">
       <c r="A885" s="14"/>
-      <c r="D885" s="48"/>
+      <c r="D885" s="47"/>
     </row>
     <row r="886">
       <c r="A886" s="14"/>
-      <c r="D886" s="48"/>
+      <c r="D886" s="47"/>
     </row>
     <row r="887">
       <c r="A887" s="14"/>
-      <c r="D887" s="48"/>
+      <c r="D887" s="47"/>
     </row>
     <row r="888">
       <c r="A888" s="14"/>
-      <c r="D888" s="48"/>
+      <c r="D888" s="47"/>
     </row>
     <row r="889">
       <c r="A889" s="14"/>
-      <c r="D889" s="48"/>
+      <c r="D889" s="47"/>
     </row>
     <row r="890">
       <c r="A890" s="14"/>
-      <c r="D890" s="48"/>
+      <c r="D890" s="47"/>
     </row>
     <row r="891">
       <c r="A891" s="14"/>
-      <c r="D891" s="48"/>
+      <c r="D891" s="47"/>
     </row>
     <row r="892">
       <c r="A892" s="14"/>
-      <c r="D892" s="48"/>
+      <c r="D892" s="47"/>
     </row>
     <row r="893">
       <c r="A893" s="14"/>
-      <c r="D893" s="48"/>
+      <c r="D893" s="47"/>
     </row>
     <row r="894">
       <c r="A894" s="14"/>
-      <c r="D894" s="48"/>
+      <c r="D894" s="47"/>
     </row>
     <row r="895">
       <c r="A895" s="14"/>
-      <c r="D895" s="48"/>
+      <c r="D895" s="47"/>
     </row>
     <row r="896">
       <c r="A896" s="14"/>
-      <c r="D896" s="48"/>
+      <c r="D896" s="47"/>
     </row>
     <row r="897">
       <c r="A897" s="14"/>
-      <c r="D897" s="48"/>
+      <c r="D897" s="47"/>
     </row>
     <row r="898">
       <c r="A898" s="14"/>
-      <c r="D898" s="48"/>
+      <c r="D898" s="47"/>
     </row>
     <row r="899">
       <c r="A899" s="14"/>
-      <c r="D899" s="48"/>
+      <c r="D899" s="47"/>
     </row>
     <row r="900">
       <c r="A900" s="14"/>
-      <c r="D900" s="48"/>
+      <c r="D900" s="47"/>
     </row>
     <row r="901">
       <c r="A901" s="14"/>
-      <c r="D901" s="48"/>
+      <c r="D901" s="47"/>
     </row>
     <row r="902">
       <c r="A902" s="14"/>
-      <c r="D902" s="48"/>
+      <c r="D902" s="47"/>
     </row>
     <row r="903">
       <c r="A903" s="14"/>
-      <c r="D903" s="48"/>
+      <c r="D903" s="47"/>
     </row>
     <row r="904">
       <c r="A904" s="14"/>
-      <c r="D904" s="48"/>
+      <c r="D904" s="47"/>
     </row>
     <row r="905">
       <c r="A905" s="14"/>
-      <c r="D905" s="48"/>
+      <c r="D905" s="47"/>
     </row>
     <row r="906">
       <c r="A906" s="14"/>
-      <c r="D906" s="48"/>
+      <c r="D906" s="47"/>
     </row>
     <row r="907">
       <c r="A907" s="14"/>
-      <c r="D907" s="48"/>
+      <c r="D907" s="47"/>
     </row>
     <row r="908">
       <c r="A908" s="14"/>
-      <c r="D908" s="48"/>
+      <c r="D908" s="47"/>
     </row>
     <row r="909">
       <c r="A909" s="14"/>
-      <c r="D909" s="48"/>
+      <c r="D909" s="47"/>
     </row>
     <row r="910">
       <c r="A910" s="14"/>
-      <c r="D910" s="48"/>
+      <c r="D910" s="47"/>
     </row>
     <row r="911">
       <c r="A911" s="14"/>
-      <c r="D911" s="48"/>
+      <c r="D911" s="47"/>
     </row>
     <row r="912">
       <c r="A912" s="14"/>
-      <c r="D912" s="48"/>
+      <c r="D912" s="47"/>
     </row>
     <row r="913">
       <c r="A913" s="14"/>
-      <c r="D913" s="48"/>
+      <c r="D913" s="47"/>
     </row>
     <row r="914">
       <c r="A914" s="14"/>
-      <c r="D914" s="48"/>
+      <c r="D914" s="47"/>
     </row>
     <row r="915">
       <c r="A915" s="14"/>
-      <c r="D915" s="48"/>
+      <c r="D915" s="47"/>
     </row>
     <row r="916">
       <c r="A916" s="14"/>
-      <c r="D916" s="48"/>
+      <c r="D916" s="47"/>
     </row>
     <row r="917">
       <c r="A917" s="14"/>
-      <c r="D917" s="48"/>
+      <c r="D917" s="47"/>
     </row>
     <row r="918">
       <c r="A918" s="14"/>
-      <c r="D918" s="48"/>
+      <c r="D918" s="47"/>
     </row>
     <row r="919">
       <c r="A919" s="14"/>
-      <c r="D919" s="48"/>
+      <c r="D919" s="47"/>
     </row>
     <row r="920">
       <c r="A920" s="14"/>
-      <c r="D920" s="48"/>
+      <c r="D920" s="47"/>
     </row>
     <row r="921">
       <c r="A921" s="14"/>
-      <c r="D921" s="48"/>
+      <c r="D921" s="47"/>
     </row>
     <row r="922">
       <c r="A922" s="14"/>
-      <c r="D922" s="48"/>
+      <c r="D922" s="47"/>
     </row>
     <row r="923">
       <c r="A923" s="14"/>
-      <c r="D923" s="48"/>
+      <c r="D923" s="47"/>
     </row>
     <row r="924">
       <c r="A924" s="14"/>
-      <c r="D924" s="48"/>
+      <c r="D924" s="47"/>
     </row>
     <row r="925">
       <c r="A925" s="14"/>
-      <c r="D925" s="48"/>
+      <c r="D925" s="47"/>
     </row>
     <row r="926">
       <c r="A926" s="14"/>
-      <c r="D926" s="48"/>
+      <c r="D926" s="47"/>
     </row>
     <row r="927">
       <c r="A927" s="14"/>
-      <c r="D927" s="48"/>
+      <c r="D927" s="47"/>
     </row>
     <row r="928">
       <c r="A928" s="14"/>
-      <c r="D928" s="48"/>
+      <c r="D928" s="47"/>
     </row>
     <row r="929">
       <c r="A929" s="14"/>
-      <c r="D929" s="48"/>
+      <c r="D929" s="47"/>
     </row>
     <row r="930">
       <c r="A930" s="14"/>
-      <c r="D930" s="48"/>
+      <c r="D930" s="47"/>
     </row>
     <row r="931">
       <c r="A931" s="14"/>
-      <c r="D931" s="48"/>
+      <c r="D931" s="47"/>
     </row>
     <row r="932">
       <c r="A932" s="14"/>
-      <c r="D932" s="48"/>
+      <c r="D932" s="47"/>
     </row>
     <row r="933">
       <c r="A933" s="14"/>
-      <c r="D933" s="48"/>
+      <c r="D933" s="47"/>
     </row>
     <row r="934">
       <c r="A934" s="14"/>
-      <c r="D934" s="48"/>
+      <c r="D934" s="47"/>
     </row>
     <row r="935">
       <c r="A935" s="14"/>
-      <c r="D935" s="48"/>
+      <c r="D935" s="47"/>
     </row>
     <row r="936">
       <c r="A936" s="14"/>
-      <c r="D936" s="48"/>
+      <c r="D936" s="47"/>
     </row>
     <row r="937">
       <c r="A937" s="14"/>
-      <c r="D937" s="48"/>
+      <c r="D937" s="47"/>
     </row>
     <row r="938">
       <c r="A938" s="14"/>
-      <c r="D938" s="48"/>
+      <c r="D938" s="47"/>
     </row>
     <row r="939">
       <c r="A939" s="14"/>
-      <c r="D939" s="48"/>
+      <c r="D939" s="47"/>
     </row>
     <row r="940">
       <c r="A940" s="14"/>
-      <c r="D940" s="48"/>
+      <c r="D940" s="47"/>
     </row>
     <row r="941">
       <c r="A941" s="14"/>
-      <c r="D941" s="48"/>
+      <c r="D941" s="47"/>
     </row>
     <row r="942">
       <c r="A942" s="14"/>
-      <c r="D942" s="48"/>
+      <c r="D942" s="47"/>
     </row>
     <row r="943">
       <c r="A943" s="14"/>
-      <c r="D943" s="48"/>
+      <c r="D943" s="47"/>
     </row>
     <row r="944">
       <c r="A944" s="14"/>
-      <c r="D944" s="48"/>
+      <c r="D944" s="47"/>
     </row>
     <row r="945">
       <c r="A945" s="14"/>
-      <c r="D945" s="48"/>
+      <c r="D945" s="47"/>
     </row>
     <row r="946">
       <c r="A946" s="14"/>
-      <c r="D946" s="48"/>
+      <c r="D946" s="47"/>
     </row>
     <row r="947">
       <c r="A947" s="14"/>
-      <c r="D947" s="48"/>
+      <c r="D947" s="47"/>
     </row>
     <row r="948">
       <c r="A948" s="14"/>
-      <c r="D948" s="48"/>
+      <c r="D948" s="47"/>
     </row>
     <row r="949">
       <c r="A949" s="14"/>
-      <c r="D949" s="48"/>
+      <c r="D949" s="47"/>
     </row>
     <row r="950">
       <c r="A950" s="14"/>
-      <c r="D950" s="48"/>
+      <c r="D950" s="47"/>
     </row>
     <row r="951">
       <c r="A951" s="14"/>
-      <c r="D951" s="48"/>
+      <c r="D951" s="47"/>
     </row>
     <row r="952">
       <c r="A952" s="14"/>
-      <c r="D952" s="48"/>
+      <c r="D952" s="47"/>
     </row>
     <row r="953">
       <c r="A953" s="14"/>
-      <c r="D953" s="48"/>
+      <c r="D953" s="47"/>
     </row>
     <row r="954">
       <c r="A954" s="14"/>
-      <c r="D954" s="48"/>
+      <c r="D954" s="47"/>
     </row>
     <row r="955">
       <c r="A955" s="14"/>
-      <c r="D955" s="48"/>
+      <c r="D955" s="47"/>
     </row>
     <row r="956">
       <c r="A956" s="14"/>
-      <c r="D956" s="48"/>
+      <c r="D956" s="47"/>
     </row>
     <row r="957">
       <c r="A957" s="14"/>
-      <c r="D957" s="48"/>
+      <c r="D957" s="47"/>
     </row>
     <row r="958">
       <c r="A958" s="14"/>
-      <c r="D958" s="48"/>
+      <c r="D958" s="47"/>
     </row>
     <row r="959">
       <c r="A959" s="14"/>
-      <c r="D959" s="48"/>
+      <c r="D959" s="47"/>
     </row>
     <row r="960">
       <c r="A960" s="14"/>
-      <c r="D960" s="48"/>
+      <c r="D960" s="47"/>
     </row>
     <row r="961">
       <c r="A961" s="14"/>
-      <c r="D961" s="48"/>
+      <c r="D961" s="47"/>
     </row>
     <row r="962">
       <c r="A962" s="14"/>
-      <c r="D962" s="48"/>
+      <c r="D962" s="47"/>
     </row>
     <row r="963">
       <c r="A963" s="14"/>
-      <c r="D963" s="48"/>
+      <c r="D963" s="47"/>
     </row>
     <row r="964">
       <c r="A964" s="14"/>
-      <c r="D964" s="48"/>
+      <c r="D964" s="47"/>
     </row>
     <row r="965">
       <c r="A965" s="14"/>
-      <c r="D965" s="48"/>
+      <c r="D965" s="47"/>
     </row>
     <row r="966">
       <c r="A966" s="14"/>
-      <c r="D966" s="48"/>
+      <c r="D966" s="47"/>
     </row>
     <row r="967">
       <c r="A967" s="14"/>
-      <c r="D967" s="48"/>
+      <c r="D967" s="47"/>
     </row>
     <row r="968">
       <c r="A968" s="14"/>
-      <c r="D968" s="48"/>
+      <c r="D968" s="47"/>
     </row>
     <row r="969">
       <c r="A969" s="14"/>
-      <c r="D969" s="48"/>
+      <c r="D969" s="47"/>
     </row>
     <row r="970">
       <c r="A970" s="14"/>
-      <c r="D970" s="48"/>
+      <c r="D970" s="47"/>
     </row>
     <row r="971">
       <c r="A971" s="14"/>
-      <c r="D971" s="48"/>
+      <c r="D971" s="47"/>
     </row>
     <row r="972">
       <c r="A972" s="14"/>
-      <c r="D972" s="48"/>
+      <c r="D972" s="47"/>
     </row>
     <row r="973">
       <c r="A973" s="14"/>
-      <c r="D973" s="48"/>
+      <c r="D973" s="47"/>
     </row>
     <row r="974">
       <c r="A974" s="14"/>
-      <c r="D974" s="48"/>
+      <c r="D974" s="47"/>
     </row>
     <row r="975">
       <c r="A975" s="14"/>
-      <c r="D975" s="48"/>
+      <c r="D975" s="47"/>
     </row>
     <row r="976">
       <c r="A976" s="14"/>
-      <c r="D976" s="48"/>
+      <c r="D976" s="47"/>
     </row>
     <row r="977">
       <c r="A977" s="14"/>
-      <c r="D977" s="48"/>
+      <c r="D977" s="47"/>
     </row>
     <row r="978">
       <c r="A978" s="14"/>
-      <c r="D978" s="48"/>
+      <c r="D978" s="47"/>
     </row>
     <row r="979">
       <c r="A979" s="14"/>
-      <c r="D979" s="48"/>
+      <c r="D979" s="47"/>
     </row>
     <row r="980">
       <c r="A980" s="14"/>
-      <c r="D980" s="48"/>
+      <c r="D980" s="47"/>
     </row>
     <row r="981">
       <c r="A981" s="14"/>
-      <c r="D981" s="48"/>
+      <c r="D981" s="47"/>
     </row>
     <row r="982">
       <c r="A982" s="14"/>
-      <c r="D982" s="48"/>
+      <c r="D982" s="47"/>
     </row>
     <row r="983">
       <c r="A983" s="14"/>
-      <c r="D983" s="48"/>
+      <c r="D983" s="47"/>
     </row>
     <row r="984">
       <c r="A984" s="14"/>
-      <c r="D984" s="48"/>
+      <c r="D984" s="47"/>
     </row>
     <row r="985">
       <c r="A985" s="14"/>
-      <c r="D985" s="48"/>
+      <c r="D985" s="47"/>
     </row>
     <row r="986">
       <c r="A986" s="14"/>
-      <c r="D986" s="48"/>
+      <c r="D986" s="47"/>
     </row>
     <row r="987">
       <c r="A987" s="14"/>
-      <c r="D987" s="48"/>
+      <c r="D987" s="47"/>
     </row>
     <row r="988">
       <c r="A988" s="14"/>
-      <c r="D988" s="48"/>
+      <c r="D988" s="47"/>
     </row>
     <row r="989">
       <c r="A989" s="14"/>
-      <c r="D989" s="48"/>
+      <c r="D989" s="47"/>
     </row>
     <row r="990">
       <c r="A990" s="14"/>
-      <c r="D990" s="48"/>
+      <c r="D990" s="47"/>
     </row>
     <row r="991">
       <c r="A991" s="14"/>
-      <c r="D991" s="48"/>
+      <c r="D991" s="47"/>
     </row>
     <row r="992">
       <c r="A992" s="14"/>
-      <c r="D992" s="48"/>
+      <c r="D992" s="47"/>
     </row>
     <row r="993">
       <c r="A993" s="14"/>
-      <c r="D993" s="48"/>
+      <c r="D993" s="47"/>
     </row>
     <row r="994">
       <c r="A994" s="14"/>
-      <c r="D994" s="48"/>
+      <c r="D994" s="47"/>
     </row>
     <row r="995">
       <c r="A995" s="14"/>
-      <c r="D995" s="48"/>
+      <c r="D995" s="47"/>
     </row>
     <row r="996">
       <c r="A996" s="14"/>
-      <c r="D996" s="48"/>
+      <c r="D996" s="47"/>
     </row>
     <row r="997">
-      <c r="D997" s="48"/>
+      <c r="D997" s="47"/>
     </row>
     <row r="998">
-      <c r="D998" s="48"/>
+      <c r="D998" s="47"/>
     </row>
     <row r="999">
-      <c r="D999" s="48"/>
+      <c r="D999" s="47"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="48"/>
+      <c r="D1000" s="47"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
